--- a/templates/plantilla_ayudantes.xlsx
+++ b/templates/plantilla_ayudantes.xlsx
@@ -4,12 +4,14 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="20225"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="29660" windowHeight="17160" tabRatio="913"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25280" windowHeight="12800" tabRatio="913"/>
   </bookViews>
   <sheets>
     <sheet name="SOLICITUD DE ACCESO | PERSONAS" sheetId="14" r:id="rId1"/>
+    <sheet name="CC | 09-TCC &quot;CATALOGO DE CARGO&quot;" sheetId="11" state="hidden" r:id="rId2"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'CC | 09-TCC "CATALOGO DE CARGO"'!$A$1:$F$98</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'SOLICITUD DE ACCESO | PERSONAS'!$1:$10</definedName>
   </definedNames>
   <calcPr calcId="140001" concurrentCalc="0"/>
@@ -262,7 +264,310 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="163">
+  <si>
+    <t>DESCRIPCION DEL CARGO</t>
+  </si>
+  <si>
+    <t>CODIGO</t>
+  </si>
+  <si>
+    <t>GERENTE GENERAL</t>
+  </si>
+  <si>
+    <t>SUPERVISOR DE MUELLE Y ACOPLE</t>
+  </si>
+  <si>
+    <t>AUXILIAR DE ESTIBA</t>
+  </si>
+  <si>
+    <t>CAPORAL DE MUELLE</t>
+  </si>
+  <si>
+    <t>CHEQUE DE MUELLE</t>
+  </si>
+  <si>
+    <t>OPERADOR DE GRUA DE BUQUE (WINCHERO) DE PRIMERA CATEGORIA</t>
+  </si>
+  <si>
+    <t>ESTIBADOR</t>
+  </si>
+  <si>
+    <t>MUELLERO</t>
+  </si>
+  <si>
+    <t>MUELLERO BUQUE TANQUE</t>
+  </si>
+  <si>
+    <t>AMARRADOR</t>
+  </si>
+  <si>
+    <t>OPERADOR DE GRUA</t>
+  </si>
+  <si>
+    <t>ENCARGADO DE TRANSPORTE</t>
+  </si>
+  <si>
+    <t>AUDITOR INTERNO</t>
+  </si>
+  <si>
+    <t>JEFE DE PERSONAL</t>
+  </si>
+  <si>
+    <t>CONTADOR Y PAGADOR</t>
+  </si>
+  <si>
+    <t>CHEQUE DE PERSONAL</t>
+  </si>
+  <si>
+    <t>UTILERO</t>
+  </si>
+  <si>
+    <t>ORDENANZA</t>
+  </si>
+  <si>
+    <t>CHEQUE DE PATIOS Y BODEGAS</t>
+  </si>
+  <si>
+    <t>OPERADOR DE BASCULA</t>
+  </si>
+  <si>
+    <t>MOTORISTA</t>
+  </si>
+  <si>
+    <t>SUPERINTENDENTE</t>
+  </si>
+  <si>
+    <t>AGRONOMO</t>
+  </si>
+  <si>
+    <t>ASISTENTE ADMINISTRATIVA</t>
+  </si>
+  <si>
+    <t>SUPERVISOR</t>
+  </si>
+  <si>
+    <t>BODEGUERO</t>
+  </si>
+  <si>
+    <t>OPERADOR DE TREN DE ASEO</t>
+  </si>
+  <si>
+    <t>OPERADOR DE BOB- CAT</t>
+  </si>
+  <si>
+    <t>DIBUJANTE</t>
+  </si>
+  <si>
+    <t>PINTOR</t>
+  </si>
+  <si>
+    <t>TAPICERO</t>
+  </si>
+  <si>
+    <t>HOJALATERO</t>
+  </si>
+  <si>
+    <t>FONTANERO</t>
+  </si>
+  <si>
+    <t>ALBA¥IL</t>
+  </si>
+  <si>
+    <t>CARPINTERO</t>
+  </si>
+  <si>
+    <t>JARDINERO</t>
+  </si>
+  <si>
+    <t>TECNICO DE BOMBA DE AGUA</t>
+  </si>
+  <si>
+    <t>AUXILIAR DE TREN DE ASEO</t>
+  </si>
+  <si>
+    <t>OPERADOR CAMION CISTERNA</t>
+  </si>
+  <si>
+    <t>AUXILIAR DE LIMPIEZA</t>
+  </si>
+  <si>
+    <t>AUXILIAR DE CHAPODA</t>
+  </si>
+  <si>
+    <t>AUXILIAR DE MANTENIMIENTO</t>
+  </si>
+  <si>
+    <t>OPERADOR DE EQUIPOS DE PRIMERA CATEGORIA</t>
+  </si>
+  <si>
+    <t>GERENTE DE SERVICIOS</t>
+  </si>
+  <si>
+    <t>JEFE DE TALLER MECANICO</t>
+  </si>
+  <si>
+    <t>MECANICO</t>
+  </si>
+  <si>
+    <t>ELECTRICISTA</t>
+  </si>
+  <si>
+    <t>SOLDADOR</t>
+  </si>
+  <si>
+    <t>ENGRASADOR</t>
+  </si>
+  <si>
+    <t>TORNERO</t>
+  </si>
+  <si>
+    <t>AUXILIAR MECANICO</t>
+  </si>
+  <si>
+    <t>OBRERO NO CALIFICADO</t>
+  </si>
+  <si>
+    <t>AUXILIAR DE OFICINA</t>
+  </si>
+  <si>
+    <t>GERENTE DE PROYECTOS</t>
+  </si>
+  <si>
+    <t>TECNICO ELECTRICISTA</t>
+  </si>
+  <si>
+    <t>TECNICO MECANICO</t>
+  </si>
+  <si>
+    <t>MECANICO  1A. CATEGORIA</t>
+  </si>
+  <si>
+    <t>MECANICO 2A. CATEGORIA</t>
+  </si>
+  <si>
+    <t>GERENTE DIVISION</t>
+  </si>
+  <si>
+    <t>INGENIERO DE PROYECTOS</t>
+  </si>
+  <si>
+    <t>SUBGERENTE DE DIVISION</t>
+  </si>
+  <si>
+    <t>SUPERVISOR DE PROYECTOS</t>
+  </si>
+  <si>
+    <t>JEFE DE MONTAJES Y SERVICIOS</t>
+  </si>
+  <si>
+    <t>SUPERVISOR DE SERVICIOS</t>
+  </si>
+  <si>
+    <t>TECNICO DE SERVICIOS</t>
+  </si>
+  <si>
+    <t>INGENIERO DE SERVICIOS</t>
+  </si>
+  <si>
+    <t>CONTROL ADMINISTRATIVO</t>
+  </si>
+  <si>
+    <t>AUXILIAR ADMINISTRATIVO</t>
+  </si>
+  <si>
+    <t>SUPERVISOR ELECTRICISTA</t>
+  </si>
+  <si>
+    <t>SECRETARIA</t>
+  </si>
+  <si>
+    <t>OBRERO CALIFICADO</t>
+  </si>
+  <si>
+    <t>MARINERO</t>
+  </si>
+  <si>
+    <t>PEON DE BODEGAS</t>
+  </si>
+  <si>
+    <t>VIGILANTE</t>
+  </si>
+  <si>
+    <t>REPRESENTANTE LEGAL</t>
+  </si>
+  <si>
+    <t>GERENTE ADMINISTRATIVO</t>
+  </si>
+  <si>
+    <t>BANDEROS</t>
+  </si>
+  <si>
+    <t>AUXILIAR DE UTILERIA</t>
+  </si>
+  <si>
+    <t>TRINCADORES</t>
+  </si>
+  <si>
+    <t>CAPORAL DE AMARRE</t>
+  </si>
+  <si>
+    <t>FICHERO</t>
+  </si>
+  <si>
+    <t>PALERO</t>
+  </si>
+  <si>
+    <t>CAPORAL BUQUE TANQUE</t>
+  </si>
+  <si>
+    <t>ENCARGADO DE TRANSFERENCIA</t>
+  </si>
+  <si>
+    <t>SUPERVISOR A BORDO</t>
+  </si>
+  <si>
+    <t>OPERADOR DE UNIDAD DECARGA</t>
+  </si>
+  <si>
+    <t>WINCHERO EN PRACTICA</t>
+  </si>
+  <si>
+    <t>JEFE DE OPERACIONES</t>
+  </si>
+  <si>
+    <t>OPERADOR DE GRUA DE BUQUE (WINCHERO) DE SEGUNDA CATEGORIA</t>
+  </si>
+  <si>
+    <t>OPERADOR DE CONTROL DE BANDAS</t>
+  </si>
+  <si>
+    <t>OFERTADO</t>
+  </si>
+  <si>
+    <t>SUPERVISOR DE ABORDO</t>
+  </si>
+  <si>
+    <t>SUPERVISOR GENERAL</t>
+  </si>
+  <si>
+    <t>OPERADOR DE EQUIPO PORTUARIO PRIMERA CATEGORIA</t>
+  </si>
+  <si>
+    <t>OPERADOR DE EQUIPO PORTUARIO SEGUNDA CATEGORIA</t>
+  </si>
+  <si>
+    <t>EMPRESA # 1</t>
+  </si>
+  <si>
+    <t>EMPRESA # 2</t>
+  </si>
+  <si>
+    <t>EMPRESA # 3</t>
+  </si>
+  <si>
+    <t>PRACTICANTE</t>
+  </si>
   <si>
     <t>OBSERVACIONES ADICIONALES</t>
   </si>
@@ -408,6 +713,9 @@
     <t>P-593658</t>
   </si>
   <si>
+    <t>PERSONAL DE TRANSPORTE PARA TRABAJAR EN DESEMBARQUE DE MV. CHRISTINA B</t>
+  </si>
+  <si>
     <t>Jose Manuel Zamora DUI 03655270-0</t>
   </si>
   <si>
@@ -417,7 +725,34 @@
     <t>TRANSPORTE ESMERALDA</t>
   </si>
   <si>
-    <t>PERSONAL DE TRANSPORTE PARA TRABAJAR EN DESEMBARQUE</t>
+    <t>Ernesto Antonio Aguilar Malia</t>
+  </si>
+  <si>
+    <t>03644608-0</t>
+  </si>
+  <si>
+    <t>Saul Alberto Aguilar Malia</t>
+  </si>
+  <si>
+    <t>04195525-6</t>
+  </si>
+  <si>
+    <t>Billy Alfredo Mendez Suriano</t>
+  </si>
+  <si>
+    <t>02488620-8</t>
+  </si>
+  <si>
+    <t>Ronald Wilfredo Mendoza Fuentes</t>
+  </si>
+  <si>
+    <t>05050915-1</t>
+  </si>
+  <si>
+    <t>Roberto Antonio Gaspar Aguilar</t>
+  </si>
+  <si>
+    <t>03240994-7</t>
   </si>
 </sst>
 </file>
@@ -427,7 +762,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="25" x14ac:knownFonts="1">
+  <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -437,6 +772,12 @@
     </font>
     <font>
       <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -457,6 +798,12 @@
       <sz val="8"/>
       <color indexed="9"/>
       <name val="Trebuchet MS"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
@@ -591,7 +938,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -611,7 +958,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor indexed="56"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor indexed="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="44"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="49"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -729,103 +1094,131 @@
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="100">
+  <cellXfs count="114">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="2" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="2" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="18" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -834,37 +1227,181 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="17" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="22" fontId="4" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="22" fontId="4" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -873,152 +1410,8 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="24" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="26" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="22" fontId="3" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="22" fontId="3" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1471,30 +1864,30 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
+      <selection pane="bottomLeft" activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="11" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="6.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="25" style="7" customWidth="1"/>
-    <col min="3" max="3" width="29.1640625" style="8" customWidth="1"/>
-    <col min="4" max="4" width="25.5" style="8" customWidth="1"/>
-    <col min="5" max="5" width="15.83203125" style="8" customWidth="1"/>
-    <col min="6" max="6" width="18.6640625" style="8" customWidth="1"/>
+    <col min="2" max="2" width="25" style="21" customWidth="1"/>
+    <col min="3" max="3" width="29.1640625" style="22" customWidth="1"/>
+    <col min="4" max="4" width="25.5" style="22" customWidth="1"/>
+    <col min="5" max="5" width="15.83203125" style="22" customWidth="1"/>
+    <col min="6" max="6" width="18.6640625" style="22" customWidth="1"/>
     <col min="7" max="7" width="31.5" style="1" customWidth="1"/>
     <col min="8" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="39.75" customHeight="1">
-      <c r="B1" s="93" t="s">
-        <v>14</v>
-      </c>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
-      <c r="E1" s="93"/>
-      <c r="F1" s="93"/>
-      <c r="G1" s="93"/>
+      <c r="B1" s="100" t="s">
+        <v>115</v>
+      </c>
+      <c r="C1" s="100"/>
+      <c r="D1" s="100"/>
+      <c r="E1" s="100"/>
+      <c r="F1" s="100"/>
+      <c r="G1" s="100"/>
     </row>
     <row r="2" spans="1:7">
       <c r="B2" s="5"/>
@@ -1504,937 +1897,967 @@
       <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:7" ht="18" customHeight="1">
-      <c r="B3" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="91" t="s">
-        <v>50</v>
-      </c>
-      <c r="D3" s="92"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="12"/>
+      <c r="B3" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="C3" s="98" t="s">
+        <v>152</v>
+      </c>
+      <c r="D3" s="99"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="26"/>
     </row>
     <row r="4" spans="1:7" ht="18" customHeight="1">
-      <c r="B4" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="91" t="s">
-        <v>48</v>
-      </c>
-      <c r="D4" s="92"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="12"/>
+      <c r="B4" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="C4" s="98" t="s">
+        <v>150</v>
+      </c>
+      <c r="D4" s="99"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="26"/>
     </row>
     <row r="5" spans="1:7" ht="18" customHeight="1">
-      <c r="B5" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="15"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="12"/>
+      <c r="B5" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="C5" s="29"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="26"/>
     </row>
     <row r="6" spans="1:7" ht="18" customHeight="1">
-      <c r="B6" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="96"/>
-      <c r="D6" s="97"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="12"/>
+      <c r="B6" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="C6" s="103"/>
+      <c r="D6" s="104"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="26"/>
     </row>
     <row r="7" spans="1:7" ht="30" customHeight="1">
-      <c r="A7" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="16"/>
-      <c r="C7" s="96" t="s">
-        <v>49</v>
-      </c>
-      <c r="D7" s="97"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="12"/>
+      <c r="A7" s="30" t="s">
+        <v>112</v>
+      </c>
+      <c r="B7" s="30"/>
+      <c r="C7" s="103" t="s">
+        <v>151</v>
+      </c>
+      <c r="D7" s="104"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="26"/>
     </row>
     <row r="8" spans="1:7" ht="21.75" customHeight="1">
-      <c r="B8" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="98"/>
-      <c r="D8" s="99"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="12"/>
+      <c r="B8" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="C8" s="105"/>
+      <c r="D8" s="106"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="26"/>
     </row>
     <row r="9" spans="1:7" ht="68.25" customHeight="1">
-      <c r="B9" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="12"/>
+      <c r="B9" s="23" t="s">
+        <v>106</v>
+      </c>
+      <c r="C9" s="31" t="s">
+        <v>149</v>
+      </c>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="26"/>
     </row>
     <row r="10" spans="1:7" s="4" customFormat="1" ht="36" customHeight="1">
-      <c r="A10" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10" s="94" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10" s="95"/>
+      <c r="A10" s="27" t="s">
+        <v>107</v>
+      </c>
+      <c r="B10" s="101" t="s">
+        <v>105</v>
+      </c>
+      <c r="C10" s="102"/>
       <c r="D10" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="17" customHeight="1">
+      <c r="A11" s="32">
         <v>1</v>
       </c>
-      <c r="E10" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="17" customHeight="1">
-      <c r="A11" s="18">
-        <v>1</v>
-      </c>
-      <c r="B11" s="79"/>
-      <c r="C11" s="80"/>
-      <c r="D11" s="56"/>
-      <c r="E11" s="56"/>
-      <c r="F11" s="51"/>
-      <c r="G11" s="52"/>
+      <c r="B11" s="92" t="s">
+        <v>153</v>
+      </c>
+      <c r="C11" s="93"/>
+      <c r="D11" s="113" t="s">
+        <v>154</v>
+      </c>
+      <c r="E11" s="113" t="s">
+        <v>117</v>
+      </c>
+      <c r="F11" s="65"/>
+      <c r="G11" s="66"/>
     </row>
     <row r="12" spans="1:7" ht="17" customHeight="1">
-      <c r="A12" s="18">
+      <c r="A12" s="32">
         <f>A11+1</f>
         <v>2</v>
       </c>
-      <c r="B12" s="79"/>
-      <c r="C12" s="80"/>
-      <c r="D12" s="56"/>
-      <c r="E12" s="56"/>
-      <c r="F12" s="51"/>
-      <c r="G12" s="52"/>
+      <c r="B12" s="92" t="s">
+        <v>155</v>
+      </c>
+      <c r="C12" s="93"/>
+      <c r="D12" s="113" t="s">
+        <v>156</v>
+      </c>
+      <c r="E12" s="113" t="s">
+        <v>117</v>
+      </c>
+      <c r="F12" s="65"/>
+      <c r="G12" s="66"/>
     </row>
     <row r="13" spans="1:7" ht="17" customHeight="1">
-      <c r="A13" s="18">
+      <c r="A13" s="32">
         <f t="shared" ref="A13:A71" si="0">A12+1</f>
         <v>3</v>
       </c>
-      <c r="B13" s="79"/>
-      <c r="C13" s="80"/>
-      <c r="D13" s="56"/>
-      <c r="E13" s="56"/>
-      <c r="F13" s="53"/>
-      <c r="G13" s="52"/>
+      <c r="B13" s="92" t="s">
+        <v>157</v>
+      </c>
+      <c r="C13" s="93"/>
+      <c r="D13" s="113" t="s">
+        <v>158</v>
+      </c>
+      <c r="E13" s="113" t="s">
+        <v>117</v>
+      </c>
+      <c r="F13" s="67"/>
+      <c r="G13" s="66"/>
     </row>
     <row r="14" spans="1:7" ht="17" customHeight="1">
-      <c r="A14" s="18">
+      <c r="A14" s="32">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B14" s="79"/>
-      <c r="C14" s="80"/>
-      <c r="D14" s="56"/>
-      <c r="E14" s="56"/>
-      <c r="F14" s="53"/>
-      <c r="G14" s="52"/>
+      <c r="B14" s="92" t="s">
+        <v>159</v>
+      </c>
+      <c r="C14" s="93"/>
+      <c r="D14" s="113" t="s">
+        <v>160</v>
+      </c>
+      <c r="E14" s="113" t="s">
+        <v>117</v>
+      </c>
+      <c r="F14" s="67"/>
+      <c r="G14" s="66"/>
     </row>
     <row r="15" spans="1:7" ht="17" customHeight="1">
-      <c r="A15" s="18">
+      <c r="A15" s="32">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B15" s="79"/>
-      <c r="C15" s="80"/>
-      <c r="D15" s="56"/>
-      <c r="E15" s="56"/>
-      <c r="F15" s="53"/>
-      <c r="G15" s="52"/>
+      <c r="B15" s="92" t="s">
+        <v>161</v>
+      </c>
+      <c r="C15" s="93"/>
+      <c r="D15" s="113" t="s">
+        <v>162</v>
+      </c>
+      <c r="E15" s="113" t="s">
+        <v>117</v>
+      </c>
+      <c r="F15" s="67"/>
+      <c r="G15" s="66"/>
     </row>
     <row r="16" spans="1:7" ht="17" customHeight="1">
-      <c r="A16" s="18">
+      <c r="A16" s="32">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B16" s="81"/>
-      <c r="C16" s="82"/>
-      <c r="D16" s="54"/>
-      <c r="E16" s="55"/>
-      <c r="F16" s="53"/>
-      <c r="G16" s="52"/>
+      <c r="B16" s="94"/>
+      <c r="C16" s="95"/>
+      <c r="D16" s="68"/>
+      <c r="E16" s="69"/>
+      <c r="F16" s="67"/>
+      <c r="G16" s="66"/>
     </row>
     <row r="17" spans="1:7" ht="17" customHeight="1">
-      <c r="A17" s="18">
+      <c r="A17" s="32">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B17" s="79"/>
-      <c r="C17" s="80"/>
-      <c r="D17" s="54"/>
-      <c r="E17" s="55"/>
-      <c r="F17" s="22"/>
-      <c r="G17" s="52"/>
+      <c r="B17" s="92"/>
+      <c r="C17" s="93"/>
+      <c r="D17" s="68"/>
+      <c r="E17" s="69"/>
+      <c r="F17" s="36"/>
+      <c r="G17" s="66"/>
     </row>
     <row r="18" spans="1:7" ht="17" customHeight="1">
-      <c r="A18" s="18">
+      <c r="A18" s="32">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B18" s="79"/>
-      <c r="C18" s="80"/>
-      <c r="D18" s="54"/>
-      <c r="E18" s="55"/>
-      <c r="F18" s="22"/>
-      <c r="G18" s="52"/>
+      <c r="B18" s="92"/>
+      <c r="C18" s="93"/>
+      <c r="D18" s="68"/>
+      <c r="E18" s="69"/>
+      <c r="F18" s="36"/>
+      <c r="G18" s="66"/>
     </row>
     <row r="19" spans="1:7" ht="17" customHeight="1">
-      <c r="A19" s="18">
+      <c r="A19" s="32">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B19" s="79"/>
-      <c r="C19" s="80"/>
-      <c r="D19" s="54"/>
-      <c r="E19" s="55"/>
-      <c r="F19" s="22"/>
-      <c r="G19" s="52"/>
+      <c r="B19" s="92"/>
+      <c r="C19" s="93"/>
+      <c r="D19" s="68"/>
+      <c r="E19" s="69"/>
+      <c r="F19" s="36"/>
+      <c r="G19" s="66"/>
     </row>
     <row r="20" spans="1:7" ht="17" customHeight="1">
-      <c r="A20" s="18">
+      <c r="A20" s="32">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B20" s="81"/>
-      <c r="C20" s="82"/>
-      <c r="D20" s="54"/>
-      <c r="E20" s="55"/>
-      <c r="F20" s="22"/>
-      <c r="G20" s="52"/>
+      <c r="B20" s="94"/>
+      <c r="C20" s="95"/>
+      <c r="D20" s="68"/>
+      <c r="E20" s="69"/>
+      <c r="F20" s="36"/>
+      <c r="G20" s="66"/>
     </row>
     <row r="21" spans="1:7" ht="17" customHeight="1">
-      <c r="A21" s="18">
+      <c r="A21" s="32">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B21" s="85"/>
-      <c r="C21" s="86"/>
-      <c r="D21" s="34"/>
-      <c r="E21" s="35"/>
-      <c r="F21" s="22"/>
-      <c r="G21" s="21"/>
+      <c r="B21" s="107"/>
+      <c r="C21" s="108"/>
+      <c r="D21" s="48"/>
+      <c r="E21" s="49"/>
+      <c r="F21" s="36"/>
+      <c r="G21" s="35"/>
     </row>
     <row r="22" spans="1:7" ht="17" customHeight="1">
-      <c r="A22" s="18">
+      <c r="A22" s="32">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B22" s="87"/>
-      <c r="C22" s="88"/>
-      <c r="D22" s="36"/>
-      <c r="E22" s="37"/>
-      <c r="F22" s="23"/>
-      <c r="G22" s="21"/>
+      <c r="B22" s="109"/>
+      <c r="C22" s="110"/>
+      <c r="D22" s="50"/>
+      <c r="E22" s="51"/>
+      <c r="F22" s="37"/>
+      <c r="G22" s="35"/>
     </row>
     <row r="23" spans="1:7" ht="17" customHeight="1">
-      <c r="A23" s="18">
+      <c r="A23" s="32">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B23" s="89"/>
-      <c r="C23" s="90"/>
-      <c r="D23" s="38"/>
-      <c r="E23" s="28"/>
-      <c r="F23" s="39"/>
-      <c r="G23" s="24"/>
+      <c r="B23" s="111"/>
+      <c r="C23" s="112"/>
+      <c r="D23" s="52"/>
+      <c r="E23" s="42"/>
+      <c r="F23" s="53"/>
+      <c r="G23" s="38"/>
     </row>
     <row r="24" spans="1:7" ht="17" customHeight="1">
-      <c r="A24" s="18">
+      <c r="A24" s="32">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B24" s="83"/>
-      <c r="C24" s="84"/>
-      <c r="D24" s="40"/>
-      <c r="E24" s="19"/>
-      <c r="F24" s="39"/>
-      <c r="G24" s="21"/>
+      <c r="B24" s="96"/>
+      <c r="C24" s="97"/>
+      <c r="D24" s="54"/>
+      <c r="E24" s="33"/>
+      <c r="F24" s="53"/>
+      <c r="G24" s="35"/>
     </row>
     <row r="25" spans="1:7" ht="17" customHeight="1">
-      <c r="A25" s="18">
+      <c r="A25" s="32">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B25" s="83"/>
-      <c r="C25" s="84"/>
-      <c r="D25" s="40"/>
-      <c r="E25" s="28"/>
-      <c r="F25" s="25"/>
-      <c r="G25" s="21"/>
+      <c r="B25" s="96"/>
+      <c r="C25" s="97"/>
+      <c r="D25" s="54"/>
+      <c r="E25" s="42"/>
+      <c r="F25" s="39"/>
+      <c r="G25" s="35"/>
     </row>
     <row r="26" spans="1:7" ht="17" customHeight="1">
-      <c r="A26" s="18">
+      <c r="A26" s="32">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B26" s="75"/>
-      <c r="C26" s="76"/>
-      <c r="D26" s="41"/>
-      <c r="E26" s="41"/>
-      <c r="F26" s="20"/>
-      <c r="G26" s="21"/>
+      <c r="B26" s="88"/>
+      <c r="C26" s="89"/>
+      <c r="D26" s="55"/>
+      <c r="E26" s="55"/>
+      <c r="F26" s="34"/>
+      <c r="G26" s="35"/>
     </row>
     <row r="27" spans="1:7" ht="17" customHeight="1">
-      <c r="A27" s="18">
+      <c r="A27" s="32">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B27" s="75"/>
-      <c r="C27" s="76"/>
-      <c r="D27" s="41"/>
-      <c r="E27" s="41"/>
-      <c r="F27" s="20"/>
-      <c r="G27" s="21"/>
+      <c r="B27" s="88"/>
+      <c r="C27" s="89"/>
+      <c r="D27" s="55"/>
+      <c r="E27" s="55"/>
+      <c r="F27" s="34"/>
+      <c r="G27" s="35"/>
     </row>
     <row r="28" spans="1:7" ht="17" customHeight="1">
-      <c r="A28" s="18">
+      <c r="A28" s="32">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B28" s="75"/>
-      <c r="C28" s="76"/>
-      <c r="D28" s="41"/>
-      <c r="E28" s="41"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="21"/>
+      <c r="B28" s="88"/>
+      <c r="C28" s="89"/>
+      <c r="D28" s="55"/>
+      <c r="E28" s="55"/>
+      <c r="F28" s="34"/>
+      <c r="G28" s="35"/>
     </row>
     <row r="29" spans="1:7" ht="17" customHeight="1">
-      <c r="A29" s="18">
+      <c r="A29" s="32">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B29" s="75"/>
-      <c r="C29" s="76"/>
-      <c r="D29" s="41"/>
-      <c r="E29" s="41"/>
-      <c r="F29" s="22"/>
-      <c r="G29" s="21"/>
+      <c r="B29" s="88"/>
+      <c r="C29" s="89"/>
+      <c r="D29" s="55"/>
+      <c r="E29" s="55"/>
+      <c r="F29" s="36"/>
+      <c r="G29" s="35"/>
     </row>
     <row r="30" spans="1:7" ht="17" customHeight="1">
-      <c r="A30" s="18">
+      <c r="A30" s="32">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B30" s="75"/>
-      <c r="C30" s="76"/>
-      <c r="D30" s="41"/>
-      <c r="E30" s="41"/>
-      <c r="F30" s="22"/>
-      <c r="G30" s="21"/>
+      <c r="B30" s="88"/>
+      <c r="C30" s="89"/>
+      <c r="D30" s="55"/>
+      <c r="E30" s="55"/>
+      <c r="F30" s="36"/>
+      <c r="G30" s="35"/>
     </row>
     <row r="31" spans="1:7" ht="17" customHeight="1">
-      <c r="A31" s="18">
+      <c r="A31" s="32">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B31" s="75"/>
-      <c r="C31" s="76"/>
-      <c r="D31" s="41"/>
-      <c r="E31" s="41"/>
-      <c r="F31" s="22"/>
-      <c r="G31" s="21"/>
+      <c r="B31" s="88"/>
+      <c r="C31" s="89"/>
+      <c r="D31" s="55"/>
+      <c r="E31" s="55"/>
+      <c r="F31" s="36"/>
+      <c r="G31" s="35"/>
     </row>
     <row r="32" spans="1:7" ht="17" customHeight="1">
-      <c r="A32" s="18">
+      <c r="A32" s="32">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B32" s="75"/>
-      <c r="C32" s="76"/>
-      <c r="D32" s="42"/>
-      <c r="E32" s="42"/>
-      <c r="F32" s="42"/>
-      <c r="G32" s="26"/>
+      <c r="B32" s="88"/>
+      <c r="C32" s="89"/>
+      <c r="D32" s="56"/>
+      <c r="E32" s="56"/>
+      <c r="F32" s="56"/>
+      <c r="G32" s="40"/>
     </row>
     <row r="33" spans="1:7" ht="17" customHeight="1">
-      <c r="A33" s="18">
+      <c r="A33" s="32">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B33" s="75"/>
-      <c r="C33" s="76"/>
-      <c r="D33" s="42"/>
-      <c r="E33" s="42"/>
-      <c r="F33" s="42"/>
-      <c r="G33" s="26"/>
+      <c r="B33" s="88"/>
+      <c r="C33" s="89"/>
+      <c r="D33" s="56"/>
+      <c r="E33" s="56"/>
+      <c r="F33" s="56"/>
+      <c r="G33" s="40"/>
     </row>
     <row r="34" spans="1:7" ht="17" customHeight="1">
-      <c r="A34" s="18">
+      <c r="A34" s="32">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B34" s="75"/>
-      <c r="C34" s="76"/>
-      <c r="D34" s="42"/>
-      <c r="E34" s="42"/>
-      <c r="F34" s="42"/>
-      <c r="G34" s="26"/>
+      <c r="B34" s="88"/>
+      <c r="C34" s="89"/>
+      <c r="D34" s="56"/>
+      <c r="E34" s="56"/>
+      <c r="F34" s="56"/>
+      <c r="G34" s="40"/>
     </row>
     <row r="35" spans="1:7" ht="17" customHeight="1">
-      <c r="A35" s="18">
+      <c r="A35" s="32">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="B35" s="75"/>
-      <c r="C35" s="76"/>
-      <c r="D35" s="43"/>
-      <c r="E35" s="42"/>
-      <c r="F35" s="42"/>
-      <c r="G35" s="26"/>
+      <c r="B35" s="88"/>
+      <c r="C35" s="89"/>
+      <c r="D35" s="57"/>
+      <c r="E35" s="56"/>
+      <c r="F35" s="56"/>
+      <c r="G35" s="40"/>
     </row>
     <row r="36" spans="1:7" ht="17" customHeight="1">
-      <c r="A36" s="18">
+      <c r="A36" s="32">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="B36" s="75"/>
-      <c r="C36" s="76"/>
-      <c r="D36" s="42"/>
-      <c r="E36" s="42"/>
-      <c r="F36" s="42"/>
-      <c r="G36" s="26"/>
+      <c r="B36" s="88"/>
+      <c r="C36" s="89"/>
+      <c r="D36" s="56"/>
+      <c r="E36" s="56"/>
+      <c r="F36" s="56"/>
+      <c r="G36" s="40"/>
     </row>
     <row r="37" spans="1:7" ht="17" customHeight="1">
-      <c r="A37" s="18">
+      <c r="A37" s="32">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="B37" s="75"/>
-      <c r="C37" s="76"/>
-      <c r="D37" s="42"/>
-      <c r="E37" s="42"/>
-      <c r="F37" s="42"/>
-      <c r="G37" s="26"/>
+      <c r="B37" s="88"/>
+      <c r="C37" s="89"/>
+      <c r="D37" s="56"/>
+      <c r="E37" s="56"/>
+      <c r="F37" s="56"/>
+      <c r="G37" s="40"/>
     </row>
     <row r="38" spans="1:7" ht="17" customHeight="1">
-      <c r="A38" s="18">
+      <c r="A38" s="32">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="B38" s="75"/>
-      <c r="C38" s="76"/>
-      <c r="D38" s="42"/>
-      <c r="E38" s="42"/>
-      <c r="F38" s="42"/>
-      <c r="G38" s="26"/>
+      <c r="B38" s="88"/>
+      <c r="C38" s="89"/>
+      <c r="D38" s="56"/>
+      <c r="E38" s="56"/>
+      <c r="F38" s="56"/>
+      <c r="G38" s="40"/>
     </row>
     <row r="39" spans="1:7" ht="17" customHeight="1">
-      <c r="A39" s="18">
+      <c r="A39" s="32">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="B39" s="75"/>
-      <c r="C39" s="76"/>
-      <c r="D39" s="42"/>
-      <c r="E39" s="42"/>
-      <c r="F39" s="42"/>
-      <c r="G39" s="26"/>
+      <c r="B39" s="88"/>
+      <c r="C39" s="89"/>
+      <c r="D39" s="56"/>
+      <c r="E39" s="56"/>
+      <c r="F39" s="56"/>
+      <c r="G39" s="40"/>
     </row>
     <row r="40" spans="1:7" ht="17" customHeight="1">
-      <c r="A40" s="18">
+      <c r="A40" s="32">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="B40" s="75"/>
-      <c r="C40" s="76"/>
-      <c r="D40" s="42"/>
-      <c r="E40" s="42"/>
-      <c r="F40" s="42"/>
-      <c r="G40" s="26"/>
+      <c r="B40" s="88"/>
+      <c r="C40" s="89"/>
+      <c r="D40" s="56"/>
+      <c r="E40" s="56"/>
+      <c r="F40" s="56"/>
+      <c r="G40" s="40"/>
     </row>
     <row r="41" spans="1:7" ht="17" customHeight="1">
-      <c r="A41" s="18">
+      <c r="A41" s="32">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="B41" s="77"/>
-      <c r="C41" s="78"/>
-      <c r="D41" s="21"/>
-      <c r="E41" s="44"/>
-      <c r="F41" s="45"/>
-      <c r="G41" s="26"/>
+      <c r="B41" s="90"/>
+      <c r="C41" s="91"/>
+      <c r="D41" s="35"/>
+      <c r="E41" s="58"/>
+      <c r="F41" s="59"/>
+      <c r="G41" s="40"/>
     </row>
     <row r="42" spans="1:7" ht="17" customHeight="1">
-      <c r="A42" s="18">
+      <c r="A42" s="32">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="B42" s="77"/>
-      <c r="C42" s="78"/>
-      <c r="D42" s="21"/>
-      <c r="E42" s="42"/>
-      <c r="F42" s="42"/>
-      <c r="G42" s="26"/>
+      <c r="B42" s="90"/>
+      <c r="C42" s="91"/>
+      <c r="D42" s="35"/>
+      <c r="E42" s="56"/>
+      <c r="F42" s="56"/>
+      <c r="G42" s="40"/>
     </row>
     <row r="43" spans="1:7" ht="17" customHeight="1">
-      <c r="A43" s="18">
+      <c r="A43" s="32">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="B43" s="73"/>
-      <c r="C43" s="74"/>
-      <c r="D43" s="46"/>
-      <c r="E43" s="46"/>
-      <c r="F43" s="25"/>
-      <c r="G43" s="21"/>
+      <c r="B43" s="86"/>
+      <c r="C43" s="87"/>
+      <c r="D43" s="60"/>
+      <c r="E43" s="60"/>
+      <c r="F43" s="39"/>
+      <c r="G43" s="35"/>
     </row>
     <row r="44" spans="1:7" ht="17" customHeight="1">
-      <c r="A44" s="18">
+      <c r="A44" s="32">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="B44" s="67"/>
-      <c r="C44" s="68"/>
-      <c r="D44" s="24"/>
-      <c r="E44" s="24"/>
-      <c r="F44" s="25"/>
-      <c r="G44" s="21"/>
+      <c r="B44" s="80"/>
+      <c r="C44" s="81"/>
+      <c r="D44" s="38"/>
+      <c r="E44" s="38"/>
+      <c r="F44" s="39"/>
+      <c r="G44" s="35"/>
     </row>
     <row r="45" spans="1:7" ht="17" customHeight="1">
-      <c r="A45" s="18">
+      <c r="A45" s="32">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="B45" s="67"/>
-      <c r="C45" s="68"/>
-      <c r="D45" s="24"/>
-      <c r="E45" s="24"/>
-      <c r="F45" s="25"/>
-      <c r="G45" s="21"/>
+      <c r="B45" s="80"/>
+      <c r="C45" s="81"/>
+      <c r="D45" s="38"/>
+      <c r="E45" s="38"/>
+      <c r="F45" s="39"/>
+      <c r="G45" s="35"/>
     </row>
     <row r="46" spans="1:7" ht="17" customHeight="1">
-      <c r="A46" s="18">
+      <c r="A46" s="32">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="B46" s="71"/>
-      <c r="C46" s="72"/>
-      <c r="D46" s="47"/>
-      <c r="E46" s="24"/>
-      <c r="F46" s="48"/>
-      <c r="G46" s="21"/>
+      <c r="B46" s="84"/>
+      <c r="C46" s="85"/>
+      <c r="D46" s="61"/>
+      <c r="E46" s="38"/>
+      <c r="F46" s="62"/>
+      <c r="G46" s="35"/>
     </row>
     <row r="47" spans="1:7" ht="17" customHeight="1">
-      <c r="A47" s="18">
+      <c r="A47" s="32">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="B47" s="67"/>
-      <c r="C47" s="68"/>
-      <c r="D47" s="24"/>
-      <c r="E47" s="24"/>
-      <c r="F47" s="48"/>
-      <c r="G47" s="21"/>
+      <c r="B47" s="80"/>
+      <c r="C47" s="81"/>
+      <c r="D47" s="38"/>
+      <c r="E47" s="38"/>
+      <c r="F47" s="62"/>
+      <c r="G47" s="35"/>
     </row>
     <row r="48" spans="1:7" ht="17" customHeight="1">
-      <c r="A48" s="18">
+      <c r="A48" s="32">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="B48" s="67"/>
-      <c r="C48" s="68"/>
-      <c r="D48" s="24"/>
-      <c r="E48" s="24"/>
-      <c r="F48" s="48"/>
-      <c r="G48" s="21"/>
+      <c r="B48" s="80"/>
+      <c r="C48" s="81"/>
+      <c r="D48" s="38"/>
+      <c r="E48" s="38"/>
+      <c r="F48" s="62"/>
+      <c r="G48" s="35"/>
     </row>
     <row r="49" spans="1:7" ht="17" customHeight="1">
-      <c r="A49" s="18">
+      <c r="A49" s="32">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="B49" s="67"/>
-      <c r="C49" s="68"/>
-      <c r="D49" s="24"/>
-      <c r="E49" s="24"/>
-      <c r="F49" s="48"/>
-      <c r="G49" s="21"/>
+      <c r="B49" s="80"/>
+      <c r="C49" s="81"/>
+      <c r="D49" s="38"/>
+      <c r="E49" s="38"/>
+      <c r="F49" s="62"/>
+      <c r="G49" s="35"/>
     </row>
     <row r="50" spans="1:7" ht="17" customHeight="1">
-      <c r="A50" s="18">
+      <c r="A50" s="32">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="B50" s="69"/>
-      <c r="C50" s="70"/>
-      <c r="D50" s="24"/>
-      <c r="E50" s="24"/>
-      <c r="F50" s="24"/>
-      <c r="G50" s="21"/>
+      <c r="B50" s="82"/>
+      <c r="C50" s="83"/>
+      <c r="D50" s="38"/>
+      <c r="E50" s="38"/>
+      <c r="F50" s="38"/>
+      <c r="G50" s="35"/>
     </row>
     <row r="51" spans="1:7" ht="17" customHeight="1">
-      <c r="A51" s="18">
+      <c r="A51" s="32">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="B51" s="67"/>
-      <c r="C51" s="68"/>
-      <c r="D51" s="24"/>
-      <c r="E51" s="24"/>
-      <c r="F51" s="48"/>
-      <c r="G51" s="21"/>
+      <c r="B51" s="80"/>
+      <c r="C51" s="81"/>
+      <c r="D51" s="38"/>
+      <c r="E51" s="38"/>
+      <c r="F51" s="62"/>
+      <c r="G51" s="35"/>
     </row>
     <row r="52" spans="1:7" ht="17" customHeight="1">
-      <c r="A52" s="18">
+      <c r="A52" s="32">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="B52" s="71"/>
-      <c r="C52" s="72"/>
-      <c r="D52" s="47"/>
-      <c r="E52" s="24"/>
-      <c r="F52" s="48"/>
-      <c r="G52" s="21"/>
+      <c r="B52" s="84"/>
+      <c r="C52" s="85"/>
+      <c r="D52" s="61"/>
+      <c r="E52" s="38"/>
+      <c r="F52" s="62"/>
+      <c r="G52" s="35"/>
     </row>
     <row r="53" spans="1:7" ht="17" customHeight="1">
-      <c r="A53" s="18">
+      <c r="A53" s="32">
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
-      <c r="B53" s="49"/>
-      <c r="C53" s="50"/>
-      <c r="D53" s="47"/>
-      <c r="E53" s="24"/>
-      <c r="F53" s="48"/>
-      <c r="G53" s="21"/>
+      <c r="B53" s="63"/>
+      <c r="C53" s="64"/>
+      <c r="D53" s="61"/>
+      <c r="E53" s="38"/>
+      <c r="F53" s="62"/>
+      <c r="G53" s="35"/>
     </row>
     <row r="54" spans="1:7" ht="17" customHeight="1">
-      <c r="A54" s="18">
+      <c r="A54" s="32">
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
-      <c r="B54" s="49"/>
-      <c r="C54" s="50"/>
-      <c r="D54" s="47"/>
-      <c r="E54" s="24"/>
-      <c r="F54" s="48"/>
-      <c r="G54" s="21"/>
+      <c r="B54" s="63"/>
+      <c r="C54" s="64"/>
+      <c r="D54" s="61"/>
+      <c r="E54" s="38"/>
+      <c r="F54" s="62"/>
+      <c r="G54" s="35"/>
     </row>
     <row r="55" spans="1:7" ht="17" customHeight="1">
-      <c r="A55" s="18">
+      <c r="A55" s="32">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="B55" s="65"/>
-      <c r="C55" s="66"/>
-      <c r="D55" s="20"/>
-      <c r="E55" s="24"/>
-      <c r="F55" s="48"/>
-      <c r="G55" s="21"/>
+      <c r="B55" s="78"/>
+      <c r="C55" s="79"/>
+      <c r="D55" s="34"/>
+      <c r="E55" s="38"/>
+      <c r="F55" s="62"/>
+      <c r="G55" s="35"/>
     </row>
     <row r="56" spans="1:7" ht="17" customHeight="1">
-      <c r="A56" s="18">
+      <c r="A56" s="32">
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
-      <c r="B56" s="67"/>
-      <c r="C56" s="68"/>
-      <c r="D56" s="24"/>
-      <c r="E56" s="24"/>
-      <c r="F56" s="21"/>
-      <c r="G56" s="21"/>
+      <c r="B56" s="80"/>
+      <c r="C56" s="81"/>
+      <c r="D56" s="38"/>
+      <c r="E56" s="38"/>
+      <c r="F56" s="35"/>
+      <c r="G56" s="35"/>
     </row>
     <row r="57" spans="1:7" ht="17" customHeight="1">
-      <c r="A57" s="18">
+      <c r="A57" s="32">
         <f t="shared" si="0"/>
         <v>47</v>
       </c>
-      <c r="B57" s="67"/>
-      <c r="C57" s="68"/>
-      <c r="D57" s="24"/>
-      <c r="E57" s="24"/>
-      <c r="F57" s="21"/>
-      <c r="G57" s="21"/>
+      <c r="B57" s="80"/>
+      <c r="C57" s="81"/>
+      <c r="D57" s="38"/>
+      <c r="E57" s="38"/>
+      <c r="F57" s="35"/>
+      <c r="G57" s="35"/>
     </row>
     <row r="58" spans="1:7" ht="17" customHeight="1">
-      <c r="A58" s="18">
+      <c r="A58" s="32">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="B58" s="67"/>
-      <c r="C58" s="68"/>
-      <c r="D58" s="24"/>
-      <c r="E58" s="24"/>
-      <c r="F58" s="21"/>
-      <c r="G58" s="21"/>
+      <c r="B58" s="80"/>
+      <c r="C58" s="81"/>
+      <c r="D58" s="38"/>
+      <c r="E58" s="38"/>
+      <c r="F58" s="35"/>
+      <c r="G58" s="35"/>
     </row>
     <row r="59" spans="1:7" ht="17" customHeight="1">
-      <c r="A59" s="18">
+      <c r="A59" s="32">
         <f t="shared" si="0"/>
         <v>49</v>
       </c>
-      <c r="B59" s="67"/>
-      <c r="C59" s="68"/>
-      <c r="D59" s="24"/>
-      <c r="E59" s="24"/>
-      <c r="F59" s="24"/>
-      <c r="G59" s="21"/>
+      <c r="B59" s="80"/>
+      <c r="C59" s="81"/>
+      <c r="D59" s="38"/>
+      <c r="E59" s="38"/>
+      <c r="F59" s="38"/>
+      <c r="G59" s="35"/>
     </row>
     <row r="60" spans="1:7" ht="17" customHeight="1">
-      <c r="A60" s="18">
+      <c r="A60" s="32">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="B60" s="67"/>
-      <c r="C60" s="68"/>
-      <c r="D60" s="24"/>
-      <c r="E60" s="24"/>
-      <c r="F60" s="24"/>
-      <c r="G60" s="21"/>
+      <c r="B60" s="80"/>
+      <c r="C60" s="81"/>
+      <c r="D60" s="38"/>
+      <c r="E60" s="38"/>
+      <c r="F60" s="38"/>
+      <c r="G60" s="35"/>
     </row>
     <row r="61" spans="1:7" ht="17" customHeight="1">
-      <c r="A61" s="18">
+      <c r="A61" s="32">
         <f t="shared" si="0"/>
         <v>51</v>
       </c>
-      <c r="B61" s="67"/>
-      <c r="C61" s="68"/>
-      <c r="D61" s="24"/>
-      <c r="E61" s="24"/>
-      <c r="F61" s="24"/>
-      <c r="G61" s="21"/>
+      <c r="B61" s="80"/>
+      <c r="C61" s="81"/>
+      <c r="D61" s="38"/>
+      <c r="E61" s="38"/>
+      <c r="F61" s="38"/>
+      <c r="G61" s="35"/>
     </row>
     <row r="62" spans="1:7" ht="17" customHeight="1">
-      <c r="A62" s="18">
+      <c r="A62" s="32">
         <f t="shared" si="0"/>
         <v>52</v>
       </c>
-      <c r="B62" s="67" t="s">
-        <v>19</v>
-      </c>
-      <c r="C62" s="68"/>
-      <c r="D62" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="E62" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="F62" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="G62" s="21" t="s">
-        <v>46</v>
+      <c r="B62" s="80" t="s">
+        <v>120</v>
+      </c>
+      <c r="C62" s="81"/>
+      <c r="D62" s="38" t="s">
+        <v>121</v>
+      </c>
+      <c r="E62" s="38" t="s">
+        <v>118</v>
+      </c>
+      <c r="F62" s="34" t="s">
+        <v>119</v>
+      </c>
+      <c r="G62" s="35" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="63" spans="1:7" ht="17" customHeight="1">
-      <c r="A63" s="18">
+      <c r="A63" s="32">
         <f t="shared" si="0"/>
         <v>53</v>
       </c>
-      <c r="B63" s="59" t="s">
-        <v>21</v>
-      </c>
-      <c r="C63" s="60"/>
-      <c r="D63" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="E63" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="F63" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="G63" s="26" t="s">
-        <v>24</v>
+      <c r="B63" s="72" t="s">
+        <v>122</v>
+      </c>
+      <c r="C63" s="73"/>
+      <c r="D63" s="41" t="s">
+        <v>123</v>
+      </c>
+      <c r="E63" s="42" t="s">
+        <v>118</v>
+      </c>
+      <c r="F63" s="40" t="s">
+        <v>124</v>
+      </c>
+      <c r="G63" s="40" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="64" spans="1:7" ht="17" customHeight="1">
-      <c r="A64" s="18">
+      <c r="A64" s="32">
         <f t="shared" si="0"/>
         <v>54</v>
       </c>
-      <c r="B64" s="59" t="s">
-        <v>25</v>
-      </c>
-      <c r="C64" s="60"/>
-      <c r="D64" s="29" t="s">
-        <v>26</v>
-      </c>
-      <c r="E64" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="F64" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="G64" s="26" t="s">
-        <v>24</v>
+      <c r="B64" s="72" t="s">
+        <v>126</v>
+      </c>
+      <c r="C64" s="73"/>
+      <c r="D64" s="43" t="s">
+        <v>127</v>
+      </c>
+      <c r="E64" s="44" t="s">
+        <v>118</v>
+      </c>
+      <c r="F64" s="45" t="s">
+        <v>128</v>
+      </c>
+      <c r="G64" s="40" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="65" spans="1:7" ht="17" customHeight="1">
-      <c r="A65" s="18">
+      <c r="A65" s="32">
         <f t="shared" si="0"/>
         <v>55</v>
       </c>
-      <c r="B65" s="61" t="s">
-        <v>28</v>
-      </c>
-      <c r="C65" s="62"/>
-      <c r="D65" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="E65" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="F65" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="G65" s="31" t="s">
-        <v>24</v>
+      <c r="B65" s="74" t="s">
+        <v>129</v>
+      </c>
+      <c r="C65" s="75"/>
+      <c r="D65" s="40" t="s">
+        <v>130</v>
+      </c>
+      <c r="E65" s="40" t="s">
+        <v>118</v>
+      </c>
+      <c r="F65" s="40" t="s">
+        <v>131</v>
+      </c>
+      <c r="G65" s="45" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="66" spans="1:7" ht="17" customHeight="1">
-      <c r="A66" s="18">
+      <c r="A66" s="32">
         <f t="shared" si="0"/>
         <v>56</v>
       </c>
-      <c r="B66" s="63" t="s">
-        <v>31</v>
-      </c>
-      <c r="C66" s="64"/>
-      <c r="D66" s="32" t="s">
-        <v>32</v>
-      </c>
-      <c r="E66" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="F66" s="26" t="s">
-        <v>47</v>
-      </c>
-      <c r="G66" s="26" t="s">
-        <v>33</v>
+      <c r="B66" s="76" t="s">
+        <v>132</v>
+      </c>
+      <c r="C66" s="77"/>
+      <c r="D66" s="46" t="s">
+        <v>133</v>
+      </c>
+      <c r="E66" s="40" t="s">
+        <v>117</v>
+      </c>
+      <c r="F66" s="40" t="s">
+        <v>148</v>
+      </c>
+      <c r="G66" s="40" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="67" spans="1:7" ht="17" customHeight="1">
-      <c r="A67" s="18">
+      <c r="A67" s="32">
         <f t="shared" si="0"/>
         <v>57</v>
       </c>
-      <c r="B67" s="57" t="s">
-        <v>34</v>
-      </c>
-      <c r="C67" s="58"/>
-      <c r="D67" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="E67" s="31" t="s">
-        <v>16</v>
-      </c>
-      <c r="F67" s="31" t="s">
-        <v>36</v>
-      </c>
-      <c r="G67" s="26" t="s">
-        <v>33</v>
+      <c r="B67" s="70" t="s">
+        <v>135</v>
+      </c>
+      <c r="C67" s="71"/>
+      <c r="D67" s="47" t="s">
+        <v>136</v>
+      </c>
+      <c r="E67" s="45" t="s">
+        <v>117</v>
+      </c>
+      <c r="F67" s="45" t="s">
+        <v>137</v>
+      </c>
+      <c r="G67" s="40" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="68" spans="1:7" ht="17" customHeight="1">
-      <c r="A68" s="18">
+      <c r="A68" s="32">
         <f t="shared" si="0"/>
         <v>58</v>
       </c>
-      <c r="B68" s="57" t="s">
-        <v>37</v>
-      </c>
-      <c r="C68" s="58"/>
-      <c r="D68" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="E68" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="F68" s="31" t="s">
-        <v>39</v>
-      </c>
-      <c r="G68" s="26" t="s">
-        <v>24</v>
+      <c r="B68" s="70" t="s">
+        <v>138</v>
+      </c>
+      <c r="C68" s="71"/>
+      <c r="D68" s="47" t="s">
+        <v>139</v>
+      </c>
+      <c r="E68" s="45" t="s">
+        <v>118</v>
+      </c>
+      <c r="F68" s="45" t="s">
+        <v>140</v>
+      </c>
+      <c r="G68" s="40" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="69" spans="1:7" ht="17" customHeight="1">
-      <c r="A69" s="18">
+      <c r="A69" s="32">
         <f t="shared" si="0"/>
         <v>59</v>
       </c>
-      <c r="B69" s="57" t="s">
-        <v>40</v>
-      </c>
-      <c r="C69" s="58"/>
-      <c r="D69" s="33" t="s">
-        <v>41</v>
-      </c>
-      <c r="E69" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="F69" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="G69" s="26" t="s">
-        <v>24</v>
+      <c r="B69" s="70" t="s">
+        <v>141</v>
+      </c>
+      <c r="C69" s="71"/>
+      <c r="D69" s="47" t="s">
+        <v>142</v>
+      </c>
+      <c r="E69" s="45" t="s">
+        <v>118</v>
+      </c>
+      <c r="F69" s="45" t="s">
+        <v>124</v>
+      </c>
+      <c r="G69" s="40" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="70" spans="1:7" ht="17" customHeight="1">
-      <c r="A70" s="18">
+      <c r="A70" s="32">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="B70" s="57" t="s">
-        <v>15</v>
-      </c>
-      <c r="C70" s="58"/>
-      <c r="D70" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="E70" s="31" t="s">
-        <v>16</v>
-      </c>
-      <c r="F70" s="31"/>
-      <c r="G70" s="26" t="s">
-        <v>24</v>
+      <c r="B70" s="70" t="s">
+        <v>116</v>
+      </c>
+      <c r="C70" s="71"/>
+      <c r="D70" s="47" t="s">
+        <v>143</v>
+      </c>
+      <c r="E70" s="45" t="s">
+        <v>117</v>
+      </c>
+      <c r="F70" s="45"/>
+      <c r="G70" s="40" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="71" spans="1:7" ht="17" customHeight="1">
-      <c r="A71" s="18">
+      <c r="A71" s="32">
         <f t="shared" si="0"/>
         <v>61</v>
       </c>
-      <c r="B71" s="57" t="s">
-        <v>43</v>
-      </c>
-      <c r="C71" s="58"/>
-      <c r="D71" s="33" t="s">
-        <v>44</v>
-      </c>
-      <c r="E71" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="F71" s="31" t="s">
-        <v>45</v>
-      </c>
-      <c r="G71" s="26" t="s">
-        <v>24</v>
+      <c r="B71" s="70" t="s">
+        <v>144</v>
+      </c>
+      <c r="C71" s="71"/>
+      <c r="D71" s="47" t="s">
+        <v>145</v>
+      </c>
+      <c r="E71" s="45" t="s">
+        <v>118</v>
+      </c>
+      <c r="F71" s="45" t="s">
+        <v>146</v>
+      </c>
+      <c r="G71" s="40" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="77" spans="1:7" ht="30" customHeight="1" thickBot="1">
-      <c r="B77" s="10" t="s">
-        <v>13</v>
+      <c r="B77" s="24" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="78" spans="1:7" ht="12" thickTop="1"/>
@@ -2518,4 +2941,1301 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F102"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B87" sqref="B87"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="40.5" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="11.5" style="6" customWidth="1"/>
+    <col min="2" max="2" width="59.1640625" style="6" customWidth="1"/>
+    <col min="3" max="5" width="18.6640625" style="6" hidden="1" customWidth="1"/>
+    <col min="6" max="255" width="11.5" style="6" customWidth="1"/>
+    <col min="256" max="16384" width="40.5" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="18.75" customHeight="1">
+      <c r="A1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="13.5" customHeight="1">
+      <c r="A2" s="18">
+        <v>1</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="15">
+        <v>2</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="C3" s="16">
+        <v>1000</v>
+      </c>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="15">
+        <v>3</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="C4" s="16">
+        <v>850</v>
+      </c>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="15">
+        <v>4</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="C5" s="16">
+        <v>750</v>
+      </c>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="15">
+        <v>5</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="16">
+        <v>700</v>
+      </c>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="9">
+        <v>6</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="9"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="9">
+        <v>7</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="9"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="15">
+        <v>8</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="16">
+        <v>500</v>
+      </c>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="12" customHeight="1">
+      <c r="A10" s="15">
+        <v>9</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="16">
+        <v>900</v>
+      </c>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="15">
+        <v>10</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="16">
+        <v>290</v>
+      </c>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="15">
+        <v>11</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="16">
+        <v>290</v>
+      </c>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="9">
+        <v>12</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="9"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="15">
+        <v>13</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="16">
+        <v>260</v>
+      </c>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="15">
+        <v>14</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="C15" s="16">
+        <v>700</v>
+      </c>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="9">
+        <v>15</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="9"/>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="9">
+        <v>16</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="9"/>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="9">
+        <v>17</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="9"/>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="9">
+        <v>18</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="9"/>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="18">
+        <v>19</v>
+      </c>
+      <c r="B20" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="9">
+        <v>20</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="9"/>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="18">
+        <v>21</v>
+      </c>
+      <c r="B22" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="9">
+        <v>22</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="9"/>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="15">
+        <v>23</v>
+      </c>
+      <c r="B24" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C24" s="16">
+        <v>270</v>
+      </c>
+      <c r="D24" s="16"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="15">
+        <v>24</v>
+      </c>
+      <c r="B25" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C25" s="16">
+        <v>0</v>
+      </c>
+      <c r="D25" s="16"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="18">
+        <v>25</v>
+      </c>
+      <c r="B26" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="9">
+        <v>26</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="9"/>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="9">
+        <v>27</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="9"/>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="18">
+        <v>28</v>
+      </c>
+      <c r="B29" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="9">
+        <v>29</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" s="13"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="9"/>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="9">
+        <v>30</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C31" s="13"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="9"/>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="9">
+        <v>31</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C32" s="13"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="9"/>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="9">
+        <v>32</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C33" s="13"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="9"/>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="9">
+        <v>33</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C34" s="13"/>
+      <c r="D34" s="13"/>
+      <c r="E34" s="13"/>
+      <c r="F34" s="9"/>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="9">
+        <v>34</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C35" s="13"/>
+      <c r="D35" s="13"/>
+      <c r="E35" s="13"/>
+      <c r="F35" s="9"/>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="9">
+        <v>35</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C36" s="13"/>
+      <c r="D36" s="13"/>
+      <c r="E36" s="13"/>
+      <c r="F36" s="9"/>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="9">
+        <v>36</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C37" s="13"/>
+      <c r="D37" s="13"/>
+      <c r="E37" s="13"/>
+      <c r="F37" s="9"/>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="9">
+        <v>37</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C38" s="13"/>
+      <c r="D38" s="13"/>
+      <c r="E38" s="13"/>
+      <c r="F38" s="9"/>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="9">
+        <v>38</v>
+      </c>
+      <c r="B39" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C39" s="13"/>
+      <c r="D39" s="13"/>
+      <c r="E39" s="13"/>
+      <c r="F39" s="9"/>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="9">
+        <v>39</v>
+      </c>
+      <c r="B40" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C40" s="13"/>
+      <c r="D40" s="13"/>
+      <c r="E40" s="13"/>
+      <c r="F40" s="9"/>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="9">
+        <v>40</v>
+      </c>
+      <c r="B41" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C41" s="13"/>
+      <c r="D41" s="13"/>
+      <c r="E41" s="13"/>
+      <c r="F41" s="9"/>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" s="9">
+        <v>41</v>
+      </c>
+      <c r="B42" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C42" s="13"/>
+      <c r="D42" s="13"/>
+      <c r="E42" s="13"/>
+      <c r="F42" s="9"/>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" s="9">
+        <v>42</v>
+      </c>
+      <c r="B43" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C43" s="13"/>
+      <c r="D43" s="13"/>
+      <c r="E43" s="13"/>
+      <c r="F43" s="9"/>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" s="9">
+        <v>43</v>
+      </c>
+      <c r="B44" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C44" s="13"/>
+      <c r="D44" s="13"/>
+      <c r="E44" s="13"/>
+      <c r="F44" s="9"/>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" s="9">
+        <v>44</v>
+      </c>
+      <c r="B45" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C45" s="13"/>
+      <c r="D45" s="13"/>
+      <c r="E45" s="13"/>
+      <c r="F45" s="9"/>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" s="9">
+        <v>45</v>
+      </c>
+      <c r="B46" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C46" s="13"/>
+      <c r="D46" s="13"/>
+      <c r="E46" s="13"/>
+      <c r="F46" s="9"/>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" s="9">
+        <v>46</v>
+      </c>
+      <c r="B47" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C47" s="13"/>
+      <c r="D47" s="13"/>
+      <c r="E47" s="13"/>
+      <c r="F47" s="9"/>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" s="9">
+        <v>47</v>
+      </c>
+      <c r="B48" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C48" s="13"/>
+      <c r="D48" s="13"/>
+      <c r="E48" s="13"/>
+      <c r="F48" s="9"/>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" s="9">
+        <v>48</v>
+      </c>
+      <c r="B49" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C49" s="13"/>
+      <c r="D49" s="13"/>
+      <c r="E49" s="13"/>
+      <c r="F49" s="9"/>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" s="9">
+        <v>49</v>
+      </c>
+      <c r="B50" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C50" s="13"/>
+      <c r="D50" s="13"/>
+      <c r="E50" s="13"/>
+      <c r="F50" s="9"/>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" s="9">
+        <v>50</v>
+      </c>
+      <c r="B51" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C51" s="13"/>
+      <c r="D51" s="13"/>
+      <c r="E51" s="13"/>
+      <c r="F51" s="9"/>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" s="9">
+        <v>51</v>
+      </c>
+      <c r="B52" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C52" s="13"/>
+      <c r="D52" s="13"/>
+      <c r="E52" s="13"/>
+      <c r="F52" s="9"/>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" s="9">
+        <v>52</v>
+      </c>
+      <c r="B53" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C53" s="13"/>
+      <c r="D53" s="13"/>
+      <c r="E53" s="13"/>
+      <c r="F53" s="9"/>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" s="9">
+        <v>53</v>
+      </c>
+      <c r="B54" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C54" s="13"/>
+      <c r="D54" s="13"/>
+      <c r="E54" s="13"/>
+      <c r="F54" s="9"/>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" s="9">
+        <v>54</v>
+      </c>
+      <c r="B55" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C55" s="13"/>
+      <c r="D55" s="13"/>
+      <c r="E55" s="13"/>
+      <c r="F55" s="9"/>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" s="9">
+        <v>55</v>
+      </c>
+      <c r="B56" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C56" s="13"/>
+      <c r="D56" s="13"/>
+      <c r="E56" s="13"/>
+      <c r="F56" s="9"/>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" s="9">
+        <v>56</v>
+      </c>
+      <c r="B57" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C57" s="13"/>
+      <c r="D57" s="13"/>
+      <c r="E57" s="13"/>
+      <c r="F57" s="9"/>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" s="9">
+        <v>57</v>
+      </c>
+      <c r="B58" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C58" s="13"/>
+      <c r="D58" s="13"/>
+      <c r="E58" s="13"/>
+      <c r="F58" s="9"/>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" s="9">
+        <v>58</v>
+      </c>
+      <c r="B59" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C59" s="13"/>
+      <c r="D59" s="13"/>
+      <c r="E59" s="13"/>
+      <c r="F59" s="9"/>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" s="9">
+        <v>59</v>
+      </c>
+      <c r="B60" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="C60" s="13"/>
+      <c r="D60" s="13"/>
+      <c r="E60" s="13"/>
+      <c r="F60" s="9"/>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61" s="9">
+        <v>60</v>
+      </c>
+      <c r="B61" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="C61" s="13"/>
+      <c r="D61" s="13"/>
+      <c r="E61" s="13"/>
+      <c r="F61" s="9"/>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62" s="9">
+        <v>61</v>
+      </c>
+      <c r="B62" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C62" s="13"/>
+      <c r="D62" s="13"/>
+      <c r="E62" s="13"/>
+      <c r="F62" s="9"/>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63" s="9">
+        <v>62</v>
+      </c>
+      <c r="B63" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C63" s="13"/>
+      <c r="D63" s="13"/>
+      <c r="E63" s="13"/>
+      <c r="F63" s="9"/>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64" s="9">
+        <v>63</v>
+      </c>
+      <c r="B64" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C64" s="13"/>
+      <c r="D64" s="13"/>
+      <c r="E64" s="13"/>
+      <c r="F64" s="9"/>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65" s="9">
+        <v>64</v>
+      </c>
+      <c r="B65" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C65" s="13"/>
+      <c r="D65" s="13"/>
+      <c r="E65" s="13"/>
+      <c r="F65" s="9"/>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66" s="9">
+        <v>65</v>
+      </c>
+      <c r="B66" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="C66" s="13"/>
+      <c r="D66" s="13"/>
+      <c r="E66" s="13"/>
+      <c r="F66" s="9"/>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67" s="9">
+        <v>66</v>
+      </c>
+      <c r="B67" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C67" s="13"/>
+      <c r="D67" s="13"/>
+      <c r="E67" s="13"/>
+      <c r="F67" s="9"/>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68" s="9">
+        <v>67</v>
+      </c>
+      <c r="B68" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C68" s="13"/>
+      <c r="D68" s="13"/>
+      <c r="E68" s="13"/>
+      <c r="F68" s="9"/>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69" s="9">
+        <v>68</v>
+      </c>
+      <c r="B69" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="C69" s="13"/>
+      <c r="D69" s="13"/>
+      <c r="E69" s="13"/>
+      <c r="F69" s="9"/>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70" s="9">
+        <v>69</v>
+      </c>
+      <c r="B70" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C70" s="13"/>
+      <c r="D70" s="13"/>
+      <c r="E70" s="13"/>
+      <c r="F70" s="9"/>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71" s="9">
+        <v>70</v>
+      </c>
+      <c r="B71" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C71" s="13"/>
+      <c r="D71" s="13"/>
+      <c r="E71" s="13"/>
+      <c r="F71" s="9"/>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72" s="9">
+        <v>71</v>
+      </c>
+      <c r="B72" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C72" s="13"/>
+      <c r="D72" s="13"/>
+      <c r="E72" s="13"/>
+      <c r="F72" s="9"/>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="A73" s="9">
+        <v>72</v>
+      </c>
+      <c r="B73" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="C73" s="13"/>
+      <c r="D73" s="13"/>
+      <c r="E73" s="13"/>
+      <c r="F73" s="9"/>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="A74" s="9">
+        <v>73</v>
+      </c>
+      <c r="B74" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="C74" s="13"/>
+      <c r="D74" s="13"/>
+      <c r="E74" s="13"/>
+      <c r="F74" s="9"/>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="A75" s="9">
+        <v>74</v>
+      </c>
+      <c r="B75" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="C75" s="13"/>
+      <c r="D75" s="13"/>
+      <c r="E75" s="13"/>
+      <c r="F75" s="9"/>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="A76" s="9">
+        <v>75</v>
+      </c>
+      <c r="B76" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="C76" s="13"/>
+      <c r="D76" s="13"/>
+      <c r="E76" s="13"/>
+      <c r="F76" s="9"/>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="A77" s="15">
+        <v>76</v>
+      </c>
+      <c r="B77" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="C77" s="16">
+        <v>270</v>
+      </c>
+      <c r="D77" s="16"/>
+      <c r="E77" s="16"/>
+      <c r="F77" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="A78" s="15">
+        <v>77</v>
+      </c>
+      <c r="B78" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="C78" s="16">
+        <v>260</v>
+      </c>
+      <c r="D78" s="16"/>
+      <c r="E78" s="16"/>
+      <c r="F78" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="A79" s="9">
+        <v>78</v>
+      </c>
+      <c r="B79" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="C79" s="13"/>
+      <c r="D79" s="13"/>
+      <c r="E79" s="13"/>
+      <c r="F79" s="9"/>
+    </row>
+    <row r="80" spans="1:6">
+      <c r="A80" s="9">
+        <v>79</v>
+      </c>
+      <c r="B80" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C80" s="13"/>
+      <c r="D80" s="13"/>
+      <c r="E80" s="13"/>
+      <c r="F80" s="9"/>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="A81" s="9">
+        <v>80</v>
+      </c>
+      <c r="B81" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="C81" s="13"/>
+      <c r="D81" s="13"/>
+      <c r="E81" s="13"/>
+      <c r="F81" s="9"/>
+    </row>
+    <row r="82" spans="1:6">
+      <c r="A82" s="9">
+        <v>81</v>
+      </c>
+      <c r="B82" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="C82" s="13"/>
+      <c r="D82" s="13"/>
+      <c r="E82" s="13"/>
+      <c r="F82" s="9"/>
+    </row>
+    <row r="83" spans="1:6">
+      <c r="A83" s="9">
+        <v>82</v>
+      </c>
+      <c r="B83" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C83" s="13"/>
+      <c r="D83" s="13"/>
+      <c r="E83" s="13"/>
+      <c r="F83" s="9"/>
+    </row>
+    <row r="84" spans="1:6">
+      <c r="A84" s="9">
+        <v>83</v>
+      </c>
+      <c r="B84" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="C84" s="13"/>
+      <c r="D84" s="13"/>
+      <c r="E84" s="13"/>
+      <c r="F84" s="9"/>
+    </row>
+    <row r="85" spans="1:6">
+      <c r="A85" s="9">
+        <v>84</v>
+      </c>
+      <c r="B85" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="C85" s="13"/>
+      <c r="D85" s="13"/>
+      <c r="E85" s="13"/>
+      <c r="F85" s="9"/>
+    </row>
+    <row r="86" spans="1:6" ht="12" customHeight="1">
+      <c r="A86" s="19">
+        <v>85</v>
+      </c>
+      <c r="B86" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="C86" s="13"/>
+      <c r="D86" s="13"/>
+      <c r="E86" s="13"/>
+      <c r="F86" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" ht="12" customHeight="1">
+      <c r="A87" s="19">
+        <v>86</v>
+      </c>
+      <c r="B87" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="C87" s="13"/>
+      <c r="D87" s="13"/>
+      <c r="E87" s="13"/>
+      <c r="F87" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" ht="12" customHeight="1">
+      <c r="A88" s="11">
+        <v>87</v>
+      </c>
+      <c r="B88" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="C88" s="13"/>
+      <c r="D88" s="13"/>
+      <c r="E88" s="13"/>
+      <c r="F88" s="9"/>
+    </row>
+    <row r="89" spans="1:6" ht="12" customHeight="1">
+      <c r="A89" s="12">
+        <v>88</v>
+      </c>
+      <c r="B89" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="C89" s="13"/>
+      <c r="D89" s="13"/>
+      <c r="E89" s="13"/>
+      <c r="F89" s="9"/>
+    </row>
+    <row r="90" spans="1:6" ht="12" customHeight="1">
+      <c r="A90" s="12">
+        <v>89</v>
+      </c>
+      <c r="B90" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="C90" s="13"/>
+      <c r="D90" s="13"/>
+      <c r="E90" s="13"/>
+      <c r="F90" s="9"/>
+    </row>
+    <row r="91" spans="1:6" ht="12" customHeight="1">
+      <c r="A91" s="9">
+        <v>90</v>
+      </c>
+      <c r="B91" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="C91" s="13"/>
+      <c r="D91" s="13"/>
+      <c r="E91" s="13"/>
+      <c r="F91" s="9"/>
+    </row>
+    <row r="92" spans="1:6" ht="12" customHeight="1">
+      <c r="A92" s="18">
+        <v>91</v>
+      </c>
+      <c r="B92" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="C92" s="13"/>
+      <c r="D92" s="13"/>
+      <c r="E92" s="13"/>
+      <c r="F92" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" ht="12" customHeight="1">
+      <c r="A93" s="9">
+        <v>92</v>
+      </c>
+      <c r="B93" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="C93" s="13"/>
+      <c r="D93" s="13"/>
+      <c r="E93" s="13"/>
+      <c r="F93" s="9"/>
+    </row>
+    <row r="94" spans="1:6" ht="12" customHeight="1">
+      <c r="A94" s="15">
+        <v>93</v>
+      </c>
+      <c r="B94" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="C94" s="16">
+        <v>0</v>
+      </c>
+      <c r="D94" s="16"/>
+      <c r="E94" s="16"/>
+      <c r="F94" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" ht="12" customHeight="1">
+      <c r="A95" s="15">
+        <v>94</v>
+      </c>
+      <c r="B95" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="C95" s="16">
+        <v>600</v>
+      </c>
+      <c r="D95" s="16"/>
+      <c r="E95" s="16"/>
+      <c r="F95" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" ht="12" customHeight="1">
+      <c r="A96" s="9">
+        <v>95</v>
+      </c>
+      <c r="B96" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="C96" s="13">
+        <v>600</v>
+      </c>
+      <c r="D96" s="13"/>
+      <c r="E96" s="13"/>
+      <c r="F96" s="9"/>
+    </row>
+    <row r="97" spans="1:6" ht="12" customHeight="1">
+      <c r="A97" s="15">
+        <v>96</v>
+      </c>
+      <c r="B97" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="C97" s="16">
+        <v>0</v>
+      </c>
+      <c r="D97" s="16"/>
+      <c r="E97" s="16"/>
+      <c r="F97" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
+      <c r="C98" s="14">
+        <f>SUM(C2:C97)</f>
+        <v>8240</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
+      <c r="C102" s="14"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:F98"/>
+  <phoneticPr fontId="0" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/templates/plantilla_ayudantes.xlsx
+++ b/templates/plantilla_ayudantes.xlsx
@@ -264,7 +264,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="153">
   <si>
     <t>DESCRIPCION DEL CARGO</t>
   </si>
@@ -723,36 +723,6 @@
   </si>
   <si>
     <t>TRANSPORTE ESMERALDA</t>
-  </si>
-  <si>
-    <t>Ernesto Antonio Aguilar Malia</t>
-  </si>
-  <si>
-    <t>03644608-0</t>
-  </si>
-  <si>
-    <t>Saul Alberto Aguilar Malia</t>
-  </si>
-  <si>
-    <t>04195525-6</t>
-  </si>
-  <si>
-    <t>Billy Alfredo Mendez Suriano</t>
-  </si>
-  <si>
-    <t>02488620-8</t>
-  </si>
-  <si>
-    <t>Ronald Wilfredo Mendoza Fuentes</t>
-  </si>
-  <si>
-    <t>05050915-1</t>
-  </si>
-  <si>
-    <t>Roberto Antonio Gaspar Aguilar</t>
-  </si>
-  <si>
-    <t>03240994-7</t>
   </si>
 </sst>
 </file>
@@ -1096,7 +1066,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="114">
+  <cellXfs count="115">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1170,9 +1140,6 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -1215,34 +1182,13 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="19" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1275,11 +1221,77 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="49" fontId="26" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="4" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="22" fontId="4" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="18" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1305,113 +1317,74 @@
     <xf numFmtId="164" fontId="16" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="22" fontId="4" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="22" fontId="4" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="20" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="26" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="0" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1863,8 +1836,8 @@
   <dimension ref="A1:G78"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D15" sqref="D15"/>
+      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="11" x14ac:dyDescent="0"/>
@@ -1880,14 +1853,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="39.75" customHeight="1">
-      <c r="B1" s="100" t="s">
+      <c r="B1" s="63" t="s">
         <v>115</v>
       </c>
-      <c r="C1" s="100"/>
-      <c r="D1" s="100"/>
-      <c r="E1" s="100"/>
-      <c r="F1" s="100"/>
-      <c r="G1" s="100"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
     </row>
     <row r="2" spans="1:7">
       <c r="B2" s="5"/>
@@ -1900,10 +1873,10 @@
       <c r="B3" s="20" t="s">
         <v>111</v>
       </c>
-      <c r="C3" s="98" t="s">
+      <c r="C3" s="61" t="s">
         <v>152</v>
       </c>
-      <c r="D3" s="99"/>
+      <c r="D3" s="62"/>
       <c r="E3" s="25"/>
       <c r="F3" s="25"/>
       <c r="G3" s="26"/>
@@ -1912,10 +1885,10 @@
       <c r="B4" s="20" t="s">
         <v>110</v>
       </c>
-      <c r="C4" s="98" t="s">
+      <c r="C4" s="61" t="s">
         <v>150</v>
       </c>
-      <c r="D4" s="99"/>
+      <c r="D4" s="62"/>
       <c r="E4" s="25"/>
       <c r="F4" s="25"/>
       <c r="G4" s="26"/>
@@ -1934,8 +1907,8 @@
       <c r="B6" s="20" t="s">
         <v>113</v>
       </c>
-      <c r="C6" s="103"/>
-      <c r="D6" s="104"/>
+      <c r="C6" s="66"/>
+      <c r="D6" s="67"/>
       <c r="E6" s="25"/>
       <c r="F6" s="25"/>
       <c r="G6" s="26"/>
@@ -1945,10 +1918,10 @@
         <v>112</v>
       </c>
       <c r="B7" s="30"/>
-      <c r="C7" s="103" t="s">
+      <c r="C7" s="66" t="s">
         <v>151</v>
       </c>
-      <c r="D7" s="104"/>
+      <c r="D7" s="67"/>
       <c r="E7" s="25"/>
       <c r="F7" s="25"/>
       <c r="G7" s="26"/>
@@ -1957,8 +1930,8 @@
       <c r="B8" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="C8" s="105"/>
-      <c r="D8" s="106"/>
+      <c r="C8" s="68"/>
+      <c r="D8" s="69"/>
       <c r="E8" s="25"/>
       <c r="F8" s="25"/>
       <c r="G8" s="26"/>
@@ -1979,10 +1952,10 @@
       <c r="A10" s="27" t="s">
         <v>107</v>
       </c>
-      <c r="B10" s="101" t="s">
+      <c r="B10" s="64" t="s">
         <v>105</v>
       </c>
-      <c r="C10" s="102"/>
+      <c r="C10" s="65"/>
       <c r="D10" s="2" t="s">
         <v>102</v>
       </c>
@@ -2000,90 +1973,60 @@
       <c r="A11" s="32">
         <v>1</v>
       </c>
-      <c r="B11" s="92" t="s">
-        <v>153</v>
-      </c>
+      <c r="B11" s="92"/>
       <c r="C11" s="93"/>
-      <c r="D11" s="113" t="s">
-        <v>154</v>
-      </c>
-      <c r="E11" s="113" t="s">
-        <v>117</v>
-      </c>
-      <c r="F11" s="65"/>
-      <c r="G11" s="66"/>
+      <c r="D11" s="60"/>
+      <c r="E11" s="60"/>
+      <c r="F11" s="57"/>
+      <c r="G11" s="58"/>
     </row>
     <row r="12" spans="1:7" ht="17" customHeight="1">
       <c r="A12" s="32">
         <f>A11+1</f>
         <v>2</v>
       </c>
-      <c r="B12" s="92" t="s">
-        <v>155</v>
-      </c>
+      <c r="B12" s="92"/>
       <c r="C12" s="93"/>
-      <c r="D12" s="113" t="s">
-        <v>156</v>
-      </c>
-      <c r="E12" s="113" t="s">
-        <v>117</v>
-      </c>
-      <c r="F12" s="65"/>
-      <c r="G12" s="66"/>
+      <c r="D12" s="60"/>
+      <c r="E12" s="60"/>
+      <c r="F12" s="57"/>
+      <c r="G12" s="58"/>
     </row>
     <row r="13" spans="1:7" ht="17" customHeight="1">
       <c r="A13" s="32">
         <f t="shared" ref="A13:A71" si="0">A12+1</f>
         <v>3</v>
       </c>
-      <c r="B13" s="92" t="s">
-        <v>157</v>
-      </c>
+      <c r="B13" s="92"/>
       <c r="C13" s="93"/>
-      <c r="D13" s="113" t="s">
-        <v>158</v>
-      </c>
-      <c r="E13" s="113" t="s">
-        <v>117</v>
-      </c>
-      <c r="F13" s="67"/>
-      <c r="G13" s="66"/>
+      <c r="D13" s="60"/>
+      <c r="E13" s="60"/>
+      <c r="F13" s="59"/>
+      <c r="G13" s="58"/>
     </row>
     <row r="14" spans="1:7" ht="17" customHeight="1">
       <c r="A14" s="32">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B14" s="92" t="s">
-        <v>159</v>
-      </c>
+      <c r="B14" s="92"/>
       <c r="C14" s="93"/>
-      <c r="D14" s="113" t="s">
-        <v>160</v>
-      </c>
-      <c r="E14" s="113" t="s">
-        <v>117</v>
-      </c>
-      <c r="F14" s="67"/>
-      <c r="G14" s="66"/>
+      <c r="D14" s="60"/>
+      <c r="E14" s="60"/>
+      <c r="F14" s="59"/>
+      <c r="G14" s="58"/>
     </row>
     <row r="15" spans="1:7" ht="17" customHeight="1">
       <c r="A15" s="32">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B15" s="92" t="s">
-        <v>161</v>
-      </c>
+      <c r="B15" s="92"/>
       <c r="C15" s="93"/>
-      <c r="D15" s="113" t="s">
-        <v>162</v>
-      </c>
-      <c r="E15" s="113" t="s">
-        <v>117</v>
-      </c>
-      <c r="F15" s="67"/>
-      <c r="G15" s="66"/>
+      <c r="D15" s="60"/>
+      <c r="E15" s="60"/>
+      <c r="F15" s="59"/>
+      <c r="G15" s="58"/>
     </row>
     <row r="16" spans="1:7" ht="17" customHeight="1">
       <c r="A16" s="32">
@@ -2092,10 +2035,10 @@
       </c>
       <c r="B16" s="94"/>
       <c r="C16" s="95"/>
-      <c r="D16" s="68"/>
-      <c r="E16" s="69"/>
-      <c r="F16" s="67"/>
-      <c r="G16" s="66"/>
+      <c r="D16" s="96"/>
+      <c r="E16" s="97"/>
+      <c r="F16" s="59"/>
+      <c r="G16" s="58"/>
     </row>
     <row r="17" spans="1:7" ht="17" customHeight="1">
       <c r="A17" s="32">
@@ -2104,10 +2047,10 @@
       </c>
       <c r="B17" s="92"/>
       <c r="C17" s="93"/>
-      <c r="D17" s="68"/>
-      <c r="E17" s="69"/>
-      <c r="F17" s="36"/>
-      <c r="G17" s="66"/>
+      <c r="D17" s="96"/>
+      <c r="E17" s="97"/>
+      <c r="F17" s="35"/>
+      <c r="G17" s="58"/>
     </row>
     <row r="18" spans="1:7" ht="17" customHeight="1">
       <c r="A18" s="32">
@@ -2116,10 +2059,10 @@
       </c>
       <c r="B18" s="92"/>
       <c r="C18" s="93"/>
-      <c r="D18" s="68"/>
-      <c r="E18" s="69"/>
-      <c r="F18" s="36"/>
-      <c r="G18" s="66"/>
+      <c r="D18" s="96"/>
+      <c r="E18" s="97"/>
+      <c r="F18" s="35"/>
+      <c r="G18" s="58"/>
     </row>
     <row r="19" spans="1:7" ht="17" customHeight="1">
       <c r="A19" s="32">
@@ -2128,10 +2071,10 @@
       </c>
       <c r="B19" s="92"/>
       <c r="C19" s="93"/>
-      <c r="D19" s="68"/>
-      <c r="E19" s="69"/>
-      <c r="F19" s="36"/>
-      <c r="G19" s="66"/>
+      <c r="D19" s="96"/>
+      <c r="E19" s="97"/>
+      <c r="F19" s="35"/>
+      <c r="G19" s="58"/>
     </row>
     <row r="20" spans="1:7" ht="17" customHeight="1">
       <c r="A20" s="32">
@@ -2140,522 +2083,522 @@
       </c>
       <c r="B20" s="94"/>
       <c r="C20" s="95"/>
-      <c r="D20" s="68"/>
-      <c r="E20" s="69"/>
-      <c r="F20" s="36"/>
-      <c r="G20" s="66"/>
+      <c r="D20" s="96"/>
+      <c r="E20" s="97"/>
+      <c r="F20" s="35"/>
+      <c r="G20" s="58"/>
     </row>
     <row r="21" spans="1:7" ht="17" customHeight="1">
       <c r="A21" s="32">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B21" s="107"/>
-      <c r="C21" s="108"/>
-      <c r="D21" s="48"/>
-      <c r="E21" s="49"/>
-      <c r="F21" s="36"/>
-      <c r="G21" s="35"/>
+      <c r="B21" s="98"/>
+      <c r="C21" s="99"/>
+      <c r="D21" s="100"/>
+      <c r="E21" s="101"/>
+      <c r="F21" s="35"/>
+      <c r="G21" s="34"/>
     </row>
     <row r="22" spans="1:7" ht="17" customHeight="1">
       <c r="A22" s="32">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B22" s="109"/>
-      <c r="C22" s="110"/>
-      <c r="D22" s="50"/>
-      <c r="E22" s="51"/>
-      <c r="F22" s="37"/>
-      <c r="G22" s="35"/>
+      <c r="B22" s="102"/>
+      <c r="C22" s="103"/>
+      <c r="D22" s="104"/>
+      <c r="E22" s="105"/>
+      <c r="F22" s="36"/>
+      <c r="G22" s="34"/>
     </row>
     <row r="23" spans="1:7" ht="17" customHeight="1">
       <c r="A23" s="32">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B23" s="111"/>
-      <c r="C23" s="112"/>
-      <c r="D23" s="52"/>
-      <c r="E23" s="42"/>
-      <c r="F23" s="53"/>
-      <c r="G23" s="38"/>
+      <c r="B23" s="106"/>
+      <c r="C23" s="107"/>
+      <c r="D23" s="108"/>
+      <c r="E23" s="109"/>
+      <c r="F23" s="47"/>
+      <c r="G23" s="37"/>
     </row>
     <row r="24" spans="1:7" ht="17" customHeight="1">
       <c r="A24" s="32">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B24" s="96"/>
-      <c r="C24" s="97"/>
-      <c r="D24" s="54"/>
-      <c r="E24" s="33"/>
-      <c r="F24" s="53"/>
-      <c r="G24" s="35"/>
+      <c r="B24" s="98"/>
+      <c r="C24" s="99"/>
+      <c r="D24" s="100"/>
+      <c r="E24" s="110"/>
+      <c r="F24" s="47"/>
+      <c r="G24" s="34"/>
     </row>
     <row r="25" spans="1:7" ht="17" customHeight="1">
       <c r="A25" s="32">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B25" s="96"/>
-      <c r="C25" s="97"/>
-      <c r="D25" s="54"/>
-      <c r="E25" s="42"/>
-      <c r="F25" s="39"/>
-      <c r="G25" s="35"/>
+      <c r="B25" s="98"/>
+      <c r="C25" s="99"/>
+      <c r="D25" s="100"/>
+      <c r="E25" s="109"/>
+      <c r="F25" s="38"/>
+      <c r="G25" s="34"/>
     </row>
     <row r="26" spans="1:7" ht="17" customHeight="1">
       <c r="A26" s="32">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B26" s="88"/>
-      <c r="C26" s="89"/>
-      <c r="D26" s="55"/>
-      <c r="E26" s="55"/>
-      <c r="F26" s="34"/>
-      <c r="G26" s="35"/>
+      <c r="B26" s="111"/>
+      <c r="C26" s="112"/>
+      <c r="D26" s="48"/>
+      <c r="E26" s="48"/>
+      <c r="F26" s="33"/>
+      <c r="G26" s="34"/>
     </row>
     <row r="27" spans="1:7" ht="17" customHeight="1">
       <c r="A27" s="32">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B27" s="88"/>
-      <c r="C27" s="89"/>
-      <c r="D27" s="55"/>
-      <c r="E27" s="55"/>
-      <c r="F27" s="34"/>
-      <c r="G27" s="35"/>
+      <c r="B27" s="111"/>
+      <c r="C27" s="112"/>
+      <c r="D27" s="48"/>
+      <c r="E27" s="48"/>
+      <c r="F27" s="33"/>
+      <c r="G27" s="34"/>
     </row>
     <row r="28" spans="1:7" ht="17" customHeight="1">
       <c r="A28" s="32">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B28" s="88"/>
-      <c r="C28" s="89"/>
-      <c r="D28" s="55"/>
-      <c r="E28" s="55"/>
-      <c r="F28" s="34"/>
-      <c r="G28" s="35"/>
+      <c r="B28" s="111"/>
+      <c r="C28" s="112"/>
+      <c r="D28" s="48"/>
+      <c r="E28" s="48"/>
+      <c r="F28" s="33"/>
+      <c r="G28" s="34"/>
     </row>
     <row r="29" spans="1:7" ht="17" customHeight="1">
       <c r="A29" s="32">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B29" s="88"/>
-      <c r="C29" s="89"/>
-      <c r="D29" s="55"/>
-      <c r="E29" s="55"/>
-      <c r="F29" s="36"/>
-      <c r="G29" s="35"/>
+      <c r="B29" s="111"/>
+      <c r="C29" s="112"/>
+      <c r="D29" s="48"/>
+      <c r="E29" s="48"/>
+      <c r="F29" s="35"/>
+      <c r="G29" s="34"/>
     </row>
     <row r="30" spans="1:7" ht="17" customHeight="1">
       <c r="A30" s="32">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B30" s="88"/>
-      <c r="C30" s="89"/>
-      <c r="D30" s="55"/>
-      <c r="E30" s="55"/>
-      <c r="F30" s="36"/>
-      <c r="G30" s="35"/>
+      <c r="B30" s="111"/>
+      <c r="C30" s="112"/>
+      <c r="D30" s="48"/>
+      <c r="E30" s="48"/>
+      <c r="F30" s="35"/>
+      <c r="G30" s="34"/>
     </row>
     <row r="31" spans="1:7" ht="17" customHeight="1">
       <c r="A31" s="32">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B31" s="88"/>
-      <c r="C31" s="89"/>
-      <c r="D31" s="55"/>
-      <c r="E31" s="55"/>
-      <c r="F31" s="36"/>
-      <c r="G31" s="35"/>
+      <c r="B31" s="111"/>
+      <c r="C31" s="112"/>
+      <c r="D31" s="48"/>
+      <c r="E31" s="48"/>
+      <c r="F31" s="35"/>
+      <c r="G31" s="34"/>
     </row>
     <row r="32" spans="1:7" ht="17" customHeight="1">
       <c r="A32" s="32">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B32" s="88"/>
-      <c r="C32" s="89"/>
-      <c r="D32" s="56"/>
-      <c r="E32" s="56"/>
-      <c r="F32" s="56"/>
-      <c r="G32" s="40"/>
+      <c r="B32" s="111"/>
+      <c r="C32" s="112"/>
+      <c r="D32" s="113"/>
+      <c r="E32" s="113"/>
+      <c r="F32" s="49"/>
+      <c r="G32" s="39"/>
     </row>
     <row r="33" spans="1:7" ht="17" customHeight="1">
       <c r="A33" s="32">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B33" s="88"/>
-      <c r="C33" s="89"/>
-      <c r="D33" s="56"/>
-      <c r="E33" s="56"/>
-      <c r="F33" s="56"/>
-      <c r="G33" s="40"/>
+      <c r="B33" s="111"/>
+      <c r="C33" s="112"/>
+      <c r="D33" s="113"/>
+      <c r="E33" s="113"/>
+      <c r="F33" s="49"/>
+      <c r="G33" s="39"/>
     </row>
     <row r="34" spans="1:7" ht="17" customHeight="1">
       <c r="A34" s="32">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B34" s="88"/>
-      <c r="C34" s="89"/>
-      <c r="D34" s="56"/>
-      <c r="E34" s="56"/>
-      <c r="F34" s="56"/>
-      <c r="G34" s="40"/>
+      <c r="B34" s="111"/>
+      <c r="C34" s="112"/>
+      <c r="D34" s="113"/>
+      <c r="E34" s="113"/>
+      <c r="F34" s="49"/>
+      <c r="G34" s="39"/>
     </row>
     <row r="35" spans="1:7" ht="17" customHeight="1">
       <c r="A35" s="32">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="B35" s="88"/>
-      <c r="C35" s="89"/>
-      <c r="D35" s="57"/>
-      <c r="E35" s="56"/>
-      <c r="F35" s="56"/>
-      <c r="G35" s="40"/>
+      <c r="B35" s="111"/>
+      <c r="C35" s="112"/>
+      <c r="D35" s="114"/>
+      <c r="E35" s="113"/>
+      <c r="F35" s="49"/>
+      <c r="G35" s="39"/>
     </row>
     <row r="36" spans="1:7" ht="17" customHeight="1">
       <c r="A36" s="32">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="B36" s="88"/>
-      <c r="C36" s="89"/>
-      <c r="D36" s="56"/>
-      <c r="E36" s="56"/>
-      <c r="F36" s="56"/>
-      <c r="G36" s="40"/>
+      <c r="B36" s="111"/>
+      <c r="C36" s="112"/>
+      <c r="D36" s="113"/>
+      <c r="E36" s="113"/>
+      <c r="F36" s="49"/>
+      <c r="G36" s="39"/>
     </row>
     <row r="37" spans="1:7" ht="17" customHeight="1">
       <c r="A37" s="32">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="B37" s="88"/>
-      <c r="C37" s="89"/>
-      <c r="D37" s="56"/>
-      <c r="E37" s="56"/>
-      <c r="F37" s="56"/>
-      <c r="G37" s="40"/>
+      <c r="B37" s="70"/>
+      <c r="C37" s="71"/>
+      <c r="D37" s="49"/>
+      <c r="E37" s="49"/>
+      <c r="F37" s="49"/>
+      <c r="G37" s="39"/>
     </row>
     <row r="38" spans="1:7" ht="17" customHeight="1">
       <c r="A38" s="32">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="B38" s="88"/>
-      <c r="C38" s="89"/>
-      <c r="D38" s="56"/>
-      <c r="E38" s="56"/>
-      <c r="F38" s="56"/>
-      <c r="G38" s="40"/>
+      <c r="B38" s="70"/>
+      <c r="C38" s="71"/>
+      <c r="D38" s="49"/>
+      <c r="E38" s="49"/>
+      <c r="F38" s="49"/>
+      <c r="G38" s="39"/>
     </row>
     <row r="39" spans="1:7" ht="17" customHeight="1">
       <c r="A39" s="32">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="B39" s="88"/>
-      <c r="C39" s="89"/>
-      <c r="D39" s="56"/>
-      <c r="E39" s="56"/>
-      <c r="F39" s="56"/>
-      <c r="G39" s="40"/>
+      <c r="B39" s="70"/>
+      <c r="C39" s="71"/>
+      <c r="D39" s="49"/>
+      <c r="E39" s="49"/>
+      <c r="F39" s="49"/>
+      <c r="G39" s="39"/>
     </row>
     <row r="40" spans="1:7" ht="17" customHeight="1">
       <c r="A40" s="32">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="B40" s="88"/>
-      <c r="C40" s="89"/>
-      <c r="D40" s="56"/>
-      <c r="E40" s="56"/>
-      <c r="F40" s="56"/>
-      <c r="G40" s="40"/>
+      <c r="B40" s="70"/>
+      <c r="C40" s="71"/>
+      <c r="D40" s="49"/>
+      <c r="E40" s="49"/>
+      <c r="F40" s="49"/>
+      <c r="G40" s="39"/>
     </row>
     <row r="41" spans="1:7" ht="17" customHeight="1">
       <c r="A41" s="32">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="B41" s="90"/>
-      <c r="C41" s="91"/>
-      <c r="D41" s="35"/>
-      <c r="E41" s="58"/>
-      <c r="F41" s="59"/>
-      <c r="G41" s="40"/>
+      <c r="B41" s="72"/>
+      <c r="C41" s="73"/>
+      <c r="D41" s="34"/>
+      <c r="E41" s="50"/>
+      <c r="F41" s="51"/>
+      <c r="G41" s="39"/>
     </row>
     <row r="42" spans="1:7" ht="17" customHeight="1">
       <c r="A42" s="32">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="B42" s="90"/>
-      <c r="C42" s="91"/>
-      <c r="D42" s="35"/>
-      <c r="E42" s="56"/>
-      <c r="F42" s="56"/>
-      <c r="G42" s="40"/>
+      <c r="B42" s="72"/>
+      <c r="C42" s="73"/>
+      <c r="D42" s="34"/>
+      <c r="E42" s="49"/>
+      <c r="F42" s="49"/>
+      <c r="G42" s="39"/>
     </row>
     <row r="43" spans="1:7" ht="17" customHeight="1">
       <c r="A43" s="32">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="B43" s="86"/>
-      <c r="C43" s="87"/>
-      <c r="D43" s="60"/>
-      <c r="E43" s="60"/>
-      <c r="F43" s="39"/>
-      <c r="G43" s="35"/>
+      <c r="B43" s="74"/>
+      <c r="C43" s="75"/>
+      <c r="D43" s="52"/>
+      <c r="E43" s="52"/>
+      <c r="F43" s="38"/>
+      <c r="G43" s="34"/>
     </row>
     <row r="44" spans="1:7" ht="17" customHeight="1">
       <c r="A44" s="32">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="B44" s="80"/>
-      <c r="C44" s="81"/>
-      <c r="D44" s="38"/>
-      <c r="E44" s="38"/>
-      <c r="F44" s="39"/>
-      <c r="G44" s="35"/>
+      <c r="B44" s="76"/>
+      <c r="C44" s="77"/>
+      <c r="D44" s="37"/>
+      <c r="E44" s="37"/>
+      <c r="F44" s="38"/>
+      <c r="G44" s="34"/>
     </row>
     <row r="45" spans="1:7" ht="17" customHeight="1">
       <c r="A45" s="32">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="B45" s="80"/>
-      <c r="C45" s="81"/>
-      <c r="D45" s="38"/>
-      <c r="E45" s="38"/>
-      <c r="F45" s="39"/>
-      <c r="G45" s="35"/>
+      <c r="B45" s="76"/>
+      <c r="C45" s="77"/>
+      <c r="D45" s="37"/>
+      <c r="E45" s="37"/>
+      <c r="F45" s="38"/>
+      <c r="G45" s="34"/>
     </row>
     <row r="46" spans="1:7" ht="17" customHeight="1">
       <c r="A46" s="32">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="B46" s="84"/>
-      <c r="C46" s="85"/>
-      <c r="D46" s="61"/>
-      <c r="E46" s="38"/>
-      <c r="F46" s="62"/>
-      <c r="G46" s="35"/>
+      <c r="B46" s="78"/>
+      <c r="C46" s="79"/>
+      <c r="D46" s="53"/>
+      <c r="E46" s="37"/>
+      <c r="F46" s="54"/>
+      <c r="G46" s="34"/>
     </row>
     <row r="47" spans="1:7" ht="17" customHeight="1">
       <c r="A47" s="32">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="B47" s="80"/>
-      <c r="C47" s="81"/>
-      <c r="D47" s="38"/>
-      <c r="E47" s="38"/>
-      <c r="F47" s="62"/>
-      <c r="G47" s="35"/>
+      <c r="B47" s="76"/>
+      <c r="C47" s="77"/>
+      <c r="D47" s="37"/>
+      <c r="E47" s="37"/>
+      <c r="F47" s="54"/>
+      <c r="G47" s="34"/>
     </row>
     <row r="48" spans="1:7" ht="17" customHeight="1">
       <c r="A48" s="32">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="B48" s="80"/>
-      <c r="C48" s="81"/>
-      <c r="D48" s="38"/>
-      <c r="E48" s="38"/>
-      <c r="F48" s="62"/>
-      <c r="G48" s="35"/>
+      <c r="B48" s="76"/>
+      <c r="C48" s="77"/>
+      <c r="D48" s="37"/>
+      <c r="E48" s="37"/>
+      <c r="F48" s="54"/>
+      <c r="G48" s="34"/>
     </row>
     <row r="49" spans="1:7" ht="17" customHeight="1">
       <c r="A49" s="32">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="B49" s="80"/>
-      <c r="C49" s="81"/>
-      <c r="D49" s="38"/>
-      <c r="E49" s="38"/>
-      <c r="F49" s="62"/>
-      <c r="G49" s="35"/>
+      <c r="B49" s="76"/>
+      <c r="C49" s="77"/>
+      <c r="D49" s="37"/>
+      <c r="E49" s="37"/>
+      <c r="F49" s="54"/>
+      <c r="G49" s="34"/>
     </row>
     <row r="50" spans="1:7" ht="17" customHeight="1">
       <c r="A50" s="32">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="B50" s="82"/>
-      <c r="C50" s="83"/>
-      <c r="D50" s="38"/>
-      <c r="E50" s="38"/>
-      <c r="F50" s="38"/>
-      <c r="G50" s="35"/>
+      <c r="B50" s="80"/>
+      <c r="C50" s="81"/>
+      <c r="D50" s="37"/>
+      <c r="E50" s="37"/>
+      <c r="F50" s="37"/>
+      <c r="G50" s="34"/>
     </row>
     <row r="51" spans="1:7" ht="17" customHeight="1">
       <c r="A51" s="32">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="B51" s="80"/>
-      <c r="C51" s="81"/>
-      <c r="D51" s="38"/>
-      <c r="E51" s="38"/>
-      <c r="F51" s="62"/>
-      <c r="G51" s="35"/>
+      <c r="B51" s="76"/>
+      <c r="C51" s="77"/>
+      <c r="D51" s="37"/>
+      <c r="E51" s="37"/>
+      <c r="F51" s="54"/>
+      <c r="G51" s="34"/>
     </row>
     <row r="52" spans="1:7" ht="17" customHeight="1">
       <c r="A52" s="32">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="B52" s="84"/>
-      <c r="C52" s="85"/>
-      <c r="D52" s="61"/>
-      <c r="E52" s="38"/>
-      <c r="F52" s="62"/>
-      <c r="G52" s="35"/>
+      <c r="B52" s="78"/>
+      <c r="C52" s="79"/>
+      <c r="D52" s="53"/>
+      <c r="E52" s="37"/>
+      <c r="F52" s="54"/>
+      <c r="G52" s="34"/>
     </row>
     <row r="53" spans="1:7" ht="17" customHeight="1">
       <c r="A53" s="32">
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
-      <c r="B53" s="63"/>
-      <c r="C53" s="64"/>
-      <c r="D53" s="61"/>
-      <c r="E53" s="38"/>
-      <c r="F53" s="62"/>
-      <c r="G53" s="35"/>
+      <c r="B53" s="55"/>
+      <c r="C53" s="56"/>
+      <c r="D53" s="53"/>
+      <c r="E53" s="37"/>
+      <c r="F53" s="54"/>
+      <c r="G53" s="34"/>
     </row>
     <row r="54" spans="1:7" ht="17" customHeight="1">
       <c r="A54" s="32">
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
-      <c r="B54" s="63"/>
-      <c r="C54" s="64"/>
-      <c r="D54" s="61"/>
-      <c r="E54" s="38"/>
-      <c r="F54" s="62"/>
-      <c r="G54" s="35"/>
+      <c r="B54" s="55"/>
+      <c r="C54" s="56"/>
+      <c r="D54" s="53"/>
+      <c r="E54" s="37"/>
+      <c r="F54" s="54"/>
+      <c r="G54" s="34"/>
     </row>
     <row r="55" spans="1:7" ht="17" customHeight="1">
       <c r="A55" s="32">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="B55" s="78"/>
-      <c r="C55" s="79"/>
-      <c r="D55" s="34"/>
-      <c r="E55" s="38"/>
-      <c r="F55" s="62"/>
-      <c r="G55" s="35"/>
+      <c r="B55" s="82"/>
+      <c r="C55" s="83"/>
+      <c r="D55" s="33"/>
+      <c r="E55" s="37"/>
+      <c r="F55" s="54"/>
+      <c r="G55" s="34"/>
     </row>
     <row r="56" spans="1:7" ht="17" customHeight="1">
       <c r="A56" s="32">
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
-      <c r="B56" s="80"/>
-      <c r="C56" s="81"/>
-      <c r="D56" s="38"/>
-      <c r="E56" s="38"/>
-      <c r="F56" s="35"/>
-      <c r="G56" s="35"/>
+      <c r="B56" s="76"/>
+      <c r="C56" s="77"/>
+      <c r="D56" s="37"/>
+      <c r="E56" s="37"/>
+      <c r="F56" s="34"/>
+      <c r="G56" s="34"/>
     </row>
     <row r="57" spans="1:7" ht="17" customHeight="1">
       <c r="A57" s="32">
         <f t="shared" si="0"/>
         <v>47</v>
       </c>
-      <c r="B57" s="80"/>
-      <c r="C57" s="81"/>
-      <c r="D57" s="38"/>
-      <c r="E57" s="38"/>
-      <c r="F57" s="35"/>
-      <c r="G57" s="35"/>
+      <c r="B57" s="76"/>
+      <c r="C57" s="77"/>
+      <c r="D57" s="37"/>
+      <c r="E57" s="37"/>
+      <c r="F57" s="34"/>
+      <c r="G57" s="34"/>
     </row>
     <row r="58" spans="1:7" ht="17" customHeight="1">
       <c r="A58" s="32">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="B58" s="80"/>
-      <c r="C58" s="81"/>
-      <c r="D58" s="38"/>
-      <c r="E58" s="38"/>
-      <c r="F58" s="35"/>
-      <c r="G58" s="35"/>
+      <c r="B58" s="76"/>
+      <c r="C58" s="77"/>
+      <c r="D58" s="37"/>
+      <c r="E58" s="37"/>
+      <c r="F58" s="34"/>
+      <c r="G58" s="34"/>
     </row>
     <row r="59" spans="1:7" ht="17" customHeight="1">
       <c r="A59" s="32">
         <f t="shared" si="0"/>
         <v>49</v>
       </c>
-      <c r="B59" s="80"/>
-      <c r="C59" s="81"/>
-      <c r="D59" s="38"/>
-      <c r="E59" s="38"/>
-      <c r="F59" s="38"/>
-      <c r="G59" s="35"/>
+      <c r="B59" s="76"/>
+      <c r="C59" s="77"/>
+      <c r="D59" s="37"/>
+      <c r="E59" s="37"/>
+      <c r="F59" s="37"/>
+      <c r="G59" s="34"/>
     </row>
     <row r="60" spans="1:7" ht="17" customHeight="1">
       <c r="A60" s="32">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="B60" s="80"/>
-      <c r="C60" s="81"/>
-      <c r="D60" s="38"/>
-      <c r="E60" s="38"/>
-      <c r="F60" s="38"/>
-      <c r="G60" s="35"/>
+      <c r="B60" s="76"/>
+      <c r="C60" s="77"/>
+      <c r="D60" s="37"/>
+      <c r="E60" s="37"/>
+      <c r="F60" s="37"/>
+      <c r="G60" s="34"/>
     </row>
     <row r="61" spans="1:7" ht="17" customHeight="1">
       <c r="A61" s="32">
         <f t="shared" si="0"/>
         <v>51</v>
       </c>
-      <c r="B61" s="80"/>
-      <c r="C61" s="81"/>
-      <c r="D61" s="38"/>
-      <c r="E61" s="38"/>
-      <c r="F61" s="38"/>
-      <c r="G61" s="35"/>
+      <c r="B61" s="76"/>
+      <c r="C61" s="77"/>
+      <c r="D61" s="37"/>
+      <c r="E61" s="37"/>
+      <c r="F61" s="37"/>
+      <c r="G61" s="34"/>
     </row>
     <row r="62" spans="1:7" ht="17" customHeight="1">
       <c r="A62" s="32">
         <f t="shared" si="0"/>
         <v>52</v>
       </c>
-      <c r="B62" s="80" t="s">
+      <c r="B62" s="76" t="s">
         <v>120</v>
       </c>
-      <c r="C62" s="81"/>
-      <c r="D62" s="38" t="s">
+      <c r="C62" s="77"/>
+      <c r="D62" s="37" t="s">
         <v>121</v>
       </c>
-      <c r="E62" s="38" t="s">
+      <c r="E62" s="37" t="s">
         <v>118</v>
       </c>
-      <c r="F62" s="34" t="s">
+      <c r="F62" s="33" t="s">
         <v>119</v>
       </c>
-      <c r="G62" s="35" t="s">
+      <c r="G62" s="34" t="s">
         <v>147</v>
       </c>
     </row>
@@ -2664,20 +2607,20 @@
         <f t="shared" si="0"/>
         <v>53</v>
       </c>
-      <c r="B63" s="72" t="s">
+      <c r="B63" s="86" t="s">
         <v>122</v>
       </c>
-      <c r="C63" s="73"/>
-      <c r="D63" s="41" t="s">
+      <c r="C63" s="87"/>
+      <c r="D63" s="40" t="s">
         <v>123</v>
       </c>
-      <c r="E63" s="42" t="s">
+      <c r="E63" s="41" t="s">
         <v>118</v>
       </c>
-      <c r="F63" s="40" t="s">
+      <c r="F63" s="39" t="s">
         <v>124</v>
       </c>
-      <c r="G63" s="40" t="s">
+      <c r="G63" s="39" t="s">
         <v>125</v>
       </c>
     </row>
@@ -2686,20 +2629,20 @@
         <f t="shared" si="0"/>
         <v>54</v>
       </c>
-      <c r="B64" s="72" t="s">
+      <c r="B64" s="86" t="s">
         <v>126</v>
       </c>
-      <c r="C64" s="73"/>
-      <c r="D64" s="43" t="s">
+      <c r="C64" s="87"/>
+      <c r="D64" s="42" t="s">
         <v>127</v>
       </c>
-      <c r="E64" s="44" t="s">
+      <c r="E64" s="43" t="s">
         <v>118</v>
       </c>
-      <c r="F64" s="45" t="s">
+      <c r="F64" s="44" t="s">
         <v>128</v>
       </c>
-      <c r="G64" s="40" t="s">
+      <c r="G64" s="39" t="s">
         <v>125</v>
       </c>
     </row>
@@ -2708,20 +2651,20 @@
         <f t="shared" si="0"/>
         <v>55</v>
       </c>
-      <c r="B65" s="74" t="s">
+      <c r="B65" s="88" t="s">
         <v>129</v>
       </c>
-      <c r="C65" s="75"/>
-      <c r="D65" s="40" t="s">
+      <c r="C65" s="89"/>
+      <c r="D65" s="39" t="s">
         <v>130</v>
       </c>
-      <c r="E65" s="40" t="s">
+      <c r="E65" s="39" t="s">
         <v>118</v>
       </c>
-      <c r="F65" s="40" t="s">
+      <c r="F65" s="39" t="s">
         <v>131</v>
       </c>
-      <c r="G65" s="45" t="s">
+      <c r="G65" s="44" t="s">
         <v>125</v>
       </c>
     </row>
@@ -2730,20 +2673,20 @@
         <f t="shared" si="0"/>
         <v>56</v>
       </c>
-      <c r="B66" s="76" t="s">
+      <c r="B66" s="90" t="s">
         <v>132</v>
       </c>
-      <c r="C66" s="77"/>
-      <c r="D66" s="46" t="s">
+      <c r="C66" s="91"/>
+      <c r="D66" s="45" t="s">
         <v>133</v>
       </c>
-      <c r="E66" s="40" t="s">
+      <c r="E66" s="39" t="s">
         <v>117</v>
       </c>
-      <c r="F66" s="40" t="s">
+      <c r="F66" s="39" t="s">
         <v>148</v>
       </c>
-      <c r="G66" s="40" t="s">
+      <c r="G66" s="39" t="s">
         <v>134</v>
       </c>
     </row>
@@ -2752,20 +2695,20 @@
         <f t="shared" si="0"/>
         <v>57</v>
       </c>
-      <c r="B67" s="70" t="s">
+      <c r="B67" s="84" t="s">
         <v>135</v>
       </c>
-      <c r="C67" s="71"/>
-      <c r="D67" s="47" t="s">
+      <c r="C67" s="85"/>
+      <c r="D67" s="46" t="s">
         <v>136</v>
       </c>
-      <c r="E67" s="45" t="s">
+      <c r="E67" s="44" t="s">
         <v>117</v>
       </c>
-      <c r="F67" s="45" t="s">
+      <c r="F67" s="44" t="s">
         <v>137</v>
       </c>
-      <c r="G67" s="40" t="s">
+      <c r="G67" s="39" t="s">
         <v>134</v>
       </c>
     </row>
@@ -2774,20 +2717,20 @@
         <f t="shared" si="0"/>
         <v>58</v>
       </c>
-      <c r="B68" s="70" t="s">
+      <c r="B68" s="84" t="s">
         <v>138</v>
       </c>
-      <c r="C68" s="71"/>
-      <c r="D68" s="47" t="s">
+      <c r="C68" s="85"/>
+      <c r="D68" s="46" t="s">
         <v>139</v>
       </c>
-      <c r="E68" s="45" t="s">
+      <c r="E68" s="44" t="s">
         <v>118</v>
       </c>
-      <c r="F68" s="45" t="s">
+      <c r="F68" s="44" t="s">
         <v>140</v>
       </c>
-      <c r="G68" s="40" t="s">
+      <c r="G68" s="39" t="s">
         <v>125</v>
       </c>
     </row>
@@ -2796,20 +2739,20 @@
         <f t="shared" si="0"/>
         <v>59</v>
       </c>
-      <c r="B69" s="70" t="s">
+      <c r="B69" s="84" t="s">
         <v>141</v>
       </c>
-      <c r="C69" s="71"/>
-      <c r="D69" s="47" t="s">
+      <c r="C69" s="85"/>
+      <c r="D69" s="46" t="s">
         <v>142</v>
       </c>
-      <c r="E69" s="45" t="s">
+      <c r="E69" s="44" t="s">
         <v>118</v>
       </c>
-      <c r="F69" s="45" t="s">
+      <c r="F69" s="44" t="s">
         <v>124</v>
       </c>
-      <c r="G69" s="40" t="s">
+      <c r="G69" s="39" t="s">
         <v>125</v>
       </c>
     </row>
@@ -2818,18 +2761,18 @@
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="B70" s="70" t="s">
+      <c r="B70" s="84" t="s">
         <v>116</v>
       </c>
-      <c r="C70" s="71"/>
-      <c r="D70" s="47" t="s">
+      <c r="C70" s="85"/>
+      <c r="D70" s="46" t="s">
         <v>143</v>
       </c>
-      <c r="E70" s="45" t="s">
+      <c r="E70" s="44" t="s">
         <v>117</v>
       </c>
-      <c r="F70" s="45"/>
-      <c r="G70" s="40" t="s">
+      <c r="F70" s="44"/>
+      <c r="G70" s="39" t="s">
         <v>125</v>
       </c>
     </row>
@@ -2838,20 +2781,20 @@
         <f t="shared" si="0"/>
         <v>61</v>
       </c>
-      <c r="B71" s="70" t="s">
+      <c r="B71" s="84" t="s">
         <v>144</v>
       </c>
-      <c r="C71" s="71"/>
-      <c r="D71" s="47" t="s">
+      <c r="C71" s="85"/>
+      <c r="D71" s="46" t="s">
         <v>145</v>
       </c>
-      <c r="E71" s="45" t="s">
+      <c r="E71" s="44" t="s">
         <v>118</v>
       </c>
-      <c r="F71" s="45" t="s">
+      <c r="F71" s="44" t="s">
         <v>146</v>
       </c>
-      <c r="G71" s="40" t="s">
+      <c r="G71" s="39" t="s">
         <v>125</v>
       </c>
     </row>
@@ -2863,15 +2806,49 @@
     <row r="78" spans="1:7" ht="12" thickTop="1"/>
   </sheetData>
   <mergeCells count="66">
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="B1:G1"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B25:C25"/>
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="B28:C28"/>
     <mergeCell ref="B29:C29"/>
@@ -2886,49 +2863,15 @@
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="B22:C22"/>
     <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C6:D6"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1"/>

--- a/templates/plantilla_ayudantes.xlsx
+++ b/templates/plantilla_ayudantes.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="20225"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25280" windowHeight="12800" tabRatio="913"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28180" windowHeight="17060" tabRatio="913"/>
   </bookViews>
   <sheets>
     <sheet name="SOLICITUD DE ACCESO | PERSONAS" sheetId="14" r:id="rId1"/>
-    <sheet name="CC | 09-TCC &quot;CATALOGO DE CARGO&quot;" sheetId="11" state="hidden" r:id="rId2"/>
+    <sheet name="CC | 09-TCC &quot;CATALOGO DE CARGO&quot;" sheetId="11" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'CC | 09-TCC "CATALOGO DE CARGO"'!$A$1:$F$98</definedName>
@@ -1224,6 +1224,45 @@
     <xf numFmtId="49" fontId="26" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="22" fontId="4" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1251,6 +1290,36 @@
     <xf numFmtId="164" fontId="4" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -1315,75 +1384,6 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="16" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
@@ -1836,8 +1836,8 @@
   <dimension ref="A1:G78"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D20" sqref="D20"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B11" sqref="B11:C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="11" x14ac:dyDescent="0"/>
@@ -1853,14 +1853,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="39.75" customHeight="1">
-      <c r="B1" s="63" t="s">
+      <c r="B1" s="76" t="s">
         <v>115</v>
       </c>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
     </row>
     <row r="2" spans="1:7">
       <c r="B2" s="5"/>
@@ -1873,10 +1873,10 @@
       <c r="B3" s="20" t="s">
         <v>111</v>
       </c>
-      <c r="C3" s="61" t="s">
+      <c r="C3" s="74" t="s">
         <v>152</v>
       </c>
-      <c r="D3" s="62"/>
+      <c r="D3" s="75"/>
       <c r="E3" s="25"/>
       <c r="F3" s="25"/>
       <c r="G3" s="26"/>
@@ -1885,10 +1885,10 @@
       <c r="B4" s="20" t="s">
         <v>110</v>
       </c>
-      <c r="C4" s="61" t="s">
+      <c r="C4" s="74" t="s">
         <v>150</v>
       </c>
-      <c r="D4" s="62"/>
+      <c r="D4" s="75"/>
       <c r="E4" s="25"/>
       <c r="F4" s="25"/>
       <c r="G4" s="26"/>
@@ -1907,8 +1907,8 @@
       <c r="B6" s="20" t="s">
         <v>113</v>
       </c>
-      <c r="C6" s="66"/>
-      <c r="D6" s="67"/>
+      <c r="C6" s="79"/>
+      <c r="D6" s="80"/>
       <c r="E6" s="25"/>
       <c r="F6" s="25"/>
       <c r="G6" s="26"/>
@@ -1918,10 +1918,10 @@
         <v>112</v>
       </c>
       <c r="B7" s="30"/>
-      <c r="C7" s="66" t="s">
+      <c r="C7" s="79" t="s">
         <v>151</v>
       </c>
-      <c r="D7" s="67"/>
+      <c r="D7" s="80"/>
       <c r="E7" s="25"/>
       <c r="F7" s="25"/>
       <c r="G7" s="26"/>
@@ -1930,8 +1930,8 @@
       <c r="B8" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="C8" s="68"/>
-      <c r="D8" s="69"/>
+      <c r="C8" s="81"/>
+      <c r="D8" s="82"/>
       <c r="E8" s="25"/>
       <c r="F8" s="25"/>
       <c r="G8" s="26"/>
@@ -1952,10 +1952,10 @@
       <c r="A10" s="27" t="s">
         <v>107</v>
       </c>
-      <c r="B10" s="64" t="s">
+      <c r="B10" s="77" t="s">
         <v>105</v>
       </c>
-      <c r="C10" s="65"/>
+      <c r="C10" s="78"/>
       <c r="D10" s="2" t="s">
         <v>102</v>
       </c>
@@ -1973,8 +1973,8 @@
       <c r="A11" s="32">
         <v>1</v>
       </c>
-      <c r="B11" s="92"/>
-      <c r="C11" s="93"/>
+      <c r="B11" s="72"/>
+      <c r="C11" s="73"/>
       <c r="D11" s="60"/>
       <c r="E11" s="60"/>
       <c r="F11" s="57"/>
@@ -1985,8 +1985,8 @@
         <f>A11+1</f>
         <v>2</v>
       </c>
-      <c r="B12" s="92"/>
-      <c r="C12" s="93"/>
+      <c r="B12" s="72"/>
+      <c r="C12" s="73"/>
       <c r="D12" s="60"/>
       <c r="E12" s="60"/>
       <c r="F12" s="57"/>
@@ -1997,8 +1997,8 @@
         <f t="shared" ref="A13:A71" si="0">A12+1</f>
         <v>3</v>
       </c>
-      <c r="B13" s="92"/>
-      <c r="C13" s="93"/>
+      <c r="B13" s="72"/>
+      <c r="C13" s="73"/>
       <c r="D13" s="60"/>
       <c r="E13" s="60"/>
       <c r="F13" s="59"/>
@@ -2009,8 +2009,8 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B14" s="92"/>
-      <c r="C14" s="93"/>
+      <c r="B14" s="72"/>
+      <c r="C14" s="73"/>
       <c r="D14" s="60"/>
       <c r="E14" s="60"/>
       <c r="F14" s="59"/>
@@ -2021,8 +2021,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B15" s="92"/>
-      <c r="C15" s="93"/>
+      <c r="B15" s="72"/>
+      <c r="C15" s="73"/>
       <c r="D15" s="60"/>
       <c r="E15" s="60"/>
       <c r="F15" s="59"/>
@@ -2033,10 +2033,10 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B16" s="94"/>
-      <c r="C16" s="95"/>
-      <c r="D16" s="96"/>
-      <c r="E16" s="97"/>
+      <c r="B16" s="87"/>
+      <c r="C16" s="88"/>
+      <c r="D16" s="61"/>
+      <c r="E16" s="62"/>
       <c r="F16" s="59"/>
       <c r="G16" s="58"/>
     </row>
@@ -2045,10 +2045,10 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B17" s="92"/>
-      <c r="C17" s="93"/>
-      <c r="D17" s="96"/>
-      <c r="E17" s="97"/>
+      <c r="B17" s="72"/>
+      <c r="C17" s="73"/>
+      <c r="D17" s="61"/>
+      <c r="E17" s="62"/>
       <c r="F17" s="35"/>
       <c r="G17" s="58"/>
     </row>
@@ -2057,10 +2057,10 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B18" s="92"/>
-      <c r="C18" s="93"/>
-      <c r="D18" s="96"/>
-      <c r="E18" s="97"/>
+      <c r="B18" s="72"/>
+      <c r="C18" s="73"/>
+      <c r="D18" s="61"/>
+      <c r="E18" s="62"/>
       <c r="F18" s="35"/>
       <c r="G18" s="58"/>
     </row>
@@ -2069,10 +2069,10 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B19" s="92"/>
-      <c r="C19" s="93"/>
-      <c r="D19" s="96"/>
-      <c r="E19" s="97"/>
+      <c r="B19" s="72"/>
+      <c r="C19" s="73"/>
+      <c r="D19" s="61"/>
+      <c r="E19" s="62"/>
       <c r="F19" s="35"/>
       <c r="G19" s="58"/>
     </row>
@@ -2081,10 +2081,10 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B20" s="94"/>
-      <c r="C20" s="95"/>
-      <c r="D20" s="96"/>
-      <c r="E20" s="97"/>
+      <c r="B20" s="87"/>
+      <c r="C20" s="88"/>
+      <c r="D20" s="61"/>
+      <c r="E20" s="62"/>
       <c r="F20" s="35"/>
       <c r="G20" s="58"/>
     </row>
@@ -2093,10 +2093,10 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B21" s="98"/>
-      <c r="C21" s="99"/>
-      <c r="D21" s="100"/>
-      <c r="E21" s="101"/>
+      <c r="B21" s="85"/>
+      <c r="C21" s="86"/>
+      <c r="D21" s="63"/>
+      <c r="E21" s="64"/>
       <c r="F21" s="35"/>
       <c r="G21" s="34"/>
     </row>
@@ -2105,10 +2105,10 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B22" s="102"/>
-      <c r="C22" s="103"/>
-      <c r="D22" s="104"/>
-      <c r="E22" s="105"/>
+      <c r="B22" s="89"/>
+      <c r="C22" s="90"/>
+      <c r="D22" s="65"/>
+      <c r="E22" s="66"/>
       <c r="F22" s="36"/>
       <c r="G22" s="34"/>
     </row>
@@ -2117,10 +2117,10 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B23" s="106"/>
-      <c r="C23" s="107"/>
-      <c r="D23" s="108"/>
-      <c r="E23" s="109"/>
+      <c r="B23" s="91"/>
+      <c r="C23" s="92"/>
+      <c r="D23" s="67"/>
+      <c r="E23" s="68"/>
       <c r="F23" s="47"/>
       <c r="G23" s="37"/>
     </row>
@@ -2129,10 +2129,10 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B24" s="98"/>
-      <c r="C24" s="99"/>
-      <c r="D24" s="100"/>
-      <c r="E24" s="110"/>
+      <c r="B24" s="85"/>
+      <c r="C24" s="86"/>
+      <c r="D24" s="63"/>
+      <c r="E24" s="69"/>
       <c r="F24" s="47"/>
       <c r="G24" s="34"/>
     </row>
@@ -2141,10 +2141,10 @@
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B25" s="98"/>
-      <c r="C25" s="99"/>
-      <c r="D25" s="100"/>
-      <c r="E25" s="109"/>
+      <c r="B25" s="85"/>
+      <c r="C25" s="86"/>
+      <c r="D25" s="63"/>
+      <c r="E25" s="68"/>
       <c r="F25" s="38"/>
       <c r="G25" s="34"/>
     </row>
@@ -2153,8 +2153,8 @@
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B26" s="111"/>
-      <c r="C26" s="112"/>
+      <c r="B26" s="83"/>
+      <c r="C26" s="84"/>
       <c r="D26" s="48"/>
       <c r="E26" s="48"/>
       <c r="F26" s="33"/>
@@ -2165,8 +2165,8 @@
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B27" s="111"/>
-      <c r="C27" s="112"/>
+      <c r="B27" s="83"/>
+      <c r="C27" s="84"/>
       <c r="D27" s="48"/>
       <c r="E27" s="48"/>
       <c r="F27" s="33"/>
@@ -2177,8 +2177,8 @@
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B28" s="111"/>
-      <c r="C28" s="112"/>
+      <c r="B28" s="83"/>
+      <c r="C28" s="84"/>
       <c r="D28" s="48"/>
       <c r="E28" s="48"/>
       <c r="F28" s="33"/>
@@ -2189,8 +2189,8 @@
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B29" s="111"/>
-      <c r="C29" s="112"/>
+      <c r="B29" s="83"/>
+      <c r="C29" s="84"/>
       <c r="D29" s="48"/>
       <c r="E29" s="48"/>
       <c r="F29" s="35"/>
@@ -2201,8 +2201,8 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B30" s="111"/>
-      <c r="C30" s="112"/>
+      <c r="B30" s="83"/>
+      <c r="C30" s="84"/>
       <c r="D30" s="48"/>
       <c r="E30" s="48"/>
       <c r="F30" s="35"/>
@@ -2213,8 +2213,8 @@
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B31" s="111"/>
-      <c r="C31" s="112"/>
+      <c r="B31" s="83"/>
+      <c r="C31" s="84"/>
       <c r="D31" s="48"/>
       <c r="E31" s="48"/>
       <c r="F31" s="35"/>
@@ -2225,10 +2225,10 @@
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B32" s="111"/>
-      <c r="C32" s="112"/>
-      <c r="D32" s="113"/>
-      <c r="E32" s="113"/>
+      <c r="B32" s="83"/>
+      <c r="C32" s="84"/>
+      <c r="D32" s="70"/>
+      <c r="E32" s="70"/>
       <c r="F32" s="49"/>
       <c r="G32" s="39"/>
     </row>
@@ -2237,10 +2237,10 @@
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B33" s="111"/>
-      <c r="C33" s="112"/>
-      <c r="D33" s="113"/>
-      <c r="E33" s="113"/>
+      <c r="B33" s="83"/>
+      <c r="C33" s="84"/>
+      <c r="D33" s="70"/>
+      <c r="E33" s="70"/>
       <c r="F33" s="49"/>
       <c r="G33" s="39"/>
     </row>
@@ -2249,10 +2249,10 @@
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B34" s="111"/>
-      <c r="C34" s="112"/>
-      <c r="D34" s="113"/>
-      <c r="E34" s="113"/>
+      <c r="B34" s="83"/>
+      <c r="C34" s="84"/>
+      <c r="D34" s="70"/>
+      <c r="E34" s="70"/>
       <c r="F34" s="49"/>
       <c r="G34" s="39"/>
     </row>
@@ -2261,10 +2261,10 @@
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="B35" s="111"/>
-      <c r="C35" s="112"/>
-      <c r="D35" s="114"/>
-      <c r="E35" s="113"/>
+      <c r="B35" s="83"/>
+      <c r="C35" s="84"/>
+      <c r="D35" s="71"/>
+      <c r="E35" s="70"/>
       <c r="F35" s="49"/>
       <c r="G35" s="39"/>
     </row>
@@ -2273,10 +2273,10 @@
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="B36" s="111"/>
-      <c r="C36" s="112"/>
-      <c r="D36" s="113"/>
-      <c r="E36" s="113"/>
+      <c r="B36" s="83"/>
+      <c r="C36" s="84"/>
+      <c r="D36" s="70"/>
+      <c r="E36" s="70"/>
       <c r="F36" s="49"/>
       <c r="G36" s="39"/>
     </row>
@@ -2285,8 +2285,8 @@
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="B37" s="70"/>
-      <c r="C37" s="71"/>
+      <c r="B37" s="93"/>
+      <c r="C37" s="94"/>
       <c r="D37" s="49"/>
       <c r="E37" s="49"/>
       <c r="F37" s="49"/>
@@ -2297,8 +2297,8 @@
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="B38" s="70"/>
-      <c r="C38" s="71"/>
+      <c r="B38" s="93"/>
+      <c r="C38" s="94"/>
       <c r="D38" s="49"/>
       <c r="E38" s="49"/>
       <c r="F38" s="49"/>
@@ -2309,8 +2309,8 @@
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="B39" s="70"/>
-      <c r="C39" s="71"/>
+      <c r="B39" s="93"/>
+      <c r="C39" s="94"/>
       <c r="D39" s="49"/>
       <c r="E39" s="49"/>
       <c r="F39" s="49"/>
@@ -2321,8 +2321,8 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="B40" s="70"/>
-      <c r="C40" s="71"/>
+      <c r="B40" s="93"/>
+      <c r="C40" s="94"/>
       <c r="D40" s="49"/>
       <c r="E40" s="49"/>
       <c r="F40" s="49"/>
@@ -2333,8 +2333,8 @@
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="B41" s="72"/>
-      <c r="C41" s="73"/>
+      <c r="B41" s="95"/>
+      <c r="C41" s="96"/>
       <c r="D41" s="34"/>
       <c r="E41" s="50"/>
       <c r="F41" s="51"/>
@@ -2345,8 +2345,8 @@
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="B42" s="72"/>
-      <c r="C42" s="73"/>
+      <c r="B42" s="95"/>
+      <c r="C42" s="96"/>
       <c r="D42" s="34"/>
       <c r="E42" s="49"/>
       <c r="F42" s="49"/>
@@ -2357,8 +2357,8 @@
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="B43" s="74"/>
-      <c r="C43" s="75"/>
+      <c r="B43" s="97"/>
+      <c r="C43" s="98"/>
       <c r="D43" s="52"/>
       <c r="E43" s="52"/>
       <c r="F43" s="38"/>
@@ -2369,8 +2369,8 @@
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="B44" s="76"/>
-      <c r="C44" s="77"/>
+      <c r="B44" s="99"/>
+      <c r="C44" s="100"/>
       <c r="D44" s="37"/>
       <c r="E44" s="37"/>
       <c r="F44" s="38"/>
@@ -2381,8 +2381,8 @@
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="B45" s="76"/>
-      <c r="C45" s="77"/>
+      <c r="B45" s="99"/>
+      <c r="C45" s="100"/>
       <c r="D45" s="37"/>
       <c r="E45" s="37"/>
       <c r="F45" s="38"/>
@@ -2393,8 +2393,8 @@
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="B46" s="78"/>
-      <c r="C46" s="79"/>
+      <c r="B46" s="101"/>
+      <c r="C46" s="102"/>
       <c r="D46" s="53"/>
       <c r="E46" s="37"/>
       <c r="F46" s="54"/>
@@ -2405,8 +2405,8 @@
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="B47" s="76"/>
-      <c r="C47" s="77"/>
+      <c r="B47" s="99"/>
+      <c r="C47" s="100"/>
       <c r="D47" s="37"/>
       <c r="E47" s="37"/>
       <c r="F47" s="54"/>
@@ -2417,8 +2417,8 @@
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="B48" s="76"/>
-      <c r="C48" s="77"/>
+      <c r="B48" s="99"/>
+      <c r="C48" s="100"/>
       <c r="D48" s="37"/>
       <c r="E48" s="37"/>
       <c r="F48" s="54"/>
@@ -2429,8 +2429,8 @@
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="B49" s="76"/>
-      <c r="C49" s="77"/>
+      <c r="B49" s="99"/>
+      <c r="C49" s="100"/>
       <c r="D49" s="37"/>
       <c r="E49" s="37"/>
       <c r="F49" s="54"/>
@@ -2441,8 +2441,8 @@
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="B50" s="80"/>
-      <c r="C50" s="81"/>
+      <c r="B50" s="103"/>
+      <c r="C50" s="104"/>
       <c r="D50" s="37"/>
       <c r="E50" s="37"/>
       <c r="F50" s="37"/>
@@ -2453,8 +2453,8 @@
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="B51" s="76"/>
-      <c r="C51" s="77"/>
+      <c r="B51" s="99"/>
+      <c r="C51" s="100"/>
       <c r="D51" s="37"/>
       <c r="E51" s="37"/>
       <c r="F51" s="54"/>
@@ -2465,8 +2465,8 @@
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="B52" s="78"/>
-      <c r="C52" s="79"/>
+      <c r="B52" s="101"/>
+      <c r="C52" s="102"/>
       <c r="D52" s="53"/>
       <c r="E52" s="37"/>
       <c r="F52" s="54"/>
@@ -2501,8 +2501,8 @@
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="B55" s="82"/>
-      <c r="C55" s="83"/>
+      <c r="B55" s="105"/>
+      <c r="C55" s="106"/>
       <c r="D55" s="33"/>
       <c r="E55" s="37"/>
       <c r="F55" s="54"/>
@@ -2513,8 +2513,8 @@
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
-      <c r="B56" s="76"/>
-      <c r="C56" s="77"/>
+      <c r="B56" s="99"/>
+      <c r="C56" s="100"/>
       <c r="D56" s="37"/>
       <c r="E56" s="37"/>
       <c r="F56" s="34"/>
@@ -2525,8 +2525,8 @@
         <f t="shared" si="0"/>
         <v>47</v>
       </c>
-      <c r="B57" s="76"/>
-      <c r="C57" s="77"/>
+      <c r="B57" s="99"/>
+      <c r="C57" s="100"/>
       <c r="D57" s="37"/>
       <c r="E57" s="37"/>
       <c r="F57" s="34"/>
@@ -2537,8 +2537,8 @@
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="B58" s="76"/>
-      <c r="C58" s="77"/>
+      <c r="B58" s="99"/>
+      <c r="C58" s="100"/>
       <c r="D58" s="37"/>
       <c r="E58" s="37"/>
       <c r="F58" s="34"/>
@@ -2549,8 +2549,8 @@
         <f t="shared" si="0"/>
         <v>49</v>
       </c>
-      <c r="B59" s="76"/>
-      <c r="C59" s="77"/>
+      <c r="B59" s="99"/>
+      <c r="C59" s="100"/>
       <c r="D59" s="37"/>
       <c r="E59" s="37"/>
       <c r="F59" s="37"/>
@@ -2561,8 +2561,8 @@
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="B60" s="76"/>
-      <c r="C60" s="77"/>
+      <c r="B60" s="99"/>
+      <c r="C60" s="100"/>
       <c r="D60" s="37"/>
       <c r="E60" s="37"/>
       <c r="F60" s="37"/>
@@ -2573,8 +2573,8 @@
         <f t="shared" si="0"/>
         <v>51</v>
       </c>
-      <c r="B61" s="76"/>
-      <c r="C61" s="77"/>
+      <c r="B61" s="99"/>
+      <c r="C61" s="100"/>
       <c r="D61" s="37"/>
       <c r="E61" s="37"/>
       <c r="F61" s="37"/>
@@ -2585,10 +2585,10 @@
         <f t="shared" si="0"/>
         <v>52</v>
       </c>
-      <c r="B62" s="76" t="s">
+      <c r="B62" s="99" t="s">
         <v>120</v>
       </c>
-      <c r="C62" s="77"/>
+      <c r="C62" s="100"/>
       <c r="D62" s="37" t="s">
         <v>121</v>
       </c>
@@ -2607,10 +2607,10 @@
         <f t="shared" si="0"/>
         <v>53</v>
       </c>
-      <c r="B63" s="86" t="s">
+      <c r="B63" s="109" t="s">
         <v>122</v>
       </c>
-      <c r="C63" s="87"/>
+      <c r="C63" s="110"/>
       <c r="D63" s="40" t="s">
         <v>123</v>
       </c>
@@ -2629,10 +2629,10 @@
         <f t="shared" si="0"/>
         <v>54</v>
       </c>
-      <c r="B64" s="86" t="s">
+      <c r="B64" s="109" t="s">
         <v>126</v>
       </c>
-      <c r="C64" s="87"/>
+      <c r="C64" s="110"/>
       <c r="D64" s="42" t="s">
         <v>127</v>
       </c>
@@ -2651,10 +2651,10 @@
         <f t="shared" si="0"/>
         <v>55</v>
       </c>
-      <c r="B65" s="88" t="s">
+      <c r="B65" s="111" t="s">
         <v>129</v>
       </c>
-      <c r="C65" s="89"/>
+      <c r="C65" s="112"/>
       <c r="D65" s="39" t="s">
         <v>130</v>
       </c>
@@ -2673,10 +2673,10 @@
         <f t="shared" si="0"/>
         <v>56</v>
       </c>
-      <c r="B66" s="90" t="s">
+      <c r="B66" s="113" t="s">
         <v>132</v>
       </c>
-      <c r="C66" s="91"/>
+      <c r="C66" s="114"/>
       <c r="D66" s="45" t="s">
         <v>133</v>
       </c>
@@ -2695,10 +2695,10 @@
         <f t="shared" si="0"/>
         <v>57</v>
       </c>
-      <c r="B67" s="84" t="s">
+      <c r="B67" s="107" t="s">
         <v>135</v>
       </c>
-      <c r="C67" s="85"/>
+      <c r="C67" s="108"/>
       <c r="D67" s="46" t="s">
         <v>136</v>
       </c>
@@ -2717,10 +2717,10 @@
         <f t="shared" si="0"/>
         <v>58</v>
       </c>
-      <c r="B68" s="84" t="s">
+      <c r="B68" s="107" t="s">
         <v>138</v>
       </c>
-      <c r="C68" s="85"/>
+      <c r="C68" s="108"/>
       <c r="D68" s="46" t="s">
         <v>139</v>
       </c>
@@ -2739,10 +2739,10 @@
         <f t="shared" si="0"/>
         <v>59</v>
       </c>
-      <c r="B69" s="84" t="s">
+      <c r="B69" s="107" t="s">
         <v>141</v>
       </c>
-      <c r="C69" s="85"/>
+      <c r="C69" s="108"/>
       <c r="D69" s="46" t="s">
         <v>142</v>
       </c>
@@ -2761,10 +2761,10 @@
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="B70" s="84" t="s">
+      <c r="B70" s="107" t="s">
         <v>116</v>
       </c>
-      <c r="C70" s="85"/>
+      <c r="C70" s="108"/>
       <c r="D70" s="46" t="s">
         <v>143</v>
       </c>
@@ -2781,10 +2781,10 @@
         <f t="shared" si="0"/>
         <v>61</v>
       </c>
-      <c r="B71" s="84" t="s">
+      <c r="B71" s="107" t="s">
         <v>144</v>
       </c>
-      <c r="C71" s="85"/>
+      <c r="C71" s="108"/>
       <c r="D71" s="46" t="s">
         <v>145</v>
       </c>

--- a/templates/plantilla_ayudantes.xlsx
+++ b/templates/plantilla_ayudantes.xlsx
@@ -1374,8 +1374,8 @@
   <dimension ref="A1:G78"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B56" sqref="B56:G71"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B11" sqref="B11:C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="11" x14ac:dyDescent="0"/>

--- a/templates/plantilla_ayudantes.xlsx
+++ b/templates/plantilla_ayudantes.xlsx
@@ -4,12 +4,14 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="20225"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28180" windowHeight="17060" tabRatio="913"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25280" windowHeight="12800" tabRatio="913"/>
   </bookViews>
   <sheets>
     <sheet name="SOLICITUD DE ACCESO | PERSONAS" sheetId="14" r:id="rId1"/>
+    <sheet name="CC | 09-TCC &quot;CATALOGO DE CARGO&quot;" sheetId="11" state="hidden" r:id="rId2"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'CC | 09-TCC "CATALOGO DE CARGO"'!$A$1:$F$98</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'SOLICITUD DE ACCESO | PERSONAS'!$1:$10</definedName>
   </definedNames>
   <calcPr calcId="140001" concurrentCalc="0"/>
@@ -262,7 +264,310 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="120">
+  <si>
+    <t>DESCRIPCION DEL CARGO</t>
+  </si>
+  <si>
+    <t>CODIGO</t>
+  </si>
+  <si>
+    <t>GERENTE GENERAL</t>
+  </si>
+  <si>
+    <t>SUPERVISOR DE MUELLE Y ACOPLE</t>
+  </si>
+  <si>
+    <t>AUXILIAR DE ESTIBA</t>
+  </si>
+  <si>
+    <t>CAPORAL DE MUELLE</t>
+  </si>
+  <si>
+    <t>CHEQUE DE MUELLE</t>
+  </si>
+  <si>
+    <t>OPERADOR DE GRUA DE BUQUE (WINCHERO) DE PRIMERA CATEGORIA</t>
+  </si>
+  <si>
+    <t>ESTIBADOR</t>
+  </si>
+  <si>
+    <t>MUELLERO</t>
+  </si>
+  <si>
+    <t>MUELLERO BUQUE TANQUE</t>
+  </si>
+  <si>
+    <t>AMARRADOR</t>
+  </si>
+  <si>
+    <t>OPERADOR DE GRUA</t>
+  </si>
+  <si>
+    <t>ENCARGADO DE TRANSPORTE</t>
+  </si>
+  <si>
+    <t>AUDITOR INTERNO</t>
+  </si>
+  <si>
+    <t>JEFE DE PERSONAL</t>
+  </si>
+  <si>
+    <t>CONTADOR Y PAGADOR</t>
+  </si>
+  <si>
+    <t>CHEQUE DE PERSONAL</t>
+  </si>
+  <si>
+    <t>UTILERO</t>
+  </si>
+  <si>
+    <t>ORDENANZA</t>
+  </si>
+  <si>
+    <t>CHEQUE DE PATIOS Y BODEGAS</t>
+  </si>
+  <si>
+    <t>OPERADOR DE BASCULA</t>
+  </si>
+  <si>
+    <t>MOTORISTA</t>
+  </si>
+  <si>
+    <t>SUPERINTENDENTE</t>
+  </si>
+  <si>
+    <t>AGRONOMO</t>
+  </si>
+  <si>
+    <t>ASISTENTE ADMINISTRATIVA</t>
+  </si>
+  <si>
+    <t>SUPERVISOR</t>
+  </si>
+  <si>
+    <t>BODEGUERO</t>
+  </si>
+  <si>
+    <t>OPERADOR DE TREN DE ASEO</t>
+  </si>
+  <si>
+    <t>OPERADOR DE BOB- CAT</t>
+  </si>
+  <si>
+    <t>DIBUJANTE</t>
+  </si>
+  <si>
+    <t>PINTOR</t>
+  </si>
+  <si>
+    <t>TAPICERO</t>
+  </si>
+  <si>
+    <t>HOJALATERO</t>
+  </si>
+  <si>
+    <t>FONTANERO</t>
+  </si>
+  <si>
+    <t>ALBA¥IL</t>
+  </si>
+  <si>
+    <t>CARPINTERO</t>
+  </si>
+  <si>
+    <t>JARDINERO</t>
+  </si>
+  <si>
+    <t>TECNICO DE BOMBA DE AGUA</t>
+  </si>
+  <si>
+    <t>AUXILIAR DE TREN DE ASEO</t>
+  </si>
+  <si>
+    <t>OPERADOR CAMION CISTERNA</t>
+  </si>
+  <si>
+    <t>AUXILIAR DE LIMPIEZA</t>
+  </si>
+  <si>
+    <t>AUXILIAR DE CHAPODA</t>
+  </si>
+  <si>
+    <t>AUXILIAR DE MANTENIMIENTO</t>
+  </si>
+  <si>
+    <t>OPERADOR DE EQUIPOS DE PRIMERA CATEGORIA</t>
+  </si>
+  <si>
+    <t>GERENTE DE SERVICIOS</t>
+  </si>
+  <si>
+    <t>JEFE DE TALLER MECANICO</t>
+  </si>
+  <si>
+    <t>MECANICO</t>
+  </si>
+  <si>
+    <t>ELECTRICISTA</t>
+  </si>
+  <si>
+    <t>SOLDADOR</t>
+  </si>
+  <si>
+    <t>ENGRASADOR</t>
+  </si>
+  <si>
+    <t>TORNERO</t>
+  </si>
+  <si>
+    <t>AUXILIAR MECANICO</t>
+  </si>
+  <si>
+    <t>OBRERO NO CALIFICADO</t>
+  </si>
+  <si>
+    <t>AUXILIAR DE OFICINA</t>
+  </si>
+  <si>
+    <t>GERENTE DE PROYECTOS</t>
+  </si>
+  <si>
+    <t>TECNICO ELECTRICISTA</t>
+  </si>
+  <si>
+    <t>TECNICO MECANICO</t>
+  </si>
+  <si>
+    <t>MECANICO  1A. CATEGORIA</t>
+  </si>
+  <si>
+    <t>MECANICO 2A. CATEGORIA</t>
+  </si>
+  <si>
+    <t>GERENTE DIVISION</t>
+  </si>
+  <si>
+    <t>INGENIERO DE PROYECTOS</t>
+  </si>
+  <si>
+    <t>SUBGERENTE DE DIVISION</t>
+  </si>
+  <si>
+    <t>SUPERVISOR DE PROYECTOS</t>
+  </si>
+  <si>
+    <t>JEFE DE MONTAJES Y SERVICIOS</t>
+  </si>
+  <si>
+    <t>SUPERVISOR DE SERVICIOS</t>
+  </si>
+  <si>
+    <t>TECNICO DE SERVICIOS</t>
+  </si>
+  <si>
+    <t>INGENIERO DE SERVICIOS</t>
+  </si>
+  <si>
+    <t>CONTROL ADMINISTRATIVO</t>
+  </si>
+  <si>
+    <t>AUXILIAR ADMINISTRATIVO</t>
+  </si>
+  <si>
+    <t>SUPERVISOR ELECTRICISTA</t>
+  </si>
+  <si>
+    <t>SECRETARIA</t>
+  </si>
+  <si>
+    <t>OBRERO CALIFICADO</t>
+  </si>
+  <si>
+    <t>MARINERO</t>
+  </si>
+  <si>
+    <t>PEON DE BODEGAS</t>
+  </si>
+  <si>
+    <t>VIGILANTE</t>
+  </si>
+  <si>
+    <t>REPRESENTANTE LEGAL</t>
+  </si>
+  <si>
+    <t>GERENTE ADMINISTRATIVO</t>
+  </si>
+  <si>
+    <t>BANDEROS</t>
+  </si>
+  <si>
+    <t>AUXILIAR DE UTILERIA</t>
+  </si>
+  <si>
+    <t>TRINCADORES</t>
+  </si>
+  <si>
+    <t>CAPORAL DE AMARRE</t>
+  </si>
+  <si>
+    <t>FICHERO</t>
+  </si>
+  <si>
+    <t>PALERO</t>
+  </si>
+  <si>
+    <t>CAPORAL BUQUE TANQUE</t>
+  </si>
+  <si>
+    <t>ENCARGADO DE TRANSFERENCIA</t>
+  </si>
+  <si>
+    <t>SUPERVISOR A BORDO</t>
+  </si>
+  <si>
+    <t>OPERADOR DE UNIDAD DECARGA</t>
+  </si>
+  <si>
+    <t>WINCHERO EN PRACTICA</t>
+  </si>
+  <si>
+    <t>JEFE DE OPERACIONES</t>
+  </si>
+  <si>
+    <t>OPERADOR DE GRUA DE BUQUE (WINCHERO) DE SEGUNDA CATEGORIA</t>
+  </si>
+  <si>
+    <t>OPERADOR DE CONTROL DE BANDAS</t>
+  </si>
+  <si>
+    <t>OFERTADO</t>
+  </si>
+  <si>
+    <t>SUPERVISOR DE ABORDO</t>
+  </si>
+  <si>
+    <t>SUPERVISOR GENERAL</t>
+  </si>
+  <si>
+    <t>OPERADOR DE EQUIPO PORTUARIO PRIMERA CATEGORIA</t>
+  </si>
+  <si>
+    <t>OPERADOR DE EQUIPO PORTUARIO SEGUNDA CATEGORIA</t>
+  </si>
+  <si>
+    <t>EMPRESA # 1</t>
+  </si>
+  <si>
+    <t>EMPRESA # 2</t>
+  </si>
+  <si>
+    <t>EMPRESA # 3</t>
+  </si>
+  <si>
+    <t>PRACTICANTE</t>
+  </si>
   <si>
     <t>OBSERVACIONES ADICIONALES</t>
   </si>
@@ -328,7 +633,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="25" x14ac:knownFonts="1">
+  <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -338,6 +643,12 @@
     </font>
     <font>
       <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -358,6 +669,12 @@
       <sz val="8"/>
       <color indexed="9"/>
       <name val="Trebuchet MS"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
@@ -492,7 +809,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -512,7 +829,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor indexed="56"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor indexed="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="44"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="49"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -630,118 +965,257 @@
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="101">
+  <cellXfs count="114">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="2" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="2" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="26" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="4" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="22" fontId="4" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="17" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -750,49 +1224,58 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="24" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="18" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="16" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -800,129 +1283,6 @@
     </xf>
     <xf numFmtId="164" fontId="16" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="22" fontId="3" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="22" fontId="3" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1375,30 +1735,30 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B11" sqref="B11:C11"/>
+      <selection pane="bottomLeft" activeCell="B11" sqref="B11:G71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="11" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="6.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="25" style="7" customWidth="1"/>
-    <col min="3" max="3" width="29.1640625" style="8" customWidth="1"/>
-    <col min="4" max="4" width="25.5" style="8" customWidth="1"/>
-    <col min="5" max="5" width="15.83203125" style="8" customWidth="1"/>
-    <col min="6" max="6" width="18.6640625" style="8" customWidth="1"/>
+    <col min="2" max="2" width="25" style="21" customWidth="1"/>
+    <col min="3" max="3" width="29.1640625" style="22" customWidth="1"/>
+    <col min="4" max="4" width="25.5" style="22" customWidth="1"/>
+    <col min="5" max="5" width="15.83203125" style="22" customWidth="1"/>
+    <col min="6" max="6" width="18.6640625" style="22" customWidth="1"/>
     <col min="7" max="7" width="31.5" style="1" customWidth="1"/>
     <col min="8" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="39.75" customHeight="1">
-      <c r="B1" s="94" t="s">
-        <v>14</v>
-      </c>
-      <c r="C1" s="94"/>
-      <c r="D1" s="94"/>
-      <c r="E1" s="94"/>
-      <c r="F1" s="94"/>
-      <c r="G1" s="94"/>
+      <c r="B1" s="75" t="s">
+        <v>115</v>
+      </c>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
     </row>
     <row r="2" spans="1:7">
       <c r="B2" s="5"/>
@@ -1408,853 +1768,887 @@
       <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:7" ht="18" customHeight="1">
-      <c r="B3" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="92" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" s="93"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="12"/>
+      <c r="B3" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="C3" s="73" t="s">
+        <v>119</v>
+      </c>
+      <c r="D3" s="74"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="26"/>
     </row>
     <row r="4" spans="1:7" ht="18" customHeight="1">
-      <c r="B4" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="92" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="93"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="12"/>
+      <c r="B4" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="C4" s="73" t="s">
+        <v>117</v>
+      </c>
+      <c r="D4" s="74"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="26"/>
     </row>
     <row r="5" spans="1:7" ht="18" customHeight="1">
-      <c r="B5" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="15"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="12"/>
+      <c r="B5" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="C5" s="29"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="26"/>
     </row>
     <row r="6" spans="1:7" ht="18" customHeight="1">
-      <c r="B6" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="97"/>
-      <c r="D6" s="98"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="12"/>
+      <c r="B6" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="C6" s="78"/>
+      <c r="D6" s="79"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="26"/>
     </row>
     <row r="7" spans="1:7" ht="30" customHeight="1">
-      <c r="A7" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="16"/>
-      <c r="C7" s="97" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="98"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="12"/>
+      <c r="A7" s="30" t="s">
+        <v>112</v>
+      </c>
+      <c r="B7" s="30"/>
+      <c r="C7" s="78" t="s">
+        <v>118</v>
+      </c>
+      <c r="D7" s="79"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="26"/>
     </row>
     <row r="8" spans="1:7" ht="21.75" customHeight="1">
-      <c r="B8" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="99"/>
-      <c r="D8" s="100"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="12"/>
+      <c r="B8" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="C8" s="80"/>
+      <c r="D8" s="81"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="26"/>
     </row>
     <row r="9" spans="1:7" ht="68.25" customHeight="1">
-      <c r="B9" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="12"/>
+      <c r="B9" s="23" t="s">
+        <v>106</v>
+      </c>
+      <c r="C9" s="31" t="s">
+        <v>116</v>
+      </c>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="26"/>
     </row>
     <row r="10" spans="1:7" s="4" customFormat="1" ht="36" customHeight="1">
-      <c r="A10" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10" s="95" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10" s="96"/>
+      <c r="A10" s="27" t="s">
+        <v>107</v>
+      </c>
+      <c r="B10" s="76" t="s">
+        <v>105</v>
+      </c>
+      <c r="C10" s="77"/>
       <c r="D10" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="17" customHeight="1">
+      <c r="A11" s="32">
         <v>1</v>
       </c>
-      <c r="E10" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="17" customHeight="1">
-      <c r="A11" s="18">
-        <v>1</v>
-      </c>
-      <c r="B11" s="82"/>
-      <c r="C11" s="83"/>
-      <c r="D11" s="46"/>
-      <c r="E11" s="46"/>
-      <c r="F11" s="43"/>
-      <c r="G11" s="44"/>
+      <c r="B11" s="71"/>
+      <c r="C11" s="72"/>
+      <c r="D11" s="70"/>
+      <c r="E11" s="70"/>
+      <c r="F11" s="65"/>
+      <c r="G11" s="66"/>
     </row>
     <row r="12" spans="1:7" ht="17" customHeight="1">
-      <c r="A12" s="18">
+      <c r="A12" s="32">
         <f>A11+1</f>
         <v>2</v>
       </c>
-      <c r="B12" s="82"/>
-      <c r="C12" s="83"/>
-      <c r="D12" s="46"/>
-      <c r="E12" s="46"/>
-      <c r="F12" s="43"/>
-      <c r="G12" s="44"/>
+      <c r="B12" s="71"/>
+      <c r="C12" s="72"/>
+      <c r="D12" s="70"/>
+      <c r="E12" s="70"/>
+      <c r="F12" s="65"/>
+      <c r="G12" s="66"/>
     </row>
     <row r="13" spans="1:7" ht="17" customHeight="1">
-      <c r="A13" s="18">
+      <c r="A13" s="32">
         <f t="shared" ref="A13:A71" si="0">A12+1</f>
         <v>3</v>
       </c>
-      <c r="B13" s="82"/>
-      <c r="C13" s="83"/>
-      <c r="D13" s="46"/>
-      <c r="E13" s="46"/>
-      <c r="F13" s="45"/>
-      <c r="G13" s="44"/>
+      <c r="B13" s="71"/>
+      <c r="C13" s="72"/>
+      <c r="D13" s="70"/>
+      <c r="E13" s="70"/>
+      <c r="F13" s="67"/>
+      <c r="G13" s="66"/>
     </row>
     <row r="14" spans="1:7" ht="17" customHeight="1">
-      <c r="A14" s="18">
+      <c r="A14" s="32">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B14" s="82"/>
-      <c r="C14" s="83"/>
-      <c r="D14" s="46"/>
-      <c r="E14" s="46"/>
-      <c r="F14" s="45"/>
-      <c r="G14" s="44"/>
+      <c r="B14" s="71"/>
+      <c r="C14" s="72"/>
+      <c r="D14" s="70"/>
+      <c r="E14" s="70"/>
+      <c r="F14" s="67"/>
+      <c r="G14" s="66"/>
     </row>
     <row r="15" spans="1:7" ht="17" customHeight="1">
-      <c r="A15" s="18">
+      <c r="A15" s="32">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B15" s="82"/>
-      <c r="C15" s="83"/>
-      <c r="D15" s="46"/>
-      <c r="E15" s="46"/>
-      <c r="F15" s="45"/>
-      <c r="G15" s="44"/>
+      <c r="B15" s="71"/>
+      <c r="C15" s="72"/>
+      <c r="D15" s="70"/>
+      <c r="E15" s="70"/>
+      <c r="F15" s="67"/>
+      <c r="G15" s="66"/>
     </row>
     <row r="16" spans="1:7" ht="17" customHeight="1">
-      <c r="A16" s="18">
+      <c r="A16" s="32">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B16" s="84"/>
-      <c r="C16" s="85"/>
-      <c r="D16" s="47"/>
-      <c r="E16" s="48"/>
-      <c r="F16" s="45"/>
-      <c r="G16" s="44"/>
+      <c r="B16" s="86"/>
+      <c r="C16" s="87"/>
+      <c r="D16" s="68"/>
+      <c r="E16" s="69"/>
+      <c r="F16" s="67"/>
+      <c r="G16" s="66"/>
     </row>
     <row r="17" spans="1:7" ht="17" customHeight="1">
-      <c r="A17" s="18">
+      <c r="A17" s="32">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B17" s="82"/>
-      <c r="C17" s="83"/>
-      <c r="D17" s="47"/>
-      <c r="E17" s="48"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="44"/>
+      <c r="B17" s="71"/>
+      <c r="C17" s="72"/>
+      <c r="D17" s="68"/>
+      <c r="E17" s="69"/>
+      <c r="F17" s="36"/>
+      <c r="G17" s="66"/>
     </row>
     <row r="18" spans="1:7" ht="17" customHeight="1">
-      <c r="A18" s="18">
+      <c r="A18" s="32">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B18" s="82"/>
-      <c r="C18" s="83"/>
-      <c r="D18" s="47"/>
-      <c r="E18" s="48"/>
-      <c r="F18" s="21"/>
-      <c r="G18" s="44"/>
+      <c r="B18" s="71"/>
+      <c r="C18" s="72"/>
+      <c r="D18" s="68"/>
+      <c r="E18" s="69"/>
+      <c r="F18" s="36"/>
+      <c r="G18" s="66"/>
     </row>
     <row r="19" spans="1:7" ht="17" customHeight="1">
-      <c r="A19" s="18">
+      <c r="A19" s="32">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B19" s="82"/>
-      <c r="C19" s="83"/>
-      <c r="D19" s="47"/>
-      <c r="E19" s="48"/>
-      <c r="F19" s="21"/>
-      <c r="G19" s="44"/>
+      <c r="B19" s="71"/>
+      <c r="C19" s="72"/>
+      <c r="D19" s="68"/>
+      <c r="E19" s="69"/>
+      <c r="F19" s="36"/>
+      <c r="G19" s="66"/>
     </row>
     <row r="20" spans="1:7" ht="17" customHeight="1">
-      <c r="A20" s="18">
+      <c r="A20" s="32">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B20" s="84"/>
-      <c r="C20" s="85"/>
-      <c r="D20" s="47"/>
-      <c r="E20" s="48"/>
-      <c r="F20" s="21"/>
-      <c r="G20" s="44"/>
+      <c r="B20" s="86"/>
+      <c r="C20" s="87"/>
+      <c r="D20" s="68"/>
+      <c r="E20" s="69"/>
+      <c r="F20" s="36"/>
+      <c r="G20" s="66"/>
     </row>
     <row r="21" spans="1:7" ht="17" customHeight="1">
-      <c r="A21" s="18">
+      <c r="A21" s="32">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B21" s="86"/>
-      <c r="C21" s="87"/>
-      <c r="D21" s="49"/>
-      <c r="E21" s="50"/>
-      <c r="F21" s="21"/>
-      <c r="G21" s="20"/>
+      <c r="B21" s="88"/>
+      <c r="C21" s="89"/>
+      <c r="D21" s="48"/>
+      <c r="E21" s="49"/>
+      <c r="F21" s="36"/>
+      <c r="G21" s="35"/>
     </row>
     <row r="22" spans="1:7" ht="17" customHeight="1">
-      <c r="A22" s="18">
+      <c r="A22" s="32">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B22" s="88"/>
-      <c r="C22" s="89"/>
-      <c r="D22" s="51"/>
-      <c r="E22" s="52"/>
-      <c r="F22" s="22"/>
-      <c r="G22" s="20"/>
+      <c r="B22" s="90"/>
+      <c r="C22" s="91"/>
+      <c r="D22" s="50"/>
+      <c r="E22" s="51"/>
+      <c r="F22" s="37"/>
+      <c r="G22" s="35"/>
     </row>
     <row r="23" spans="1:7" ht="17" customHeight="1">
-      <c r="A23" s="18">
+      <c r="A23" s="32">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B23" s="90"/>
-      <c r="C23" s="91"/>
-      <c r="D23" s="53"/>
-      <c r="E23" s="54"/>
-      <c r="F23" s="33"/>
-      <c r="G23" s="23"/>
+      <c r="B23" s="92"/>
+      <c r="C23" s="93"/>
+      <c r="D23" s="52"/>
+      <c r="E23" s="42"/>
+      <c r="F23" s="53"/>
+      <c r="G23" s="38"/>
     </row>
     <row r="24" spans="1:7" ht="17" customHeight="1">
-      <c r="A24" s="18">
+      <c r="A24" s="32">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B24" s="86"/>
-      <c r="C24" s="87"/>
-      <c r="D24" s="49"/>
-      <c r="E24" s="55"/>
-      <c r="F24" s="33"/>
-      <c r="G24" s="20"/>
+      <c r="B24" s="84"/>
+      <c r="C24" s="85"/>
+      <c r="D24" s="54"/>
+      <c r="E24" s="33"/>
+      <c r="F24" s="53"/>
+      <c r="G24" s="35"/>
     </row>
     <row r="25" spans="1:7" ht="17" customHeight="1">
-      <c r="A25" s="18">
+      <c r="A25" s="32">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B25" s="86"/>
-      <c r="C25" s="87"/>
-      <c r="D25" s="49"/>
-      <c r="E25" s="54"/>
-      <c r="F25" s="24"/>
-      <c r="G25" s="20"/>
+      <c r="B25" s="84"/>
+      <c r="C25" s="85"/>
+      <c r="D25" s="54"/>
+      <c r="E25" s="42"/>
+      <c r="F25" s="39"/>
+      <c r="G25" s="35"/>
     </row>
     <row r="26" spans="1:7" ht="17" customHeight="1">
-      <c r="A26" s="18">
+      <c r="A26" s="32">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B26" s="80"/>
-      <c r="C26" s="81"/>
-      <c r="D26" s="34"/>
-      <c r="E26" s="34"/>
-      <c r="F26" s="19"/>
-      <c r="G26" s="20"/>
+      <c r="B26" s="82"/>
+      <c r="C26" s="83"/>
+      <c r="D26" s="55"/>
+      <c r="E26" s="55"/>
+      <c r="F26" s="34"/>
+      <c r="G26" s="35"/>
     </row>
     <row r="27" spans="1:7" ht="17" customHeight="1">
-      <c r="A27" s="18">
+      <c r="A27" s="32">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B27" s="80"/>
-      <c r="C27" s="81"/>
-      <c r="D27" s="34"/>
-      <c r="E27" s="34"/>
-      <c r="F27" s="19"/>
-      <c r="G27" s="20"/>
+      <c r="B27" s="82"/>
+      <c r="C27" s="83"/>
+      <c r="D27" s="55"/>
+      <c r="E27" s="55"/>
+      <c r="F27" s="34"/>
+      <c r="G27" s="35"/>
     </row>
     <row r="28" spans="1:7" ht="17" customHeight="1">
-      <c r="A28" s="18">
+      <c r="A28" s="32">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B28" s="80"/>
-      <c r="C28" s="81"/>
-      <c r="D28" s="34"/>
-      <c r="E28" s="34"/>
-      <c r="F28" s="19"/>
-      <c r="G28" s="20"/>
+      <c r="B28" s="82"/>
+      <c r="C28" s="83"/>
+      <c r="D28" s="55"/>
+      <c r="E28" s="55"/>
+      <c r="F28" s="34"/>
+      <c r="G28" s="35"/>
     </row>
     <row r="29" spans="1:7" ht="17" customHeight="1">
-      <c r="A29" s="18">
+      <c r="A29" s="32">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B29" s="80"/>
-      <c r="C29" s="81"/>
-      <c r="D29" s="34"/>
-      <c r="E29" s="34"/>
-      <c r="F29" s="21"/>
-      <c r="G29" s="20"/>
+      <c r="B29" s="82"/>
+      <c r="C29" s="83"/>
+      <c r="D29" s="55"/>
+      <c r="E29" s="55"/>
+      <c r="F29" s="36"/>
+      <c r="G29" s="35"/>
     </row>
     <row r="30" spans="1:7" ht="17" customHeight="1">
-      <c r="A30" s="18">
+      <c r="A30" s="32">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B30" s="80"/>
-      <c r="C30" s="81"/>
-      <c r="D30" s="34"/>
-      <c r="E30" s="34"/>
-      <c r="F30" s="21"/>
-      <c r="G30" s="20"/>
+      <c r="B30" s="82"/>
+      <c r="C30" s="83"/>
+      <c r="D30" s="55"/>
+      <c r="E30" s="55"/>
+      <c r="F30" s="36"/>
+      <c r="G30" s="35"/>
     </row>
     <row r="31" spans="1:7" ht="17" customHeight="1">
-      <c r="A31" s="18">
+      <c r="A31" s="32">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B31" s="80"/>
-      <c r="C31" s="81"/>
-      <c r="D31" s="34"/>
-      <c r="E31" s="34"/>
-      <c r="F31" s="21"/>
-      <c r="G31" s="20"/>
+      <c r="B31" s="82"/>
+      <c r="C31" s="83"/>
+      <c r="D31" s="55"/>
+      <c r="E31" s="55"/>
+      <c r="F31" s="36"/>
+      <c r="G31" s="35"/>
     </row>
     <row r="32" spans="1:7" ht="17" customHeight="1">
-      <c r="A32" s="18">
+      <c r="A32" s="32">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B32" s="80"/>
-      <c r="C32" s="81"/>
+      <c r="B32" s="82"/>
+      <c r="C32" s="83"/>
       <c r="D32" s="56"/>
       <c r="E32" s="56"/>
-      <c r="F32" s="35"/>
-      <c r="G32" s="25"/>
+      <c r="F32" s="56"/>
+      <c r="G32" s="40"/>
     </row>
     <row r="33" spans="1:7" ht="17" customHeight="1">
-      <c r="A33" s="18">
+      <c r="A33" s="32">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B33" s="80"/>
-      <c r="C33" s="81"/>
+      <c r="B33" s="82"/>
+      <c r="C33" s="83"/>
       <c r="D33" s="56"/>
       <c r="E33" s="56"/>
-      <c r="F33" s="35"/>
-      <c r="G33" s="25"/>
+      <c r="F33" s="56"/>
+      <c r="G33" s="40"/>
     </row>
     <row r="34" spans="1:7" ht="17" customHeight="1">
-      <c r="A34" s="18">
+      <c r="A34" s="32">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B34" s="80"/>
-      <c r="C34" s="81"/>
+      <c r="B34" s="82"/>
+      <c r="C34" s="83"/>
       <c r="D34" s="56"/>
       <c r="E34" s="56"/>
-      <c r="F34" s="35"/>
-      <c r="G34" s="25"/>
+      <c r="F34" s="56"/>
+      <c r="G34" s="40"/>
     </row>
     <row r="35" spans="1:7" ht="17" customHeight="1">
-      <c r="A35" s="18">
+      <c r="A35" s="32">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="B35" s="80"/>
-      <c r="C35" s="81"/>
+      <c r="B35" s="82"/>
+      <c r="C35" s="83"/>
       <c r="D35" s="57"/>
       <c r="E35" s="56"/>
-      <c r="F35" s="35"/>
-      <c r="G35" s="25"/>
+      <c r="F35" s="56"/>
+      <c r="G35" s="40"/>
     </row>
     <row r="36" spans="1:7" ht="17" customHeight="1">
-      <c r="A36" s="18">
+      <c r="A36" s="32">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="B36" s="80"/>
-      <c r="C36" s="81"/>
+      <c r="B36" s="82"/>
+      <c r="C36" s="83"/>
       <c r="D36" s="56"/>
       <c r="E36" s="56"/>
-      <c r="F36" s="35"/>
-      <c r="G36" s="25"/>
+      <c r="F36" s="56"/>
+      <c r="G36" s="40"/>
     </row>
     <row r="37" spans="1:7" ht="17" customHeight="1">
-      <c r="A37" s="18">
+      <c r="A37" s="32">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="B37" s="76"/>
-      <c r="C37" s="77"/>
-      <c r="D37" s="35"/>
-      <c r="E37" s="35"/>
-      <c r="F37" s="35"/>
-      <c r="G37" s="25"/>
+      <c r="B37" s="82"/>
+      <c r="C37" s="83"/>
+      <c r="D37" s="56"/>
+      <c r="E37" s="56"/>
+      <c r="F37" s="56"/>
+      <c r="G37" s="40"/>
     </row>
     <row r="38" spans="1:7" ht="17" customHeight="1">
-      <c r="A38" s="18">
+      <c r="A38" s="32">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="B38" s="76"/>
-      <c r="C38" s="77"/>
-      <c r="D38" s="35"/>
-      <c r="E38" s="35"/>
-      <c r="F38" s="35"/>
-      <c r="G38" s="25"/>
+      <c r="B38" s="82"/>
+      <c r="C38" s="83"/>
+      <c r="D38" s="56"/>
+      <c r="E38" s="56"/>
+      <c r="F38" s="56"/>
+      <c r="G38" s="40"/>
     </row>
     <row r="39" spans="1:7" ht="17" customHeight="1">
-      <c r="A39" s="18">
+      <c r="A39" s="32">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="B39" s="76"/>
-      <c r="C39" s="77"/>
-      <c r="D39" s="35"/>
-      <c r="E39" s="35"/>
-      <c r="F39" s="35"/>
-      <c r="G39" s="25"/>
+      <c r="B39" s="82"/>
+      <c r="C39" s="83"/>
+      <c r="D39" s="56"/>
+      <c r="E39" s="56"/>
+      <c r="F39" s="56"/>
+      <c r="G39" s="40"/>
     </row>
     <row r="40" spans="1:7" ht="17" customHeight="1">
-      <c r="A40" s="18">
+      <c r="A40" s="32">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="B40" s="76"/>
-      <c r="C40" s="77"/>
-      <c r="D40" s="35"/>
-      <c r="E40" s="35"/>
-      <c r="F40" s="35"/>
-      <c r="G40" s="25"/>
+      <c r="B40" s="82"/>
+      <c r="C40" s="83"/>
+      <c r="D40" s="56"/>
+      <c r="E40" s="56"/>
+      <c r="F40" s="56"/>
+      <c r="G40" s="40"/>
     </row>
     <row r="41" spans="1:7" ht="17" customHeight="1">
-      <c r="A41" s="18">
+      <c r="A41" s="32">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="B41" s="78"/>
-      <c r="C41" s="79"/>
-      <c r="D41" s="20"/>
-      <c r="E41" s="36"/>
-      <c r="F41" s="37"/>
-      <c r="G41" s="25"/>
+      <c r="B41" s="94"/>
+      <c r="C41" s="95"/>
+      <c r="D41" s="35"/>
+      <c r="E41" s="58"/>
+      <c r="F41" s="59"/>
+      <c r="G41" s="40"/>
     </row>
     <row r="42" spans="1:7" ht="17" customHeight="1">
-      <c r="A42" s="18">
+      <c r="A42" s="32">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="B42" s="78"/>
-      <c r="C42" s="79"/>
-      <c r="D42" s="20"/>
-      <c r="E42" s="35"/>
-      <c r="F42" s="35"/>
-      <c r="G42" s="25"/>
+      <c r="B42" s="94"/>
+      <c r="C42" s="95"/>
+      <c r="D42" s="35"/>
+      <c r="E42" s="56"/>
+      <c r="F42" s="56"/>
+      <c r="G42" s="40"/>
     </row>
     <row r="43" spans="1:7" ht="17" customHeight="1">
-      <c r="A43" s="18">
+      <c r="A43" s="32">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="B43" s="74"/>
-      <c r="C43" s="75"/>
-      <c r="D43" s="38"/>
-      <c r="E43" s="38"/>
-      <c r="F43" s="24"/>
-      <c r="G43" s="20"/>
+      <c r="B43" s="96"/>
+      <c r="C43" s="97"/>
+      <c r="D43" s="60"/>
+      <c r="E43" s="60"/>
+      <c r="F43" s="39"/>
+      <c r="G43" s="35"/>
     </row>
     <row r="44" spans="1:7" ht="17" customHeight="1">
-      <c r="A44" s="18">
+      <c r="A44" s="32">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="B44" s="68"/>
-      <c r="C44" s="69"/>
-      <c r="D44" s="23"/>
-      <c r="E44" s="23"/>
-      <c r="F44" s="24"/>
-      <c r="G44" s="20"/>
+      <c r="B44" s="98"/>
+      <c r="C44" s="99"/>
+      <c r="D44" s="38"/>
+      <c r="E44" s="38"/>
+      <c r="F44" s="39"/>
+      <c r="G44" s="35"/>
     </row>
     <row r="45" spans="1:7" ht="17" customHeight="1">
-      <c r="A45" s="18">
+      <c r="A45" s="32">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="B45" s="68"/>
-      <c r="C45" s="69"/>
-      <c r="D45" s="23"/>
-      <c r="E45" s="23"/>
-      <c r="F45" s="24"/>
-      <c r="G45" s="20"/>
+      <c r="B45" s="98"/>
+      <c r="C45" s="99"/>
+      <c r="D45" s="38"/>
+      <c r="E45" s="38"/>
+      <c r="F45" s="39"/>
+      <c r="G45" s="35"/>
     </row>
     <row r="46" spans="1:7" ht="17" customHeight="1">
-      <c r="A46" s="18">
+      <c r="A46" s="32">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="B46" s="72"/>
-      <c r="C46" s="73"/>
-      <c r="D46" s="39"/>
-      <c r="E46" s="23"/>
-      <c r="F46" s="40"/>
-      <c r="G46" s="20"/>
+      <c r="B46" s="100"/>
+      <c r="C46" s="101"/>
+      <c r="D46" s="61"/>
+      <c r="E46" s="38"/>
+      <c r="F46" s="62"/>
+      <c r="G46" s="35"/>
     </row>
     <row r="47" spans="1:7" ht="17" customHeight="1">
-      <c r="A47" s="18">
+      <c r="A47" s="32">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="B47" s="68"/>
-      <c r="C47" s="69"/>
-      <c r="D47" s="23"/>
-      <c r="E47" s="23"/>
-      <c r="F47" s="40"/>
-      <c r="G47" s="20"/>
+      <c r="B47" s="98"/>
+      <c r="C47" s="99"/>
+      <c r="D47" s="38"/>
+      <c r="E47" s="38"/>
+      <c r="F47" s="62"/>
+      <c r="G47" s="35"/>
     </row>
     <row r="48" spans="1:7" ht="17" customHeight="1">
-      <c r="A48" s="18">
+      <c r="A48" s="32">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="B48" s="68"/>
-      <c r="C48" s="69"/>
-      <c r="D48" s="23"/>
-      <c r="E48" s="23"/>
-      <c r="F48" s="40"/>
-      <c r="G48" s="20"/>
+      <c r="B48" s="98"/>
+      <c r="C48" s="99"/>
+      <c r="D48" s="38"/>
+      <c r="E48" s="38"/>
+      <c r="F48" s="62"/>
+      <c r="G48" s="35"/>
     </row>
     <row r="49" spans="1:7" ht="17" customHeight="1">
-      <c r="A49" s="18">
+      <c r="A49" s="32">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="B49" s="68"/>
-      <c r="C49" s="69"/>
-      <c r="D49" s="23"/>
-      <c r="E49" s="23"/>
-      <c r="F49" s="40"/>
-      <c r="G49" s="20"/>
+      <c r="B49" s="98"/>
+      <c r="C49" s="99"/>
+      <c r="D49" s="38"/>
+      <c r="E49" s="38"/>
+      <c r="F49" s="62"/>
+      <c r="G49" s="35"/>
     </row>
     <row r="50" spans="1:7" ht="17" customHeight="1">
-      <c r="A50" s="18">
+      <c r="A50" s="32">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="B50" s="70"/>
-      <c r="C50" s="71"/>
-      <c r="D50" s="23"/>
-      <c r="E50" s="23"/>
-      <c r="F50" s="23"/>
-      <c r="G50" s="20"/>
+      <c r="B50" s="102"/>
+      <c r="C50" s="103"/>
+      <c r="D50" s="38"/>
+      <c r="E50" s="38"/>
+      <c r="F50" s="38"/>
+      <c r="G50" s="35"/>
     </row>
     <row r="51" spans="1:7" ht="17" customHeight="1">
-      <c r="A51" s="18">
+      <c r="A51" s="32">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="B51" s="68"/>
-      <c r="C51" s="69"/>
-      <c r="D51" s="23"/>
-      <c r="E51" s="23"/>
-      <c r="F51" s="40"/>
-      <c r="G51" s="20"/>
+      <c r="B51" s="98"/>
+      <c r="C51" s="99"/>
+      <c r="D51" s="38"/>
+      <c r="E51" s="38"/>
+      <c r="F51" s="62"/>
+      <c r="G51" s="35"/>
     </row>
     <row r="52" spans="1:7" ht="17" customHeight="1">
-      <c r="A52" s="18">
+      <c r="A52" s="32">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="B52" s="72"/>
-      <c r="C52" s="73"/>
-      <c r="D52" s="39"/>
-      <c r="E52" s="23"/>
-      <c r="F52" s="40"/>
-      <c r="G52" s="20"/>
+      <c r="B52" s="100"/>
+      <c r="C52" s="101"/>
+      <c r="D52" s="61"/>
+      <c r="E52" s="38"/>
+      <c r="F52" s="62"/>
+      <c r="G52" s="35"/>
     </row>
     <row r="53" spans="1:7" ht="17" customHeight="1">
-      <c r="A53" s="18">
+      <c r="A53" s="32">
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
-      <c r="B53" s="41"/>
-      <c r="C53" s="42"/>
-      <c r="D53" s="39"/>
-      <c r="E53" s="23"/>
-      <c r="F53" s="40"/>
-      <c r="G53" s="20"/>
+      <c r="B53" s="63"/>
+      <c r="C53" s="64"/>
+      <c r="D53" s="61"/>
+      <c r="E53" s="38"/>
+      <c r="F53" s="62"/>
+      <c r="G53" s="35"/>
     </row>
     <row r="54" spans="1:7" ht="17" customHeight="1">
-      <c r="A54" s="18">
+      <c r="A54" s="32">
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
-      <c r="B54" s="41"/>
-      <c r="C54" s="42"/>
-      <c r="D54" s="39"/>
-      <c r="E54" s="23"/>
-      <c r="F54" s="40"/>
-      <c r="G54" s="20"/>
+      <c r="B54" s="63"/>
+      <c r="C54" s="64"/>
+      <c r="D54" s="61"/>
+      <c r="E54" s="38"/>
+      <c r="F54" s="62"/>
+      <c r="G54" s="35"/>
     </row>
     <row r="55" spans="1:7" ht="17" customHeight="1">
-      <c r="A55" s="18">
+      <c r="A55" s="32">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="B55" s="66"/>
-      <c r="C55" s="67"/>
-      <c r="D55" s="19"/>
-      <c r="E55" s="23"/>
-      <c r="F55" s="40"/>
-      <c r="G55" s="20"/>
+      <c r="B55" s="104"/>
+      <c r="C55" s="105"/>
+      <c r="D55" s="34"/>
+      <c r="E55" s="38"/>
+      <c r="F55" s="62"/>
+      <c r="G55" s="35"/>
     </row>
     <row r="56" spans="1:7" ht="17" customHeight="1">
-      <c r="A56" s="18">
+      <c r="A56" s="32">
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
-      <c r="B56" s="68"/>
-      <c r="C56" s="69"/>
-      <c r="D56" s="23"/>
-      <c r="E56" s="23"/>
-      <c r="F56" s="20"/>
-      <c r="G56" s="20"/>
+      <c r="B56" s="98"/>
+      <c r="C56" s="99"/>
+      <c r="D56" s="38"/>
+      <c r="E56" s="38"/>
+      <c r="F56" s="35"/>
+      <c r="G56" s="35"/>
     </row>
     <row r="57" spans="1:7" ht="17" customHeight="1">
-      <c r="A57" s="18">
+      <c r="A57" s="32">
         <f t="shared" si="0"/>
         <v>47</v>
       </c>
-      <c r="B57" s="68"/>
-      <c r="C57" s="69"/>
-      <c r="D57" s="23"/>
-      <c r="E57" s="23"/>
-      <c r="F57" s="20"/>
-      <c r="G57" s="20"/>
+      <c r="B57" s="98"/>
+      <c r="C57" s="99"/>
+      <c r="D57" s="38"/>
+      <c r="E57" s="38"/>
+      <c r="F57" s="35"/>
+      <c r="G57" s="35"/>
     </row>
     <row r="58" spans="1:7" ht="17" customHeight="1">
-      <c r="A58" s="18">
+      <c r="A58" s="32">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="B58" s="68"/>
-      <c r="C58" s="69"/>
-      <c r="D58" s="23"/>
-      <c r="E58" s="23"/>
-      <c r="F58" s="20"/>
-      <c r="G58" s="20"/>
+      <c r="B58" s="98"/>
+      <c r="C58" s="99"/>
+      <c r="D58" s="38"/>
+      <c r="E58" s="38"/>
+      <c r="F58" s="35"/>
+      <c r="G58" s="35"/>
     </row>
     <row r="59" spans="1:7" ht="17" customHeight="1">
-      <c r="A59" s="18">
+      <c r="A59" s="32">
         <f t="shared" si="0"/>
         <v>49</v>
       </c>
-      <c r="B59" s="68"/>
-      <c r="C59" s="69"/>
-      <c r="D59" s="23"/>
-      <c r="E59" s="23"/>
-      <c r="F59" s="23"/>
-      <c r="G59" s="20"/>
+      <c r="B59" s="98"/>
+      <c r="C59" s="99"/>
+      <c r="D59" s="38"/>
+      <c r="E59" s="38"/>
+      <c r="F59" s="38"/>
+      <c r="G59" s="35"/>
     </row>
     <row r="60" spans="1:7" ht="17" customHeight="1">
-      <c r="A60" s="18">
+      <c r="A60" s="32">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="B60" s="68"/>
-      <c r="C60" s="69"/>
-      <c r="D60" s="23"/>
-      <c r="E60" s="23"/>
-      <c r="F60" s="23"/>
-      <c r="G60" s="20"/>
+      <c r="B60" s="98"/>
+      <c r="C60" s="99"/>
+      <c r="D60" s="38"/>
+      <c r="E60" s="38"/>
+      <c r="F60" s="38"/>
+      <c r="G60" s="35"/>
     </row>
     <row r="61" spans="1:7" ht="17" customHeight="1">
-      <c r="A61" s="18">
+      <c r="A61" s="32">
         <f t="shared" si="0"/>
         <v>51</v>
       </c>
-      <c r="B61" s="68"/>
-      <c r="C61" s="69"/>
-      <c r="D61" s="23"/>
-      <c r="E61" s="23"/>
-      <c r="F61" s="23"/>
-      <c r="G61" s="20"/>
+      <c r="B61" s="98"/>
+      <c r="C61" s="99"/>
+      <c r="D61" s="38"/>
+      <c r="E61" s="38"/>
+      <c r="F61" s="38"/>
+      <c r="G61" s="35"/>
     </row>
     <row r="62" spans="1:7" ht="17" customHeight="1">
-      <c r="A62" s="18">
+      <c r="A62" s="32">
         <f t="shared" si="0"/>
         <v>52</v>
       </c>
-      <c r="B62" s="68"/>
-      <c r="C62" s="69"/>
-      <c r="D62" s="23"/>
-      <c r="E62" s="23"/>
-      <c r="F62" s="19"/>
-      <c r="G62" s="20"/>
+      <c r="B62" s="98"/>
+      <c r="C62" s="99"/>
+      <c r="D62" s="38"/>
+      <c r="E62" s="38"/>
+      <c r="F62" s="34"/>
+      <c r="G62" s="35"/>
     </row>
     <row r="63" spans="1:7" ht="17" customHeight="1">
-      <c r="A63" s="18">
+      <c r="A63" s="32">
         <f t="shared" si="0"/>
         <v>53</v>
       </c>
-      <c r="B63" s="60"/>
-      <c r="C63" s="61"/>
-      <c r="D63" s="26"/>
-      <c r="E63" s="27"/>
-      <c r="F63" s="25"/>
-      <c r="G63" s="25"/>
+      <c r="B63" s="108"/>
+      <c r="C63" s="109"/>
+      <c r="D63" s="41"/>
+      <c r="E63" s="42"/>
+      <c r="F63" s="40"/>
+      <c r="G63" s="40"/>
     </row>
     <row r="64" spans="1:7" ht="17" customHeight="1">
-      <c r="A64" s="18">
+      <c r="A64" s="32">
         <f t="shared" si="0"/>
         <v>54</v>
       </c>
-      <c r="B64" s="60"/>
-      <c r="C64" s="61"/>
-      <c r="D64" s="28"/>
-      <c r="E64" s="29"/>
-      <c r="F64" s="30"/>
-      <c r="G64" s="25"/>
+      <c r="B64" s="108"/>
+      <c r="C64" s="109"/>
+      <c r="D64" s="43"/>
+      <c r="E64" s="44"/>
+      <c r="F64" s="45"/>
+      <c r="G64" s="40"/>
     </row>
     <row r="65" spans="1:7" ht="17" customHeight="1">
-      <c r="A65" s="18">
+      <c r="A65" s="32">
         <f t="shared" si="0"/>
         <v>55</v>
       </c>
-      <c r="B65" s="62"/>
-      <c r="C65" s="63"/>
-      <c r="D65" s="25"/>
-      <c r="E65" s="25"/>
-      <c r="F65" s="25"/>
-      <c r="G65" s="30"/>
+      <c r="B65" s="110"/>
+      <c r="C65" s="111"/>
+      <c r="D65" s="40"/>
+      <c r="E65" s="40"/>
+      <c r="F65" s="40"/>
+      <c r="G65" s="45"/>
     </row>
     <row r="66" spans="1:7" ht="17" customHeight="1">
-      <c r="A66" s="18">
+      <c r="A66" s="32">
         <f t="shared" si="0"/>
         <v>56</v>
       </c>
-      <c r="B66" s="64"/>
-      <c r="C66" s="65"/>
-      <c r="D66" s="31"/>
-      <c r="E66" s="25"/>
-      <c r="F66" s="25"/>
-      <c r="G66" s="25"/>
+      <c r="B66" s="112"/>
+      <c r="C66" s="113"/>
+      <c r="D66" s="46"/>
+      <c r="E66" s="40"/>
+      <c r="F66" s="40"/>
+      <c r="G66" s="40"/>
     </row>
     <row r="67" spans="1:7" ht="17" customHeight="1">
-      <c r="A67" s="18">
+      <c r="A67" s="32">
         <f t="shared" si="0"/>
         <v>57</v>
       </c>
-      <c r="B67" s="58"/>
-      <c r="C67" s="59"/>
-      <c r="D67" s="32"/>
-      <c r="E67" s="30"/>
-      <c r="F67" s="30"/>
-      <c r="G67" s="25"/>
+      <c r="B67" s="106"/>
+      <c r="C67" s="107"/>
+      <c r="D67" s="47"/>
+      <c r="E67" s="45"/>
+      <c r="F67" s="45"/>
+      <c r="G67" s="40"/>
     </row>
     <row r="68" spans="1:7" ht="17" customHeight="1">
-      <c r="A68" s="18">
+      <c r="A68" s="32">
         <f t="shared" si="0"/>
         <v>58</v>
       </c>
-      <c r="B68" s="58"/>
-      <c r="C68" s="59"/>
-      <c r="D68" s="32"/>
-      <c r="E68" s="30"/>
-      <c r="F68" s="30"/>
-      <c r="G68" s="25"/>
+      <c r="B68" s="106"/>
+      <c r="C68" s="107"/>
+      <c r="D68" s="47"/>
+      <c r="E68" s="45"/>
+      <c r="F68" s="45"/>
+      <c r="G68" s="40"/>
     </row>
     <row r="69" spans="1:7" ht="17" customHeight="1">
-      <c r="A69" s="18">
+      <c r="A69" s="32">
         <f t="shared" si="0"/>
         <v>59</v>
       </c>
-      <c r="B69" s="58"/>
-      <c r="C69" s="59"/>
-      <c r="D69" s="32"/>
-      <c r="E69" s="30"/>
-      <c r="F69" s="30"/>
-      <c r="G69" s="25"/>
+      <c r="B69" s="106"/>
+      <c r="C69" s="107"/>
+      <c r="D69" s="47"/>
+      <c r="E69" s="45"/>
+      <c r="F69" s="45"/>
+      <c r="G69" s="40"/>
     </row>
     <row r="70" spans="1:7" ht="17" customHeight="1">
-      <c r="A70" s="18">
+      <c r="A70" s="32">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="B70" s="58"/>
-      <c r="C70" s="59"/>
-      <c r="D70" s="32"/>
-      <c r="E70" s="30"/>
-      <c r="F70" s="30"/>
-      <c r="G70" s="25"/>
+      <c r="B70" s="106"/>
+      <c r="C70" s="107"/>
+      <c r="D70" s="47"/>
+      <c r="E70" s="45"/>
+      <c r="F70" s="45"/>
+      <c r="G70" s="40"/>
     </row>
     <row r="71" spans="1:7" ht="17" customHeight="1">
-      <c r="A71" s="18">
+      <c r="A71" s="32">
         <f t="shared" si="0"/>
         <v>61</v>
       </c>
-      <c r="B71" s="58"/>
-      <c r="C71" s="59"/>
-      <c r="D71" s="32"/>
-      <c r="E71" s="30"/>
-      <c r="F71" s="30"/>
-      <c r="G71" s="25"/>
+      <c r="B71" s="106"/>
+      <c r="C71" s="107"/>
+      <c r="D71" s="47"/>
+      <c r="E71" s="45"/>
+      <c r="F71" s="45"/>
+      <c r="G71" s="40"/>
     </row>
     <row r="77" spans="1:7" ht="30" customHeight="1" thickBot="1">
-      <c r="B77" s="10" t="s">
-        <v>13</v>
+      <c r="B77" s="24" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="78" spans="1:7" ht="12" thickTop="1"/>
   </sheetData>
   <mergeCells count="66">
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="B1:G1"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B25:C25"/>
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="B28:C28"/>
     <mergeCell ref="B29:C29"/>
@@ -2269,49 +2663,15 @@
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="B22:C22"/>
     <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C6:D6"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -2324,4 +2684,1301 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F102"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B87" sqref="B87"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="40.5" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="11.5" style="6" customWidth="1"/>
+    <col min="2" max="2" width="59.1640625" style="6" customWidth="1"/>
+    <col min="3" max="5" width="18.6640625" style="6" hidden="1" customWidth="1"/>
+    <col min="6" max="255" width="11.5" style="6" customWidth="1"/>
+    <col min="256" max="16384" width="40.5" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="18.75" customHeight="1">
+      <c r="A1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="13.5" customHeight="1">
+      <c r="A2" s="18">
+        <v>1</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="15">
+        <v>2</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="C3" s="16">
+        <v>1000</v>
+      </c>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="15">
+        <v>3</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="C4" s="16">
+        <v>850</v>
+      </c>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="15">
+        <v>4</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="C5" s="16">
+        <v>750</v>
+      </c>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="15">
+        <v>5</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="16">
+        <v>700</v>
+      </c>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="9">
+        <v>6</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="9"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="9">
+        <v>7</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="9"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="15">
+        <v>8</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="16">
+        <v>500</v>
+      </c>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="12" customHeight="1">
+      <c r="A10" s="15">
+        <v>9</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="16">
+        <v>900</v>
+      </c>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="15">
+        <v>10</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="16">
+        <v>290</v>
+      </c>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="15">
+        <v>11</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="16">
+        <v>290</v>
+      </c>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="9">
+        <v>12</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="9"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="15">
+        <v>13</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="16">
+        <v>260</v>
+      </c>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="15">
+        <v>14</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="C15" s="16">
+        <v>700</v>
+      </c>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="9">
+        <v>15</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="9"/>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="9">
+        <v>16</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="9"/>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="9">
+        <v>17</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="9"/>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="9">
+        <v>18</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="9"/>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="18">
+        <v>19</v>
+      </c>
+      <c r="B20" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="9">
+        <v>20</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="9"/>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="18">
+        <v>21</v>
+      </c>
+      <c r="B22" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="9">
+        <v>22</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="9"/>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="15">
+        <v>23</v>
+      </c>
+      <c r="B24" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C24" s="16">
+        <v>270</v>
+      </c>
+      <c r="D24" s="16"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="15">
+        <v>24</v>
+      </c>
+      <c r="B25" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C25" s="16">
+        <v>0</v>
+      </c>
+      <c r="D25" s="16"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="18">
+        <v>25</v>
+      </c>
+      <c r="B26" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="9">
+        <v>26</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="9"/>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="9">
+        <v>27</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="9"/>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="18">
+        <v>28</v>
+      </c>
+      <c r="B29" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="9">
+        <v>29</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" s="13"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="9"/>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="9">
+        <v>30</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C31" s="13"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="9"/>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="9">
+        <v>31</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C32" s="13"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="9"/>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="9">
+        <v>32</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C33" s="13"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="9"/>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="9">
+        <v>33</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C34" s="13"/>
+      <c r="D34" s="13"/>
+      <c r="E34" s="13"/>
+      <c r="F34" s="9"/>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="9">
+        <v>34</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C35" s="13"/>
+      <c r="D35" s="13"/>
+      <c r="E35" s="13"/>
+      <c r="F35" s="9"/>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="9">
+        <v>35</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C36" s="13"/>
+      <c r="D36" s="13"/>
+      <c r="E36" s="13"/>
+      <c r="F36" s="9"/>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="9">
+        <v>36</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C37" s="13"/>
+      <c r="D37" s="13"/>
+      <c r="E37" s="13"/>
+      <c r="F37" s="9"/>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="9">
+        <v>37</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C38" s="13"/>
+      <c r="D38" s="13"/>
+      <c r="E38" s="13"/>
+      <c r="F38" s="9"/>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="9">
+        <v>38</v>
+      </c>
+      <c r="B39" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C39" s="13"/>
+      <c r="D39" s="13"/>
+      <c r="E39" s="13"/>
+      <c r="F39" s="9"/>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="9">
+        <v>39</v>
+      </c>
+      <c r="B40" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C40" s="13"/>
+      <c r="D40" s="13"/>
+      <c r="E40" s="13"/>
+      <c r="F40" s="9"/>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="9">
+        <v>40</v>
+      </c>
+      <c r="B41" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C41" s="13"/>
+      <c r="D41" s="13"/>
+      <c r="E41" s="13"/>
+      <c r="F41" s="9"/>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" s="9">
+        <v>41</v>
+      </c>
+      <c r="B42" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C42" s="13"/>
+      <c r="D42" s="13"/>
+      <c r="E42" s="13"/>
+      <c r="F42" s="9"/>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" s="9">
+        <v>42</v>
+      </c>
+      <c r="B43" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C43" s="13"/>
+      <c r="D43" s="13"/>
+      <c r="E43" s="13"/>
+      <c r="F43" s="9"/>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" s="9">
+        <v>43</v>
+      </c>
+      <c r="B44" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C44" s="13"/>
+      <c r="D44" s="13"/>
+      <c r="E44" s="13"/>
+      <c r="F44" s="9"/>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" s="9">
+        <v>44</v>
+      </c>
+      <c r="B45" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C45" s="13"/>
+      <c r="D45" s="13"/>
+      <c r="E45" s="13"/>
+      <c r="F45" s="9"/>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" s="9">
+        <v>45</v>
+      </c>
+      <c r="B46" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C46" s="13"/>
+      <c r="D46" s="13"/>
+      <c r="E46" s="13"/>
+      <c r="F46" s="9"/>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" s="9">
+        <v>46</v>
+      </c>
+      <c r="B47" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C47" s="13"/>
+      <c r="D47" s="13"/>
+      <c r="E47" s="13"/>
+      <c r="F47" s="9"/>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" s="9">
+        <v>47</v>
+      </c>
+      <c r="B48" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C48" s="13"/>
+      <c r="D48" s="13"/>
+      <c r="E48" s="13"/>
+      <c r="F48" s="9"/>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" s="9">
+        <v>48</v>
+      </c>
+      <c r="B49" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C49" s="13"/>
+      <c r="D49" s="13"/>
+      <c r="E49" s="13"/>
+      <c r="F49" s="9"/>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" s="9">
+        <v>49</v>
+      </c>
+      <c r="B50" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C50" s="13"/>
+      <c r="D50" s="13"/>
+      <c r="E50" s="13"/>
+      <c r="F50" s="9"/>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" s="9">
+        <v>50</v>
+      </c>
+      <c r="B51" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C51" s="13"/>
+      <c r="D51" s="13"/>
+      <c r="E51" s="13"/>
+      <c r="F51" s="9"/>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" s="9">
+        <v>51</v>
+      </c>
+      <c r="B52" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C52" s="13"/>
+      <c r="D52" s="13"/>
+      <c r="E52" s="13"/>
+      <c r="F52" s="9"/>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" s="9">
+        <v>52</v>
+      </c>
+      <c r="B53" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C53" s="13"/>
+      <c r="D53" s="13"/>
+      <c r="E53" s="13"/>
+      <c r="F53" s="9"/>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" s="9">
+        <v>53</v>
+      </c>
+      <c r="B54" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C54" s="13"/>
+      <c r="D54" s="13"/>
+      <c r="E54" s="13"/>
+      <c r="F54" s="9"/>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" s="9">
+        <v>54</v>
+      </c>
+      <c r="B55" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C55" s="13"/>
+      <c r="D55" s="13"/>
+      <c r="E55" s="13"/>
+      <c r="F55" s="9"/>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" s="9">
+        <v>55</v>
+      </c>
+      <c r="B56" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C56" s="13"/>
+      <c r="D56" s="13"/>
+      <c r="E56" s="13"/>
+      <c r="F56" s="9"/>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" s="9">
+        <v>56</v>
+      </c>
+      <c r="B57" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C57" s="13"/>
+      <c r="D57" s="13"/>
+      <c r="E57" s="13"/>
+      <c r="F57" s="9"/>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" s="9">
+        <v>57</v>
+      </c>
+      <c r="B58" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C58" s="13"/>
+      <c r="D58" s="13"/>
+      <c r="E58" s="13"/>
+      <c r="F58" s="9"/>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" s="9">
+        <v>58</v>
+      </c>
+      <c r="B59" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C59" s="13"/>
+      <c r="D59" s="13"/>
+      <c r="E59" s="13"/>
+      <c r="F59" s="9"/>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" s="9">
+        <v>59</v>
+      </c>
+      <c r="B60" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="C60" s="13"/>
+      <c r="D60" s="13"/>
+      <c r="E60" s="13"/>
+      <c r="F60" s="9"/>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61" s="9">
+        <v>60</v>
+      </c>
+      <c r="B61" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="C61" s="13"/>
+      <c r="D61" s="13"/>
+      <c r="E61" s="13"/>
+      <c r="F61" s="9"/>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62" s="9">
+        <v>61</v>
+      </c>
+      <c r="B62" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C62" s="13"/>
+      <c r="D62" s="13"/>
+      <c r="E62" s="13"/>
+      <c r="F62" s="9"/>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63" s="9">
+        <v>62</v>
+      </c>
+      <c r="B63" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C63" s="13"/>
+      <c r="D63" s="13"/>
+      <c r="E63" s="13"/>
+      <c r="F63" s="9"/>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64" s="9">
+        <v>63</v>
+      </c>
+      <c r="B64" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C64" s="13"/>
+      <c r="D64" s="13"/>
+      <c r="E64" s="13"/>
+      <c r="F64" s="9"/>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65" s="9">
+        <v>64</v>
+      </c>
+      <c r="B65" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C65" s="13"/>
+      <c r="D65" s="13"/>
+      <c r="E65" s="13"/>
+      <c r="F65" s="9"/>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66" s="9">
+        <v>65</v>
+      </c>
+      <c r="B66" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="C66" s="13"/>
+      <c r="D66" s="13"/>
+      <c r="E66" s="13"/>
+      <c r="F66" s="9"/>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67" s="9">
+        <v>66</v>
+      </c>
+      <c r="B67" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C67" s="13"/>
+      <c r="D67" s="13"/>
+      <c r="E67" s="13"/>
+      <c r="F67" s="9"/>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68" s="9">
+        <v>67</v>
+      </c>
+      <c r="B68" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C68" s="13"/>
+      <c r="D68" s="13"/>
+      <c r="E68" s="13"/>
+      <c r="F68" s="9"/>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69" s="9">
+        <v>68</v>
+      </c>
+      <c r="B69" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="C69" s="13"/>
+      <c r="D69" s="13"/>
+      <c r="E69" s="13"/>
+      <c r="F69" s="9"/>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70" s="9">
+        <v>69</v>
+      </c>
+      <c r="B70" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C70" s="13"/>
+      <c r="D70" s="13"/>
+      <c r="E70" s="13"/>
+      <c r="F70" s="9"/>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71" s="9">
+        <v>70</v>
+      </c>
+      <c r="B71" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C71" s="13"/>
+      <c r="D71" s="13"/>
+      <c r="E71" s="13"/>
+      <c r="F71" s="9"/>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72" s="9">
+        <v>71</v>
+      </c>
+      <c r="B72" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C72" s="13"/>
+      <c r="D72" s="13"/>
+      <c r="E72" s="13"/>
+      <c r="F72" s="9"/>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="A73" s="9">
+        <v>72</v>
+      </c>
+      <c r="B73" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="C73" s="13"/>
+      <c r="D73" s="13"/>
+      <c r="E73" s="13"/>
+      <c r="F73" s="9"/>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="A74" s="9">
+        <v>73</v>
+      </c>
+      <c r="B74" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="C74" s="13"/>
+      <c r="D74" s="13"/>
+      <c r="E74" s="13"/>
+      <c r="F74" s="9"/>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="A75" s="9">
+        <v>74</v>
+      </c>
+      <c r="B75" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="C75" s="13"/>
+      <c r="D75" s="13"/>
+      <c r="E75" s="13"/>
+      <c r="F75" s="9"/>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="A76" s="9">
+        <v>75</v>
+      </c>
+      <c r="B76" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="C76" s="13"/>
+      <c r="D76" s="13"/>
+      <c r="E76" s="13"/>
+      <c r="F76" s="9"/>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="A77" s="15">
+        <v>76</v>
+      </c>
+      <c r="B77" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="C77" s="16">
+        <v>270</v>
+      </c>
+      <c r="D77" s="16"/>
+      <c r="E77" s="16"/>
+      <c r="F77" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="A78" s="15">
+        <v>77</v>
+      </c>
+      <c r="B78" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="C78" s="16">
+        <v>260</v>
+      </c>
+      <c r="D78" s="16"/>
+      <c r="E78" s="16"/>
+      <c r="F78" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="A79" s="9">
+        <v>78</v>
+      </c>
+      <c r="B79" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="C79" s="13"/>
+      <c r="D79" s="13"/>
+      <c r="E79" s="13"/>
+      <c r="F79" s="9"/>
+    </row>
+    <row r="80" spans="1:6">
+      <c r="A80" s="9">
+        <v>79</v>
+      </c>
+      <c r="B80" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C80" s="13"/>
+      <c r="D80" s="13"/>
+      <c r="E80" s="13"/>
+      <c r="F80" s="9"/>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="A81" s="9">
+        <v>80</v>
+      </c>
+      <c r="B81" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="C81" s="13"/>
+      <c r="D81" s="13"/>
+      <c r="E81" s="13"/>
+      <c r="F81" s="9"/>
+    </row>
+    <row r="82" spans="1:6">
+      <c r="A82" s="9">
+        <v>81</v>
+      </c>
+      <c r="B82" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="C82" s="13"/>
+      <c r="D82" s="13"/>
+      <c r="E82" s="13"/>
+      <c r="F82" s="9"/>
+    </row>
+    <row r="83" spans="1:6">
+      <c r="A83" s="9">
+        <v>82</v>
+      </c>
+      <c r="B83" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C83" s="13"/>
+      <c r="D83" s="13"/>
+      <c r="E83" s="13"/>
+      <c r="F83" s="9"/>
+    </row>
+    <row r="84" spans="1:6">
+      <c r="A84" s="9">
+        <v>83</v>
+      </c>
+      <c r="B84" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="C84" s="13"/>
+      <c r="D84" s="13"/>
+      <c r="E84" s="13"/>
+      <c r="F84" s="9"/>
+    </row>
+    <row r="85" spans="1:6">
+      <c r="A85" s="9">
+        <v>84</v>
+      </c>
+      <c r="B85" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="C85" s="13"/>
+      <c r="D85" s="13"/>
+      <c r="E85" s="13"/>
+      <c r="F85" s="9"/>
+    </row>
+    <row r="86" spans="1:6" ht="12" customHeight="1">
+      <c r="A86" s="19">
+        <v>85</v>
+      </c>
+      <c r="B86" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="C86" s="13"/>
+      <c r="D86" s="13"/>
+      <c r="E86" s="13"/>
+      <c r="F86" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" ht="12" customHeight="1">
+      <c r="A87" s="19">
+        <v>86</v>
+      </c>
+      <c r="B87" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="C87" s="13"/>
+      <c r="D87" s="13"/>
+      <c r="E87" s="13"/>
+      <c r="F87" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" ht="12" customHeight="1">
+      <c r="A88" s="11">
+        <v>87</v>
+      </c>
+      <c r="B88" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="C88" s="13"/>
+      <c r="D88" s="13"/>
+      <c r="E88" s="13"/>
+      <c r="F88" s="9"/>
+    </row>
+    <row r="89" spans="1:6" ht="12" customHeight="1">
+      <c r="A89" s="12">
+        <v>88</v>
+      </c>
+      <c r="B89" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="C89" s="13"/>
+      <c r="D89" s="13"/>
+      <c r="E89" s="13"/>
+      <c r="F89" s="9"/>
+    </row>
+    <row r="90" spans="1:6" ht="12" customHeight="1">
+      <c r="A90" s="12">
+        <v>89</v>
+      </c>
+      <c r="B90" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="C90" s="13"/>
+      <c r="D90" s="13"/>
+      <c r="E90" s="13"/>
+      <c r="F90" s="9"/>
+    </row>
+    <row r="91" spans="1:6" ht="12" customHeight="1">
+      <c r="A91" s="9">
+        <v>90</v>
+      </c>
+      <c r="B91" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="C91" s="13"/>
+      <c r="D91" s="13"/>
+      <c r="E91" s="13"/>
+      <c r="F91" s="9"/>
+    </row>
+    <row r="92" spans="1:6" ht="12" customHeight="1">
+      <c r="A92" s="18">
+        <v>91</v>
+      </c>
+      <c r="B92" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="C92" s="13"/>
+      <c r="D92" s="13"/>
+      <c r="E92" s="13"/>
+      <c r="F92" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" ht="12" customHeight="1">
+      <c r="A93" s="9">
+        <v>92</v>
+      </c>
+      <c r="B93" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="C93" s="13"/>
+      <c r="D93" s="13"/>
+      <c r="E93" s="13"/>
+      <c r="F93" s="9"/>
+    </row>
+    <row r="94" spans="1:6" ht="12" customHeight="1">
+      <c r="A94" s="15">
+        <v>93</v>
+      </c>
+      <c r="B94" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="C94" s="16">
+        <v>0</v>
+      </c>
+      <c r="D94" s="16"/>
+      <c r="E94" s="16"/>
+      <c r="F94" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" ht="12" customHeight="1">
+      <c r="A95" s="15">
+        <v>94</v>
+      </c>
+      <c r="B95" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="C95" s="16">
+        <v>600</v>
+      </c>
+      <c r="D95" s="16"/>
+      <c r="E95" s="16"/>
+      <c r="F95" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" ht="12" customHeight="1">
+      <c r="A96" s="9">
+        <v>95</v>
+      </c>
+      <c r="B96" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="C96" s="13">
+        <v>600</v>
+      </c>
+      <c r="D96" s="13"/>
+      <c r="E96" s="13"/>
+      <c r="F96" s="9"/>
+    </row>
+    <row r="97" spans="1:6" ht="12" customHeight="1">
+      <c r="A97" s="15">
+        <v>96</v>
+      </c>
+      <c r="B97" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="C97" s="16">
+        <v>0</v>
+      </c>
+      <c r="D97" s="16"/>
+      <c r="E97" s="16"/>
+      <c r="F97" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
+      <c r="C98" s="14">
+        <f>SUM(C2:C97)</f>
+        <v>8240</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
+      <c r="C102" s="14"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:F98"/>
+  <phoneticPr fontId="0" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/templates/plantilla_ayudantes.xlsx
+++ b/templates/plantilla_ayudantes.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="20225"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25280" windowHeight="12800" tabRatio="913"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28840" windowHeight="20360" tabRatio="913"/>
   </bookViews>
   <sheets>
     <sheet name="SOLICITUD DE ACCESO | PERSONAS" sheetId="14" r:id="rId1"/>
@@ -614,9 +614,6 @@
     <t>SOLICITUD DE INGRESO AL RECINTO PORTUARIO DE PERSONAL</t>
   </si>
   <si>
-    <t>PERSONAL DE TRANSPORTE PARA TRABAJAR EN DESEMBARQUE DE MV. CHRISTINA B</t>
-  </si>
-  <si>
     <t>Jose Manuel Zamora DUI 03655270-0</t>
   </si>
   <si>
@@ -624,6 +621,9 @@
   </si>
   <si>
     <t>TRANSPORTE ESMERALDA</t>
+  </si>
+  <si>
+    <t>PERSONAL DE TRANSPORTE PARA TRABAJAR EN DESEMBARQUE</t>
   </si>
 </sst>
 </file>
@@ -1155,12 +1155,108 @@
     <xf numFmtId="49" fontId="26" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="22" fontId="4" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1187,102 +1283,6 @@
     </xf>
     <xf numFmtId="164" fontId="4" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1735,7 +1735,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B11" sqref="B11:G71"/>
+      <selection pane="bottomLeft" activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="11" x14ac:dyDescent="0"/>
@@ -1751,14 +1751,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="39.75" customHeight="1">
-      <c r="B1" s="75" t="s">
+      <c r="B1" s="107" t="s">
         <v>115</v>
       </c>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="75"/>
+      <c r="C1" s="107"/>
+      <c r="D1" s="107"/>
+      <c r="E1" s="107"/>
+      <c r="F1" s="107"/>
+      <c r="G1" s="107"/>
     </row>
     <row r="2" spans="1:7">
       <c r="B2" s="5"/>
@@ -1771,10 +1771,10 @@
       <c r="B3" s="20" t="s">
         <v>111</v>
       </c>
-      <c r="C3" s="73" t="s">
-        <v>119</v>
-      </c>
-      <c r="D3" s="74"/>
+      <c r="C3" s="105" t="s">
+        <v>118</v>
+      </c>
+      <c r="D3" s="106"/>
       <c r="E3" s="25"/>
       <c r="F3" s="25"/>
       <c r="G3" s="26"/>
@@ -1783,10 +1783,10 @@
       <c r="B4" s="20" t="s">
         <v>110</v>
       </c>
-      <c r="C4" s="73" t="s">
-        <v>117</v>
-      </c>
-      <c r="D4" s="74"/>
+      <c r="C4" s="105" t="s">
+        <v>116</v>
+      </c>
+      <c r="D4" s="106"/>
       <c r="E4" s="25"/>
       <c r="F4" s="25"/>
       <c r="G4" s="26"/>
@@ -1805,8 +1805,8 @@
       <c r="B6" s="20" t="s">
         <v>113</v>
       </c>
-      <c r="C6" s="78"/>
-      <c r="D6" s="79"/>
+      <c r="C6" s="110"/>
+      <c r="D6" s="111"/>
       <c r="E6" s="25"/>
       <c r="F6" s="25"/>
       <c r="G6" s="26"/>
@@ -1816,10 +1816,10 @@
         <v>112</v>
       </c>
       <c r="B7" s="30"/>
-      <c r="C7" s="78" t="s">
-        <v>118</v>
-      </c>
-      <c r="D7" s="79"/>
+      <c r="C7" s="110" t="s">
+        <v>117</v>
+      </c>
+      <c r="D7" s="111"/>
       <c r="E7" s="25"/>
       <c r="F7" s="25"/>
       <c r="G7" s="26"/>
@@ -1828,8 +1828,8 @@
       <c r="B8" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="C8" s="80"/>
-      <c r="D8" s="81"/>
+      <c r="C8" s="112"/>
+      <c r="D8" s="113"/>
       <c r="E8" s="25"/>
       <c r="F8" s="25"/>
       <c r="G8" s="26"/>
@@ -1839,7 +1839,7 @@
         <v>106</v>
       </c>
       <c r="C9" s="31" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="D9" s="25"/>
       <c r="E9" s="25"/>
@@ -1850,10 +1850,10 @@
       <c r="A10" s="27" t="s">
         <v>107</v>
       </c>
-      <c r="B10" s="76" t="s">
+      <c r="B10" s="108" t="s">
         <v>105</v>
       </c>
-      <c r="C10" s="77"/>
+      <c r="C10" s="109"/>
       <c r="D10" s="2" t="s">
         <v>102</v>
       </c>
@@ -1871,8 +1871,8 @@
       <c r="A11" s="32">
         <v>1</v>
       </c>
-      <c r="B11" s="71"/>
-      <c r="C11" s="72"/>
+      <c r="B11" s="93"/>
+      <c r="C11" s="94"/>
       <c r="D11" s="70"/>
       <c r="E11" s="70"/>
       <c r="F11" s="65"/>
@@ -1883,8 +1883,8 @@
         <f>A11+1</f>
         <v>2</v>
       </c>
-      <c r="B12" s="71"/>
-      <c r="C12" s="72"/>
+      <c r="B12" s="93"/>
+      <c r="C12" s="94"/>
       <c r="D12" s="70"/>
       <c r="E12" s="70"/>
       <c r="F12" s="65"/>
@@ -1895,8 +1895,8 @@
         <f t="shared" ref="A13:A71" si="0">A12+1</f>
         <v>3</v>
       </c>
-      <c r="B13" s="71"/>
-      <c r="C13" s="72"/>
+      <c r="B13" s="93"/>
+      <c r="C13" s="94"/>
       <c r="D13" s="70"/>
       <c r="E13" s="70"/>
       <c r="F13" s="67"/>
@@ -1907,8 +1907,8 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B14" s="71"/>
-      <c r="C14" s="72"/>
+      <c r="B14" s="93"/>
+      <c r="C14" s="94"/>
       <c r="D14" s="70"/>
       <c r="E14" s="70"/>
       <c r="F14" s="67"/>
@@ -1919,8 +1919,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B15" s="71"/>
-      <c r="C15" s="72"/>
+      <c r="B15" s="93"/>
+      <c r="C15" s="94"/>
       <c r="D15" s="70"/>
       <c r="E15" s="70"/>
       <c r="F15" s="67"/>
@@ -1931,8 +1931,8 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B16" s="86"/>
-      <c r="C16" s="87"/>
+      <c r="B16" s="95"/>
+      <c r="C16" s="96"/>
       <c r="D16" s="68"/>
       <c r="E16" s="69"/>
       <c r="F16" s="67"/>
@@ -1943,8 +1943,8 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B17" s="71"/>
-      <c r="C17" s="72"/>
+      <c r="B17" s="93"/>
+      <c r="C17" s="94"/>
       <c r="D17" s="68"/>
       <c r="E17" s="69"/>
       <c r="F17" s="36"/>
@@ -1955,8 +1955,8 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B18" s="71"/>
-      <c r="C18" s="72"/>
+      <c r="B18" s="93"/>
+      <c r="C18" s="94"/>
       <c r="D18" s="68"/>
       <c r="E18" s="69"/>
       <c r="F18" s="36"/>
@@ -1967,8 +1967,8 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B19" s="71"/>
-      <c r="C19" s="72"/>
+      <c r="B19" s="93"/>
+      <c r="C19" s="94"/>
       <c r="D19" s="68"/>
       <c r="E19" s="69"/>
       <c r="F19" s="36"/>
@@ -1979,8 +1979,8 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B20" s="86"/>
-      <c r="C20" s="87"/>
+      <c r="B20" s="95"/>
+      <c r="C20" s="96"/>
       <c r="D20" s="68"/>
       <c r="E20" s="69"/>
       <c r="F20" s="36"/>
@@ -1991,8 +1991,8 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B21" s="88"/>
-      <c r="C21" s="89"/>
+      <c r="B21" s="99"/>
+      <c r="C21" s="100"/>
       <c r="D21" s="48"/>
       <c r="E21" s="49"/>
       <c r="F21" s="36"/>
@@ -2003,8 +2003,8 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B22" s="90"/>
-      <c r="C22" s="91"/>
+      <c r="B22" s="101"/>
+      <c r="C22" s="102"/>
       <c r="D22" s="50"/>
       <c r="E22" s="51"/>
       <c r="F22" s="37"/>
@@ -2015,8 +2015,8 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B23" s="92"/>
-      <c r="C23" s="93"/>
+      <c r="B23" s="103"/>
+      <c r="C23" s="104"/>
       <c r="D23" s="52"/>
       <c r="E23" s="42"/>
       <c r="F23" s="53"/>
@@ -2027,8 +2027,8 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B24" s="84"/>
-      <c r="C24" s="85"/>
+      <c r="B24" s="97"/>
+      <c r="C24" s="98"/>
       <c r="D24" s="54"/>
       <c r="E24" s="33"/>
       <c r="F24" s="53"/>
@@ -2039,8 +2039,8 @@
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B25" s="84"/>
-      <c r="C25" s="85"/>
+      <c r="B25" s="97"/>
+      <c r="C25" s="98"/>
       <c r="D25" s="54"/>
       <c r="E25" s="42"/>
       <c r="F25" s="39"/>
@@ -2051,8 +2051,8 @@
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B26" s="82"/>
-      <c r="C26" s="83"/>
+      <c r="B26" s="89"/>
+      <c r="C26" s="90"/>
       <c r="D26" s="55"/>
       <c r="E26" s="55"/>
       <c r="F26" s="34"/>
@@ -2063,8 +2063,8 @@
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B27" s="82"/>
-      <c r="C27" s="83"/>
+      <c r="B27" s="89"/>
+      <c r="C27" s="90"/>
       <c r="D27" s="55"/>
       <c r="E27" s="55"/>
       <c r="F27" s="34"/>
@@ -2075,8 +2075,8 @@
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B28" s="82"/>
-      <c r="C28" s="83"/>
+      <c r="B28" s="89"/>
+      <c r="C28" s="90"/>
       <c r="D28" s="55"/>
       <c r="E28" s="55"/>
       <c r="F28" s="34"/>
@@ -2087,8 +2087,8 @@
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B29" s="82"/>
-      <c r="C29" s="83"/>
+      <c r="B29" s="89"/>
+      <c r="C29" s="90"/>
       <c r="D29" s="55"/>
       <c r="E29" s="55"/>
       <c r="F29" s="36"/>
@@ -2099,8 +2099,8 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B30" s="82"/>
-      <c r="C30" s="83"/>
+      <c r="B30" s="89"/>
+      <c r="C30" s="90"/>
       <c r="D30" s="55"/>
       <c r="E30" s="55"/>
       <c r="F30" s="36"/>
@@ -2111,8 +2111,8 @@
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B31" s="82"/>
-      <c r="C31" s="83"/>
+      <c r="B31" s="89"/>
+      <c r="C31" s="90"/>
       <c r="D31" s="55"/>
       <c r="E31" s="55"/>
       <c r="F31" s="36"/>
@@ -2123,8 +2123,8 @@
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B32" s="82"/>
-      <c r="C32" s="83"/>
+      <c r="B32" s="89"/>
+      <c r="C32" s="90"/>
       <c r="D32" s="56"/>
       <c r="E32" s="56"/>
       <c r="F32" s="56"/>
@@ -2135,8 +2135,8 @@
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B33" s="82"/>
-      <c r="C33" s="83"/>
+      <c r="B33" s="89"/>
+      <c r="C33" s="90"/>
       <c r="D33" s="56"/>
       <c r="E33" s="56"/>
       <c r="F33" s="56"/>
@@ -2147,8 +2147,8 @@
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B34" s="82"/>
-      <c r="C34" s="83"/>
+      <c r="B34" s="89"/>
+      <c r="C34" s="90"/>
       <c r="D34" s="56"/>
       <c r="E34" s="56"/>
       <c r="F34" s="56"/>
@@ -2159,8 +2159,8 @@
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="B35" s="82"/>
-      <c r="C35" s="83"/>
+      <c r="B35" s="89"/>
+      <c r="C35" s="90"/>
       <c r="D35" s="57"/>
       <c r="E35" s="56"/>
       <c r="F35" s="56"/>
@@ -2171,8 +2171,8 @@
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="B36" s="82"/>
-      <c r="C36" s="83"/>
+      <c r="B36" s="89"/>
+      <c r="C36" s="90"/>
       <c r="D36" s="56"/>
       <c r="E36" s="56"/>
       <c r="F36" s="56"/>
@@ -2183,8 +2183,8 @@
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="B37" s="82"/>
-      <c r="C37" s="83"/>
+      <c r="B37" s="89"/>
+      <c r="C37" s="90"/>
       <c r="D37" s="56"/>
       <c r="E37" s="56"/>
       <c r="F37" s="56"/>
@@ -2195,8 +2195,8 @@
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="B38" s="82"/>
-      <c r="C38" s="83"/>
+      <c r="B38" s="89"/>
+      <c r="C38" s="90"/>
       <c r="D38" s="56"/>
       <c r="E38" s="56"/>
       <c r="F38" s="56"/>
@@ -2207,8 +2207,8 @@
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="B39" s="82"/>
-      <c r="C39" s="83"/>
+      <c r="B39" s="89"/>
+      <c r="C39" s="90"/>
       <c r="D39" s="56"/>
       <c r="E39" s="56"/>
       <c r="F39" s="56"/>
@@ -2219,8 +2219,8 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="B40" s="82"/>
-      <c r="C40" s="83"/>
+      <c r="B40" s="89"/>
+      <c r="C40" s="90"/>
       <c r="D40" s="56"/>
       <c r="E40" s="56"/>
       <c r="F40" s="56"/>
@@ -2231,8 +2231,8 @@
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="B41" s="94"/>
-      <c r="C41" s="95"/>
+      <c r="B41" s="91"/>
+      <c r="C41" s="92"/>
       <c r="D41" s="35"/>
       <c r="E41" s="58"/>
       <c r="F41" s="59"/>
@@ -2243,8 +2243,8 @@
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="B42" s="94"/>
-      <c r="C42" s="95"/>
+      <c r="B42" s="91"/>
+      <c r="C42" s="92"/>
       <c r="D42" s="35"/>
       <c r="E42" s="56"/>
       <c r="F42" s="56"/>
@@ -2255,8 +2255,8 @@
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="B43" s="96"/>
-      <c r="C43" s="97"/>
+      <c r="B43" s="87"/>
+      <c r="C43" s="88"/>
       <c r="D43" s="60"/>
       <c r="E43" s="60"/>
       <c r="F43" s="39"/>
@@ -2267,8 +2267,8 @@
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="B44" s="98"/>
-      <c r="C44" s="99"/>
+      <c r="B44" s="81"/>
+      <c r="C44" s="82"/>
       <c r="D44" s="38"/>
       <c r="E44" s="38"/>
       <c r="F44" s="39"/>
@@ -2279,8 +2279,8 @@
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="B45" s="98"/>
-      <c r="C45" s="99"/>
+      <c r="B45" s="81"/>
+      <c r="C45" s="82"/>
       <c r="D45" s="38"/>
       <c r="E45" s="38"/>
       <c r="F45" s="39"/>
@@ -2291,8 +2291,8 @@
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="B46" s="100"/>
-      <c r="C46" s="101"/>
+      <c r="B46" s="85"/>
+      <c r="C46" s="86"/>
       <c r="D46" s="61"/>
       <c r="E46" s="38"/>
       <c r="F46" s="62"/>
@@ -2303,8 +2303,8 @@
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="B47" s="98"/>
-      <c r="C47" s="99"/>
+      <c r="B47" s="81"/>
+      <c r="C47" s="82"/>
       <c r="D47" s="38"/>
       <c r="E47" s="38"/>
       <c r="F47" s="62"/>
@@ -2315,8 +2315,8 @@
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="B48" s="98"/>
-      <c r="C48" s="99"/>
+      <c r="B48" s="81"/>
+      <c r="C48" s="82"/>
       <c r="D48" s="38"/>
       <c r="E48" s="38"/>
       <c r="F48" s="62"/>
@@ -2327,8 +2327,8 @@
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="B49" s="98"/>
-      <c r="C49" s="99"/>
+      <c r="B49" s="81"/>
+      <c r="C49" s="82"/>
       <c r="D49" s="38"/>
       <c r="E49" s="38"/>
       <c r="F49" s="62"/>
@@ -2339,8 +2339,8 @@
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="B50" s="102"/>
-      <c r="C50" s="103"/>
+      <c r="B50" s="83"/>
+      <c r="C50" s="84"/>
       <c r="D50" s="38"/>
       <c r="E50" s="38"/>
       <c r="F50" s="38"/>
@@ -2351,8 +2351,8 @@
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="B51" s="98"/>
-      <c r="C51" s="99"/>
+      <c r="B51" s="81"/>
+      <c r="C51" s="82"/>
       <c r="D51" s="38"/>
       <c r="E51" s="38"/>
       <c r="F51" s="62"/>
@@ -2363,8 +2363,8 @@
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="B52" s="100"/>
-      <c r="C52" s="101"/>
+      <c r="B52" s="85"/>
+      <c r="C52" s="86"/>
       <c r="D52" s="61"/>
       <c r="E52" s="38"/>
       <c r="F52" s="62"/>
@@ -2399,8 +2399,8 @@
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="B55" s="104"/>
-      <c r="C55" s="105"/>
+      <c r="B55" s="79"/>
+      <c r="C55" s="80"/>
       <c r="D55" s="34"/>
       <c r="E55" s="38"/>
       <c r="F55" s="62"/>
@@ -2411,8 +2411,8 @@
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
-      <c r="B56" s="98"/>
-      <c r="C56" s="99"/>
+      <c r="B56" s="81"/>
+      <c r="C56" s="82"/>
       <c r="D56" s="38"/>
       <c r="E56" s="38"/>
       <c r="F56" s="35"/>
@@ -2423,8 +2423,8 @@
         <f t="shared" si="0"/>
         <v>47</v>
       </c>
-      <c r="B57" s="98"/>
-      <c r="C57" s="99"/>
+      <c r="B57" s="81"/>
+      <c r="C57" s="82"/>
       <c r="D57" s="38"/>
       <c r="E57" s="38"/>
       <c r="F57" s="35"/>
@@ -2435,8 +2435,8 @@
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="B58" s="98"/>
-      <c r="C58" s="99"/>
+      <c r="B58" s="81"/>
+      <c r="C58" s="82"/>
       <c r="D58" s="38"/>
       <c r="E58" s="38"/>
       <c r="F58" s="35"/>
@@ -2447,8 +2447,8 @@
         <f t="shared" si="0"/>
         <v>49</v>
       </c>
-      <c r="B59" s="98"/>
-      <c r="C59" s="99"/>
+      <c r="B59" s="81"/>
+      <c r="C59" s="82"/>
       <c r="D59" s="38"/>
       <c r="E59" s="38"/>
       <c r="F59" s="38"/>
@@ -2459,8 +2459,8 @@
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="B60" s="98"/>
-      <c r="C60" s="99"/>
+      <c r="B60" s="81"/>
+      <c r="C60" s="82"/>
       <c r="D60" s="38"/>
       <c r="E60" s="38"/>
       <c r="F60" s="38"/>
@@ -2471,8 +2471,8 @@
         <f t="shared" si="0"/>
         <v>51</v>
       </c>
-      <c r="B61" s="98"/>
-      <c r="C61" s="99"/>
+      <c r="B61" s="81"/>
+      <c r="C61" s="82"/>
       <c r="D61" s="38"/>
       <c r="E61" s="38"/>
       <c r="F61" s="38"/>
@@ -2483,8 +2483,8 @@
         <f t="shared" si="0"/>
         <v>52</v>
       </c>
-      <c r="B62" s="98"/>
-      <c r="C62" s="99"/>
+      <c r="B62" s="81"/>
+      <c r="C62" s="82"/>
       <c r="D62" s="38"/>
       <c r="E62" s="38"/>
       <c r="F62" s="34"/>
@@ -2495,8 +2495,8 @@
         <f t="shared" si="0"/>
         <v>53</v>
       </c>
-      <c r="B63" s="108"/>
-      <c r="C63" s="109"/>
+      <c r="B63" s="73"/>
+      <c r="C63" s="74"/>
       <c r="D63" s="41"/>
       <c r="E63" s="42"/>
       <c r="F63" s="40"/>
@@ -2507,8 +2507,8 @@
         <f t="shared" si="0"/>
         <v>54</v>
       </c>
-      <c r="B64" s="108"/>
-      <c r="C64" s="109"/>
+      <c r="B64" s="73"/>
+      <c r="C64" s="74"/>
       <c r="D64" s="43"/>
       <c r="E64" s="44"/>
       <c r="F64" s="45"/>
@@ -2519,8 +2519,8 @@
         <f t="shared" si="0"/>
         <v>55</v>
       </c>
-      <c r="B65" s="110"/>
-      <c r="C65" s="111"/>
+      <c r="B65" s="75"/>
+      <c r="C65" s="76"/>
       <c r="D65" s="40"/>
       <c r="E65" s="40"/>
       <c r="F65" s="40"/>
@@ -2531,8 +2531,8 @@
         <f t="shared" si="0"/>
         <v>56</v>
       </c>
-      <c r="B66" s="112"/>
-      <c r="C66" s="113"/>
+      <c r="B66" s="77"/>
+      <c r="C66" s="78"/>
       <c r="D66" s="46"/>
       <c r="E66" s="40"/>
       <c r="F66" s="40"/>
@@ -2543,8 +2543,8 @@
         <f t="shared" si="0"/>
         <v>57</v>
       </c>
-      <c r="B67" s="106"/>
-      <c r="C67" s="107"/>
+      <c r="B67" s="71"/>
+      <c r="C67" s="72"/>
       <c r="D67" s="47"/>
       <c r="E67" s="45"/>
       <c r="F67" s="45"/>
@@ -2555,8 +2555,8 @@
         <f t="shared" si="0"/>
         <v>58</v>
       </c>
-      <c r="B68" s="106"/>
-      <c r="C68" s="107"/>
+      <c r="B68" s="71"/>
+      <c r="C68" s="72"/>
       <c r="D68" s="47"/>
       <c r="E68" s="45"/>
       <c r="F68" s="45"/>
@@ -2567,8 +2567,8 @@
         <f t="shared" si="0"/>
         <v>59</v>
       </c>
-      <c r="B69" s="106"/>
-      <c r="C69" s="107"/>
+      <c r="B69" s="71"/>
+      <c r="C69" s="72"/>
       <c r="D69" s="47"/>
       <c r="E69" s="45"/>
       <c r="F69" s="45"/>
@@ -2579,8 +2579,8 @@
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="B70" s="106"/>
-      <c r="C70" s="107"/>
+      <c r="B70" s="71"/>
+      <c r="C70" s="72"/>
       <c r="D70" s="47"/>
       <c r="E70" s="45"/>
       <c r="F70" s="45"/>
@@ -2591,8 +2591,8 @@
         <f t="shared" si="0"/>
         <v>61</v>
       </c>
-      <c r="B71" s="106"/>
-      <c r="C71" s="107"/>
+      <c r="B71" s="71"/>
+      <c r="C71" s="72"/>
       <c r="D71" s="47"/>
       <c r="E71" s="45"/>
       <c r="F71" s="45"/>
@@ -2606,49 +2606,15 @@
     <row r="78" spans="1:7" ht="12" thickTop="1"/>
   </sheetData>
   <mergeCells count="66">
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C6:D6"/>
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="B28:C28"/>
     <mergeCell ref="B29:C29"/>
@@ -2663,15 +2629,49 @@
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="B22:C22"/>
     <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="B1:G1"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B67:C67"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1"/>

--- a/templates/plantilla_ayudantes.xlsx
+++ b/templates/plantilla_ayudantes.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="20225"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28840" windowHeight="20360" tabRatio="913"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="913"/>
   </bookViews>
   <sheets>
     <sheet name="SOLICITUD DE ACCESO | PERSONAS" sheetId="14" r:id="rId1"/>
@@ -809,7 +809,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -854,12 +854,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="27"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -967,7 +961,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="114">
+  <cellXfs count="102">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1044,33 +1038,15 @@
     <xf numFmtId="49" fontId="18" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="49" fontId="19" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="20" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="49" fontId="18" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1092,24 +1068,6 @@
     <xf numFmtId="49" fontId="20" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -1119,41 +1077,86 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="49" fontId="17" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="49" fontId="19" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="26" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="4" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="22" fontId="4" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="18" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1179,110 +1182,65 @@
     <xf numFmtId="164" fontId="16" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="26" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="22" fontId="4" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="22" fontId="4" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1734,8 +1692,8 @@
   <dimension ref="A1:G78"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G3" sqref="G3"/>
+      <pane ySplit="1" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B11" sqref="B11:G71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="11" x14ac:dyDescent="0"/>
@@ -1751,14 +1709,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="39.75" customHeight="1">
-      <c r="B1" s="107" t="s">
+      <c r="B1" s="55" t="s">
         <v>115</v>
       </c>
-      <c r="C1" s="107"/>
-      <c r="D1" s="107"/>
-      <c r="E1" s="107"/>
-      <c r="F1" s="107"/>
-      <c r="G1" s="107"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
     </row>
     <row r="2" spans="1:7">
       <c r="B2" s="5"/>
@@ -1771,10 +1729,10 @@
       <c r="B3" s="20" t="s">
         <v>111</v>
       </c>
-      <c r="C3" s="105" t="s">
+      <c r="C3" s="53" t="s">
         <v>118</v>
       </c>
-      <c r="D3" s="106"/>
+      <c r="D3" s="54"/>
       <c r="E3" s="25"/>
       <c r="F3" s="25"/>
       <c r="G3" s="26"/>
@@ -1783,10 +1741,10 @@
       <c r="B4" s="20" t="s">
         <v>110</v>
       </c>
-      <c r="C4" s="105" t="s">
+      <c r="C4" s="53" t="s">
         <v>116</v>
       </c>
-      <c r="D4" s="106"/>
+      <c r="D4" s="54"/>
       <c r="E4" s="25"/>
       <c r="F4" s="25"/>
       <c r="G4" s="26"/>
@@ -1805,8 +1763,8 @@
       <c r="B6" s="20" t="s">
         <v>113</v>
       </c>
-      <c r="C6" s="110"/>
-      <c r="D6" s="111"/>
+      <c r="C6" s="58"/>
+      <c r="D6" s="59"/>
       <c r="E6" s="25"/>
       <c r="F6" s="25"/>
       <c r="G6" s="26"/>
@@ -1816,10 +1774,10 @@
         <v>112</v>
       </c>
       <c r="B7" s="30"/>
-      <c r="C7" s="110" t="s">
+      <c r="C7" s="58" t="s">
         <v>117</v>
       </c>
-      <c r="D7" s="111"/>
+      <c r="D7" s="59"/>
       <c r="E7" s="25"/>
       <c r="F7" s="25"/>
       <c r="G7" s="26"/>
@@ -1828,8 +1786,8 @@
       <c r="B8" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="C8" s="112"/>
-      <c r="D8" s="113"/>
+      <c r="C8" s="60"/>
+      <c r="D8" s="61"/>
       <c r="E8" s="25"/>
       <c r="F8" s="25"/>
       <c r="G8" s="26"/>
@@ -1850,10 +1808,10 @@
       <c r="A10" s="27" t="s">
         <v>107</v>
       </c>
-      <c r="B10" s="108" t="s">
+      <c r="B10" s="56" t="s">
         <v>105</v>
       </c>
-      <c r="C10" s="109"/>
+      <c r="C10" s="57"/>
       <c r="D10" s="2" t="s">
         <v>102</v>
       </c>
@@ -1871,732 +1829,732 @@
       <c r="A11" s="32">
         <v>1</v>
       </c>
-      <c r="B11" s="93"/>
-      <c r="C11" s="94"/>
-      <c r="D11" s="70"/>
-      <c r="E11" s="70"/>
-      <c r="F11" s="65"/>
-      <c r="G11" s="66"/>
+      <c r="B11" s="51"/>
+      <c r="C11" s="52"/>
+      <c r="D11" s="82"/>
+      <c r="E11" s="82"/>
+      <c r="F11" s="83"/>
+      <c r="G11" s="48"/>
     </row>
     <row r="12" spans="1:7" ht="17" customHeight="1">
       <c r="A12" s="32">
         <f>A11+1</f>
         <v>2</v>
       </c>
-      <c r="B12" s="93"/>
-      <c r="C12" s="94"/>
-      <c r="D12" s="70"/>
-      <c r="E12" s="70"/>
-      <c r="F12" s="65"/>
-      <c r="G12" s="66"/>
+      <c r="B12" s="51"/>
+      <c r="C12" s="52"/>
+      <c r="D12" s="82"/>
+      <c r="E12" s="82"/>
+      <c r="F12" s="83"/>
+      <c r="G12" s="48"/>
     </row>
     <row r="13" spans="1:7" ht="17" customHeight="1">
       <c r="A13" s="32">
         <f t="shared" ref="A13:A71" si="0">A12+1</f>
         <v>3</v>
       </c>
-      <c r="B13" s="93"/>
-      <c r="C13" s="94"/>
-      <c r="D13" s="70"/>
-      <c r="E13" s="70"/>
-      <c r="F13" s="67"/>
-      <c r="G13" s="66"/>
+      <c r="B13" s="51"/>
+      <c r="C13" s="52"/>
+      <c r="D13" s="82"/>
+      <c r="E13" s="82"/>
+      <c r="F13" s="84"/>
+      <c r="G13" s="48"/>
     </row>
     <row r="14" spans="1:7" ht="17" customHeight="1">
       <c r="A14" s="32">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B14" s="93"/>
-      <c r="C14" s="94"/>
-      <c r="D14" s="70"/>
-      <c r="E14" s="70"/>
-      <c r="F14" s="67"/>
-      <c r="G14" s="66"/>
+      <c r="B14" s="51"/>
+      <c r="C14" s="52"/>
+      <c r="D14" s="82"/>
+      <c r="E14" s="82"/>
+      <c r="F14" s="84"/>
+      <c r="G14" s="48"/>
     </row>
     <row r="15" spans="1:7" ht="17" customHeight="1">
       <c r="A15" s="32">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B15" s="93"/>
-      <c r="C15" s="94"/>
-      <c r="D15" s="70"/>
-      <c r="E15" s="70"/>
-      <c r="F15" s="67"/>
-      <c r="G15" s="66"/>
+      <c r="B15" s="51"/>
+      <c r="C15" s="52"/>
+      <c r="D15" s="82"/>
+      <c r="E15" s="82"/>
+      <c r="F15" s="84"/>
+      <c r="G15" s="48"/>
     </row>
     <row r="16" spans="1:7" ht="17" customHeight="1">
       <c r="A16" s="32">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B16" s="95"/>
-      <c r="C16" s="96"/>
-      <c r="D16" s="68"/>
-      <c r="E16" s="69"/>
-      <c r="F16" s="67"/>
-      <c r="G16" s="66"/>
+      <c r="B16" s="64"/>
+      <c r="C16" s="65"/>
+      <c r="D16" s="49"/>
+      <c r="E16" s="50"/>
+      <c r="F16" s="84"/>
+      <c r="G16" s="48"/>
     </row>
     <row r="17" spans="1:7" ht="17" customHeight="1">
       <c r="A17" s="32">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B17" s="93"/>
-      <c r="C17" s="94"/>
-      <c r="D17" s="68"/>
-      <c r="E17" s="69"/>
-      <c r="F17" s="36"/>
-      <c r="G17" s="66"/>
+      <c r="B17" s="51"/>
+      <c r="C17" s="52"/>
+      <c r="D17" s="49"/>
+      <c r="E17" s="50"/>
+      <c r="F17" s="85"/>
+      <c r="G17" s="48"/>
     </row>
     <row r="18" spans="1:7" ht="17" customHeight="1">
       <c r="A18" s="32">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B18" s="93"/>
-      <c r="C18" s="94"/>
-      <c r="D18" s="68"/>
-      <c r="E18" s="69"/>
-      <c r="F18" s="36"/>
-      <c r="G18" s="66"/>
+      <c r="B18" s="51"/>
+      <c r="C18" s="52"/>
+      <c r="D18" s="49"/>
+      <c r="E18" s="50"/>
+      <c r="F18" s="85"/>
+      <c r="G18" s="48"/>
     </row>
     <row r="19" spans="1:7" ht="17" customHeight="1">
       <c r="A19" s="32">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B19" s="93"/>
-      <c r="C19" s="94"/>
-      <c r="D19" s="68"/>
-      <c r="E19" s="69"/>
-      <c r="F19" s="36"/>
-      <c r="G19" s="66"/>
+      <c r="B19" s="51"/>
+      <c r="C19" s="52"/>
+      <c r="D19" s="49"/>
+      <c r="E19" s="50"/>
+      <c r="F19" s="85"/>
+      <c r="G19" s="48"/>
     </row>
     <row r="20" spans="1:7" ht="17" customHeight="1">
       <c r="A20" s="32">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B20" s="95"/>
-      <c r="C20" s="96"/>
-      <c r="D20" s="68"/>
-      <c r="E20" s="69"/>
-      <c r="F20" s="36"/>
-      <c r="G20" s="66"/>
+      <c r="B20" s="64"/>
+      <c r="C20" s="65"/>
+      <c r="D20" s="49"/>
+      <c r="E20" s="50"/>
+      <c r="F20" s="85"/>
+      <c r="G20" s="48"/>
     </row>
     <row r="21" spans="1:7" ht="17" customHeight="1">
       <c r="A21" s="32">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B21" s="99"/>
-      <c r="C21" s="100"/>
-      <c r="D21" s="48"/>
-      <c r="E21" s="49"/>
-      <c r="F21" s="36"/>
-      <c r="G21" s="35"/>
+      <c r="B21" s="66"/>
+      <c r="C21" s="67"/>
+      <c r="D21" s="42"/>
+      <c r="E21" s="43"/>
+      <c r="F21" s="85"/>
+      <c r="G21" s="34"/>
     </row>
     <row r="22" spans="1:7" ht="17" customHeight="1">
       <c r="A22" s="32">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B22" s="101"/>
-      <c r="C22" s="102"/>
-      <c r="D22" s="50"/>
-      <c r="E22" s="51"/>
-      <c r="F22" s="37"/>
-      <c r="G22" s="35"/>
+      <c r="B22" s="68"/>
+      <c r="C22" s="69"/>
+      <c r="D22" s="86"/>
+      <c r="E22" s="38"/>
+      <c r="F22" s="87"/>
+      <c r="G22" s="34"/>
     </row>
     <row r="23" spans="1:7" ht="17" customHeight="1">
       <c r="A23" s="32">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B23" s="103"/>
-      <c r="C23" s="104"/>
-      <c r="D23" s="52"/>
-      <c r="E23" s="42"/>
-      <c r="F23" s="53"/>
-      <c r="G23" s="38"/>
+      <c r="B23" s="88"/>
+      <c r="C23" s="89"/>
+      <c r="D23" s="90"/>
+      <c r="E23" s="36"/>
+      <c r="F23" s="91"/>
+      <c r="G23" s="34"/>
     </row>
     <row r="24" spans="1:7" ht="17" customHeight="1">
       <c r="A24" s="32">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B24" s="97"/>
-      <c r="C24" s="98"/>
-      <c r="D24" s="54"/>
+      <c r="B24" s="66"/>
+      <c r="C24" s="67"/>
+      <c r="D24" s="42"/>
       <c r="E24" s="33"/>
-      <c r="F24" s="53"/>
-      <c r="G24" s="35"/>
+      <c r="F24" s="91"/>
+      <c r="G24" s="34"/>
     </row>
     <row r="25" spans="1:7" ht="17" customHeight="1">
       <c r="A25" s="32">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B25" s="97"/>
-      <c r="C25" s="98"/>
-      <c r="D25" s="54"/>
-      <c r="E25" s="42"/>
-      <c r="F25" s="39"/>
-      <c r="G25" s="35"/>
+      <c r="B25" s="66"/>
+      <c r="C25" s="67"/>
+      <c r="D25" s="42"/>
+      <c r="E25" s="36"/>
+      <c r="F25" s="35"/>
+      <c r="G25" s="34"/>
     </row>
     <row r="26" spans="1:7" ht="17" customHeight="1">
       <c r="A26" s="32">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B26" s="89"/>
-      <c r="C26" s="90"/>
-      <c r="D26" s="55"/>
-      <c r="E26" s="55"/>
-      <c r="F26" s="34"/>
-      <c r="G26" s="35"/>
+      <c r="B26" s="62"/>
+      <c r="C26" s="63"/>
+      <c r="D26" s="34"/>
+      <c r="E26" s="34"/>
+      <c r="F26" s="35"/>
+      <c r="G26" s="34"/>
     </row>
     <row r="27" spans="1:7" ht="17" customHeight="1">
       <c r="A27" s="32">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B27" s="89"/>
-      <c r="C27" s="90"/>
-      <c r="D27" s="55"/>
-      <c r="E27" s="55"/>
-      <c r="F27" s="34"/>
-      <c r="G27" s="35"/>
+      <c r="B27" s="62"/>
+      <c r="C27" s="63"/>
+      <c r="D27" s="34"/>
+      <c r="E27" s="34"/>
+      <c r="F27" s="35"/>
+      <c r="G27" s="34"/>
     </row>
     <row r="28" spans="1:7" ht="17" customHeight="1">
       <c r="A28" s="32">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B28" s="89"/>
-      <c r="C28" s="90"/>
-      <c r="D28" s="55"/>
-      <c r="E28" s="55"/>
-      <c r="F28" s="34"/>
-      <c r="G28" s="35"/>
+      <c r="B28" s="62"/>
+      <c r="C28" s="63"/>
+      <c r="D28" s="34"/>
+      <c r="E28" s="34"/>
+      <c r="F28" s="35"/>
+      <c r="G28" s="34"/>
     </row>
     <row r="29" spans="1:7" ht="17" customHeight="1">
       <c r="A29" s="32">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B29" s="89"/>
-      <c r="C29" s="90"/>
-      <c r="D29" s="55"/>
-      <c r="E29" s="55"/>
-      <c r="F29" s="36"/>
-      <c r="G29" s="35"/>
+      <c r="B29" s="62"/>
+      <c r="C29" s="63"/>
+      <c r="D29" s="34"/>
+      <c r="E29" s="34"/>
+      <c r="F29" s="85"/>
+      <c r="G29" s="34"/>
     </row>
     <row r="30" spans="1:7" ht="17" customHeight="1">
       <c r="A30" s="32">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B30" s="89"/>
-      <c r="C30" s="90"/>
-      <c r="D30" s="55"/>
-      <c r="E30" s="55"/>
-      <c r="F30" s="36"/>
-      <c r="G30" s="35"/>
+      <c r="B30" s="62"/>
+      <c r="C30" s="63"/>
+      <c r="D30" s="34"/>
+      <c r="E30" s="34"/>
+      <c r="F30" s="85"/>
+      <c r="G30" s="34"/>
     </row>
     <row r="31" spans="1:7" ht="17" customHeight="1">
       <c r="A31" s="32">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B31" s="89"/>
-      <c r="C31" s="90"/>
-      <c r="D31" s="55"/>
-      <c r="E31" s="55"/>
-      <c r="F31" s="36"/>
-      <c r="G31" s="35"/>
+      <c r="B31" s="62"/>
+      <c r="C31" s="63"/>
+      <c r="D31" s="34"/>
+      <c r="E31" s="34"/>
+      <c r="F31" s="85"/>
+      <c r="G31" s="34"/>
     </row>
     <row r="32" spans="1:7" ht="17" customHeight="1">
       <c r="A32" s="32">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B32" s="89"/>
-      <c r="C32" s="90"/>
-      <c r="D32" s="56"/>
-      <c r="E32" s="56"/>
-      <c r="F32" s="56"/>
-      <c r="G32" s="40"/>
+      <c r="B32" s="62"/>
+      <c r="C32" s="63"/>
+      <c r="D32" s="44"/>
+      <c r="E32" s="44"/>
+      <c r="F32" s="44"/>
+      <c r="G32" s="36"/>
     </row>
     <row r="33" spans="1:7" ht="17" customHeight="1">
       <c r="A33" s="32">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B33" s="89"/>
-      <c r="C33" s="90"/>
-      <c r="D33" s="56"/>
-      <c r="E33" s="56"/>
-      <c r="F33" s="56"/>
-      <c r="G33" s="40"/>
+      <c r="B33" s="62"/>
+      <c r="C33" s="63"/>
+      <c r="D33" s="44"/>
+      <c r="E33" s="44"/>
+      <c r="F33" s="44"/>
+      <c r="G33" s="36"/>
     </row>
     <row r="34" spans="1:7" ht="17" customHeight="1">
       <c r="A34" s="32">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B34" s="89"/>
-      <c r="C34" s="90"/>
-      <c r="D34" s="56"/>
-      <c r="E34" s="56"/>
-      <c r="F34" s="56"/>
-      <c r="G34" s="40"/>
+      <c r="B34" s="62"/>
+      <c r="C34" s="63"/>
+      <c r="D34" s="44"/>
+      <c r="E34" s="44"/>
+      <c r="F34" s="44"/>
+      <c r="G34" s="36"/>
     </row>
     <row r="35" spans="1:7" ht="17" customHeight="1">
       <c r="A35" s="32">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="B35" s="89"/>
-      <c r="C35" s="90"/>
-      <c r="D35" s="57"/>
-      <c r="E35" s="56"/>
-      <c r="F35" s="56"/>
-      <c r="G35" s="40"/>
+      <c r="B35" s="62"/>
+      <c r="C35" s="63"/>
+      <c r="D35" s="45"/>
+      <c r="E35" s="44"/>
+      <c r="F35" s="44"/>
+      <c r="G35" s="36"/>
     </row>
     <row r="36" spans="1:7" ht="17" customHeight="1">
       <c r="A36" s="32">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="B36" s="89"/>
-      <c r="C36" s="90"/>
-      <c r="D36" s="56"/>
-      <c r="E36" s="56"/>
-      <c r="F36" s="56"/>
-      <c r="G36" s="40"/>
+      <c r="B36" s="62"/>
+      <c r="C36" s="63"/>
+      <c r="D36" s="44"/>
+      <c r="E36" s="44"/>
+      <c r="F36" s="44"/>
+      <c r="G36" s="36"/>
     </row>
     <row r="37" spans="1:7" ht="17" customHeight="1">
       <c r="A37" s="32">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="B37" s="89"/>
-      <c r="C37" s="90"/>
-      <c r="D37" s="56"/>
-      <c r="E37" s="56"/>
-      <c r="F37" s="56"/>
-      <c r="G37" s="40"/>
+      <c r="B37" s="62"/>
+      <c r="C37" s="63"/>
+      <c r="D37" s="44"/>
+      <c r="E37" s="44"/>
+      <c r="F37" s="44"/>
+      <c r="G37" s="36"/>
     </row>
     <row r="38" spans="1:7" ht="17" customHeight="1">
       <c r="A38" s="32">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="B38" s="89"/>
-      <c r="C38" s="90"/>
-      <c r="D38" s="56"/>
-      <c r="E38" s="56"/>
-      <c r="F38" s="56"/>
-      <c r="G38" s="40"/>
+      <c r="B38" s="62"/>
+      <c r="C38" s="63"/>
+      <c r="D38" s="44"/>
+      <c r="E38" s="44"/>
+      <c r="F38" s="44"/>
+      <c r="G38" s="36"/>
     </row>
     <row r="39" spans="1:7" ht="17" customHeight="1">
       <c r="A39" s="32">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="B39" s="89"/>
-      <c r="C39" s="90"/>
-      <c r="D39" s="56"/>
-      <c r="E39" s="56"/>
-      <c r="F39" s="56"/>
-      <c r="G39" s="40"/>
+      <c r="B39" s="62"/>
+      <c r="C39" s="63"/>
+      <c r="D39" s="44"/>
+      <c r="E39" s="44"/>
+      <c r="F39" s="44"/>
+      <c r="G39" s="36"/>
     </row>
     <row r="40" spans="1:7" ht="17" customHeight="1">
       <c r="A40" s="32">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="B40" s="89"/>
-      <c r="C40" s="90"/>
-      <c r="D40" s="56"/>
-      <c r="E40" s="56"/>
-      <c r="F40" s="56"/>
-      <c r="G40" s="40"/>
+      <c r="B40" s="62"/>
+      <c r="C40" s="63"/>
+      <c r="D40" s="44"/>
+      <c r="E40" s="44"/>
+      <c r="F40" s="44"/>
+      <c r="G40" s="36"/>
     </row>
     <row r="41" spans="1:7" ht="17" customHeight="1">
       <c r="A41" s="32">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="B41" s="91"/>
-      <c r="C41" s="92"/>
-      <c r="D41" s="35"/>
-      <c r="E41" s="58"/>
-      <c r="F41" s="59"/>
-      <c r="G41" s="40"/>
+      <c r="B41" s="70"/>
+      <c r="C41" s="71"/>
+      <c r="D41" s="34"/>
+      <c r="E41" s="46"/>
+      <c r="F41" s="44"/>
+      <c r="G41" s="36"/>
     </row>
     <row r="42" spans="1:7" ht="17" customHeight="1">
       <c r="A42" s="32">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="B42" s="91"/>
-      <c r="C42" s="92"/>
-      <c r="D42" s="35"/>
-      <c r="E42" s="56"/>
-      <c r="F42" s="56"/>
-      <c r="G42" s="40"/>
+      <c r="B42" s="70"/>
+      <c r="C42" s="71"/>
+      <c r="D42" s="34"/>
+      <c r="E42" s="44"/>
+      <c r="F42" s="44"/>
+      <c r="G42" s="36"/>
     </row>
     <row r="43" spans="1:7" ht="17" customHeight="1">
       <c r="A43" s="32">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="B43" s="87"/>
-      <c r="C43" s="88"/>
-      <c r="D43" s="60"/>
-      <c r="E43" s="60"/>
-      <c r="F43" s="39"/>
-      <c r="G43" s="35"/>
+      <c r="B43" s="92"/>
+      <c r="C43" s="93"/>
+      <c r="D43" s="94"/>
+      <c r="E43" s="94"/>
+      <c r="F43" s="35"/>
+      <c r="G43" s="34"/>
     </row>
     <row r="44" spans="1:7" ht="17" customHeight="1">
       <c r="A44" s="32">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="B44" s="81"/>
-      <c r="C44" s="82"/>
-      <c r="D44" s="38"/>
-      <c r="E44" s="38"/>
-      <c r="F44" s="39"/>
-      <c r="G44" s="35"/>
+      <c r="B44" s="70"/>
+      <c r="C44" s="71"/>
+      <c r="D44" s="34"/>
+      <c r="E44" s="34"/>
+      <c r="F44" s="35"/>
+      <c r="G44" s="34"/>
     </row>
     <row r="45" spans="1:7" ht="17" customHeight="1">
       <c r="A45" s="32">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="B45" s="81"/>
-      <c r="C45" s="82"/>
-      <c r="D45" s="38"/>
-      <c r="E45" s="38"/>
-      <c r="F45" s="39"/>
-      <c r="G45" s="35"/>
+      <c r="B45" s="70"/>
+      <c r="C45" s="71"/>
+      <c r="D45" s="34"/>
+      <c r="E45" s="34"/>
+      <c r="F45" s="35"/>
+      <c r="G45" s="34"/>
     </row>
     <row r="46" spans="1:7" ht="17" customHeight="1">
       <c r="A46" s="32">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="B46" s="85"/>
-      <c r="C46" s="86"/>
-      <c r="D46" s="61"/>
-      <c r="E46" s="38"/>
-      <c r="F46" s="62"/>
-      <c r="G46" s="35"/>
+      <c r="B46" s="95"/>
+      <c r="C46" s="96"/>
+      <c r="D46" s="97"/>
+      <c r="E46" s="34"/>
+      <c r="F46" s="47"/>
+      <c r="G46" s="34"/>
     </row>
     <row r="47" spans="1:7" ht="17" customHeight="1">
       <c r="A47" s="32">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="B47" s="81"/>
-      <c r="C47" s="82"/>
-      <c r="D47" s="38"/>
-      <c r="E47" s="38"/>
-      <c r="F47" s="62"/>
-      <c r="G47" s="35"/>
+      <c r="B47" s="70"/>
+      <c r="C47" s="71"/>
+      <c r="D47" s="34"/>
+      <c r="E47" s="34"/>
+      <c r="F47" s="47"/>
+      <c r="G47" s="34"/>
     </row>
     <row r="48" spans="1:7" ht="17" customHeight="1">
       <c r="A48" s="32">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="B48" s="81"/>
-      <c r="C48" s="82"/>
-      <c r="D48" s="38"/>
-      <c r="E48" s="38"/>
-      <c r="F48" s="62"/>
-      <c r="G48" s="35"/>
+      <c r="B48" s="70"/>
+      <c r="C48" s="71"/>
+      <c r="D48" s="34"/>
+      <c r="E48" s="34"/>
+      <c r="F48" s="47"/>
+      <c r="G48" s="34"/>
     </row>
     <row r="49" spans="1:7" ht="17" customHeight="1">
       <c r="A49" s="32">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="B49" s="81"/>
-      <c r="C49" s="82"/>
-      <c r="D49" s="38"/>
-      <c r="E49" s="38"/>
-      <c r="F49" s="62"/>
-      <c r="G49" s="35"/>
+      <c r="B49" s="70"/>
+      <c r="C49" s="71"/>
+      <c r="D49" s="34"/>
+      <c r="E49" s="34"/>
+      <c r="F49" s="47"/>
+      <c r="G49" s="34"/>
     </row>
     <row r="50" spans="1:7" ht="17" customHeight="1">
       <c r="A50" s="32">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="B50" s="83"/>
-      <c r="C50" s="84"/>
-      <c r="D50" s="38"/>
-      <c r="E50" s="38"/>
-      <c r="F50" s="38"/>
-      <c r="G50" s="35"/>
+      <c r="B50" s="72"/>
+      <c r="C50" s="73"/>
+      <c r="D50" s="34"/>
+      <c r="E50" s="34"/>
+      <c r="F50" s="34"/>
+      <c r="G50" s="34"/>
     </row>
     <row r="51" spans="1:7" ht="17" customHeight="1">
       <c r="A51" s="32">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="B51" s="81"/>
-      <c r="C51" s="82"/>
-      <c r="D51" s="38"/>
-      <c r="E51" s="38"/>
-      <c r="F51" s="62"/>
-      <c r="G51" s="35"/>
+      <c r="B51" s="70"/>
+      <c r="C51" s="71"/>
+      <c r="D51" s="34"/>
+      <c r="E51" s="34"/>
+      <c r="F51" s="47"/>
+      <c r="G51" s="34"/>
     </row>
     <row r="52" spans="1:7" ht="17" customHeight="1">
       <c r="A52" s="32">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="B52" s="85"/>
-      <c r="C52" s="86"/>
-      <c r="D52" s="61"/>
-      <c r="E52" s="38"/>
-      <c r="F52" s="62"/>
-      <c r="G52" s="35"/>
+      <c r="B52" s="95"/>
+      <c r="C52" s="96"/>
+      <c r="D52" s="97"/>
+      <c r="E52" s="34"/>
+      <c r="F52" s="47"/>
+      <c r="G52" s="34"/>
     </row>
     <row r="53" spans="1:7" ht="17" customHeight="1">
       <c r="A53" s="32">
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
-      <c r="B53" s="63"/>
-      <c r="C53" s="64"/>
-      <c r="D53" s="61"/>
-      <c r="E53" s="38"/>
-      <c r="F53" s="62"/>
-      <c r="G53" s="35"/>
+      <c r="B53" s="98"/>
+      <c r="C53" s="99"/>
+      <c r="D53" s="97"/>
+      <c r="E53" s="34"/>
+      <c r="F53" s="47"/>
+      <c r="G53" s="34"/>
     </row>
     <row r="54" spans="1:7" ht="17" customHeight="1">
       <c r="A54" s="32">
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
-      <c r="B54" s="63"/>
-      <c r="C54" s="64"/>
-      <c r="D54" s="61"/>
-      <c r="E54" s="38"/>
-      <c r="F54" s="62"/>
-      <c r="G54" s="35"/>
+      <c r="B54" s="98"/>
+      <c r="C54" s="99"/>
+      <c r="D54" s="97"/>
+      <c r="E54" s="34"/>
+      <c r="F54" s="47"/>
+      <c r="G54" s="34"/>
     </row>
     <row r="55" spans="1:7" ht="17" customHeight="1">
       <c r="A55" s="32">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="B55" s="79"/>
-      <c r="C55" s="80"/>
-      <c r="D55" s="34"/>
-      <c r="E55" s="38"/>
-      <c r="F55" s="62"/>
-      <c r="G55" s="35"/>
+      <c r="B55" s="100"/>
+      <c r="C55" s="101"/>
+      <c r="D55" s="35"/>
+      <c r="E55" s="34"/>
+      <c r="F55" s="47"/>
+      <c r="G55" s="34"/>
     </row>
     <row r="56" spans="1:7" ht="17" customHeight="1">
       <c r="A56" s="32">
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
-      <c r="B56" s="81"/>
-      <c r="C56" s="82"/>
-      <c r="D56" s="38"/>
-      <c r="E56" s="38"/>
-      <c r="F56" s="35"/>
-      <c r="G56" s="35"/>
+      <c r="B56" s="70"/>
+      <c r="C56" s="71"/>
+      <c r="D56" s="34"/>
+      <c r="E56" s="34"/>
+      <c r="F56" s="34"/>
+      <c r="G56" s="34"/>
     </row>
     <row r="57" spans="1:7" ht="17" customHeight="1">
       <c r="A57" s="32">
         <f t="shared" si="0"/>
         <v>47</v>
       </c>
-      <c r="B57" s="81"/>
-      <c r="C57" s="82"/>
-      <c r="D57" s="38"/>
-      <c r="E57" s="38"/>
-      <c r="F57" s="35"/>
-      <c r="G57" s="35"/>
+      <c r="B57" s="70"/>
+      <c r="C57" s="71"/>
+      <c r="D57" s="34"/>
+      <c r="E57" s="34"/>
+      <c r="F57" s="34"/>
+      <c r="G57" s="34"/>
     </row>
     <row r="58" spans="1:7" ht="17" customHeight="1">
       <c r="A58" s="32">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="B58" s="81"/>
-      <c r="C58" s="82"/>
-      <c r="D58" s="38"/>
-      <c r="E58" s="38"/>
-      <c r="F58" s="35"/>
-      <c r="G58" s="35"/>
+      <c r="B58" s="70"/>
+      <c r="C58" s="71"/>
+      <c r="D58" s="34"/>
+      <c r="E58" s="34"/>
+      <c r="F58" s="34"/>
+      <c r="G58" s="34"/>
     </row>
     <row r="59" spans="1:7" ht="17" customHeight="1">
       <c r="A59" s="32">
         <f t="shared" si="0"/>
         <v>49</v>
       </c>
-      <c r="B59" s="81"/>
-      <c r="C59" s="82"/>
-      <c r="D59" s="38"/>
-      <c r="E59" s="38"/>
-      <c r="F59" s="38"/>
-      <c r="G59" s="35"/>
+      <c r="B59" s="70"/>
+      <c r="C59" s="71"/>
+      <c r="D59" s="34"/>
+      <c r="E59" s="34"/>
+      <c r="F59" s="34"/>
+      <c r="G59" s="34"/>
     </row>
     <row r="60" spans="1:7" ht="17" customHeight="1">
       <c r="A60" s="32">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="B60" s="81"/>
-      <c r="C60" s="82"/>
-      <c r="D60" s="38"/>
-      <c r="E60" s="38"/>
-      <c r="F60" s="38"/>
-      <c r="G60" s="35"/>
+      <c r="B60" s="70"/>
+      <c r="C60" s="71"/>
+      <c r="D60" s="34"/>
+      <c r="E60" s="34"/>
+      <c r="F60" s="34"/>
+      <c r="G60" s="34"/>
     </row>
     <row r="61" spans="1:7" ht="17" customHeight="1">
       <c r="A61" s="32">
         <f t="shared" si="0"/>
         <v>51</v>
       </c>
-      <c r="B61" s="81"/>
-      <c r="C61" s="82"/>
-      <c r="D61" s="38"/>
-      <c r="E61" s="38"/>
-      <c r="F61" s="38"/>
-      <c r="G61" s="35"/>
+      <c r="B61" s="70"/>
+      <c r="C61" s="71"/>
+      <c r="D61" s="34"/>
+      <c r="E61" s="34"/>
+      <c r="F61" s="34"/>
+      <c r="G61" s="34"/>
     </row>
     <row r="62" spans="1:7" ht="17" customHeight="1">
       <c r="A62" s="32">
         <f t="shared" si="0"/>
         <v>52</v>
       </c>
-      <c r="B62" s="81"/>
-      <c r="C62" s="82"/>
-      <c r="D62" s="38"/>
-      <c r="E62" s="38"/>
-      <c r="F62" s="34"/>
-      <c r="G62" s="35"/>
+      <c r="B62" s="70"/>
+      <c r="C62" s="71"/>
+      <c r="D62" s="34"/>
+      <c r="E62" s="34"/>
+      <c r="F62" s="35"/>
+      <c r="G62" s="34"/>
     </row>
     <row r="63" spans="1:7" ht="17" customHeight="1">
       <c r="A63" s="32">
         <f t="shared" si="0"/>
         <v>53</v>
       </c>
-      <c r="B63" s="73"/>
-      <c r="C63" s="74"/>
-      <c r="D63" s="41"/>
-      <c r="E63" s="42"/>
-      <c r="F63" s="40"/>
-      <c r="G63" s="40"/>
+      <c r="B63" s="76"/>
+      <c r="C63" s="77"/>
+      <c r="D63" s="91"/>
+      <c r="E63" s="36"/>
+      <c r="F63" s="36"/>
+      <c r="G63" s="36"/>
     </row>
     <row r="64" spans="1:7" ht="17" customHeight="1">
       <c r="A64" s="32">
         <f t="shared" si="0"/>
         <v>54</v>
       </c>
-      <c r="B64" s="73"/>
-      <c r="C64" s="74"/>
-      <c r="D64" s="43"/>
-      <c r="E64" s="44"/>
-      <c r="F64" s="45"/>
-      <c r="G64" s="40"/>
+      <c r="B64" s="76"/>
+      <c r="C64" s="77"/>
+      <c r="D64" s="37"/>
+      <c r="E64" s="38"/>
+      <c r="F64" s="39"/>
+      <c r="G64" s="36"/>
     </row>
     <row r="65" spans="1:7" ht="17" customHeight="1">
       <c r="A65" s="32">
         <f t="shared" si="0"/>
         <v>55</v>
       </c>
-      <c r="B65" s="75"/>
-      <c r="C65" s="76"/>
-      <c r="D65" s="40"/>
-      <c r="E65" s="40"/>
-      <c r="F65" s="40"/>
-      <c r="G65" s="45"/>
+      <c r="B65" s="78"/>
+      <c r="C65" s="79"/>
+      <c r="D65" s="36"/>
+      <c r="E65" s="36"/>
+      <c r="F65" s="36"/>
+      <c r="G65" s="39"/>
     </row>
     <row r="66" spans="1:7" ht="17" customHeight="1">
       <c r="A66" s="32">
         <f t="shared" si="0"/>
         <v>56</v>
       </c>
-      <c r="B66" s="77"/>
-      <c r="C66" s="78"/>
-      <c r="D66" s="46"/>
-      <c r="E66" s="40"/>
-      <c r="F66" s="40"/>
-      <c r="G66" s="40"/>
+      <c r="B66" s="80"/>
+      <c r="C66" s="81"/>
+      <c r="D66" s="40"/>
+      <c r="E66" s="36"/>
+      <c r="F66" s="36"/>
+      <c r="G66" s="36"/>
     </row>
     <row r="67" spans="1:7" ht="17" customHeight="1">
       <c r="A67" s="32">
         <f t="shared" si="0"/>
         <v>57</v>
       </c>
-      <c r="B67" s="71"/>
-      <c r="C67" s="72"/>
-      <c r="D67" s="47"/>
-      <c r="E67" s="45"/>
-      <c r="F67" s="45"/>
-      <c r="G67" s="40"/>
+      <c r="B67" s="74"/>
+      <c r="C67" s="75"/>
+      <c r="D67" s="41"/>
+      <c r="E67" s="39"/>
+      <c r="F67" s="39"/>
+      <c r="G67" s="36"/>
     </row>
     <row r="68" spans="1:7" ht="17" customHeight="1">
       <c r="A68" s="32">
         <f t="shared" si="0"/>
         <v>58</v>
       </c>
-      <c r="B68" s="71"/>
-      <c r="C68" s="72"/>
-      <c r="D68" s="47"/>
-      <c r="E68" s="45"/>
-      <c r="F68" s="45"/>
-      <c r="G68" s="40"/>
+      <c r="B68" s="74"/>
+      <c r="C68" s="75"/>
+      <c r="D68" s="41"/>
+      <c r="E68" s="39"/>
+      <c r="F68" s="39"/>
+      <c r="G68" s="36"/>
     </row>
     <row r="69" spans="1:7" ht="17" customHeight="1">
       <c r="A69" s="32">
         <f t="shared" si="0"/>
         <v>59</v>
       </c>
-      <c r="B69" s="71"/>
-      <c r="C69" s="72"/>
-      <c r="D69" s="47"/>
-      <c r="E69" s="45"/>
-      <c r="F69" s="45"/>
-      <c r="G69" s="40"/>
+      <c r="B69" s="74"/>
+      <c r="C69" s="75"/>
+      <c r="D69" s="41"/>
+      <c r="E69" s="39"/>
+      <c r="F69" s="39"/>
+      <c r="G69" s="36"/>
     </row>
     <row r="70" spans="1:7" ht="17" customHeight="1">
       <c r="A70" s="32">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="B70" s="71"/>
-      <c r="C70" s="72"/>
-      <c r="D70" s="47"/>
-      <c r="E70" s="45"/>
-      <c r="F70" s="45"/>
-      <c r="G70" s="40"/>
+      <c r="B70" s="74"/>
+      <c r="C70" s="75"/>
+      <c r="D70" s="41"/>
+      <c r="E70" s="39"/>
+      <c r="F70" s="39"/>
+      <c r="G70" s="36"/>
     </row>
     <row r="71" spans="1:7" ht="17" customHeight="1">
       <c r="A71" s="32">
         <f t="shared" si="0"/>
         <v>61</v>
       </c>
-      <c r="B71" s="71"/>
-      <c r="C71" s="72"/>
-      <c r="D71" s="47"/>
-      <c r="E71" s="45"/>
-      <c r="F71" s="45"/>
-      <c r="G71" s="40"/>
+      <c r="B71" s="74"/>
+      <c r="C71" s="75"/>
+      <c r="D71" s="41"/>
+      <c r="E71" s="39"/>
+      <c r="F71" s="39"/>
+      <c r="G71" s="36"/>
     </row>
     <row r="77" spans="1:7" ht="30" customHeight="1" thickBot="1">
       <c r="B77" s="24" t="s">
@@ -2606,15 +2564,49 @@
     <row r="78" spans="1:7" ht="12" thickTop="1"/>
   </sheetData>
   <mergeCells count="66">
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="B1:G1"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B25:C25"/>
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="B28:C28"/>
     <mergeCell ref="B29:C29"/>
@@ -2629,49 +2621,15 @@
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="B22:C22"/>
     <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C6:D6"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1"/>

--- a/templates/plantilla_ayudantes.xlsx
+++ b/templates/plantilla_ayudantes.xlsx
@@ -8,18 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alexis/Documents/work/listas_project/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6B68F95-41DC-1C41-9992-400616266033}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79FE42E2-ACE5-7A4A-84BA-5F2C0DBC7F91}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17120" yWindow="560" windowWidth="16060" windowHeight="19700" tabRatio="913" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="29360" windowHeight="17400" tabRatio="913" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SOLICITUD DE ACCESO | PERSONAS" sheetId="14" r:id="rId1"/>
+    <sheet name="CC | 09-TCC &quot;CATALOGO DE CARGO&quot;" sheetId="11" state="hidden" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'SOLICITUD DE ACCESO | PERSONAS'!$A$1:$G$78</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'CC | 09-TCC "CATALOGO DE CARGO"'!$A$1:$F$98</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'SOLICITUD DE ACCESO | PERSONAS'!$A$1:$G$56</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'SOLICITUD DE ACCESO | PERSONAS'!$1:$10</definedName>
   </definedNames>
-  <calcPr calcId="191029" calcMode="manual"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -43,7 +45,7 @@
         <r>
           <rPr>
             <sz val="8"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -84,7 +86,7 @@
         <r>
           <rPr>
             <sz val="8"/>
-            <color indexed="8"/>
+            <color indexed="81"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -98,7 +100,7 @@
         <r>
           <rPr>
             <sz val="8"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -112,7 +114,7 @@
         <r>
           <rPr>
             <sz val="8"/>
-            <color indexed="8"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -126,7 +128,7 @@
         <r>
           <rPr>
             <sz val="8"/>
-            <color indexed="8"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -187,7 +189,7 @@
         <r>
           <rPr>
             <sz val="8"/>
-            <color indexed="8"/>
+            <color indexed="81"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -262,57 +264,360 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="121">
+  <si>
+    <t>SOLICITUD DE INGRESO AL RECINTO PORTUARIO DE PERSONAL</t>
+  </si>
+  <si>
+    <t>NOMBRE DE LA EMPRESA:</t>
+  </si>
+  <si>
+    <t>SUPERVISOR DE LA EMPRESA :</t>
+  </si>
+  <si>
+    <t>TELEFONO FIJO :</t>
+  </si>
+  <si>
+    <t>FECHA DE INGRESO :</t>
+  </si>
+  <si>
+    <t>PERIODO DE TIEMPO SOLICITADO :</t>
+  </si>
+  <si>
+    <t>SUPERVISOR DE CEPA :</t>
+  </si>
+  <si>
+    <t>MOTIVO DE INGRESO :</t>
+  </si>
+  <si>
+    <t>ITEM</t>
+  </si>
+  <si>
+    <t>NOMBRE DE LA PERSONA</t>
+  </si>
+  <si>
+    <t>N° DE DOCUMENTO</t>
+  </si>
+  <si>
+    <t>TIPO DE DOCUMENTO</t>
+  </si>
+  <si>
+    <t>PLACA DEL VEHICULO</t>
+  </si>
   <si>
     <t>OBSERVACIONES ADICIONALES</t>
   </si>
   <si>
-    <t>N° DE DOCUMENTO</t>
-  </si>
-  <si>
-    <t>TIPO DE DOCUMENTO</t>
-  </si>
-  <si>
-    <t>PLACA DEL VEHICULO</t>
-  </si>
-  <si>
-    <t>NOMBRE DE LA PERSONA</t>
-  </si>
-  <si>
-    <t>MOTIVO DE INGRESO :</t>
-  </si>
-  <si>
-    <t>ITEM</t>
-  </si>
-  <si>
-    <t>SUPERVISOR DE CEPA :</t>
-  </si>
-  <si>
-    <t>TELEFONO FIJO :</t>
-  </si>
-  <si>
-    <t>SUPERVISOR DE LA EMPRESA :</t>
-  </si>
-  <si>
-    <t>NOMBRE DE LA EMPRESA:</t>
-  </si>
-  <si>
-    <t>PERIODO DE TIEMPO SOLICITADO :</t>
-  </si>
-  <si>
-    <t>FECHA DE INGRESO :</t>
-  </si>
-  <si>
     <t>FIRMA Y SELLO DE CONTRATISTA</t>
   </si>
   <si>
-    <t>SOLICITUD DE INGRESO AL RECINTO PORTUARIO DE PERSONAL</t>
-  </si>
-  <si>
-    <t>ROBERTO GONZALEZ</t>
-  </si>
-  <si>
-    <t>19:00 A 07:00 HORAS</t>
+    <t>CODIGO</t>
+  </si>
+  <si>
+    <t>DESCRIPCION DEL CARGO</t>
+  </si>
+  <si>
+    <t>EMPRESA # 1</t>
+  </si>
+  <si>
+    <t>EMPRESA # 2</t>
+  </si>
+  <si>
+    <t>EMPRESA # 3</t>
+  </si>
+  <si>
+    <t>OFERTADO</t>
+  </si>
+  <si>
+    <t>GERENTE GENERAL</t>
+  </si>
+  <si>
+    <t>JEFE DE OPERACIONES</t>
+  </si>
+  <si>
+    <t>SUPERVISOR GENERAL</t>
+  </si>
+  <si>
+    <t>SUPERVISOR DE ABORDO</t>
+  </si>
+  <si>
+    <t>SUPERVISOR DE MUELLE Y ACOPLE</t>
+  </si>
+  <si>
+    <t>AUXILIAR DE ESTIBA</t>
+  </si>
+  <si>
+    <t>CAPORAL DE MUELLE</t>
+  </si>
+  <si>
+    <t>CHEQUE DE MUELLE</t>
+  </si>
+  <si>
+    <t>OPERADOR DE GRUA DE BUQUE (WINCHERO) DE PRIMERA CATEGORIA</t>
+  </si>
+  <si>
+    <t>ESTIBADOR</t>
+  </si>
+  <si>
+    <t>MUELLERO</t>
+  </si>
+  <si>
+    <t>MUELLERO BUQUE TANQUE</t>
+  </si>
+  <si>
+    <t>AMARRADOR</t>
+  </si>
+  <si>
+    <t>OPERADOR DE EQUIPO PORTUARIO PRIMERA CATEGORIA</t>
+  </si>
+  <si>
+    <t>OPERADOR DE GRUA</t>
+  </si>
+  <si>
+    <t>ENCARGADO DE TRANSPORTE</t>
+  </si>
+  <si>
+    <t>AUDITOR INTERNO</t>
+  </si>
+  <si>
+    <t>JEFE DE PERSONAL</t>
+  </si>
+  <si>
+    <t>CONTADOR Y PAGADOR</t>
+  </si>
+  <si>
+    <t>CHEQUE DE PERSONAL</t>
+  </si>
+  <si>
+    <t>UTILERO</t>
+  </si>
+  <si>
+    <t>ORDENANZA</t>
+  </si>
+  <si>
+    <t>CHEQUE DE PATIOS Y BODEGAS</t>
+  </si>
+  <si>
+    <t>OPERADOR DE BASCULA</t>
+  </si>
+  <si>
+    <t>MOTORISTA</t>
+  </si>
+  <si>
+    <t>SUPERINTENDENTE</t>
+  </si>
+  <si>
+    <t>AGRONOMO</t>
+  </si>
+  <si>
+    <t>ASISTENTE ADMINISTRATIVA</t>
+  </si>
+  <si>
+    <t>SUPERVISOR</t>
+  </si>
+  <si>
+    <t>BODEGUERO</t>
+  </si>
+  <si>
+    <t>OPERADOR DE TREN DE ASEO</t>
+  </si>
+  <si>
+    <t>OPERADOR DE BOB- CAT</t>
+  </si>
+  <si>
+    <t>DIBUJANTE</t>
+  </si>
+  <si>
+    <t>PINTOR</t>
+  </si>
+  <si>
+    <t>TAPICERO</t>
+  </si>
+  <si>
+    <t>HOJALATERO</t>
+  </si>
+  <si>
+    <t>FONTANERO</t>
+  </si>
+  <si>
+    <t>ALBA¥IL</t>
+  </si>
+  <si>
+    <t>CARPINTERO</t>
+  </si>
+  <si>
+    <t>JARDINERO</t>
+  </si>
+  <si>
+    <t>TECNICO DE BOMBA DE AGUA</t>
+  </si>
+  <si>
+    <t>AUXILIAR DE TREN DE ASEO</t>
+  </si>
+  <si>
+    <t>OPERADOR CAMION CISTERNA</t>
+  </si>
+  <si>
+    <t>AUXILIAR DE LIMPIEZA</t>
+  </si>
+  <si>
+    <t>AUXILIAR DE CHAPODA</t>
+  </si>
+  <si>
+    <t>AUXILIAR DE MANTENIMIENTO</t>
+  </si>
+  <si>
+    <t>OPERADOR DE EQUIPOS DE PRIMERA CATEGORIA</t>
+  </si>
+  <si>
+    <t>GERENTE DE SERVICIOS</t>
+  </si>
+  <si>
+    <t>JEFE DE TALLER MECANICO</t>
+  </si>
+  <si>
+    <t>MECANICO</t>
+  </si>
+  <si>
+    <t>ELECTRICISTA</t>
+  </si>
+  <si>
+    <t>SOLDADOR</t>
+  </si>
+  <si>
+    <t>ENGRASADOR</t>
+  </si>
+  <si>
+    <t>TORNERO</t>
+  </si>
+  <si>
+    <t>AUXILIAR MECANICO</t>
+  </si>
+  <si>
+    <t>OBRERO NO CALIFICADO</t>
+  </si>
+  <si>
+    <t>AUXILIAR DE OFICINA</t>
+  </si>
+  <si>
+    <t>GERENTE DE PROYECTOS</t>
+  </si>
+  <si>
+    <t>TECNICO ELECTRICISTA</t>
+  </si>
+  <si>
+    <t>TECNICO MECANICO</t>
+  </si>
+  <si>
+    <t>MECANICO  1A. CATEGORIA</t>
+  </si>
+  <si>
+    <t>MECANICO 2A. CATEGORIA</t>
+  </si>
+  <si>
+    <t>GERENTE DIVISION</t>
+  </si>
+  <si>
+    <t>INGENIERO DE PROYECTOS</t>
+  </si>
+  <si>
+    <t>SUBGERENTE DE DIVISION</t>
+  </si>
+  <si>
+    <t>SUPERVISOR DE PROYECTOS</t>
+  </si>
+  <si>
+    <t>JEFE DE MONTAJES Y SERVICIOS</t>
+  </si>
+  <si>
+    <t>SUPERVISOR DE SERVICIOS</t>
+  </si>
+  <si>
+    <t>TECNICO DE SERVICIOS</t>
+  </si>
+  <si>
+    <t>INGENIERO DE SERVICIOS</t>
+  </si>
+  <si>
+    <t>CONTROL ADMINISTRATIVO</t>
+  </si>
+  <si>
+    <t>AUXILIAR ADMINISTRATIVO</t>
+  </si>
+  <si>
+    <t>SUPERVISOR ELECTRICISTA</t>
+  </si>
+  <si>
+    <t>SECRETARIA</t>
+  </si>
+  <si>
+    <t>OBRERO CALIFICADO</t>
+  </si>
+  <si>
+    <t>MARINERO</t>
+  </si>
+  <si>
+    <t>PEON DE BODEGAS</t>
+  </si>
+  <si>
+    <t>VIGILANTE</t>
+  </si>
+  <si>
+    <t>REPRESENTANTE LEGAL</t>
+  </si>
+  <si>
+    <t>GERENTE ADMINISTRATIVO</t>
+  </si>
+  <si>
+    <t>BANDEROS</t>
+  </si>
+  <si>
+    <t>AUXILIAR DE UTILERIA</t>
+  </si>
+  <si>
+    <t>TRINCADORES</t>
+  </si>
+  <si>
+    <t>CAPORAL DE AMARRE</t>
+  </si>
+  <si>
+    <t>FICHERO</t>
+  </si>
+  <si>
+    <t>PALERO</t>
+  </si>
+  <si>
+    <t>CAPORAL BUQUE TANQUE</t>
+  </si>
+  <si>
+    <t>ENCARGADO DE TRANSFERENCIA</t>
+  </si>
+  <si>
+    <t>SUPERVISOR A BORDO</t>
+  </si>
+  <si>
+    <t>OPERADOR DE UNIDAD DECARGA</t>
+  </si>
+  <si>
+    <t>PRACTICANTE</t>
+  </si>
+  <si>
+    <t>WINCHERO EN PRACTICA</t>
+  </si>
+  <si>
+    <t>OPERADOR DE EQUIPO PORTUARIO SEGUNDA CATEGORIA</t>
+  </si>
+  <si>
+    <t>OPERADOR DE GRUA DE BUQUE (WINCHERO) DE SEGUNDA CATEGORIA</t>
+  </si>
+  <si>
+    <t>OPERADOR DE CONTROL DE BANDAS</t>
+  </si>
+  <si>
+    <t>JOSE LUIS ACOSTA GARCIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PERSONAL DE TRANSPORTE PARA TRABAJAR EN DESEMBARQUE </t>
   </si>
   <si>
     <t>TRANSPORTE ESMERALDA</t>
@@ -322,29 +627,25 @@
   </si>
   <si>
     <t>12 HRS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UNIDADES  DE TRANSPORTE PARA TRABAJAR EN DESEMBARQUE </t>
-  </si>
-  <si>
-    <t>JOSE LUIS ACOSTA GARCIA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="mm\-dd\-yyyy;@"/>
-  </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="8"/>
@@ -362,6 +663,12 @@
       <sz val="8"/>
       <color indexed="9"/>
       <name val="Trebuchet MS"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
@@ -405,7 +712,7 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="10"/>
       <color indexed="8"/>
       <name val="Trebuchet MS"/>
       <family val="2"/>
@@ -418,19 +725,49 @@
       <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Trebuchet MS"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Trebuchet MS"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="10"/>
-      <color indexed="8"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Trebuchet MS"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <name val="Trebuchet MS"/>
       <family val="2"/>
     </font>
     <font>
       <sz val="8"/>
-      <color indexed="8"/>
+      <color rgb="FF000000"/>
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -439,7 +776,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor indexed="56"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor indexed="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="44"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="49"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -455,13 +810,32 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCFFFF"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="9">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="23"/>
+      </left>
+      <right style="thin">
+        <color indexed="23"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="23"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -517,134 +891,183 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF505050"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF505050"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF505050"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF505050"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF505050"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF505050"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="1" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="22" fontId="12" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="15" fontId="12" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="22" fontId="10" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="10" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="22" fontId="12" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="22" fontId="12" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="43" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="22" fontId="10" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="22" fontId="10" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="22" fontId="10" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="22" fontId="10" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -668,22 +1091,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>558800</xdr:colOff>
-      <xdr:row>74</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>584200</xdr:colOff>
-      <xdr:row>77</xdr:row>
-      <xdr:rowOff>292100</xdr:rowOff>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>285750</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1127" name="Imagen 4" descr="horizontal">
+        <xdr:cNvPr id="1101" name="Imagen 4" descr="horizontal">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4BD9E627-67A5-8949-9918-88E6C8E85731}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E337D761-ECFC-4C4A-8FF7-250ACF7783EA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -706,8 +1129,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="2768600" y="16281400"/>
-          <a:ext cx="5435600" cy="685800"/>
+          <a:off x="2419350" y="5362575"/>
+          <a:ext cx="4752975" cy="762000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -742,22 +1165,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>558800</xdr:colOff>
+      <xdr:colOff>485775</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>2235200</xdr:colOff>
+      <xdr:colOff>1952625</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1128" name="Imagen 1">
+        <xdr:cNvPr id="1102" name="Imagen 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{363BF00E-7E5C-234D-9E2E-929C473EA996}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9FDB158-0BA0-4F87-AAEA-91DB40139363}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -780,8 +1203,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="9334500" y="152400"/>
-          <a:ext cx="1676400" cy="558800"/>
+          <a:off x="8096250" y="152400"/>
+          <a:ext cx="1466850" cy="561975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1137,34 +1560,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G79"/>
+  <dimension ref="A1:G57"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
+      <selection pane="bottomLeft" activeCell="B11" sqref="B11:C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="11" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="6.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="22.5" style="5" customWidth="1"/>
-    <col min="3" max="3" width="35" style="6" customWidth="1"/>
-    <col min="4" max="4" width="20.1640625" style="6" customWidth="1"/>
-    <col min="5" max="5" width="15.83203125" style="6" customWidth="1"/>
-    <col min="6" max="6" width="15.1640625" style="6" customWidth="1"/>
+    <col min="2" max="2" width="22.5" style="19" customWidth="1"/>
+    <col min="3" max="3" width="35" style="20" customWidth="1"/>
+    <col min="4" max="4" width="20" style="20" customWidth="1"/>
+    <col min="5" max="5" width="15.83203125" style="20" customWidth="1"/>
+    <col min="6" max="6" width="15.1640625" style="20" customWidth="1"/>
     <col min="7" max="7" width="36.5" style="1" customWidth="1"/>
     <col min="8" max="16384" width="11.5" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B1" s="42" t="s">
-        <v>14</v>
-      </c>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
+      <c r="B1" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B2" s="3"/>
@@ -1173,915 +1596,1935 @@
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="4" t="s">
+    <row r="3" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="47" t="s">
+        <v>118</v>
+      </c>
+      <c r="D3" s="48"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="24"/>
+    </row>
+    <row r="4" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="47" t="s">
+        <v>119</v>
+      </c>
+      <c r="D4" s="48"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="24"/>
+    </row>
+    <row r="5" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B5" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="32"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="24"/>
+    </row>
+    <row r="6" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B6" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="34"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="24"/>
+    </row>
+    <row r="7" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B7" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="51" t="s">
+        <v>120</v>
+      </c>
+      <c r="D7" s="52"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="24"/>
+    </row>
+    <row r="8" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B8" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="53" t="s">
+        <v>116</v>
+      </c>
+      <c r="D8" s="54"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="24"/>
+    </row>
+    <row r="9" spans="1:7" ht="84.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B9" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="53" t="s">
+        <v>117</v>
+      </c>
+      <c r="D9" s="54"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="24"/>
+    </row>
+    <row r="10" spans="1:7" s="2" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="50"/>
+      <c r="D10" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="33" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="34"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="10"/>
-    </row>
-    <row r="4" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="10"/>
-    </row>
-    <row r="5" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="18"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="10"/>
-    </row>
-    <row r="6" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="4" t="s">
+      <c r="E10" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="20"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="10"/>
-    </row>
-    <row r="7" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="35" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="36" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="10"/>
-    </row>
-    <row r="8" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="37" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" s="38"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="10"/>
-    </row>
-    <row r="9" spans="1:7" ht="84.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="10"/>
-    </row>
-    <row r="10" spans="1:7" s="2" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10" s="43" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10" s="43"/>
-      <c r="D10" s="12" t="s">
+      <c r="G10" s="27" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="35">
         <v>1</v>
       </c>
-      <c r="E10" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="F10" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="G10" s="12" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="31">
-        <v>1</v>
-      </c>
-      <c r="B11" s="41"/>
-      <c r="C11" s="41"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="23"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
+      <c r="B11" s="46"/>
+      <c r="C11" s="46"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="37"/>
+      <c r="G11" s="37"/>
     </row>
     <row r="12" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="31">
+      <c r="A12" s="35">
         <f>A11+1</f>
         <v>2</v>
       </c>
-      <c r="B12" s="41"/>
-      <c r="C12" s="41"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="15"/>
+      <c r="B12" s="46"/>
+      <c r="C12" s="46"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="37"/>
+      <c r="G12" s="37"/>
     </row>
     <row r="13" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="31">
-        <f t="shared" ref="A13:A66" si="0">A12+1</f>
+      <c r="A13" s="35">
+        <f t="shared" ref="A13:A49" si="0">A12+1</f>
         <v>3</v>
       </c>
-      <c r="B13" s="41"/>
-      <c r="C13" s="41"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="23"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="15"/>
+      <c r="B13" s="46"/>
+      <c r="C13" s="46"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="37"/>
+      <c r="G13" s="37"/>
     </row>
     <row r="14" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="31">
+      <c r="A14" s="35">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B14" s="41"/>
-      <c r="C14" s="41"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="23"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
+      <c r="B14" s="46"/>
+      <c r="C14" s="46"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="37"/>
+      <c r="G14" s="37"/>
     </row>
     <row r="15" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="31">
+      <c r="A15" s="35">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B15" s="41"/>
-      <c r="C15" s="41"/>
-      <c r="D15" s="23"/>
-      <c r="E15" s="23"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="15"/>
+      <c r="B15" s="46"/>
+      <c r="C15" s="46"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="37"/>
+      <c r="G15" s="37"/>
     </row>
     <row r="16" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="31">
+      <c r="A16" s="35">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B16" s="41"/>
-      <c r="C16" s="41"/>
-      <c r="D16" s="23"/>
-      <c r="E16" s="23"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="15"/>
+      <c r="B16" s="55"/>
+      <c r="C16" s="56"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="36"/>
+      <c r="F16" s="37"/>
+      <c r="G16" s="37"/>
     </row>
     <row r="17" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="31">
+      <c r="A17" s="35">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B17" s="41"/>
-      <c r="C17" s="41"/>
-      <c r="D17" s="23"/>
-      <c r="E17" s="23"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="15"/>
+      <c r="B17" s="44"/>
+      <c r="C17" s="45"/>
+      <c r="D17" s="38"/>
+      <c r="E17" s="39"/>
+      <c r="F17" s="37"/>
+      <c r="G17" s="37"/>
     </row>
     <row r="18" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="31">
+      <c r="A18" s="35">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B18" s="41"/>
-      <c r="C18" s="41"/>
-      <c r="D18" s="23"/>
-      <c r="E18" s="24"/>
-      <c r="F18" s="25"/>
-      <c r="G18" s="15"/>
+      <c r="B18" s="44"/>
+      <c r="C18" s="45"/>
+      <c r="D18" s="38"/>
+      <c r="E18" s="39"/>
+      <c r="F18" s="37"/>
+      <c r="G18" s="37"/>
     </row>
     <row r="19" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="31">
+      <c r="A19" s="35">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B19" s="41"/>
-      <c r="C19" s="41"/>
-      <c r="D19" s="23"/>
-      <c r="E19" s="24"/>
-      <c r="F19" s="25"/>
-      <c r="G19" s="15"/>
+      <c r="B19" s="44"/>
+      <c r="C19" s="45"/>
+      <c r="D19" s="38"/>
+      <c r="E19" s="39"/>
+      <c r="F19" s="37"/>
+      <c r="G19" s="37"/>
     </row>
     <row r="20" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="31">
+      <c r="A20" s="35">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B20" s="41"/>
-      <c r="C20" s="41"/>
-      <c r="D20" s="24"/>
-      <c r="E20" s="24"/>
-      <c r="F20" s="25"/>
-      <c r="G20" s="15"/>
+      <c r="B20" s="44"/>
+      <c r="C20" s="45"/>
+      <c r="D20" s="38"/>
+      <c r="E20" s="39"/>
+      <c r="F20" s="37"/>
+      <c r="G20" s="37"/>
     </row>
     <row r="21" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="31">
+      <c r="A21" s="35">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B21" s="41"/>
-      <c r="C21" s="41"/>
-      <c r="D21" s="23"/>
-      <c r="E21" s="24"/>
-      <c r="F21" s="25"/>
-      <c r="G21" s="15"/>
+      <c r="B21" s="44"/>
+      <c r="C21" s="45"/>
+      <c r="D21" s="38"/>
+      <c r="E21" s="39"/>
+      <c r="F21" s="37"/>
+      <c r="G21" s="37"/>
     </row>
     <row r="22" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="31">
+      <c r="A22" s="35">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B22" s="41"/>
-      <c r="C22" s="41"/>
-      <c r="D22" s="23"/>
-      <c r="E22" s="24"/>
-      <c r="F22" s="25"/>
-      <c r="G22" s="15"/>
+      <c r="B22" s="44"/>
+      <c r="C22" s="45"/>
+      <c r="D22" s="38"/>
+      <c r="E22" s="39"/>
+      <c r="F22" s="37"/>
+      <c r="G22" s="37"/>
     </row>
     <row r="23" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="31">
+      <c r="A23" s="35">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B23" s="41"/>
-      <c r="C23" s="41"/>
-      <c r="D23" s="23"/>
-      <c r="E23" s="24"/>
-      <c r="F23" s="25"/>
-      <c r="G23" s="15"/>
+      <c r="B23" s="44"/>
+      <c r="C23" s="45"/>
+      <c r="D23" s="38"/>
+      <c r="E23" s="39"/>
+      <c r="F23" s="37"/>
+      <c r="G23" s="37"/>
     </row>
     <row r="24" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="31">
+      <c r="A24" s="35">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B24" s="41"/>
-      <c r="C24" s="41"/>
-      <c r="D24" s="24"/>
-      <c r="E24" s="24"/>
-      <c r="F24" s="15"/>
-      <c r="G24" s="15"/>
+      <c r="B24" s="44"/>
+      <c r="C24" s="45"/>
+      <c r="D24" s="38"/>
+      <c r="E24" s="39"/>
+      <c r="F24" s="37"/>
+      <c r="G24" s="37"/>
     </row>
     <row r="25" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="31">
+      <c r="A25" s="35">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B25" s="41"/>
-      <c r="C25" s="41"/>
-      <c r="D25" s="24"/>
-      <c r="E25" s="24"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="15"/>
+      <c r="B25" s="44"/>
+      <c r="C25" s="45"/>
+      <c r="D25" s="38"/>
+      <c r="E25" s="39"/>
+      <c r="F25" s="37"/>
+      <c r="G25" s="37"/>
     </row>
     <row r="26" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="31">
+      <c r="A26" s="35">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B26" s="41"/>
-      <c r="C26" s="41"/>
-      <c r="D26" s="24"/>
-      <c r="E26" s="24"/>
-      <c r="F26" s="15"/>
-      <c r="G26" s="15"/>
+      <c r="B26" s="44"/>
+      <c r="C26" s="45"/>
+      <c r="D26" s="38"/>
+      <c r="E26" s="39"/>
+      <c r="F26" s="37"/>
+      <c r="G26" s="37"/>
     </row>
     <row r="27" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="31">
+      <c r="A27" s="35">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B27" s="41"/>
-      <c r="C27" s="41"/>
-      <c r="D27" s="24"/>
-      <c r="E27" s="24"/>
-      <c r="F27" s="15"/>
-      <c r="G27" s="15"/>
+      <c r="B27" s="44"/>
+      <c r="C27" s="45"/>
+      <c r="D27" s="38"/>
+      <c r="E27" s="39"/>
+      <c r="F27" s="37"/>
+      <c r="G27" s="37"/>
     </row>
     <row r="28" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="31">
+      <c r="A28" s="35">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B28" s="41"/>
-      <c r="C28" s="41"/>
-      <c r="D28" s="24"/>
-      <c r="E28" s="24"/>
-      <c r="F28" s="15"/>
-      <c r="G28" s="15"/>
+      <c r="B28" s="44"/>
+      <c r="C28" s="45"/>
+      <c r="D28" s="38"/>
+      <c r="E28" s="39"/>
+      <c r="F28" s="37"/>
+      <c r="G28" s="37"/>
     </row>
     <row r="29" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="31">
+      <c r="A29" s="35">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B29" s="41"/>
-      <c r="C29" s="41"/>
-      <c r="D29" s="24"/>
-      <c r="E29" s="24"/>
-      <c r="F29" s="15"/>
-      <c r="G29" s="15"/>
+      <c r="B29" s="44"/>
+      <c r="C29" s="45"/>
+      <c r="D29" s="38"/>
+      <c r="E29" s="39"/>
+      <c r="F29" s="37"/>
+      <c r="G29" s="37"/>
     </row>
     <row r="30" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="31">
+      <c r="A30" s="35">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B30" s="41"/>
-      <c r="C30" s="41"/>
-      <c r="D30" s="23"/>
-      <c r="E30" s="23"/>
-      <c r="F30" s="15"/>
-      <c r="G30" s="15"/>
+      <c r="B30" s="44"/>
+      <c r="C30" s="45"/>
+      <c r="D30" s="38"/>
+      <c r="E30" s="39"/>
+      <c r="F30" s="37"/>
+      <c r="G30" s="37"/>
     </row>
     <row r="31" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="31">
+      <c r="A31" s="35">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B31" s="41"/>
-      <c r="C31" s="41"/>
-      <c r="D31" s="23"/>
-      <c r="E31" s="23"/>
-      <c r="F31" s="15"/>
-      <c r="G31" s="15"/>
+      <c r="B31" s="44"/>
+      <c r="C31" s="45"/>
+      <c r="D31" s="38"/>
+      <c r="E31" s="39"/>
+      <c r="F31" s="37"/>
+      <c r="G31" s="37"/>
     </row>
     <row r="32" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="31">
+      <c r="A32" s="35">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B32" s="41"/>
-      <c r="C32" s="41"/>
-      <c r="D32" s="24"/>
-      <c r="E32" s="24"/>
-      <c r="F32" s="25"/>
-      <c r="G32" s="15"/>
+      <c r="B32" s="44"/>
+      <c r="C32" s="45"/>
+      <c r="D32" s="38"/>
+      <c r="E32" s="39"/>
+      <c r="F32" s="37"/>
+      <c r="G32" s="37"/>
     </row>
     <row r="33" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="31">
+      <c r="A33" s="35">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B33" s="41"/>
-      <c r="C33" s="41"/>
-      <c r="D33" s="24"/>
-      <c r="E33" s="24"/>
-      <c r="F33" s="25"/>
-      <c r="G33" s="15"/>
+      <c r="B33" s="44"/>
+      <c r="C33" s="45"/>
+      <c r="D33" s="38"/>
+      <c r="E33" s="39"/>
+      <c r="F33" s="37"/>
+      <c r="G33" s="37"/>
     </row>
     <row r="34" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="31">
+      <c r="A34" s="35">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B34" s="41"/>
-      <c r="C34" s="41"/>
-      <c r="D34" s="24"/>
-      <c r="E34" s="24"/>
-      <c r="F34" s="25"/>
-      <c r="G34" s="15"/>
+      <c r="B34" s="44"/>
+      <c r="C34" s="45"/>
+      <c r="D34" s="38"/>
+      <c r="E34" s="39"/>
+      <c r="F34" s="37"/>
+      <c r="G34" s="37"/>
     </row>
     <row r="35" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="31">
+      <c r="A35" s="35">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="B35" s="41"/>
-      <c r="C35" s="41"/>
-      <c r="D35" s="23"/>
-      <c r="E35" s="23"/>
-      <c r="F35" s="25"/>
-      <c r="G35" s="15"/>
+      <c r="B35" s="44"/>
+      <c r="C35" s="45"/>
+      <c r="D35" s="38"/>
+      <c r="E35" s="39"/>
+      <c r="F35" s="37"/>
+      <c r="G35" s="37"/>
     </row>
     <row r="36" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="31">
+      <c r="A36" s="35">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="B36" s="41"/>
-      <c r="C36" s="41"/>
-      <c r="D36" s="24"/>
-      <c r="E36" s="24"/>
-      <c r="F36" s="15"/>
-      <c r="G36" s="15"/>
+      <c r="B36" s="44"/>
+      <c r="C36" s="45"/>
+      <c r="D36" s="38"/>
+      <c r="E36" s="39"/>
+      <c r="F36" s="37"/>
+      <c r="G36" s="37"/>
     </row>
     <row r="37" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="31">
+      <c r="A37" s="35">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="B37" s="41"/>
-      <c r="C37" s="41"/>
-      <c r="D37" s="24"/>
-      <c r="E37" s="24"/>
-      <c r="F37" s="15"/>
-      <c r="G37" s="15"/>
+      <c r="B37" s="44"/>
+      <c r="C37" s="45"/>
+      <c r="D37" s="38"/>
+      <c r="E37" s="39"/>
+      <c r="F37" s="37"/>
+      <c r="G37" s="37"/>
     </row>
     <row r="38" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="31">
+      <c r="A38" s="35">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="B38" s="41"/>
-      <c r="C38" s="41"/>
-      <c r="D38" s="24"/>
-      <c r="E38" s="24"/>
-      <c r="F38" s="15"/>
-      <c r="G38" s="15"/>
+      <c r="B38" s="44"/>
+      <c r="C38" s="45"/>
+      <c r="D38" s="38"/>
+      <c r="E38" s="39"/>
+      <c r="F38" s="37"/>
+      <c r="G38" s="37"/>
     </row>
     <row r="39" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="31">
+      <c r="A39" s="35">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="B39" s="41"/>
-      <c r="C39" s="41"/>
-      <c r="D39" s="24"/>
-      <c r="E39" s="24"/>
-      <c r="F39" s="15"/>
-      <c r="G39" s="15"/>
+      <c r="B39" s="44"/>
+      <c r="C39" s="45"/>
+      <c r="D39" s="38"/>
+      <c r="E39" s="39"/>
+      <c r="F39" s="37"/>
+      <c r="G39" s="37"/>
     </row>
     <row r="40" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="31">
+      <c r="A40" s="35">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="B40" s="41"/>
-      <c r="C40" s="41"/>
-      <c r="D40" s="24"/>
-      <c r="E40" s="24"/>
-      <c r="F40" s="15"/>
-      <c r="G40" s="15"/>
+      <c r="B40" s="44"/>
+      <c r="C40" s="45"/>
+      <c r="D40" s="38"/>
+      <c r="E40" s="39"/>
+      <c r="F40" s="37"/>
+      <c r="G40" s="37"/>
     </row>
     <row r="41" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="31">
+      <c r="A41" s="35">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="B41" s="41"/>
-      <c r="C41" s="41"/>
-      <c r="D41" s="22"/>
-      <c r="E41" s="22"/>
-      <c r="F41" s="26"/>
-      <c r="G41" s="15"/>
+      <c r="B41" s="44"/>
+      <c r="C41" s="45"/>
+      <c r="D41" s="38"/>
+      <c r="E41" s="39"/>
+      <c r="F41" s="37"/>
+      <c r="G41" s="37"/>
     </row>
     <row r="42" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="31">
+      <c r="A42" s="35">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="B42" s="41"/>
-      <c r="C42" s="41"/>
-      <c r="D42" s="22"/>
-      <c r="E42" s="22"/>
-      <c r="F42" s="26"/>
-      <c r="G42" s="15"/>
+      <c r="B42" s="44"/>
+      <c r="C42" s="45"/>
+      <c r="D42" s="38"/>
+      <c r="E42" s="39"/>
+      <c r="F42" s="37"/>
+      <c r="G42" s="37"/>
     </row>
     <row r="43" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="31">
+      <c r="A43" s="35">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="B43" s="41"/>
-      <c r="C43" s="41"/>
-      <c r="D43" s="22"/>
-      <c r="E43" s="22"/>
-      <c r="F43" s="26"/>
-      <c r="G43" s="15"/>
+      <c r="B43" s="44"/>
+      <c r="C43" s="45"/>
+      <c r="D43" s="38"/>
+      <c r="E43" s="39"/>
+      <c r="F43" s="37"/>
+      <c r="G43" s="37"/>
     </row>
     <row r="44" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="31">
+      <c r="A44" s="35">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="B44" s="41"/>
-      <c r="C44" s="41"/>
-      <c r="D44" s="27"/>
-      <c r="E44" s="22"/>
-      <c r="F44" s="26"/>
-      <c r="G44" s="15"/>
+      <c r="B44" s="44"/>
+      <c r="C44" s="45"/>
+      <c r="D44" s="38"/>
+      <c r="E44" s="39"/>
+      <c r="F44" s="37"/>
+      <c r="G44" s="37"/>
     </row>
     <row r="45" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="31">
+      <c r="A45" s="35">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="B45" s="41"/>
-      <c r="C45" s="41"/>
-      <c r="D45" s="22"/>
-      <c r="E45" s="22"/>
-      <c r="F45" s="26"/>
-      <c r="G45" s="15"/>
+      <c r="B45" s="44"/>
+      <c r="C45" s="45"/>
+      <c r="D45" s="38"/>
+      <c r="E45" s="39"/>
+      <c r="F45" s="37"/>
+      <c r="G45" s="37"/>
     </row>
     <row r="46" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="31">
+      <c r="A46" s="35">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="B46" s="41"/>
+      <c r="B46" s="40"/>
       <c r="C46" s="41"/>
-      <c r="D46" s="22"/>
-      <c r="E46" s="22"/>
-      <c r="F46" s="26"/>
-      <c r="G46" s="15"/>
+      <c r="D46" s="43"/>
+      <c r="E46" s="43"/>
+      <c r="F46" s="43"/>
+      <c r="G46" s="42"/>
     </row>
     <row r="47" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="31">
+      <c r="A47" s="35">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="B47" s="41"/>
+      <c r="B47" s="40"/>
       <c r="C47" s="41"/>
-      <c r="D47" s="22"/>
-      <c r="E47" s="22"/>
-      <c r="F47" s="26"/>
-      <c r="G47" s="15"/>
+      <c r="D47" s="43"/>
+      <c r="E47" s="43"/>
+      <c r="F47" s="43"/>
+      <c r="G47" s="42"/>
     </row>
     <row r="48" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="31">
+      <c r="A48" s="35">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="B48" s="41"/>
+      <c r="B48" s="40"/>
       <c r="C48" s="41"/>
-      <c r="D48" s="22"/>
-      <c r="E48" s="22"/>
-      <c r="F48" s="26"/>
-      <c r="G48" s="15"/>
+      <c r="D48" s="43"/>
+      <c r="E48" s="43"/>
+      <c r="F48" s="43"/>
+      <c r="G48" s="42"/>
     </row>
     <row r="49" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="31">
+      <c r="A49" s="35">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="B49" s="41"/>
+      <c r="B49" s="40"/>
       <c r="C49" s="41"/>
-      <c r="D49" s="22"/>
-      <c r="E49" s="22"/>
-      <c r="F49" s="26"/>
-      <c r="G49" s="15"/>
+      <c r="D49" s="43"/>
+      <c r="E49" s="43"/>
+      <c r="F49" s="43"/>
+      <c r="G49" s="42"/>
     </row>
     <row r="50" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="31">
-        <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
-      <c r="B50" s="41"/>
-      <c r="C50" s="41"/>
-      <c r="D50" s="27"/>
-      <c r="E50" s="27"/>
-      <c r="F50" s="26"/>
-      <c r="G50" s="15"/>
-    </row>
-    <row r="51" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="31">
-        <f t="shared" si="0"/>
-        <v>41</v>
-      </c>
-      <c r="B51" s="41"/>
-      <c r="C51" s="41"/>
-      <c r="D51" s="27"/>
-      <c r="E51" s="27"/>
-      <c r="F51" s="26"/>
-      <c r="G51" s="15"/>
-    </row>
-    <row r="52" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="31">
-        <f t="shared" si="0"/>
-        <v>42</v>
-      </c>
-      <c r="B52" s="41"/>
-      <c r="C52" s="41"/>
-      <c r="D52" s="27"/>
-      <c r="E52" s="27"/>
-      <c r="F52" s="26"/>
-      <c r="G52" s="15"/>
-    </row>
-    <row r="53" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="31">
-        <f t="shared" si="0"/>
-        <v>43</v>
-      </c>
-      <c r="B53" s="41"/>
-      <c r="C53" s="41"/>
-      <c r="D53" s="27"/>
-      <c r="E53" s="27"/>
-      <c r="F53" s="26"/>
-      <c r="G53" s="15"/>
-    </row>
-    <row r="54" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="31">
-        <f t="shared" si="0"/>
-        <v>44</v>
-      </c>
-      <c r="B54" s="41"/>
-      <c r="C54" s="41"/>
-      <c r="D54" s="27"/>
-      <c r="E54" s="27"/>
-      <c r="F54" s="28"/>
-      <c r="G54" s="15"/>
-    </row>
-    <row r="55" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="31">
-        <f t="shared" si="0"/>
-        <v>45</v>
-      </c>
-      <c r="B55" s="41"/>
-      <c r="C55" s="41"/>
-      <c r="D55" s="22"/>
-      <c r="E55" s="27"/>
-      <c r="F55" s="26"/>
-      <c r="G55" s="15"/>
-    </row>
-    <row r="56" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="31">
-        <f t="shared" si="0"/>
-        <v>46</v>
-      </c>
-      <c r="B56" s="41"/>
-      <c r="C56" s="41"/>
-      <c r="D56" s="23"/>
-      <c r="E56" s="24"/>
-      <c r="F56" s="15"/>
-      <c r="G56" s="15"/>
-    </row>
-    <row r="57" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="31">
-        <f t="shared" si="0"/>
-        <v>47</v>
-      </c>
-      <c r="B57" s="41"/>
-      <c r="C57" s="41"/>
-      <c r="D57" s="24"/>
-      <c r="E57" s="24"/>
-      <c r="F57" s="15"/>
-      <c r="G57" s="15"/>
-    </row>
-    <row r="58" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="31">
-        <f t="shared" si="0"/>
-        <v>48</v>
-      </c>
-      <c r="B58" s="41"/>
-      <c r="C58" s="41"/>
-      <c r="D58" s="24"/>
-      <c r="E58" s="24"/>
-      <c r="F58" s="15"/>
-      <c r="G58" s="15"/>
-    </row>
-    <row r="59" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="31">
-        <f t="shared" si="0"/>
-        <v>49</v>
-      </c>
-      <c r="B59" s="41"/>
-      <c r="C59" s="41"/>
-      <c r="D59" s="24"/>
-      <c r="E59" s="24"/>
-      <c r="F59" s="15"/>
-      <c r="G59" s="15"/>
-    </row>
-    <row r="60" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="31">
-        <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-      <c r="B60" s="41"/>
-      <c r="C60" s="41"/>
-      <c r="D60" s="24"/>
-      <c r="E60" s="24"/>
-      <c r="F60" s="15"/>
-      <c r="G60" s="15"/>
-    </row>
-    <row r="61" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="31">
-        <f t="shared" si="0"/>
-        <v>51</v>
-      </c>
-      <c r="B61" s="41"/>
-      <c r="C61" s="41"/>
-      <c r="D61" s="23"/>
-      <c r="E61" s="24"/>
-      <c r="F61" s="15"/>
-      <c r="G61" s="15"/>
-    </row>
-    <row r="62" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="31">
-        <f t="shared" si="0"/>
-        <v>52</v>
-      </c>
-      <c r="B62" s="41"/>
-      <c r="C62" s="41"/>
-      <c r="D62" s="23"/>
-      <c r="E62" s="24"/>
-      <c r="F62" s="15"/>
-      <c r="G62" s="15"/>
-    </row>
-    <row r="63" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="31">
-        <f t="shared" si="0"/>
-        <v>53</v>
-      </c>
-      <c r="B63" s="30"/>
-      <c r="C63" s="29"/>
-      <c r="D63" s="23"/>
-      <c r="E63" s="24"/>
-      <c r="F63" s="15"/>
-      <c r="G63" s="15"/>
-    </row>
-    <row r="64" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="31">
-        <f t="shared" si="0"/>
-        <v>54</v>
-      </c>
-      <c r="B64" s="30"/>
-      <c r="C64" s="29"/>
-      <c r="D64" s="23"/>
-      <c r="E64" s="24"/>
-      <c r="F64" s="15"/>
-      <c r="G64" s="15"/>
-    </row>
-    <row r="65" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="31">
-        <f t="shared" si="0"/>
-        <v>55</v>
-      </c>
-      <c r="B65" s="30"/>
-      <c r="C65" s="29"/>
-      <c r="D65" s="23"/>
-      <c r="E65" s="24"/>
-      <c r="F65" s="15"/>
-      <c r="G65" s="15"/>
-    </row>
-    <row r="66" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A66" s="31">
-        <f t="shared" si="0"/>
-        <v>56</v>
-      </c>
-      <c r="B66" s="16"/>
-      <c r="C66" s="17"/>
-      <c r="D66" s="13"/>
-      <c r="E66" s="13"/>
-      <c r="F66" s="15"/>
-      <c r="G66" s="15"/>
-    </row>
-    <row r="67" spans="1:7" ht="17" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="11"/>
-      <c r="B67" s="16"/>
-      <c r="C67" s="17"/>
-      <c r="D67" s="13"/>
-      <c r="E67" s="13"/>
-      <c r="F67" s="15"/>
-      <c r="G67" s="15"/>
-    </row>
-    <row r="68" spans="1:7" ht="17" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A68" s="11"/>
-      <c r="B68" s="16"/>
-      <c r="C68" s="17"/>
-      <c r="D68" s="13"/>
-      <c r="E68" s="13"/>
-      <c r="F68" s="15"/>
-      <c r="G68" s="15"/>
-    </row>
-    <row r="69" spans="1:7" ht="17" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A69" s="11"/>
-      <c r="B69" s="39"/>
-      <c r="C69" s="40"/>
-      <c r="D69" s="13"/>
-      <c r="E69" s="13"/>
-      <c r="F69" s="15"/>
-      <c r="G69" s="15"/>
-    </row>
-    <row r="70" spans="1:7" ht="17" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A70" s="11"/>
-      <c r="B70" s="39"/>
-      <c r="C70" s="40"/>
-      <c r="D70" s="13"/>
-      <c r="E70" s="13"/>
-      <c r="F70" s="15"/>
-      <c r="G70" s="15"/>
-    </row>
-    <row r="71" spans="1:7" ht="17" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A71" s="11"/>
-      <c r="B71" s="39"/>
-      <c r="C71" s="40"/>
-      <c r="D71" s="13"/>
-      <c r="E71" s="13"/>
-      <c r="F71" s="15"/>
-      <c r="G71" s="15"/>
-    </row>
-    <row r="72" spans="1:7" ht="17" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A72" s="11"/>
-      <c r="B72" s="32"/>
-      <c r="C72" s="32"/>
-      <c r="D72" s="13"/>
-      <c r="E72" s="13"/>
-      <c r="F72" s="15"/>
-      <c r="G72" s="15"/>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="G75" s="14"/>
-    </row>
-    <row r="78" spans="1:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B78" s="8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" ht="12" thickTop="1" x14ac:dyDescent="0.15"/>
+      <c r="A50" s="25"/>
+      <c r="B50" s="28"/>
+      <c r="C50" s="29"/>
+      <c r="D50" s="31"/>
+      <c r="E50" s="31"/>
+      <c r="F50" s="31"/>
+      <c r="G50" s="30"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="G53" s="26"/>
+    </row>
+    <row r="56" spans="1:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B56" s="22" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="12" thickTop="1" x14ac:dyDescent="0.15"/>
   </sheetData>
-  <mergeCells count="62">
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
+  <mergeCells count="42">
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
     <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B21:C21"/>
     <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="B1:G1"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B72:C72"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="C8:D8"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B18:C18"/>
     <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B13:C13"/>
     <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B43:C43"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.82622047244094488" right="0.27559055118110237" top="0.51181102362204722" bottom="0.39370078740157483" header="0.51181102362204722" footer="0.31496062992125984"/>
-  <pageSetup scale="80" orientation="landscape" cellComments="asDisplayed"/>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <pageSetup paperSize="9" scale="80" orientation="landscape" cellComments="asDisplayed" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:F102"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B87" sqref="B87"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="40.5" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="11.5" style="4" customWidth="1"/>
+    <col min="2" max="2" width="59.1640625" style="4" customWidth="1"/>
+    <col min="3" max="5" width="18.6640625" style="4" hidden="1" customWidth="1"/>
+    <col min="6" max="255" width="11.5" style="4" customWidth="1"/>
+    <col min="256" max="16384" width="40.5" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="16">
+        <v>1</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A3" s="13">
+        <v>2</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="14">
+        <v>1000</v>
+      </c>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A4" s="13">
+        <v>3</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="14">
+        <v>850</v>
+      </c>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A5" s="13">
+        <v>4</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="14">
+        <v>750</v>
+      </c>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A6" s="13">
+        <v>5</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="14">
+        <v>700</v>
+      </c>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A7" s="7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="7"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A8" s="7">
+        <v>7</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="7"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A9" s="13">
+        <v>8</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="14">
+        <v>500</v>
+      </c>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="13">
+        <v>9</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="14">
+        <v>900</v>
+      </c>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A11" s="13">
+        <v>10</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="14">
+        <v>290</v>
+      </c>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A12" s="13">
+        <v>11</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="14">
+        <v>290</v>
+      </c>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A13" s="7">
+        <v>12</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="7"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A14" s="13">
+        <v>13</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="14">
+        <v>260</v>
+      </c>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A15" s="13">
+        <v>14</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="14">
+        <v>700</v>
+      </c>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A16" s="7">
+        <v>15</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="7"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A17" s="7">
+        <v>16</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="7"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A18" s="7">
+        <v>17</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="7"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A19" s="7">
+        <v>18</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="7"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A20" s="16">
+        <v>19</v>
+      </c>
+      <c r="B20" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A21" s="7">
+        <v>20</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="7"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A22" s="16">
+        <v>21</v>
+      </c>
+      <c r="B22" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A23" s="7">
+        <v>22</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="7"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A24" s="13">
+        <v>23</v>
+      </c>
+      <c r="B24" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="C24" s="14">
+        <v>270</v>
+      </c>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A25" s="13">
+        <v>24</v>
+      </c>
+      <c r="B25" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="C25" s="14">
+        <v>0</v>
+      </c>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A26" s="16">
+        <v>25</v>
+      </c>
+      <c r="B26" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A27" s="7">
+        <v>26</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="7"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A28" s="7">
+        <v>27</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="7"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A29" s="16">
+        <v>28</v>
+      </c>
+      <c r="B29" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="C29" s="11"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A30" s="7">
+        <v>29</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C30" s="11"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="7"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A31" s="7">
+        <v>30</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C31" s="11"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="7"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A32" s="7">
+        <v>31</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C32" s="11"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="7"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A33" s="7">
+        <v>32</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C33" s="11"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="7"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A34" s="7">
+        <v>33</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C34" s="11"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="7"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A35" s="7">
+        <v>34</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C35" s="11"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="7"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A36" s="7">
+        <v>35</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C36" s="11"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="7"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A37" s="7">
+        <v>36</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C37" s="11"/>
+      <c r="D37" s="11"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="7"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A38" s="7">
+        <v>37</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C38" s="11"/>
+      <c r="D38" s="11"/>
+      <c r="E38" s="11"/>
+      <c r="F38" s="7"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A39" s="7">
+        <v>38</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C39" s="11"/>
+      <c r="D39" s="11"/>
+      <c r="E39" s="11"/>
+      <c r="F39" s="7"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A40" s="7">
+        <v>39</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C40" s="11"/>
+      <c r="D40" s="11"/>
+      <c r="E40" s="11"/>
+      <c r="F40" s="7"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A41" s="7">
+        <v>40</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C41" s="11"/>
+      <c r="D41" s="11"/>
+      <c r="E41" s="11"/>
+      <c r="F41" s="7"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A42" s="7">
+        <v>41</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C42" s="11"/>
+      <c r="D42" s="11"/>
+      <c r="E42" s="11"/>
+      <c r="F42" s="7"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A43" s="7">
+        <v>42</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C43" s="11"/>
+      <c r="D43" s="11"/>
+      <c r="E43" s="11"/>
+      <c r="F43" s="7"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A44" s="7">
+        <v>43</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C44" s="11"/>
+      <c r="D44" s="11"/>
+      <c r="E44" s="11"/>
+      <c r="F44" s="7"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A45" s="7">
+        <v>44</v>
+      </c>
+      <c r="B45" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C45" s="11"/>
+      <c r="D45" s="11"/>
+      <c r="E45" s="11"/>
+      <c r="F45" s="7"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A46" s="7">
+        <v>45</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C46" s="11"/>
+      <c r="D46" s="11"/>
+      <c r="E46" s="11"/>
+      <c r="F46" s="7"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A47" s="7">
+        <v>46</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C47" s="11"/>
+      <c r="D47" s="11"/>
+      <c r="E47" s="11"/>
+      <c r="F47" s="7"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A48" s="7">
+        <v>47</v>
+      </c>
+      <c r="B48" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C48" s="11"/>
+      <c r="D48" s="11"/>
+      <c r="E48" s="11"/>
+      <c r="F48" s="7"/>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A49" s="7">
+        <v>48</v>
+      </c>
+      <c r="B49" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C49" s="11"/>
+      <c r="D49" s="11"/>
+      <c r="E49" s="11"/>
+      <c r="F49" s="7"/>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A50" s="7">
+        <v>49</v>
+      </c>
+      <c r="B50" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C50" s="11"/>
+      <c r="D50" s="11"/>
+      <c r="E50" s="11"/>
+      <c r="F50" s="7"/>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A51" s="7">
+        <v>50</v>
+      </c>
+      <c r="B51" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C51" s="11"/>
+      <c r="D51" s="11"/>
+      <c r="E51" s="11"/>
+      <c r="F51" s="7"/>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A52" s="7">
+        <v>51</v>
+      </c>
+      <c r="B52" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C52" s="11"/>
+      <c r="D52" s="11"/>
+      <c r="E52" s="11"/>
+      <c r="F52" s="7"/>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A53" s="7">
+        <v>52</v>
+      </c>
+      <c r="B53" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="C53" s="11"/>
+      <c r="D53" s="11"/>
+      <c r="E53" s="11"/>
+      <c r="F53" s="7"/>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A54" s="7">
+        <v>53</v>
+      </c>
+      <c r="B54" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="C54" s="11"/>
+      <c r="D54" s="11"/>
+      <c r="E54" s="11"/>
+      <c r="F54" s="7"/>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A55" s="7">
+        <v>54</v>
+      </c>
+      <c r="B55" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="C55" s="11"/>
+      <c r="D55" s="11"/>
+      <c r="E55" s="11"/>
+      <c r="F55" s="7"/>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A56" s="7">
+        <v>55</v>
+      </c>
+      <c r="B56" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C56" s="11"/>
+      <c r="D56" s="11"/>
+      <c r="E56" s="11"/>
+      <c r="F56" s="7"/>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A57" s="7">
+        <v>56</v>
+      </c>
+      <c r="B57" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C57" s="11"/>
+      <c r="D57" s="11"/>
+      <c r="E57" s="11"/>
+      <c r="F57" s="7"/>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A58" s="7">
+        <v>57</v>
+      </c>
+      <c r="B58" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="C58" s="11"/>
+      <c r="D58" s="11"/>
+      <c r="E58" s="11"/>
+      <c r="F58" s="7"/>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A59" s="7">
+        <v>58</v>
+      </c>
+      <c r="B59" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="C59" s="11"/>
+      <c r="D59" s="11"/>
+      <c r="E59" s="11"/>
+      <c r="F59" s="7"/>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A60" s="7">
+        <v>59</v>
+      </c>
+      <c r="B60" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C60" s="11"/>
+      <c r="D60" s="11"/>
+      <c r="E60" s="11"/>
+      <c r="F60" s="7"/>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A61" s="7">
+        <v>60</v>
+      </c>
+      <c r="B61" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C61" s="11"/>
+      <c r="D61" s="11"/>
+      <c r="E61" s="11"/>
+      <c r="F61" s="7"/>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A62" s="7">
+        <v>61</v>
+      </c>
+      <c r="B62" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="C62" s="11"/>
+      <c r="D62" s="11"/>
+      <c r="E62" s="11"/>
+      <c r="F62" s="7"/>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A63" s="7">
+        <v>62</v>
+      </c>
+      <c r="B63" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="C63" s="11"/>
+      <c r="D63" s="11"/>
+      <c r="E63" s="11"/>
+      <c r="F63" s="7"/>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A64" s="7">
+        <v>63</v>
+      </c>
+      <c r="B64" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="C64" s="11"/>
+      <c r="D64" s="11"/>
+      <c r="E64" s="11"/>
+      <c r="F64" s="7"/>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A65" s="7">
+        <v>64</v>
+      </c>
+      <c r="B65" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="C65" s="11"/>
+      <c r="D65" s="11"/>
+      <c r="E65" s="11"/>
+      <c r="F65" s="7"/>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A66" s="7">
+        <v>65</v>
+      </c>
+      <c r="B66" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="C66" s="11"/>
+      <c r="D66" s="11"/>
+      <c r="E66" s="11"/>
+      <c r="F66" s="7"/>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A67" s="7">
+        <v>66</v>
+      </c>
+      <c r="B67" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="C67" s="11"/>
+      <c r="D67" s="11"/>
+      <c r="E67" s="11"/>
+      <c r="F67" s="7"/>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A68" s="7">
+        <v>67</v>
+      </c>
+      <c r="B68" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="C68" s="11"/>
+      <c r="D68" s="11"/>
+      <c r="E68" s="11"/>
+      <c r="F68" s="7"/>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A69" s="7">
+        <v>68</v>
+      </c>
+      <c r="B69" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C69" s="11"/>
+      <c r="D69" s="11"/>
+      <c r="E69" s="11"/>
+      <c r="F69" s="7"/>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A70" s="7">
+        <v>69</v>
+      </c>
+      <c r="B70" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="C70" s="11"/>
+      <c r="D70" s="11"/>
+      <c r="E70" s="11"/>
+      <c r="F70" s="7"/>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A71" s="7">
+        <v>70</v>
+      </c>
+      <c r="B71" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="C71" s="11"/>
+      <c r="D71" s="11"/>
+      <c r="E71" s="11"/>
+      <c r="F71" s="7"/>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A72" s="7">
+        <v>71</v>
+      </c>
+      <c r="B72" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="C72" s="11"/>
+      <c r="D72" s="11"/>
+      <c r="E72" s="11"/>
+      <c r="F72" s="7"/>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A73" s="7">
+        <v>72</v>
+      </c>
+      <c r="B73" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="C73" s="11"/>
+      <c r="D73" s="11"/>
+      <c r="E73" s="11"/>
+      <c r="F73" s="7"/>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A74" s="7">
+        <v>73</v>
+      </c>
+      <c r="B74" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="C74" s="11"/>
+      <c r="D74" s="11"/>
+      <c r="E74" s="11"/>
+      <c r="F74" s="7"/>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A75" s="7">
+        <v>74</v>
+      </c>
+      <c r="B75" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="C75" s="11"/>
+      <c r="D75" s="11"/>
+      <c r="E75" s="11"/>
+      <c r="F75" s="7"/>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A76" s="7">
+        <v>75</v>
+      </c>
+      <c r="B76" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="C76" s="11"/>
+      <c r="D76" s="11"/>
+      <c r="E76" s="11"/>
+      <c r="F76" s="7"/>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A77" s="13">
+        <v>76</v>
+      </c>
+      <c r="B77" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="C77" s="14">
+        <v>270</v>
+      </c>
+      <c r="D77" s="14"/>
+      <c r="E77" s="14"/>
+      <c r="F77" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A78" s="13">
+        <v>77</v>
+      </c>
+      <c r="B78" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="C78" s="14">
+        <v>260</v>
+      </c>
+      <c r="D78" s="14"/>
+      <c r="E78" s="14"/>
+      <c r="F78" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A79" s="7">
+        <v>78</v>
+      </c>
+      <c r="B79" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="C79" s="11"/>
+      <c r="D79" s="11"/>
+      <c r="E79" s="11"/>
+      <c r="F79" s="7"/>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A80" s="7">
+        <v>79</v>
+      </c>
+      <c r="B80" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="C80" s="11"/>
+      <c r="D80" s="11"/>
+      <c r="E80" s="11"/>
+      <c r="F80" s="7"/>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A81" s="7">
+        <v>80</v>
+      </c>
+      <c r="B81" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="C81" s="11"/>
+      <c r="D81" s="11"/>
+      <c r="E81" s="11"/>
+      <c r="F81" s="7"/>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A82" s="7">
+        <v>81</v>
+      </c>
+      <c r="B82" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="C82" s="11"/>
+      <c r="D82" s="11"/>
+      <c r="E82" s="11"/>
+      <c r="F82" s="7"/>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A83" s="7">
+        <v>82</v>
+      </c>
+      <c r="B83" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="C83" s="11"/>
+      <c r="D83" s="11"/>
+      <c r="E83" s="11"/>
+      <c r="F83" s="7"/>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A84" s="7">
+        <v>83</v>
+      </c>
+      <c r="B84" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="C84" s="11"/>
+      <c r="D84" s="11"/>
+      <c r="E84" s="11"/>
+      <c r="F84" s="7"/>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A85" s="7">
+        <v>84</v>
+      </c>
+      <c r="B85" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="C85" s="11"/>
+      <c r="D85" s="11"/>
+      <c r="E85" s="11"/>
+      <c r="F85" s="7"/>
+    </row>
+    <row r="86" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A86" s="17">
+        <v>85</v>
+      </c>
+      <c r="B86" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="C86" s="11"/>
+      <c r="D86" s="11"/>
+      <c r="E86" s="11"/>
+      <c r="F86" s="16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A87" s="17">
+        <v>86</v>
+      </c>
+      <c r="B87" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="C87" s="11"/>
+      <c r="D87" s="11"/>
+      <c r="E87" s="11"/>
+      <c r="F87" s="16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A88" s="9">
+        <v>87</v>
+      </c>
+      <c r="B88" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="C88" s="11"/>
+      <c r="D88" s="11"/>
+      <c r="E88" s="11"/>
+      <c r="F88" s="7"/>
+    </row>
+    <row r="89" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A89" s="10">
+        <v>88</v>
+      </c>
+      <c r="B89" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="C89" s="11"/>
+      <c r="D89" s="11"/>
+      <c r="E89" s="11"/>
+      <c r="F89" s="7"/>
+    </row>
+    <row r="90" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A90" s="10">
+        <v>89</v>
+      </c>
+      <c r="B90" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="C90" s="11"/>
+      <c r="D90" s="11"/>
+      <c r="E90" s="11"/>
+      <c r="F90" s="7"/>
+    </row>
+    <row r="91" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A91" s="7">
+        <v>90</v>
+      </c>
+      <c r="B91" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="C91" s="11"/>
+      <c r="D91" s="11"/>
+      <c r="E91" s="11"/>
+      <c r="F91" s="7"/>
+    </row>
+    <row r="92" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A92" s="16">
+        <v>91</v>
+      </c>
+      <c r="B92" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C92" s="11"/>
+      <c r="D92" s="11"/>
+      <c r="E92" s="11"/>
+      <c r="F92" s="16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A93" s="7">
+        <v>92</v>
+      </c>
+      <c r="B93" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="C93" s="11"/>
+      <c r="D93" s="11"/>
+      <c r="E93" s="11"/>
+      <c r="F93" s="7"/>
+    </row>
+    <row r="94" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A94" s="13">
+        <v>93</v>
+      </c>
+      <c r="B94" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C94" s="14">
+        <v>0</v>
+      </c>
+      <c r="D94" s="14"/>
+      <c r="E94" s="14"/>
+      <c r="F94" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A95" s="13">
+        <v>94</v>
+      </c>
+      <c r="B95" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="C95" s="14">
+        <v>600</v>
+      </c>
+      <c r="D95" s="14"/>
+      <c r="E95" s="14"/>
+      <c r="F95" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A96" s="7">
+        <v>95</v>
+      </c>
+      <c r="B96" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="C96" s="11">
+        <v>600</v>
+      </c>
+      <c r="D96" s="11"/>
+      <c r="E96" s="11"/>
+      <c r="F96" s="7"/>
+    </row>
+    <row r="97" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A97" s="13">
+        <v>96</v>
+      </c>
+      <c r="B97" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="C97" s="14">
+        <v>0</v>
+      </c>
+      <c r="D97" s="14"/>
+      <c r="E97" s="14"/>
+      <c r="F97" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C98" s="12">
+        <f>SUM(C2:C97)</f>
+        <v>8240</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C102" s="12"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:F98" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
+  <phoneticPr fontId="0" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/templates/plantilla_ayudantes.xlsx
+++ b/templates/plantilla_ayudantes.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alexis/Documents/work/listas_project/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79FE42E2-ACE5-7A4A-84BA-5F2C0DBC7F91}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CCB5145-9E08-0D4F-A6F6-C6063F64908D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="29360" windowHeight="17400" tabRatio="913" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SOLICITUD DE ACCESO | PERSONAS" sheetId="14" r:id="rId1"/>
-    <sheet name="CC | 09-TCC &quot;CATALOGO DE CARGO&quot;" sheetId="11" state="hidden" r:id="rId2"/>
+    <sheet name="CC | 09-TCC &quot;CATALOGO DE CARGO&quot;" sheetId="11" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'CC | 09-TCC "CATALOGO DE CARGO"'!$A$1:$F$98</definedName>
@@ -633,7 +633,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -732,17 +732,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Trebuchet MS"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Trebuchet MS"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -750,20 +739,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="10"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
       <name val="Trebuchet MS"/>
       <family val="2"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Trebuchet MS"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color rgb="FF000000"/>
-      <name val="Tahoma"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -931,7 +921,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -990,55 +980,12 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="22" fontId="12" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="15" fontId="12" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1057,17 +1004,54 @@
     <xf numFmtId="22" fontId="12" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1580,14 +1564,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B1" s="49" t="s">
+      <c r="B1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B2" s="3"/>
@@ -1600,10 +1584,10 @@
       <c r="B3" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="47" t="s">
+      <c r="C3" s="32" t="s">
         <v>118</v>
       </c>
-      <c r="D3" s="48"/>
+      <c r="D3" s="33"/>
       <c r="E3" s="23"/>
       <c r="F3" s="23"/>
       <c r="G3" s="24"/>
@@ -1612,10 +1596,10 @@
       <c r="B4" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="47" t="s">
+      <c r="C4" s="32" t="s">
         <v>119</v>
       </c>
-      <c r="D4" s="48"/>
+      <c r="D4" s="33"/>
       <c r="E4" s="23"/>
       <c r="F4" s="23"/>
       <c r="G4" s="24"/>
@@ -1624,8 +1608,8 @@
       <c r="B5" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="32"/>
-      <c r="D5" s="33"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="29"/>
       <c r="E5" s="23"/>
       <c r="F5" s="23"/>
       <c r="G5" s="24"/>
@@ -1634,8 +1618,8 @@
       <c r="B6" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="34"/>
-      <c r="D6" s="33"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="29"/>
       <c r="E6" s="23"/>
       <c r="F6" s="23"/>
       <c r="G6" s="24"/>
@@ -1644,10 +1628,10 @@
       <c r="B7" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="51" t="s">
+      <c r="C7" s="36" t="s">
         <v>120</v>
       </c>
-      <c r="D7" s="52"/>
+      <c r="D7" s="37"/>
       <c r="E7" s="23"/>
       <c r="F7" s="23"/>
       <c r="G7" s="24"/>
@@ -1656,10 +1640,10 @@
       <c r="B8" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="53" t="s">
+      <c r="C8" s="38" t="s">
         <v>116</v>
       </c>
-      <c r="D8" s="54"/>
+      <c r="D8" s="39"/>
       <c r="E8" s="23"/>
       <c r="F8" s="23"/>
       <c r="G8" s="24"/>
@@ -1668,10 +1652,10 @@
       <c r="B9" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="53" t="s">
+      <c r="C9" s="38" t="s">
         <v>117</v>
       </c>
-      <c r="D9" s="54"/>
+      <c r="D9" s="39"/>
       <c r="E9" s="23"/>
       <c r="F9" s="23"/>
       <c r="G9" s="24"/>
@@ -1680,10 +1664,10 @@
       <c r="A10" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="50" t="s">
+      <c r="B10" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="50"/>
+      <c r="C10" s="35"/>
       <c r="D10" s="27" t="s">
         <v>10</v>
       </c>
@@ -1698,480 +1682,480 @@
       </c>
     </row>
     <row r="11" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="35">
+      <c r="A11" s="31">
         <v>1</v>
       </c>
-      <c r="B11" s="46"/>
-      <c r="C11" s="46"/>
-      <c r="D11" s="36"/>
-      <c r="E11" s="36"/>
-      <c r="F11" s="37"/>
-      <c r="G11" s="37"/>
+      <c r="B11" s="40"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="42"/>
+      <c r="G11" s="42"/>
     </row>
     <row r="12" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="35">
+      <c r="A12" s="31">
         <f>A11+1</f>
         <v>2</v>
       </c>
-      <c r="B12" s="46"/>
-      <c r="C12" s="46"/>
-      <c r="D12" s="36"/>
-      <c r="E12" s="36"/>
-      <c r="F12" s="37"/>
-      <c r="G12" s="37"/>
+      <c r="B12" s="40"/>
+      <c r="C12" s="40"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="42"/>
+      <c r="G12" s="42"/>
     </row>
     <row r="13" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="35">
+      <c r="A13" s="31">
         <f t="shared" ref="A13:A49" si="0">A12+1</f>
         <v>3</v>
       </c>
-      <c r="B13" s="46"/>
-      <c r="C13" s="46"/>
-      <c r="D13" s="36"/>
-      <c r="E13" s="36"/>
-      <c r="F13" s="37"/>
-      <c r="G13" s="37"/>
+      <c r="B13" s="40"/>
+      <c r="C13" s="40"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="42"/>
+      <c r="G13" s="42"/>
     </row>
     <row r="14" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="35">
+      <c r="A14" s="31">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B14" s="46"/>
-      <c r="C14" s="46"/>
-      <c r="D14" s="36"/>
-      <c r="E14" s="36"/>
-      <c r="F14" s="37"/>
-      <c r="G14" s="37"/>
+      <c r="B14" s="40"/>
+      <c r="C14" s="40"/>
+      <c r="D14" s="41"/>
+      <c r="E14" s="41"/>
+      <c r="F14" s="42"/>
+      <c r="G14" s="42"/>
     </row>
     <row r="15" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="35">
+      <c r="A15" s="31">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B15" s="46"/>
-      <c r="C15" s="46"/>
-      <c r="D15" s="36"/>
-      <c r="E15" s="36"/>
-      <c r="F15" s="37"/>
-      <c r="G15" s="37"/>
+      <c r="B15" s="40"/>
+      <c r="C15" s="40"/>
+      <c r="D15" s="41"/>
+      <c r="E15" s="41"/>
+      <c r="F15" s="42"/>
+      <c r="G15" s="42"/>
     </row>
     <row r="16" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="35">
+      <c r="A16" s="31">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B16" s="55"/>
-      <c r="C16" s="56"/>
-      <c r="D16" s="36"/>
-      <c r="E16" s="36"/>
-      <c r="F16" s="37"/>
-      <c r="G16" s="37"/>
+      <c r="B16" s="43"/>
+      <c r="C16" s="44"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="41"/>
+      <c r="F16" s="42"/>
+      <c r="G16" s="42"/>
     </row>
     <row r="17" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="35">
+      <c r="A17" s="31">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B17" s="44"/>
-      <c r="C17" s="45"/>
-      <c r="D17" s="38"/>
-      <c r="E17" s="39"/>
-      <c r="F17" s="37"/>
-      <c r="G17" s="37"/>
+      <c r="B17" s="45"/>
+      <c r="C17" s="46"/>
+      <c r="D17" s="47"/>
+      <c r="E17" s="48"/>
+      <c r="F17" s="42"/>
+      <c r="G17" s="42"/>
     </row>
     <row r="18" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="35">
+      <c r="A18" s="31">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B18" s="44"/>
-      <c r="C18" s="45"/>
-      <c r="D18" s="38"/>
-      <c r="E18" s="39"/>
-      <c r="F18" s="37"/>
-      <c r="G18" s="37"/>
+      <c r="B18" s="45"/>
+      <c r="C18" s="46"/>
+      <c r="D18" s="47"/>
+      <c r="E18" s="48"/>
+      <c r="F18" s="42"/>
+      <c r="G18" s="42"/>
     </row>
     <row r="19" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="35">
+      <c r="A19" s="31">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B19" s="44"/>
-      <c r="C19" s="45"/>
-      <c r="D19" s="38"/>
-      <c r="E19" s="39"/>
-      <c r="F19" s="37"/>
-      <c r="G19" s="37"/>
+      <c r="B19" s="45"/>
+      <c r="C19" s="46"/>
+      <c r="D19" s="47"/>
+      <c r="E19" s="48"/>
+      <c r="F19" s="42"/>
+      <c r="G19" s="42"/>
     </row>
     <row r="20" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="35">
+      <c r="A20" s="31">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B20" s="44"/>
-      <c r="C20" s="45"/>
-      <c r="D20" s="38"/>
-      <c r="E20" s="39"/>
-      <c r="F20" s="37"/>
-      <c r="G20" s="37"/>
+      <c r="B20" s="45"/>
+      <c r="C20" s="46"/>
+      <c r="D20" s="47"/>
+      <c r="E20" s="48"/>
+      <c r="F20" s="42"/>
+      <c r="G20" s="42"/>
     </row>
     <row r="21" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="35">
+      <c r="A21" s="31">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B21" s="44"/>
-      <c r="C21" s="45"/>
-      <c r="D21" s="38"/>
-      <c r="E21" s="39"/>
-      <c r="F21" s="37"/>
-      <c r="G21" s="37"/>
+      <c r="B21" s="45"/>
+      <c r="C21" s="46"/>
+      <c r="D21" s="47"/>
+      <c r="E21" s="48"/>
+      <c r="F21" s="42"/>
+      <c r="G21" s="42"/>
     </row>
     <row r="22" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="35">
+      <c r="A22" s="31">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B22" s="44"/>
-      <c r="C22" s="45"/>
-      <c r="D22" s="38"/>
-      <c r="E22" s="39"/>
-      <c r="F22" s="37"/>
-      <c r="G22" s="37"/>
+      <c r="B22" s="45"/>
+      <c r="C22" s="46"/>
+      <c r="D22" s="47"/>
+      <c r="E22" s="48"/>
+      <c r="F22" s="42"/>
+      <c r="G22" s="42"/>
     </row>
     <row r="23" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="35">
+      <c r="A23" s="31">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B23" s="44"/>
-      <c r="C23" s="45"/>
-      <c r="D23" s="38"/>
-      <c r="E23" s="39"/>
-      <c r="F23" s="37"/>
-      <c r="G23" s="37"/>
+      <c r="B23" s="45"/>
+      <c r="C23" s="46"/>
+      <c r="D23" s="47"/>
+      <c r="E23" s="48"/>
+      <c r="F23" s="42"/>
+      <c r="G23" s="42"/>
     </row>
     <row r="24" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="35">
+      <c r="A24" s="31">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B24" s="44"/>
-      <c r="C24" s="45"/>
-      <c r="D24" s="38"/>
-      <c r="E24" s="39"/>
-      <c r="F24" s="37"/>
-      <c r="G24" s="37"/>
+      <c r="B24" s="45"/>
+      <c r="C24" s="46"/>
+      <c r="D24" s="47"/>
+      <c r="E24" s="48"/>
+      <c r="F24" s="42"/>
+      <c r="G24" s="42"/>
     </row>
     <row r="25" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="35">
+      <c r="A25" s="31">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B25" s="44"/>
-      <c r="C25" s="45"/>
-      <c r="D25" s="38"/>
-      <c r="E25" s="39"/>
-      <c r="F25" s="37"/>
-      <c r="G25" s="37"/>
+      <c r="B25" s="45"/>
+      <c r="C25" s="46"/>
+      <c r="D25" s="47"/>
+      <c r="E25" s="48"/>
+      <c r="F25" s="42"/>
+      <c r="G25" s="42"/>
     </row>
     <row r="26" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="35">
+      <c r="A26" s="31">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B26" s="44"/>
-      <c r="C26" s="45"/>
-      <c r="D26" s="38"/>
-      <c r="E26" s="39"/>
-      <c r="F26" s="37"/>
-      <c r="G26" s="37"/>
+      <c r="B26" s="45"/>
+      <c r="C26" s="46"/>
+      <c r="D26" s="47"/>
+      <c r="E26" s="48"/>
+      <c r="F26" s="42"/>
+      <c r="G26" s="42"/>
     </row>
     <row r="27" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="35">
+      <c r="A27" s="31">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B27" s="44"/>
-      <c r="C27" s="45"/>
-      <c r="D27" s="38"/>
-      <c r="E27" s="39"/>
-      <c r="F27" s="37"/>
-      <c r="G27" s="37"/>
+      <c r="B27" s="45"/>
+      <c r="C27" s="46"/>
+      <c r="D27" s="47"/>
+      <c r="E27" s="48"/>
+      <c r="F27" s="42"/>
+      <c r="G27" s="42"/>
     </row>
     <row r="28" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="35">
+      <c r="A28" s="31">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B28" s="44"/>
-      <c r="C28" s="45"/>
-      <c r="D28" s="38"/>
-      <c r="E28" s="39"/>
-      <c r="F28" s="37"/>
-      <c r="G28" s="37"/>
+      <c r="B28" s="45"/>
+      <c r="C28" s="46"/>
+      <c r="D28" s="47"/>
+      <c r="E28" s="48"/>
+      <c r="F28" s="42"/>
+      <c r="G28" s="42"/>
     </row>
     <row r="29" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="35">
+      <c r="A29" s="31">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B29" s="44"/>
-      <c r="C29" s="45"/>
-      <c r="D29" s="38"/>
-      <c r="E29" s="39"/>
-      <c r="F29" s="37"/>
-      <c r="G29" s="37"/>
+      <c r="B29" s="45"/>
+      <c r="C29" s="46"/>
+      <c r="D29" s="47"/>
+      <c r="E29" s="48"/>
+      <c r="F29" s="42"/>
+      <c r="G29" s="42"/>
     </row>
     <row r="30" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="35">
+      <c r="A30" s="31">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B30" s="44"/>
-      <c r="C30" s="45"/>
-      <c r="D30" s="38"/>
-      <c r="E30" s="39"/>
-      <c r="F30" s="37"/>
-      <c r="G30" s="37"/>
+      <c r="B30" s="45"/>
+      <c r="C30" s="46"/>
+      <c r="D30" s="47"/>
+      <c r="E30" s="48"/>
+      <c r="F30" s="42"/>
+      <c r="G30" s="42"/>
     </row>
     <row r="31" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="35">
+      <c r="A31" s="31">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B31" s="44"/>
-      <c r="C31" s="45"/>
-      <c r="D31" s="38"/>
-      <c r="E31" s="39"/>
-      <c r="F31" s="37"/>
-      <c r="G31" s="37"/>
+      <c r="B31" s="45"/>
+      <c r="C31" s="46"/>
+      <c r="D31" s="47"/>
+      <c r="E31" s="48"/>
+      <c r="F31" s="42"/>
+      <c r="G31" s="42"/>
     </row>
     <row r="32" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="35">
+      <c r="A32" s="31">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B32" s="44"/>
-      <c r="C32" s="45"/>
-      <c r="D32" s="38"/>
-      <c r="E32" s="39"/>
-      <c r="F32" s="37"/>
-      <c r="G32" s="37"/>
+      <c r="B32" s="45"/>
+      <c r="C32" s="46"/>
+      <c r="D32" s="47"/>
+      <c r="E32" s="48"/>
+      <c r="F32" s="42"/>
+      <c r="G32" s="42"/>
     </row>
     <row r="33" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="35">
+      <c r="A33" s="31">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B33" s="44"/>
-      <c r="C33" s="45"/>
-      <c r="D33" s="38"/>
-      <c r="E33" s="39"/>
-      <c r="F33" s="37"/>
-      <c r="G33" s="37"/>
+      <c r="B33" s="45"/>
+      <c r="C33" s="46"/>
+      <c r="D33" s="47"/>
+      <c r="E33" s="48"/>
+      <c r="F33" s="42"/>
+      <c r="G33" s="42"/>
     </row>
     <row r="34" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="35">
+      <c r="A34" s="31">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B34" s="44"/>
-      <c r="C34" s="45"/>
-      <c r="D34" s="38"/>
-      <c r="E34" s="39"/>
-      <c r="F34" s="37"/>
-      <c r="G34" s="37"/>
+      <c r="B34" s="45"/>
+      <c r="C34" s="46"/>
+      <c r="D34" s="47"/>
+      <c r="E34" s="48"/>
+      <c r="F34" s="42"/>
+      <c r="G34" s="42"/>
     </row>
     <row r="35" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="35">
+      <c r="A35" s="31">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="B35" s="44"/>
-      <c r="C35" s="45"/>
-      <c r="D35" s="38"/>
-      <c r="E35" s="39"/>
-      <c r="F35" s="37"/>
-      <c r="G35" s="37"/>
+      <c r="B35" s="45"/>
+      <c r="C35" s="46"/>
+      <c r="D35" s="47"/>
+      <c r="E35" s="48"/>
+      <c r="F35" s="42"/>
+      <c r="G35" s="42"/>
     </row>
     <row r="36" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="35">
+      <c r="A36" s="31">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="B36" s="44"/>
-      <c r="C36" s="45"/>
-      <c r="D36" s="38"/>
-      <c r="E36" s="39"/>
-      <c r="F36" s="37"/>
-      <c r="G36" s="37"/>
+      <c r="B36" s="45"/>
+      <c r="C36" s="46"/>
+      <c r="D36" s="47"/>
+      <c r="E36" s="48"/>
+      <c r="F36" s="42"/>
+      <c r="G36" s="42"/>
     </row>
     <row r="37" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="35">
+      <c r="A37" s="31">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="B37" s="44"/>
-      <c r="C37" s="45"/>
-      <c r="D37" s="38"/>
-      <c r="E37" s="39"/>
-      <c r="F37" s="37"/>
-      <c r="G37" s="37"/>
+      <c r="B37" s="45"/>
+      <c r="C37" s="46"/>
+      <c r="D37" s="47"/>
+      <c r="E37" s="48"/>
+      <c r="F37" s="42"/>
+      <c r="G37" s="42"/>
     </row>
     <row r="38" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="35">
+      <c r="A38" s="31">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="B38" s="44"/>
-      <c r="C38" s="45"/>
-      <c r="D38" s="38"/>
-      <c r="E38" s="39"/>
-      <c r="F38" s="37"/>
-      <c r="G38" s="37"/>
+      <c r="B38" s="45"/>
+      <c r="C38" s="46"/>
+      <c r="D38" s="47"/>
+      <c r="E38" s="48"/>
+      <c r="F38" s="42"/>
+      <c r="G38" s="42"/>
     </row>
     <row r="39" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="35">
+      <c r="A39" s="31">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="B39" s="44"/>
-      <c r="C39" s="45"/>
-      <c r="D39" s="38"/>
-      <c r="E39" s="39"/>
-      <c r="F39" s="37"/>
-      <c r="G39" s="37"/>
+      <c r="B39" s="45"/>
+      <c r="C39" s="46"/>
+      <c r="D39" s="47"/>
+      <c r="E39" s="48"/>
+      <c r="F39" s="42"/>
+      <c r="G39" s="42"/>
     </row>
     <row r="40" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="35">
+      <c r="A40" s="31">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="B40" s="44"/>
-      <c r="C40" s="45"/>
-      <c r="D40" s="38"/>
-      <c r="E40" s="39"/>
-      <c r="F40" s="37"/>
-      <c r="G40" s="37"/>
+      <c r="B40" s="45"/>
+      <c r="C40" s="46"/>
+      <c r="D40" s="47"/>
+      <c r="E40" s="48"/>
+      <c r="F40" s="42"/>
+      <c r="G40" s="42"/>
     </row>
     <row r="41" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="35">
+      <c r="A41" s="31">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="B41" s="44"/>
-      <c r="C41" s="45"/>
-      <c r="D41" s="38"/>
-      <c r="E41" s="39"/>
-      <c r="F41" s="37"/>
-      <c r="G41" s="37"/>
+      <c r="B41" s="45"/>
+      <c r="C41" s="46"/>
+      <c r="D41" s="47"/>
+      <c r="E41" s="48"/>
+      <c r="F41" s="42"/>
+      <c r="G41" s="42"/>
     </row>
     <row r="42" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="35">
+      <c r="A42" s="31">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="B42" s="44"/>
-      <c r="C42" s="45"/>
-      <c r="D42" s="38"/>
-      <c r="E42" s="39"/>
-      <c r="F42" s="37"/>
-      <c r="G42" s="37"/>
+      <c r="B42" s="45"/>
+      <c r="C42" s="46"/>
+      <c r="D42" s="47"/>
+      <c r="E42" s="48"/>
+      <c r="F42" s="42"/>
+      <c r="G42" s="42"/>
     </row>
     <row r="43" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="35">
+      <c r="A43" s="31">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="B43" s="44"/>
-      <c r="C43" s="45"/>
-      <c r="D43" s="38"/>
-      <c r="E43" s="39"/>
-      <c r="F43" s="37"/>
-      <c r="G43" s="37"/>
+      <c r="B43" s="45"/>
+      <c r="C43" s="46"/>
+      <c r="D43" s="47"/>
+      <c r="E43" s="48"/>
+      <c r="F43" s="42"/>
+      <c r="G43" s="42"/>
     </row>
     <row r="44" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="35">
+      <c r="A44" s="31">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="B44" s="44"/>
-      <c r="C44" s="45"/>
-      <c r="D44" s="38"/>
-      <c r="E44" s="39"/>
-      <c r="F44" s="37"/>
-      <c r="G44" s="37"/>
+      <c r="B44" s="45"/>
+      <c r="C44" s="46"/>
+      <c r="D44" s="47"/>
+      <c r="E44" s="48"/>
+      <c r="F44" s="42"/>
+      <c r="G44" s="42"/>
     </row>
     <row r="45" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="35">
+      <c r="A45" s="31">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="B45" s="44"/>
-      <c r="C45" s="45"/>
-      <c r="D45" s="38"/>
-      <c r="E45" s="39"/>
-      <c r="F45" s="37"/>
-      <c r="G45" s="37"/>
+      <c r="B45" s="45"/>
+      <c r="C45" s="46"/>
+      <c r="D45" s="47"/>
+      <c r="E45" s="48"/>
+      <c r="F45" s="42"/>
+      <c r="G45" s="42"/>
     </row>
     <row r="46" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="35">
+      <c r="A46" s="31">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="B46" s="40"/>
-      <c r="C46" s="41"/>
-      <c r="D46" s="43"/>
-      <c r="E46" s="43"/>
-      <c r="F46" s="43"/>
-      <c r="G46" s="42"/>
+      <c r="B46" s="49"/>
+      <c r="C46" s="50"/>
+      <c r="D46" s="51"/>
+      <c r="E46" s="51"/>
+      <c r="F46" s="51"/>
+      <c r="G46" s="51"/>
     </row>
     <row r="47" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="35">
+      <c r="A47" s="31">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="B47" s="40"/>
-      <c r="C47" s="41"/>
-      <c r="D47" s="43"/>
-      <c r="E47" s="43"/>
-      <c r="F47" s="43"/>
-      <c r="G47" s="42"/>
+      <c r="B47" s="49"/>
+      <c r="C47" s="50"/>
+      <c r="D47" s="51"/>
+      <c r="E47" s="51"/>
+      <c r="F47" s="51"/>
+      <c r="G47" s="51"/>
     </row>
     <row r="48" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="35">
+      <c r="A48" s="31">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="B48" s="40"/>
-      <c r="C48" s="41"/>
-      <c r="D48" s="43"/>
-      <c r="E48" s="43"/>
-      <c r="F48" s="43"/>
-      <c r="G48" s="42"/>
+      <c r="B48" s="49"/>
+      <c r="C48" s="50"/>
+      <c r="D48" s="51"/>
+      <c r="E48" s="51"/>
+      <c r="F48" s="51"/>
+      <c r="G48" s="51"/>
     </row>
     <row r="49" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="35">
+      <c r="A49" s="31">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="B49" s="40"/>
-      <c r="C49" s="41"/>
-      <c r="D49" s="43"/>
-      <c r="E49" s="43"/>
-      <c r="F49" s="43"/>
-      <c r="G49" s="42"/>
+      <c r="B49" s="49"/>
+      <c r="C49" s="50"/>
+      <c r="D49" s="51"/>
+      <c r="E49" s="51"/>
+      <c r="F49" s="51"/>
+      <c r="G49" s="51"/>
     </row>
     <row r="50" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="25"/>
-      <c r="B50" s="28"/>
-      <c r="C50" s="29"/>
-      <c r="D50" s="31"/>
-      <c r="E50" s="31"/>
-      <c r="F50" s="31"/>
-      <c r="G50" s="30"/>
+      <c r="B50" s="52"/>
+      <c r="C50" s="53"/>
+      <c r="D50" s="54"/>
+      <c r="E50" s="54"/>
+      <c r="F50" s="54"/>
+      <c r="G50" s="54"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.15">
       <c r="G53" s="26"/>
@@ -2184,35 +2168,6 @@
     <row r="57" spans="1:7" ht="12" thickTop="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="B1:G1"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B31:C31"/>
     <mergeCell ref="B45:C45"/>
     <mergeCell ref="B33:C33"/>
     <mergeCell ref="B34:C34"/>
@@ -2226,6 +2181,35 @@
     <mergeCell ref="B39:C39"/>
     <mergeCell ref="B40:C40"/>
     <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B23:C23"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1"/>

--- a/templates/plantilla_ayudantes.xlsx
+++ b/templates/plantilla_ayudantes.xlsx
@@ -8,18 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alexis/Documents/work/listas_project/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CCB5145-9E08-0D4F-A6F6-C6063F64908D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E7422F7-6938-224C-8AED-AD90EE0B73B5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="29360" windowHeight="17400" tabRatio="913" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="29360" windowHeight="17400" tabRatio="913" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="SOLICITUD DE ACCESO | PERSONAS" sheetId="14" r:id="rId1"/>
-    <sheet name="CC | 09-TCC &quot;CATALOGO DE CARGO&quot;" sheetId="11" r:id="rId2"/>
+    <sheet name="CC | 09-TCC &quot;CATALOGO DE CARGO&quot;" sheetId="11" r:id="rId1"/>
+    <sheet name="SOLICITUD DE ACCESO | PERSONAS" sheetId="14" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'CC | 09-TCC "CATALOGO DE CARGO"'!$A$1:$F$98</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'SOLICITUD DE ACCESO | PERSONAS'!$A$1:$G$56</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">'SOLICITUD DE ACCESO | PERSONAS'!$1:$10</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'CC | 09-TCC "CATALOGO DE CARGO"'!$A$1:$F$98</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'SOLICITUD DE ACCESO | PERSONAS'!$A$1:$G$56</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="1">'SOLICITUD DE ACCESO | PERSONAS'!$1:$10</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -986,6 +986,49 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1009,49 +1052,6 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1543,6 +1543,1299 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:F102"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B87" sqref="B87"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="40.5" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="11.5" style="4" customWidth="1"/>
+    <col min="2" max="2" width="59.1640625" style="4" customWidth="1"/>
+    <col min="3" max="5" width="18.6640625" style="4" hidden="1" customWidth="1"/>
+    <col min="6" max="255" width="11.5" style="4" customWidth="1"/>
+    <col min="256" max="16384" width="40.5" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="16">
+        <v>1</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A3" s="13">
+        <v>2</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="14">
+        <v>1000</v>
+      </c>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A4" s="13">
+        <v>3</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="14">
+        <v>850</v>
+      </c>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A5" s="13">
+        <v>4</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="14">
+        <v>750</v>
+      </c>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A6" s="13">
+        <v>5</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="14">
+        <v>700</v>
+      </c>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A7" s="7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="7"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A8" s="7">
+        <v>7</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="7"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A9" s="13">
+        <v>8</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="14">
+        <v>500</v>
+      </c>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="13">
+        <v>9</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="14">
+        <v>900</v>
+      </c>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A11" s="13">
+        <v>10</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="14">
+        <v>290</v>
+      </c>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A12" s="13">
+        <v>11</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="14">
+        <v>290</v>
+      </c>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A13" s="7">
+        <v>12</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="7"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A14" s="13">
+        <v>13</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="14">
+        <v>260</v>
+      </c>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A15" s="13">
+        <v>14</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="14">
+        <v>700</v>
+      </c>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A16" s="7">
+        <v>15</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="7"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A17" s="7">
+        <v>16</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="7"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A18" s="7">
+        <v>17</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="7"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A19" s="7">
+        <v>18</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="7"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A20" s="16">
+        <v>19</v>
+      </c>
+      <c r="B20" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A21" s="7">
+        <v>20</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="7"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A22" s="16">
+        <v>21</v>
+      </c>
+      <c r="B22" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A23" s="7">
+        <v>22</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="7"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A24" s="13">
+        <v>23</v>
+      </c>
+      <c r="B24" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="C24" s="14">
+        <v>270</v>
+      </c>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A25" s="13">
+        <v>24</v>
+      </c>
+      <c r="B25" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="C25" s="14">
+        <v>0</v>
+      </c>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A26" s="16">
+        <v>25</v>
+      </c>
+      <c r="B26" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A27" s="7">
+        <v>26</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="7"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A28" s="7">
+        <v>27</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="7"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A29" s="16">
+        <v>28</v>
+      </c>
+      <c r="B29" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="C29" s="11"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A30" s="7">
+        <v>29</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C30" s="11"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="7"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A31" s="7">
+        <v>30</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C31" s="11"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="7"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A32" s="7">
+        <v>31</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C32" s="11"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="7"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A33" s="7">
+        <v>32</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C33" s="11"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="7"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A34" s="7">
+        <v>33</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C34" s="11"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="7"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A35" s="7">
+        <v>34</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C35" s="11"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="7"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A36" s="7">
+        <v>35</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C36" s="11"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="7"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A37" s="7">
+        <v>36</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C37" s="11"/>
+      <c r="D37" s="11"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="7"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A38" s="7">
+        <v>37</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C38" s="11"/>
+      <c r="D38" s="11"/>
+      <c r="E38" s="11"/>
+      <c r="F38" s="7"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A39" s="7">
+        <v>38</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C39" s="11"/>
+      <c r="D39" s="11"/>
+      <c r="E39" s="11"/>
+      <c r="F39" s="7"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A40" s="7">
+        <v>39</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C40" s="11"/>
+      <c r="D40" s="11"/>
+      <c r="E40" s="11"/>
+      <c r="F40" s="7"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A41" s="7">
+        <v>40</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C41" s="11"/>
+      <c r="D41" s="11"/>
+      <c r="E41" s="11"/>
+      <c r="F41" s="7"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A42" s="7">
+        <v>41</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C42" s="11"/>
+      <c r="D42" s="11"/>
+      <c r="E42" s="11"/>
+      <c r="F42" s="7"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A43" s="7">
+        <v>42</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C43" s="11"/>
+      <c r="D43" s="11"/>
+      <c r="E43" s="11"/>
+      <c r="F43" s="7"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A44" s="7">
+        <v>43</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C44" s="11"/>
+      <c r="D44" s="11"/>
+      <c r="E44" s="11"/>
+      <c r="F44" s="7"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A45" s="7">
+        <v>44</v>
+      </c>
+      <c r="B45" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C45" s="11"/>
+      <c r="D45" s="11"/>
+      <c r="E45" s="11"/>
+      <c r="F45" s="7"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A46" s="7">
+        <v>45</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C46" s="11"/>
+      <c r="D46" s="11"/>
+      <c r="E46" s="11"/>
+      <c r="F46" s="7"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A47" s="7">
+        <v>46</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C47" s="11"/>
+      <c r="D47" s="11"/>
+      <c r="E47" s="11"/>
+      <c r="F47" s="7"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A48" s="7">
+        <v>47</v>
+      </c>
+      <c r="B48" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C48" s="11"/>
+      <c r="D48" s="11"/>
+      <c r="E48" s="11"/>
+      <c r="F48" s="7"/>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A49" s="7">
+        <v>48</v>
+      </c>
+      <c r="B49" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C49" s="11"/>
+      <c r="D49" s="11"/>
+      <c r="E49" s="11"/>
+      <c r="F49" s="7"/>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A50" s="7">
+        <v>49</v>
+      </c>
+      <c r="B50" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C50" s="11"/>
+      <c r="D50" s="11"/>
+      <c r="E50" s="11"/>
+      <c r="F50" s="7"/>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A51" s="7">
+        <v>50</v>
+      </c>
+      <c r="B51" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C51" s="11"/>
+      <c r="D51" s="11"/>
+      <c r="E51" s="11"/>
+      <c r="F51" s="7"/>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A52" s="7">
+        <v>51</v>
+      </c>
+      <c r="B52" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C52" s="11"/>
+      <c r="D52" s="11"/>
+      <c r="E52" s="11"/>
+      <c r="F52" s="7"/>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A53" s="7">
+        <v>52</v>
+      </c>
+      <c r="B53" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="C53" s="11"/>
+      <c r="D53" s="11"/>
+      <c r="E53" s="11"/>
+      <c r="F53" s="7"/>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A54" s="7">
+        <v>53</v>
+      </c>
+      <c r="B54" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="C54" s="11"/>
+      <c r="D54" s="11"/>
+      <c r="E54" s="11"/>
+      <c r="F54" s="7"/>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A55" s="7">
+        <v>54</v>
+      </c>
+      <c r="B55" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="C55" s="11"/>
+      <c r="D55" s="11"/>
+      <c r="E55" s="11"/>
+      <c r="F55" s="7"/>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A56" s="7">
+        <v>55</v>
+      </c>
+      <c r="B56" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C56" s="11"/>
+      <c r="D56" s="11"/>
+      <c r="E56" s="11"/>
+      <c r="F56" s="7"/>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A57" s="7">
+        <v>56</v>
+      </c>
+      <c r="B57" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C57" s="11"/>
+      <c r="D57" s="11"/>
+      <c r="E57" s="11"/>
+      <c r="F57" s="7"/>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A58" s="7">
+        <v>57</v>
+      </c>
+      <c r="B58" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="C58" s="11"/>
+      <c r="D58" s="11"/>
+      <c r="E58" s="11"/>
+      <c r="F58" s="7"/>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A59" s="7">
+        <v>58</v>
+      </c>
+      <c r="B59" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="C59" s="11"/>
+      <c r="D59" s="11"/>
+      <c r="E59" s="11"/>
+      <c r="F59" s="7"/>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A60" s="7">
+        <v>59</v>
+      </c>
+      <c r="B60" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C60" s="11"/>
+      <c r="D60" s="11"/>
+      <c r="E60" s="11"/>
+      <c r="F60" s="7"/>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A61" s="7">
+        <v>60</v>
+      </c>
+      <c r="B61" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C61" s="11"/>
+      <c r="D61" s="11"/>
+      <c r="E61" s="11"/>
+      <c r="F61" s="7"/>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A62" s="7">
+        <v>61</v>
+      </c>
+      <c r="B62" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="C62" s="11"/>
+      <c r="D62" s="11"/>
+      <c r="E62" s="11"/>
+      <c r="F62" s="7"/>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A63" s="7">
+        <v>62</v>
+      </c>
+      <c r="B63" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="C63" s="11"/>
+      <c r="D63" s="11"/>
+      <c r="E63" s="11"/>
+      <c r="F63" s="7"/>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A64" s="7">
+        <v>63</v>
+      </c>
+      <c r="B64" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="C64" s="11"/>
+      <c r="D64" s="11"/>
+      <c r="E64" s="11"/>
+      <c r="F64" s="7"/>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A65" s="7">
+        <v>64</v>
+      </c>
+      <c r="B65" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="C65" s="11"/>
+      <c r="D65" s="11"/>
+      <c r="E65" s="11"/>
+      <c r="F65" s="7"/>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A66" s="7">
+        <v>65</v>
+      </c>
+      <c r="B66" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="C66" s="11"/>
+      <c r="D66" s="11"/>
+      <c r="E66" s="11"/>
+      <c r="F66" s="7"/>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A67" s="7">
+        <v>66</v>
+      </c>
+      <c r="B67" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="C67" s="11"/>
+      <c r="D67" s="11"/>
+      <c r="E67" s="11"/>
+      <c r="F67" s="7"/>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A68" s="7">
+        <v>67</v>
+      </c>
+      <c r="B68" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="C68" s="11"/>
+      <c r="D68" s="11"/>
+      <c r="E68" s="11"/>
+      <c r="F68" s="7"/>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A69" s="7">
+        <v>68</v>
+      </c>
+      <c r="B69" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C69" s="11"/>
+      <c r="D69" s="11"/>
+      <c r="E69" s="11"/>
+      <c r="F69" s="7"/>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A70" s="7">
+        <v>69</v>
+      </c>
+      <c r="B70" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="C70" s="11"/>
+      <c r="D70" s="11"/>
+      <c r="E70" s="11"/>
+      <c r="F70" s="7"/>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A71" s="7">
+        <v>70</v>
+      </c>
+      <c r="B71" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="C71" s="11"/>
+      <c r="D71" s="11"/>
+      <c r="E71" s="11"/>
+      <c r="F71" s="7"/>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A72" s="7">
+        <v>71</v>
+      </c>
+      <c r="B72" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="C72" s="11"/>
+      <c r="D72" s="11"/>
+      <c r="E72" s="11"/>
+      <c r="F72" s="7"/>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A73" s="7">
+        <v>72</v>
+      </c>
+      <c r="B73" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="C73" s="11"/>
+      <c r="D73" s="11"/>
+      <c r="E73" s="11"/>
+      <c r="F73" s="7"/>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A74" s="7">
+        <v>73</v>
+      </c>
+      <c r="B74" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="C74" s="11"/>
+      <c r="D74" s="11"/>
+      <c r="E74" s="11"/>
+      <c r="F74" s="7"/>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A75" s="7">
+        <v>74</v>
+      </c>
+      <c r="B75" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="C75" s="11"/>
+      <c r="D75" s="11"/>
+      <c r="E75" s="11"/>
+      <c r="F75" s="7"/>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A76" s="7">
+        <v>75</v>
+      </c>
+      <c r="B76" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="C76" s="11"/>
+      <c r="D76" s="11"/>
+      <c r="E76" s="11"/>
+      <c r="F76" s="7"/>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A77" s="13">
+        <v>76</v>
+      </c>
+      <c r="B77" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="C77" s="14">
+        <v>270</v>
+      </c>
+      <c r="D77" s="14"/>
+      <c r="E77" s="14"/>
+      <c r="F77" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A78" s="13">
+        <v>77</v>
+      </c>
+      <c r="B78" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="C78" s="14">
+        <v>260</v>
+      </c>
+      <c r="D78" s="14"/>
+      <c r="E78" s="14"/>
+      <c r="F78" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A79" s="7">
+        <v>78</v>
+      </c>
+      <c r="B79" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="C79" s="11"/>
+      <c r="D79" s="11"/>
+      <c r="E79" s="11"/>
+      <c r="F79" s="7"/>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A80" s="7">
+        <v>79</v>
+      </c>
+      <c r="B80" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="C80" s="11"/>
+      <c r="D80" s="11"/>
+      <c r="E80" s="11"/>
+      <c r="F80" s="7"/>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A81" s="7">
+        <v>80</v>
+      </c>
+      <c r="B81" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="C81" s="11"/>
+      <c r="D81" s="11"/>
+      <c r="E81" s="11"/>
+      <c r="F81" s="7"/>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A82" s="7">
+        <v>81</v>
+      </c>
+      <c r="B82" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="C82" s="11"/>
+      <c r="D82" s="11"/>
+      <c r="E82" s="11"/>
+      <c r="F82" s="7"/>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A83" s="7">
+        <v>82</v>
+      </c>
+      <c r="B83" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="C83" s="11"/>
+      <c r="D83" s="11"/>
+      <c r="E83" s="11"/>
+      <c r="F83" s="7"/>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A84" s="7">
+        <v>83</v>
+      </c>
+      <c r="B84" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="C84" s="11"/>
+      <c r="D84" s="11"/>
+      <c r="E84" s="11"/>
+      <c r="F84" s="7"/>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A85" s="7">
+        <v>84</v>
+      </c>
+      <c r="B85" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="C85" s="11"/>
+      <c r="D85" s="11"/>
+      <c r="E85" s="11"/>
+      <c r="F85" s="7"/>
+    </row>
+    <row r="86" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A86" s="17">
+        <v>85</v>
+      </c>
+      <c r="B86" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="C86" s="11"/>
+      <c r="D86" s="11"/>
+      <c r="E86" s="11"/>
+      <c r="F86" s="16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A87" s="17">
+        <v>86</v>
+      </c>
+      <c r="B87" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="C87" s="11"/>
+      <c r="D87" s="11"/>
+      <c r="E87" s="11"/>
+      <c r="F87" s="16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A88" s="9">
+        <v>87</v>
+      </c>
+      <c r="B88" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="C88" s="11"/>
+      <c r="D88" s="11"/>
+      <c r="E88" s="11"/>
+      <c r="F88" s="7"/>
+    </row>
+    <row r="89" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A89" s="10">
+        <v>88</v>
+      </c>
+      <c r="B89" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="C89" s="11"/>
+      <c r="D89" s="11"/>
+      <c r="E89" s="11"/>
+      <c r="F89" s="7"/>
+    </row>
+    <row r="90" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A90" s="10">
+        <v>89</v>
+      </c>
+      <c r="B90" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="C90" s="11"/>
+      <c r="D90" s="11"/>
+      <c r="E90" s="11"/>
+      <c r="F90" s="7"/>
+    </row>
+    <row r="91" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A91" s="7">
+        <v>90</v>
+      </c>
+      <c r="B91" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="C91" s="11"/>
+      <c r="D91" s="11"/>
+      <c r="E91" s="11"/>
+      <c r="F91" s="7"/>
+    </row>
+    <row r="92" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A92" s="16">
+        <v>91</v>
+      </c>
+      <c r="B92" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C92" s="11"/>
+      <c r="D92" s="11"/>
+      <c r="E92" s="11"/>
+      <c r="F92" s="16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A93" s="7">
+        <v>92</v>
+      </c>
+      <c r="B93" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="C93" s="11"/>
+      <c r="D93" s="11"/>
+      <c r="E93" s="11"/>
+      <c r="F93" s="7"/>
+    </row>
+    <row r="94" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A94" s="13">
+        <v>93</v>
+      </c>
+      <c r="B94" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C94" s="14">
+        <v>0</v>
+      </c>
+      <c r="D94" s="14"/>
+      <c r="E94" s="14"/>
+      <c r="F94" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A95" s="13">
+        <v>94</v>
+      </c>
+      <c r="B95" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="C95" s="14">
+        <v>600</v>
+      </c>
+      <c r="D95" s="14"/>
+      <c r="E95" s="14"/>
+      <c r="F95" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A96" s="7">
+        <v>95</v>
+      </c>
+      <c r="B96" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="C96" s="11">
+        <v>600</v>
+      </c>
+      <c r="D96" s="11"/>
+      <c r="E96" s="11"/>
+      <c r="F96" s="7"/>
+    </row>
+    <row r="97" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A97" s="13">
+        <v>96</v>
+      </c>
+      <c r="B97" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="C97" s="14">
+        <v>0</v>
+      </c>
+      <c r="D97" s="14"/>
+      <c r="E97" s="14"/>
+      <c r="F97" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C98" s="12">
+        <f>SUM(C2:C97)</f>
+        <v>8240</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C102" s="12"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:F98" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
+  <phoneticPr fontId="0" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G57"/>
   <sheetViews>
@@ -1564,14 +2857,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B2" s="3"/>
@@ -1584,10 +2877,10 @@
       <c r="B3" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="32" t="s">
+      <c r="C3" s="47" t="s">
         <v>118</v>
       </c>
-      <c r="D3" s="33"/>
+      <c r="D3" s="48"/>
       <c r="E3" s="23"/>
       <c r="F3" s="23"/>
       <c r="G3" s="24"/>
@@ -1596,10 +2889,10 @@
       <c r="B4" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="32" t="s">
+      <c r="C4" s="47" t="s">
         <v>119</v>
       </c>
-      <c r="D4" s="33"/>
+      <c r="D4" s="48"/>
       <c r="E4" s="23"/>
       <c r="F4" s="23"/>
       <c r="G4" s="24"/>
@@ -1628,10 +2921,10 @@
       <c r="B7" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="36" t="s">
+      <c r="C7" s="51" t="s">
         <v>120</v>
       </c>
-      <c r="D7" s="37"/>
+      <c r="D7" s="52"/>
       <c r="E7" s="23"/>
       <c r="F7" s="23"/>
       <c r="G7" s="24"/>
@@ -1640,10 +2933,10 @@
       <c r="B8" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="38" t="s">
+      <c r="C8" s="53" t="s">
         <v>116</v>
       </c>
-      <c r="D8" s="39"/>
+      <c r="D8" s="54"/>
       <c r="E8" s="23"/>
       <c r="F8" s="23"/>
       <c r="G8" s="24"/>
@@ -1652,10 +2945,10 @@
       <c r="B9" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="38" t="s">
+      <c r="C9" s="53" t="s">
         <v>117</v>
       </c>
-      <c r="D9" s="39"/>
+      <c r="D9" s="54"/>
       <c r="E9" s="23"/>
       <c r="F9" s="23"/>
       <c r="G9" s="24"/>
@@ -1664,10 +2957,10 @@
       <c r="A10" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="35" t="s">
+      <c r="B10" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="35"/>
+      <c r="C10" s="50"/>
       <c r="D10" s="27" t="s">
         <v>10</v>
       </c>
@@ -1685,477 +2978,477 @@
       <c r="A11" s="31">
         <v>1</v>
       </c>
-      <c r="B11" s="40"/>
-      <c r="C11" s="40"/>
-      <c r="D11" s="41"/>
-      <c r="E11" s="41"/>
-      <c r="F11" s="42"/>
-      <c r="G11" s="42"/>
+      <c r="B11" s="44"/>
+      <c r="C11" s="44"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="32"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="33"/>
     </row>
     <row r="12" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="31">
         <f>A11+1</f>
         <v>2</v>
       </c>
-      <c r="B12" s="40"/>
-      <c r="C12" s="40"/>
-      <c r="D12" s="41"/>
-      <c r="E12" s="41"/>
-      <c r="F12" s="42"/>
-      <c r="G12" s="42"/>
+      <c r="B12" s="44"/>
+      <c r="C12" s="44"/>
+      <c r="D12" s="32"/>
+      <c r="E12" s="32"/>
+      <c r="F12" s="33"/>
+      <c r="G12" s="33"/>
     </row>
     <row r="13" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="31">
         <f t="shared" ref="A13:A49" si="0">A12+1</f>
         <v>3</v>
       </c>
-      <c r="B13" s="40"/>
-      <c r="C13" s="40"/>
-      <c r="D13" s="41"/>
-      <c r="E13" s="41"/>
-      <c r="F13" s="42"/>
-      <c r="G13" s="42"/>
+      <c r="B13" s="44"/>
+      <c r="C13" s="44"/>
+      <c r="D13" s="32"/>
+      <c r="E13" s="32"/>
+      <c r="F13" s="33"/>
+      <c r="G13" s="33"/>
     </row>
     <row r="14" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="31">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B14" s="40"/>
-      <c r="C14" s="40"/>
-      <c r="D14" s="41"/>
-      <c r="E14" s="41"/>
-      <c r="F14" s="42"/>
-      <c r="G14" s="42"/>
+      <c r="B14" s="44"/>
+      <c r="C14" s="44"/>
+      <c r="D14" s="32"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="33"/>
+      <c r="G14" s="33"/>
     </row>
     <row r="15" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="31">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B15" s="40"/>
-      <c r="C15" s="40"/>
-      <c r="D15" s="41"/>
-      <c r="E15" s="41"/>
-      <c r="F15" s="42"/>
-      <c r="G15" s="42"/>
+      <c r="B15" s="44"/>
+      <c r="C15" s="44"/>
+      <c r="D15" s="32"/>
+      <c r="E15" s="32"/>
+      <c r="F15" s="33"/>
+      <c r="G15" s="33"/>
     </row>
     <row r="16" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="31">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B16" s="43"/>
-      <c r="C16" s="44"/>
-      <c r="D16" s="41"/>
-      <c r="E16" s="41"/>
-      <c r="F16" s="42"/>
-      <c r="G16" s="42"/>
+      <c r="B16" s="45"/>
+      <c r="C16" s="46"/>
+      <c r="D16" s="32"/>
+      <c r="E16" s="32"/>
+      <c r="F16" s="33"/>
+      <c r="G16" s="33"/>
     </row>
     <row r="17" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="31">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B17" s="45"/>
-      <c r="C17" s="46"/>
-      <c r="D17" s="47"/>
-      <c r="E17" s="48"/>
-      <c r="F17" s="42"/>
-      <c r="G17" s="42"/>
+      <c r="B17" s="42"/>
+      <c r="C17" s="43"/>
+      <c r="D17" s="34"/>
+      <c r="E17" s="35"/>
+      <c r="F17" s="33"/>
+      <c r="G17" s="33"/>
     </row>
     <row r="18" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="31">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B18" s="45"/>
-      <c r="C18" s="46"/>
-      <c r="D18" s="47"/>
-      <c r="E18" s="48"/>
-      <c r="F18" s="42"/>
-      <c r="G18" s="42"/>
+      <c r="B18" s="42"/>
+      <c r="C18" s="43"/>
+      <c r="D18" s="34"/>
+      <c r="E18" s="35"/>
+      <c r="F18" s="33"/>
+      <c r="G18" s="33"/>
     </row>
     <row r="19" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="31">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B19" s="45"/>
-      <c r="C19" s="46"/>
-      <c r="D19" s="47"/>
-      <c r="E19" s="48"/>
-      <c r="F19" s="42"/>
-      <c r="G19" s="42"/>
+      <c r="B19" s="42"/>
+      <c r="C19" s="43"/>
+      <c r="D19" s="34"/>
+      <c r="E19" s="35"/>
+      <c r="F19" s="33"/>
+      <c r="G19" s="33"/>
     </row>
     <row r="20" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="31">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B20" s="45"/>
-      <c r="C20" s="46"/>
-      <c r="D20" s="47"/>
-      <c r="E20" s="48"/>
-      <c r="F20" s="42"/>
-      <c r="G20" s="42"/>
+      <c r="B20" s="42"/>
+      <c r="C20" s="43"/>
+      <c r="D20" s="34"/>
+      <c r="E20" s="35"/>
+      <c r="F20" s="33"/>
+      <c r="G20" s="33"/>
     </row>
     <row r="21" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="31">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B21" s="45"/>
-      <c r="C21" s="46"/>
-      <c r="D21" s="47"/>
-      <c r="E21" s="48"/>
-      <c r="F21" s="42"/>
-      <c r="G21" s="42"/>
+      <c r="B21" s="42"/>
+      <c r="C21" s="43"/>
+      <c r="D21" s="34"/>
+      <c r="E21" s="35"/>
+      <c r="F21" s="33"/>
+      <c r="G21" s="33"/>
     </row>
     <row r="22" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="31">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B22" s="45"/>
-      <c r="C22" s="46"/>
-      <c r="D22" s="47"/>
-      <c r="E22" s="48"/>
-      <c r="F22" s="42"/>
-      <c r="G22" s="42"/>
+      <c r="B22" s="42"/>
+      <c r="C22" s="43"/>
+      <c r="D22" s="34"/>
+      <c r="E22" s="35"/>
+      <c r="F22" s="33"/>
+      <c r="G22" s="33"/>
     </row>
     <row r="23" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="31">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B23" s="45"/>
-      <c r="C23" s="46"/>
-      <c r="D23" s="47"/>
-      <c r="E23" s="48"/>
-      <c r="F23" s="42"/>
-      <c r="G23" s="42"/>
+      <c r="B23" s="42"/>
+      <c r="C23" s="43"/>
+      <c r="D23" s="34"/>
+      <c r="E23" s="35"/>
+      <c r="F23" s="33"/>
+      <c r="G23" s="33"/>
     </row>
     <row r="24" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="31">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B24" s="45"/>
-      <c r="C24" s="46"/>
-      <c r="D24" s="47"/>
-      <c r="E24" s="48"/>
-      <c r="F24" s="42"/>
-      <c r="G24" s="42"/>
+      <c r="B24" s="42"/>
+      <c r="C24" s="43"/>
+      <c r="D24" s="34"/>
+      <c r="E24" s="35"/>
+      <c r="F24" s="33"/>
+      <c r="G24" s="33"/>
     </row>
     <row r="25" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="31">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B25" s="45"/>
-      <c r="C25" s="46"/>
-      <c r="D25" s="47"/>
-      <c r="E25" s="48"/>
-      <c r="F25" s="42"/>
-      <c r="G25" s="42"/>
+      <c r="B25" s="42"/>
+      <c r="C25" s="43"/>
+      <c r="D25" s="34"/>
+      <c r="E25" s="35"/>
+      <c r="F25" s="33"/>
+      <c r="G25" s="33"/>
     </row>
     <row r="26" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="31">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B26" s="45"/>
-      <c r="C26" s="46"/>
-      <c r="D26" s="47"/>
-      <c r="E26" s="48"/>
-      <c r="F26" s="42"/>
-      <c r="G26" s="42"/>
+      <c r="B26" s="42"/>
+      <c r="C26" s="43"/>
+      <c r="D26" s="34"/>
+      <c r="E26" s="35"/>
+      <c r="F26" s="33"/>
+      <c r="G26" s="33"/>
     </row>
     <row r="27" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="31">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B27" s="45"/>
-      <c r="C27" s="46"/>
-      <c r="D27" s="47"/>
-      <c r="E27" s="48"/>
-      <c r="F27" s="42"/>
-      <c r="G27" s="42"/>
+      <c r="B27" s="42"/>
+      <c r="C27" s="43"/>
+      <c r="D27" s="34"/>
+      <c r="E27" s="35"/>
+      <c r="F27" s="33"/>
+      <c r="G27" s="33"/>
     </row>
     <row r="28" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="31">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B28" s="45"/>
-      <c r="C28" s="46"/>
-      <c r="D28" s="47"/>
-      <c r="E28" s="48"/>
-      <c r="F28" s="42"/>
-      <c r="G28" s="42"/>
+      <c r="B28" s="42"/>
+      <c r="C28" s="43"/>
+      <c r="D28" s="34"/>
+      <c r="E28" s="35"/>
+      <c r="F28" s="33"/>
+      <c r="G28" s="33"/>
     </row>
     <row r="29" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="31">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B29" s="45"/>
-      <c r="C29" s="46"/>
-      <c r="D29" s="47"/>
-      <c r="E29" s="48"/>
-      <c r="F29" s="42"/>
-      <c r="G29" s="42"/>
+      <c r="B29" s="42"/>
+      <c r="C29" s="43"/>
+      <c r="D29" s="34"/>
+      <c r="E29" s="35"/>
+      <c r="F29" s="33"/>
+      <c r="G29" s="33"/>
     </row>
     <row r="30" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="31">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B30" s="45"/>
-      <c r="C30" s="46"/>
-      <c r="D30" s="47"/>
-      <c r="E30" s="48"/>
-      <c r="F30" s="42"/>
-      <c r="G30" s="42"/>
+      <c r="B30" s="42"/>
+      <c r="C30" s="43"/>
+      <c r="D30" s="34"/>
+      <c r="E30" s="35"/>
+      <c r="F30" s="33"/>
+      <c r="G30" s="33"/>
     </row>
     <row r="31" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="31">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B31" s="45"/>
-      <c r="C31" s="46"/>
-      <c r="D31" s="47"/>
-      <c r="E31" s="48"/>
-      <c r="F31" s="42"/>
-      <c r="G31" s="42"/>
+      <c r="B31" s="42"/>
+      <c r="C31" s="43"/>
+      <c r="D31" s="34"/>
+      <c r="E31" s="35"/>
+      <c r="F31" s="33"/>
+      <c r="G31" s="33"/>
     </row>
     <row r="32" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="31">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B32" s="45"/>
-      <c r="C32" s="46"/>
-      <c r="D32" s="47"/>
-      <c r="E32" s="48"/>
-      <c r="F32" s="42"/>
-      <c r="G32" s="42"/>
+      <c r="B32" s="42"/>
+      <c r="C32" s="43"/>
+      <c r="D32" s="34"/>
+      <c r="E32" s="35"/>
+      <c r="F32" s="33"/>
+      <c r="G32" s="33"/>
     </row>
     <row r="33" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="31">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B33" s="45"/>
-      <c r="C33" s="46"/>
-      <c r="D33" s="47"/>
-      <c r="E33" s="48"/>
-      <c r="F33" s="42"/>
-      <c r="G33" s="42"/>
+      <c r="B33" s="42"/>
+      <c r="C33" s="43"/>
+      <c r="D33" s="34"/>
+      <c r="E33" s="35"/>
+      <c r="F33" s="33"/>
+      <c r="G33" s="33"/>
     </row>
     <row r="34" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="31">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B34" s="45"/>
-      <c r="C34" s="46"/>
-      <c r="D34" s="47"/>
-      <c r="E34" s="48"/>
-      <c r="F34" s="42"/>
-      <c r="G34" s="42"/>
+      <c r="B34" s="42"/>
+      <c r="C34" s="43"/>
+      <c r="D34" s="34"/>
+      <c r="E34" s="35"/>
+      <c r="F34" s="33"/>
+      <c r="G34" s="33"/>
     </row>
     <row r="35" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="31">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="B35" s="45"/>
-      <c r="C35" s="46"/>
-      <c r="D35" s="47"/>
-      <c r="E35" s="48"/>
-      <c r="F35" s="42"/>
-      <c r="G35" s="42"/>
+      <c r="B35" s="42"/>
+      <c r="C35" s="43"/>
+      <c r="D35" s="34"/>
+      <c r="E35" s="35"/>
+      <c r="F35" s="33"/>
+      <c r="G35" s="33"/>
     </row>
     <row r="36" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="31">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="B36" s="45"/>
-      <c r="C36" s="46"/>
-      <c r="D36" s="47"/>
-      <c r="E36" s="48"/>
-      <c r="F36" s="42"/>
-      <c r="G36" s="42"/>
+      <c r="B36" s="42"/>
+      <c r="C36" s="43"/>
+      <c r="D36" s="34"/>
+      <c r="E36" s="35"/>
+      <c r="F36" s="33"/>
+      <c r="G36" s="33"/>
     </row>
     <row r="37" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="31">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="B37" s="45"/>
-      <c r="C37" s="46"/>
-      <c r="D37" s="47"/>
-      <c r="E37" s="48"/>
-      <c r="F37" s="42"/>
-      <c r="G37" s="42"/>
+      <c r="B37" s="42"/>
+      <c r="C37" s="43"/>
+      <c r="D37" s="34"/>
+      <c r="E37" s="35"/>
+      <c r="F37" s="33"/>
+      <c r="G37" s="33"/>
     </row>
     <row r="38" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="31">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="B38" s="45"/>
-      <c r="C38" s="46"/>
-      <c r="D38" s="47"/>
-      <c r="E38" s="48"/>
-      <c r="F38" s="42"/>
-      <c r="G38" s="42"/>
+      <c r="B38" s="42"/>
+      <c r="C38" s="43"/>
+      <c r="D38" s="34"/>
+      <c r="E38" s="35"/>
+      <c r="F38" s="33"/>
+      <c r="G38" s="33"/>
     </row>
     <row r="39" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="31">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="B39" s="45"/>
-      <c r="C39" s="46"/>
-      <c r="D39" s="47"/>
-      <c r="E39" s="48"/>
-      <c r="F39" s="42"/>
-      <c r="G39" s="42"/>
+      <c r="B39" s="42"/>
+      <c r="C39" s="43"/>
+      <c r="D39" s="34"/>
+      <c r="E39" s="35"/>
+      <c r="F39" s="33"/>
+      <c r="G39" s="33"/>
     </row>
     <row r="40" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="31">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="B40" s="45"/>
-      <c r="C40" s="46"/>
-      <c r="D40" s="47"/>
-      <c r="E40" s="48"/>
-      <c r="F40" s="42"/>
-      <c r="G40" s="42"/>
+      <c r="B40" s="42"/>
+      <c r="C40" s="43"/>
+      <c r="D40" s="34"/>
+      <c r="E40" s="35"/>
+      <c r="F40" s="33"/>
+      <c r="G40" s="33"/>
     </row>
     <row r="41" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="31">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="B41" s="45"/>
-      <c r="C41" s="46"/>
-      <c r="D41" s="47"/>
-      <c r="E41" s="48"/>
-      <c r="F41" s="42"/>
-      <c r="G41" s="42"/>
+      <c r="B41" s="42"/>
+      <c r="C41" s="43"/>
+      <c r="D41" s="34"/>
+      <c r="E41" s="35"/>
+      <c r="F41" s="33"/>
+      <c r="G41" s="33"/>
     </row>
     <row r="42" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="31">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="B42" s="45"/>
-      <c r="C42" s="46"/>
-      <c r="D42" s="47"/>
-      <c r="E42" s="48"/>
-      <c r="F42" s="42"/>
-      <c r="G42" s="42"/>
+      <c r="B42" s="42"/>
+      <c r="C42" s="43"/>
+      <c r="D42" s="34"/>
+      <c r="E42" s="35"/>
+      <c r="F42" s="33"/>
+      <c r="G42" s="33"/>
     </row>
     <row r="43" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="31">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="B43" s="45"/>
-      <c r="C43" s="46"/>
-      <c r="D43" s="47"/>
-      <c r="E43" s="48"/>
-      <c r="F43" s="42"/>
-      <c r="G43" s="42"/>
+      <c r="B43" s="42"/>
+      <c r="C43" s="43"/>
+      <c r="D43" s="34"/>
+      <c r="E43" s="35"/>
+      <c r="F43" s="33"/>
+      <c r="G43" s="33"/>
     </row>
     <row r="44" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="31">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="B44" s="45"/>
-      <c r="C44" s="46"/>
-      <c r="D44" s="47"/>
-      <c r="E44" s="48"/>
-      <c r="F44" s="42"/>
-      <c r="G44" s="42"/>
+      <c r="B44" s="42"/>
+      <c r="C44" s="43"/>
+      <c r="D44" s="34"/>
+      <c r="E44" s="35"/>
+      <c r="F44" s="33"/>
+      <c r="G44" s="33"/>
     </row>
     <row r="45" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="31">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="B45" s="45"/>
-      <c r="C45" s="46"/>
-      <c r="D45" s="47"/>
-      <c r="E45" s="48"/>
-      <c r="F45" s="42"/>
-      <c r="G45" s="42"/>
+      <c r="B45" s="42"/>
+      <c r="C45" s="43"/>
+      <c r="D45" s="34"/>
+      <c r="E45" s="35"/>
+      <c r="F45" s="33"/>
+      <c r="G45" s="33"/>
     </row>
     <row r="46" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="31">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="B46" s="49"/>
-      <c r="C46" s="50"/>
-      <c r="D46" s="51"/>
-      <c r="E46" s="51"/>
-      <c r="F46" s="51"/>
-      <c r="G46" s="51"/>
+      <c r="B46" s="36"/>
+      <c r="C46" s="37"/>
+      <c r="D46" s="38"/>
+      <c r="E46" s="38"/>
+      <c r="F46" s="38"/>
+      <c r="G46" s="38"/>
     </row>
     <row r="47" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="31">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="B47" s="49"/>
-      <c r="C47" s="50"/>
-      <c r="D47" s="51"/>
-      <c r="E47" s="51"/>
-      <c r="F47" s="51"/>
-      <c r="G47" s="51"/>
+      <c r="B47" s="36"/>
+      <c r="C47" s="37"/>
+      <c r="D47" s="38"/>
+      <c r="E47" s="38"/>
+      <c r="F47" s="38"/>
+      <c r="G47" s="38"/>
     </row>
     <row r="48" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="31">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="B48" s="49"/>
-      <c r="C48" s="50"/>
-      <c r="D48" s="51"/>
-      <c r="E48" s="51"/>
-      <c r="F48" s="51"/>
-      <c r="G48" s="51"/>
+      <c r="B48" s="36"/>
+      <c r="C48" s="37"/>
+      <c r="D48" s="38"/>
+      <c r="E48" s="38"/>
+      <c r="F48" s="38"/>
+      <c r="G48" s="38"/>
     </row>
     <row r="49" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="31">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="B49" s="49"/>
-      <c r="C49" s="50"/>
-      <c r="D49" s="51"/>
-      <c r="E49" s="51"/>
-      <c r="F49" s="51"/>
-      <c r="G49" s="51"/>
+      <c r="B49" s="36"/>
+      <c r="C49" s="37"/>
+      <c r="D49" s="38"/>
+      <c r="E49" s="38"/>
+      <c r="F49" s="38"/>
+      <c r="G49" s="38"/>
     </row>
     <row r="50" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="25"/>
-      <c r="B50" s="52"/>
-      <c r="C50" s="53"/>
-      <c r="D50" s="54"/>
-      <c r="E50" s="54"/>
-      <c r="F50" s="54"/>
-      <c r="G50" s="54"/>
+      <c r="B50" s="39"/>
+      <c r="C50" s="40"/>
+      <c r="D50" s="41"/>
+      <c r="E50" s="41"/>
+      <c r="F50" s="41"/>
+      <c r="G50" s="41"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.15">
       <c r="G53" s="26"/>
@@ -2168,6 +3461,35 @@
     <row r="57" spans="1:7" ht="12" thickTop="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="42">
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B31:C31"/>
     <mergeCell ref="B45:C45"/>
     <mergeCell ref="B33:C33"/>
     <mergeCell ref="B34:C34"/>
@@ -2181,35 +3503,6 @@
     <mergeCell ref="B39:C39"/>
     <mergeCell ref="B40:C40"/>
     <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="B1:G1"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B23:C23"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -2218,1297 +3511,4 @@
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F102"/>
-  <sheetViews>
-    <sheetView showGridLines="0" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B87" sqref="B87"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="40.5" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="11.5" style="4" customWidth="1"/>
-    <col min="2" max="2" width="59.1640625" style="4" customWidth="1"/>
-    <col min="3" max="5" width="18.6640625" style="4" hidden="1" customWidth="1"/>
-    <col min="6" max="255" width="11.5" style="4" customWidth="1"/>
-    <col min="256" max="16384" width="40.5" style="4"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="16">
-        <v>1</v>
-      </c>
-      <c r="B2" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A3" s="13">
-        <v>2</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" s="14">
-        <v>1000</v>
-      </c>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A4" s="13">
-        <v>3</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" s="14">
-        <v>850</v>
-      </c>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A5" s="13">
-        <v>4</v>
-      </c>
-      <c r="B5" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" s="14">
-        <v>750</v>
-      </c>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A6" s="13">
-        <v>5</v>
-      </c>
-      <c r="B6" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" s="14">
-        <v>700</v>
-      </c>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A7" s="7">
-        <v>6</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="7"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A8" s="7">
-        <v>7</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="7"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A9" s="13">
-        <v>8</v>
-      </c>
-      <c r="B9" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" s="14">
-        <v>500</v>
-      </c>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="13">
-        <v>9</v>
-      </c>
-      <c r="B10" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10" s="14">
-        <v>900</v>
-      </c>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A11" s="13">
-        <v>10</v>
-      </c>
-      <c r="B11" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="C11" s="14">
-        <v>290</v>
-      </c>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A12" s="13">
-        <v>11</v>
-      </c>
-      <c r="B12" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="C12" s="14">
-        <v>290</v>
-      </c>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A13" s="7">
-        <v>12</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="7"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A14" s="13">
-        <v>13</v>
-      </c>
-      <c r="B14" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="C14" s="14">
-        <v>260</v>
-      </c>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A15" s="13">
-        <v>14</v>
-      </c>
-      <c r="B15" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="C15" s="14">
-        <v>700</v>
-      </c>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A16" s="7">
-        <v>15</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="7"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A17" s="7">
-        <v>16</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="7"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A18" s="7">
-        <v>17</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="7"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A19" s="7">
-        <v>18</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="7"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A20" s="16">
-        <v>19</v>
-      </c>
-      <c r="B20" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A21" s="7">
-        <v>20</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="7"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A22" s="16">
-        <v>21</v>
-      </c>
-      <c r="B22" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A23" s="7">
-        <v>22</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="7"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A24" s="13">
-        <v>23</v>
-      </c>
-      <c r="B24" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="C24" s="14">
-        <v>270</v>
-      </c>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A25" s="13">
-        <v>24</v>
-      </c>
-      <c r="B25" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="C25" s="14">
-        <v>0</v>
-      </c>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A26" s="16">
-        <v>25</v>
-      </c>
-      <c r="B26" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="C26" s="11"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A27" s="7">
-        <v>26</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="C27" s="11"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="7"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A28" s="7">
-        <v>27</v>
-      </c>
-      <c r="B28" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C28" s="11"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="7"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A29" s="16">
-        <v>28</v>
-      </c>
-      <c r="B29" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="C29" s="11"/>
-      <c r="D29" s="11"/>
-      <c r="E29" s="11"/>
-      <c r="F29" s="16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A30" s="7">
-        <v>29</v>
-      </c>
-      <c r="B30" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="C30" s="11"/>
-      <c r="D30" s="11"/>
-      <c r="E30" s="11"/>
-      <c r="F30" s="7"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A31" s="7">
-        <v>30</v>
-      </c>
-      <c r="B31" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="C31" s="11"/>
-      <c r="D31" s="11"/>
-      <c r="E31" s="11"/>
-      <c r="F31" s="7"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A32" s="7">
-        <v>31</v>
-      </c>
-      <c r="B32" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="C32" s="11"/>
-      <c r="D32" s="11"/>
-      <c r="E32" s="11"/>
-      <c r="F32" s="7"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A33" s="7">
-        <v>32</v>
-      </c>
-      <c r="B33" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="C33" s="11"/>
-      <c r="D33" s="11"/>
-      <c r="E33" s="11"/>
-      <c r="F33" s="7"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A34" s="7">
-        <v>33</v>
-      </c>
-      <c r="B34" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="C34" s="11"/>
-      <c r="D34" s="11"/>
-      <c r="E34" s="11"/>
-      <c r="F34" s="7"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A35" s="7">
-        <v>34</v>
-      </c>
-      <c r="B35" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="C35" s="11"/>
-      <c r="D35" s="11"/>
-      <c r="E35" s="11"/>
-      <c r="F35" s="7"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A36" s="7">
-        <v>35</v>
-      </c>
-      <c r="B36" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="C36" s="11"/>
-      <c r="D36" s="11"/>
-      <c r="E36" s="11"/>
-      <c r="F36" s="7"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A37" s="7">
-        <v>36</v>
-      </c>
-      <c r="B37" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="C37" s="11"/>
-      <c r="D37" s="11"/>
-      <c r="E37" s="11"/>
-      <c r="F37" s="7"/>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A38" s="7">
-        <v>37</v>
-      </c>
-      <c r="B38" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="C38" s="11"/>
-      <c r="D38" s="11"/>
-      <c r="E38" s="11"/>
-      <c r="F38" s="7"/>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A39" s="7">
-        <v>38</v>
-      </c>
-      <c r="B39" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="C39" s="11"/>
-      <c r="D39" s="11"/>
-      <c r="E39" s="11"/>
-      <c r="F39" s="7"/>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A40" s="7">
-        <v>39</v>
-      </c>
-      <c r="B40" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="C40" s="11"/>
-      <c r="D40" s="11"/>
-      <c r="E40" s="11"/>
-      <c r="F40" s="7"/>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A41" s="7">
-        <v>40</v>
-      </c>
-      <c r="B41" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="C41" s="11"/>
-      <c r="D41" s="11"/>
-      <c r="E41" s="11"/>
-      <c r="F41" s="7"/>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A42" s="7">
-        <v>41</v>
-      </c>
-      <c r="B42" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="C42" s="11"/>
-      <c r="D42" s="11"/>
-      <c r="E42" s="11"/>
-      <c r="F42" s="7"/>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A43" s="7">
-        <v>42</v>
-      </c>
-      <c r="B43" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="C43" s="11"/>
-      <c r="D43" s="11"/>
-      <c r="E43" s="11"/>
-      <c r="F43" s="7"/>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A44" s="7">
-        <v>43</v>
-      </c>
-      <c r="B44" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="C44" s="11"/>
-      <c r="D44" s="11"/>
-      <c r="E44" s="11"/>
-      <c r="F44" s="7"/>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A45" s="7">
-        <v>44</v>
-      </c>
-      <c r="B45" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="C45" s="11"/>
-      <c r="D45" s="11"/>
-      <c r="E45" s="11"/>
-      <c r="F45" s="7"/>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A46" s="7">
-        <v>45</v>
-      </c>
-      <c r="B46" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="C46" s="11"/>
-      <c r="D46" s="11"/>
-      <c r="E46" s="11"/>
-      <c r="F46" s="7"/>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A47" s="7">
-        <v>46</v>
-      </c>
-      <c r="B47" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="C47" s="11"/>
-      <c r="D47" s="11"/>
-      <c r="E47" s="11"/>
-      <c r="F47" s="7"/>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A48" s="7">
-        <v>47</v>
-      </c>
-      <c r="B48" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="C48" s="11"/>
-      <c r="D48" s="11"/>
-      <c r="E48" s="11"/>
-      <c r="F48" s="7"/>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A49" s="7">
-        <v>48</v>
-      </c>
-      <c r="B49" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="C49" s="11"/>
-      <c r="D49" s="11"/>
-      <c r="E49" s="11"/>
-      <c r="F49" s="7"/>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A50" s="7">
-        <v>49</v>
-      </c>
-      <c r="B50" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="C50" s="11"/>
-      <c r="D50" s="11"/>
-      <c r="E50" s="11"/>
-      <c r="F50" s="7"/>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A51" s="7">
-        <v>50</v>
-      </c>
-      <c r="B51" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="C51" s="11"/>
-      <c r="D51" s="11"/>
-      <c r="E51" s="11"/>
-      <c r="F51" s="7"/>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A52" s="7">
-        <v>51</v>
-      </c>
-      <c r="B52" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="C52" s="11"/>
-      <c r="D52" s="11"/>
-      <c r="E52" s="11"/>
-      <c r="F52" s="7"/>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A53" s="7">
-        <v>52</v>
-      </c>
-      <c r="B53" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="C53" s="11"/>
-      <c r="D53" s="11"/>
-      <c r="E53" s="11"/>
-      <c r="F53" s="7"/>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A54" s="7">
-        <v>53</v>
-      </c>
-      <c r="B54" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="C54" s="11"/>
-      <c r="D54" s="11"/>
-      <c r="E54" s="11"/>
-      <c r="F54" s="7"/>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A55" s="7">
-        <v>54</v>
-      </c>
-      <c r="B55" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="C55" s="11"/>
-      <c r="D55" s="11"/>
-      <c r="E55" s="11"/>
-      <c r="F55" s="7"/>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A56" s="7">
-        <v>55</v>
-      </c>
-      <c r="B56" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="C56" s="11"/>
-      <c r="D56" s="11"/>
-      <c r="E56" s="11"/>
-      <c r="F56" s="7"/>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A57" s="7">
-        <v>56</v>
-      </c>
-      <c r="B57" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="C57" s="11"/>
-      <c r="D57" s="11"/>
-      <c r="E57" s="11"/>
-      <c r="F57" s="7"/>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A58" s="7">
-        <v>57</v>
-      </c>
-      <c r="B58" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="C58" s="11"/>
-      <c r="D58" s="11"/>
-      <c r="E58" s="11"/>
-      <c r="F58" s="7"/>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A59" s="7">
-        <v>58</v>
-      </c>
-      <c r="B59" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="C59" s="11"/>
-      <c r="D59" s="11"/>
-      <c r="E59" s="11"/>
-      <c r="F59" s="7"/>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A60" s="7">
-        <v>59</v>
-      </c>
-      <c r="B60" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="C60" s="11"/>
-      <c r="D60" s="11"/>
-      <c r="E60" s="11"/>
-      <c r="F60" s="7"/>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A61" s="7">
-        <v>60</v>
-      </c>
-      <c r="B61" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="C61" s="11"/>
-      <c r="D61" s="11"/>
-      <c r="E61" s="11"/>
-      <c r="F61" s="7"/>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A62" s="7">
-        <v>61</v>
-      </c>
-      <c r="B62" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="C62" s="11"/>
-      <c r="D62" s="11"/>
-      <c r="E62" s="11"/>
-      <c r="F62" s="7"/>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A63" s="7">
-        <v>62</v>
-      </c>
-      <c r="B63" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="C63" s="11"/>
-      <c r="D63" s="11"/>
-      <c r="E63" s="11"/>
-      <c r="F63" s="7"/>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A64" s="7">
-        <v>63</v>
-      </c>
-      <c r="B64" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="C64" s="11"/>
-      <c r="D64" s="11"/>
-      <c r="E64" s="11"/>
-      <c r="F64" s="7"/>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A65" s="7">
-        <v>64</v>
-      </c>
-      <c r="B65" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="C65" s="11"/>
-      <c r="D65" s="11"/>
-      <c r="E65" s="11"/>
-      <c r="F65" s="7"/>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A66" s="7">
-        <v>65</v>
-      </c>
-      <c r="B66" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="C66" s="11"/>
-      <c r="D66" s="11"/>
-      <c r="E66" s="11"/>
-      <c r="F66" s="7"/>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A67" s="7">
-        <v>66</v>
-      </c>
-      <c r="B67" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="C67" s="11"/>
-      <c r="D67" s="11"/>
-      <c r="E67" s="11"/>
-      <c r="F67" s="7"/>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A68" s="7">
-        <v>67</v>
-      </c>
-      <c r="B68" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="C68" s="11"/>
-      <c r="D68" s="11"/>
-      <c r="E68" s="11"/>
-      <c r="F68" s="7"/>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A69" s="7">
-        <v>68</v>
-      </c>
-      <c r="B69" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="C69" s="11"/>
-      <c r="D69" s="11"/>
-      <c r="E69" s="11"/>
-      <c r="F69" s="7"/>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A70" s="7">
-        <v>69</v>
-      </c>
-      <c r="B70" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="C70" s="11"/>
-      <c r="D70" s="11"/>
-      <c r="E70" s="11"/>
-      <c r="F70" s="7"/>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A71" s="7">
-        <v>70</v>
-      </c>
-      <c r="B71" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="C71" s="11"/>
-      <c r="D71" s="11"/>
-      <c r="E71" s="11"/>
-      <c r="F71" s="7"/>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A72" s="7">
-        <v>71</v>
-      </c>
-      <c r="B72" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="C72" s="11"/>
-      <c r="D72" s="11"/>
-      <c r="E72" s="11"/>
-      <c r="F72" s="7"/>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A73" s="7">
-        <v>72</v>
-      </c>
-      <c r="B73" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="C73" s="11"/>
-      <c r="D73" s="11"/>
-      <c r="E73" s="11"/>
-      <c r="F73" s="7"/>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A74" s="7">
-        <v>73</v>
-      </c>
-      <c r="B74" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="C74" s="11"/>
-      <c r="D74" s="11"/>
-      <c r="E74" s="11"/>
-      <c r="F74" s="7"/>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A75" s="7">
-        <v>74</v>
-      </c>
-      <c r="B75" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="C75" s="11"/>
-      <c r="D75" s="11"/>
-      <c r="E75" s="11"/>
-      <c r="F75" s="7"/>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A76" s="7">
-        <v>75</v>
-      </c>
-      <c r="B76" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="C76" s="11"/>
-      <c r="D76" s="11"/>
-      <c r="E76" s="11"/>
-      <c r="F76" s="7"/>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A77" s="13">
-        <v>76</v>
-      </c>
-      <c r="B77" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="C77" s="14">
-        <v>270</v>
-      </c>
-      <c r="D77" s="14"/>
-      <c r="E77" s="14"/>
-      <c r="F77" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A78" s="13">
-        <v>77</v>
-      </c>
-      <c r="B78" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="C78" s="14">
-        <v>260</v>
-      </c>
-      <c r="D78" s="14"/>
-      <c r="E78" s="14"/>
-      <c r="F78" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A79" s="7">
-        <v>78</v>
-      </c>
-      <c r="B79" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="C79" s="11"/>
-      <c r="D79" s="11"/>
-      <c r="E79" s="11"/>
-      <c r="F79" s="7"/>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A80" s="7">
-        <v>79</v>
-      </c>
-      <c r="B80" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="C80" s="11"/>
-      <c r="D80" s="11"/>
-      <c r="E80" s="11"/>
-      <c r="F80" s="7"/>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A81" s="7">
-        <v>80</v>
-      </c>
-      <c r="B81" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="C81" s="11"/>
-      <c r="D81" s="11"/>
-      <c r="E81" s="11"/>
-      <c r="F81" s="7"/>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A82" s="7">
-        <v>81</v>
-      </c>
-      <c r="B82" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="C82" s="11"/>
-      <c r="D82" s="11"/>
-      <c r="E82" s="11"/>
-      <c r="F82" s="7"/>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A83" s="7">
-        <v>82</v>
-      </c>
-      <c r="B83" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="C83" s="11"/>
-      <c r="D83" s="11"/>
-      <c r="E83" s="11"/>
-      <c r="F83" s="7"/>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A84" s="7">
-        <v>83</v>
-      </c>
-      <c r="B84" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="C84" s="11"/>
-      <c r="D84" s="11"/>
-      <c r="E84" s="11"/>
-      <c r="F84" s="7"/>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A85" s="7">
-        <v>84</v>
-      </c>
-      <c r="B85" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="C85" s="11"/>
-      <c r="D85" s="11"/>
-      <c r="E85" s="11"/>
-      <c r="F85" s="7"/>
-    </row>
-    <row r="86" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A86" s="17">
-        <v>85</v>
-      </c>
-      <c r="B86" s="16" t="s">
-        <v>105</v>
-      </c>
-      <c r="C86" s="11"/>
-      <c r="D86" s="11"/>
-      <c r="E86" s="11"/>
-      <c r="F86" s="16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A87" s="17">
-        <v>86</v>
-      </c>
-      <c r="B87" s="16" t="s">
-        <v>106</v>
-      </c>
-      <c r="C87" s="11"/>
-      <c r="D87" s="11"/>
-      <c r="E87" s="11"/>
-      <c r="F87" s="16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A88" s="9">
-        <v>87</v>
-      </c>
-      <c r="B88" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="C88" s="11"/>
-      <c r="D88" s="11"/>
-      <c r="E88" s="11"/>
-      <c r="F88" s="7"/>
-    </row>
-    <row r="89" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A89" s="10">
-        <v>88</v>
-      </c>
-      <c r="B89" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="C89" s="11"/>
-      <c r="D89" s="11"/>
-      <c r="E89" s="11"/>
-      <c r="F89" s="7"/>
-    </row>
-    <row r="90" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A90" s="10">
-        <v>89</v>
-      </c>
-      <c r="B90" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="C90" s="11"/>
-      <c r="D90" s="11"/>
-      <c r="E90" s="11"/>
-      <c r="F90" s="7"/>
-    </row>
-    <row r="91" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A91" s="7">
-        <v>90</v>
-      </c>
-      <c r="B91" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="C91" s="11"/>
-      <c r="D91" s="11"/>
-      <c r="E91" s="11"/>
-      <c r="F91" s="7"/>
-    </row>
-    <row r="92" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A92" s="16">
-        <v>91</v>
-      </c>
-      <c r="B92" s="16" t="s">
-        <v>111</v>
-      </c>
-      <c r="C92" s="11"/>
-      <c r="D92" s="11"/>
-      <c r="E92" s="11"/>
-      <c r="F92" s="16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A93" s="7">
-        <v>92</v>
-      </c>
-      <c r="B93" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="C93" s="11"/>
-      <c r="D93" s="11"/>
-      <c r="E93" s="11"/>
-      <c r="F93" s="7"/>
-    </row>
-    <row r="94" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A94" s="13">
-        <v>93</v>
-      </c>
-      <c r="B94" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="C94" s="14">
-        <v>0</v>
-      </c>
-      <c r="D94" s="14"/>
-      <c r="E94" s="14"/>
-      <c r="F94" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A95" s="13">
-        <v>94</v>
-      </c>
-      <c r="B95" s="13" t="s">
-        <v>113</v>
-      </c>
-      <c r="C95" s="14">
-        <v>600</v>
-      </c>
-      <c r="D95" s="14"/>
-      <c r="E95" s="14"/>
-      <c r="F95" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A96" s="7">
-        <v>95</v>
-      </c>
-      <c r="B96" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="C96" s="11">
-        <v>600</v>
-      </c>
-      <c r="D96" s="11"/>
-      <c r="E96" s="11"/>
-      <c r="F96" s="7"/>
-    </row>
-    <row r="97" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A97" s="13">
-        <v>96</v>
-      </c>
-      <c r="B97" s="15" t="s">
-        <v>115</v>
-      </c>
-      <c r="C97" s="14">
-        <v>0</v>
-      </c>
-      <c r="D97" s="14"/>
-      <c r="E97" s="14"/>
-      <c r="F97" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="C98" s="12">
-        <f>SUM(C2:C97)</f>
-        <v>8240</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="C102" s="12"/>
-    </row>
-  </sheetData>
-  <autoFilter ref="A1:F98" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
-  <phoneticPr fontId="0" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>